--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16480" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="4480" yWindow="1180" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="keep" sheetId="17" r:id="rId1"/>
-    <sheet name="watchTower" sheetId="45" r:id="rId2"/>
-    <sheet name="dragoneyrie" sheetId="46" r:id="rId3"/>
-    <sheet name="wall" sheetId="18" r:id="rId4"/>
-    <sheet name="warehouse" sheetId="19" r:id="rId5"/>
-    <sheet name="tower" sheetId="20" r:id="rId6"/>
+    <sheet name="wall" sheetId="18" r:id="rId1"/>
+    <sheet name="tower" sheetId="20" r:id="rId2"/>
+    <sheet name="keep" sheetId="17" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="45" r:id="rId4"/>
+    <sheet name="dragonEyrie" sheetId="46" r:id="rId5"/>
+    <sheet name="warehouse" sheetId="19" r:id="rId6"/>
     <sheet name="barracks" sheetId="32" r:id="rId7"/>
-    <sheet name="armycamp" sheetId="33" r:id="rId8"/>
-    <sheet name="blacksmith" sheetId="34" r:id="rId9"/>
-    <sheet name="materiardepot" sheetId="35" r:id="rId10"/>
-    <sheet name="toolshop" sheetId="36" r:id="rId11"/>
+    <sheet name="armyCamp" sheetId="33" r:id="rId8"/>
+    <sheet name="blackSmith" sheetId="34" r:id="rId9"/>
+    <sheet name="materialDepot" sheetId="35" r:id="rId10"/>
+    <sheet name="toolShop" sheetId="36" r:id="rId11"/>
     <sheet name="lumbermill" sheetId="27" r:id="rId12"/>
-    <sheet name="stonemason" sheetId="28" r:id="rId13"/>
+    <sheet name="stoneMason" sheetId="28" r:id="rId13"/>
     <sheet name="foundry" sheetId="29" r:id="rId14"/>
     <sheet name="mill" sheetId="30" r:id="rId15"/>
-    <sheet name="townhall" sheetId="31" r:id="rId16"/>
+    <sheet name="townHall" sheetId="31" r:id="rId16"/>
     <sheet name="acdemy" sheetId="37" r:id="rId17"/>
     <sheet name="hospital" sheetId="38" r:id="rId18"/>
-    <sheet name="tradeguild" sheetId="39" r:id="rId19"/>
+    <sheet name="tradeGuild" sheetId="39" r:id="rId19"/>
     <sheet name="prison" sheetId="40" r:id="rId20"/>
-    <sheet name="trainingground" sheetId="41" r:id="rId21"/>
+    <sheet name="trainingGround" sheetId="41" r:id="rId21"/>
     <sheet name="hunterhall" sheetId="42" r:id="rId22"/>
     <sheet name="stable" sheetId="43" r:id="rId23"/>
     <sheet name="workshop" sheetId="44" r:id="rId24"/>
@@ -37,11 +37,11 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="14">#REF!</definedName>
@@ -49,24 +49,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="14">#REF!</definedName>
@@ -74,24 +74,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="14">#REF!</definedName>
@@ -99,24 +99,24 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="16">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="7">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="6">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="8">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="13">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="17">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="21">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="11">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="9">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="14">#REF!</definedName>
@@ -124,13 +124,13 @@
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="22">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="12">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="10">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="15">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="18">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="20">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="5">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="23">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -144,37 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
   <si>
     <t>INT_scout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonrecovery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_trooppopulation</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_wallhp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxwood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxstone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxiron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxfood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -194,22 +166,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_maxrecruit</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_efficiency</t>
   </si>
   <si>
     <t>FLOAT_efficiency</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxmaterial</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_woodcutter</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -229,40 +189,167 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_taxcitizen</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxcasualty</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxcart</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_cartrecovery</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_imprisontime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_casualtyrate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_imprisonrate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_unlock</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_wallRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_troopPopulation</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_taxCitizen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cartRecovery</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_imprisonTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_imprisonRate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poduction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poductionType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmtime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmtime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxFood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_wallHp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxRecruit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_woodcutter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxCasualty</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_casualtyRate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxCart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxSoldierMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxDragonMaterial</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_maxDragonEquipment</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_energyMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_perEnergyTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_taxTime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_addEfficency</t>
+  </si>
+  <si>
+    <t>FLOAT_addEfficency</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_totalTax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_hpRecoveryPerHour</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -425,7 +512,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="302">
+  <cellStyleXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -440,6 +527,214 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -748,7 +1043,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="302">
+  <cellStyles count="510">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -902,6 +1197,110 @@
     <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1048,6 +1447,110 @@
     <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1497,10 +2000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1508,18 +2011,21 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1527,249 +2033,319 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+        <f>B2/4</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>4</v>
+      <c r="B3" s="3">
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+        <v>250</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>5</v>
+      <c r="B4" s="3">
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>6</v>
+      <c r="B5" s="3">
+        <v>3000</v>
       </c>
       <c r="C5" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+        <v>750</v>
+      </c>
+      <c r="D5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>7</v>
+      <c r="B6" s="3">
+        <v>4000</v>
       </c>
       <c r="C6" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>8</v>
+      <c r="B7" s="3">
+        <v>5000</v>
       </c>
       <c r="C7" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+        <v>1250</v>
+      </c>
+      <c r="D7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>9</v>
+      <c r="B8" s="3">
+        <v>6000</v>
       </c>
       <c r="C8" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+        <v>1500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>10</v>
+      <c r="B9" s="3">
+        <v>7000</v>
       </c>
       <c r="C9" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+        <v>1750</v>
+      </c>
+      <c r="D9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>11</v>
+      <c r="B10" s="3">
+        <v>8000</v>
       </c>
       <c r="C10" s="1">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>12</v>
+      <c r="B11" s="3">
+        <v>9000</v>
       </c>
       <c r="C11" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+        <v>2250</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>13</v>
+      <c r="B12" s="3">
+        <v>10000</v>
       </c>
       <c r="C12" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+        <v>2500</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>14</v>
+      <c r="B13" s="3">
+        <v>11000</v>
       </c>
       <c r="C13" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+        <v>2750</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>15</v>
+      <c r="B14" s="3">
+        <v>12000</v>
       </c>
       <c r="C14" s="1">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>16</v>
+      <c r="B15" s="3">
+        <v>13000</v>
       </c>
       <c r="C15" s="1">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+        <v>3250</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>17</v>
+      <c r="B16" s="3">
+        <v>14000</v>
       </c>
       <c r="C16" s="1">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+        <v>3500</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>18</v>
+      <c r="B17" s="3">
+        <v>16000</v>
       </c>
       <c r="C17" s="1">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>19</v>
+      <c r="B18" s="3">
+        <v>18000</v>
       </c>
       <c r="C18" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>4500</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>20</v>
+      <c r="B19" s="3">
+        <v>20000</v>
       </c>
       <c r="C19" s="1">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+        <v>5000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>21</v>
+      <c r="B20" s="3">
+        <v>22000</v>
       </c>
       <c r="C20" s="1">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>5500</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>22</v>
+      <c r="B21" s="3">
+        <v>24000</v>
       </c>
       <c r="C21" s="1">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+        <v>6000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>23</v>
+      <c r="B22" s="3">
+        <v>26000</v>
       </c>
       <c r="C22" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+        <v>6500</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
-        <v>24</v>
+      <c r="B23" s="3">
+        <v>28000</v>
       </c>
       <c r="C23" s="1">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+        <v>7000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
-        <v>25</v>
+      <c r="B24" s="3">
+        <v>30000</v>
       </c>
       <c r="C24" s="1">
-        <v>24000</v>
+        <v>7500</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4440</v>
       </c>
     </row>
   </sheetData>
@@ -1786,10 +2362,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1797,180 +2373,444 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="1">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="1">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1">
+        <v>160</v>
+      </c>
+      <c r="E6" s="1">
+        <v>160</v>
+      </c>
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>320</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="1">
+        <v>320</v>
+      </c>
+      <c r="D7" s="1">
+        <v>320</v>
+      </c>
+      <c r="E7" s="1">
+        <v>320</v>
+      </c>
+      <c r="F7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="1">
+        <v>640</v>
+      </c>
+      <c r="D8" s="1">
+        <v>640</v>
+      </c>
+      <c r="E8" s="1">
+        <v>640</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>960</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="1">
+        <v>960</v>
+      </c>
+      <c r="D9" s="1">
+        <v>960</v>
+      </c>
+      <c r="E9" s="1">
+        <v>960</v>
+      </c>
+      <c r="F9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>1280</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1280</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1600</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>2400</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2400</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>3000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>3600</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>4200</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>4800</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5600</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>6400</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6400</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>7200</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>9999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -1987,10 +2827,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1998,180 +2838,840 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>300</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>600</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>600</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1200</v>
+      </c>
+      <c r="L4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>900</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2400</v>
+      </c>
+      <c r="L6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>6000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>12000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>14000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4200</v>
+      </c>
+      <c r="L9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>16000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4800</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2700</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>18000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5400</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>11000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>22000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>6600</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>24000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7200</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>13000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3900</v>
+      </c>
+      <c r="H15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>26000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7800</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>28000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8400</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>30000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>32000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>17000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5100</v>
+      </c>
+      <c r="H19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>34000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10200</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>36000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>19000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5700</v>
+      </c>
+      <c r="H21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>38000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>11400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>0.4</v>
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>12000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -2188,10 +3688,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2199,100 +3699,172 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2309,10 +3881,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2320,100 +3892,172 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2430,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2441,100 +4085,172 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2551,10 +4267,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2562,100 +4278,172 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2520</v>
       </c>
     </row>
   </sheetData>
@@ -2672,10 +4460,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2683,18 +4471,27 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2704,8 +4501,17 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2715,104 +4521,194 @@
       <c r="C3" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>600</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8640</v>
+      </c>
+      <c r="F3" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+        <v>300</v>
+      </c>
+      <c r="D4" s="3">
+        <v>840</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10080</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+        <v>750</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1080</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11520</v>
+      </c>
+      <c r="F5" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1320</v>
+      </c>
+      <c r="E6" s="1">
+        <v>12960</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1560</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14400</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+        <v>4500</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15840.000000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2040</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17280</v>
+      </c>
+      <c r="F9" s="1">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+        <v>7500</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2280</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18720</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+        <v>9000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2520</v>
+      </c>
+      <c r="E11" s="1">
+        <v>20160</v>
+      </c>
+      <c r="F11" s="1">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>640</v>
+        <v>12000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2760</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21600</v>
+      </c>
+      <c r="F12" s="1">
+        <v>96000</v>
       </c>
     </row>
   </sheetData>
@@ -2829,10 +4725,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2840,148 +4736,202 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.32</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3720</v>
       </c>
     </row>
   </sheetData>
@@ -2998,10 +4948,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3009,18 +4959,21 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3030,8 +4983,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3041,8 +4997,11 @@
       <c r="C3" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3052,8 +5011,11 @@
       <c r="C4" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3063,8 +5025,11 @@
       <c r="C5" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3074,8 +5039,11 @@
       <c r="C6" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3085,8 +5053,11 @@
       <c r="C7" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3096,8 +5067,11 @@
       <c r="C8" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3107,8 +5081,11 @@
       <c r="C9" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3118,8 +5095,11 @@
       <c r="C10" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3129,8 +5109,11 @@
       <c r="C11" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3140,8 +5123,11 @@
       <c r="C12" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+      <c r="D12" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3151,8 +5137,11 @@
       <c r="C13" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+      <c r="D13" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3162,8 +5151,11 @@
       <c r="C14" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="D14" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3173,8 +5165,11 @@
       <c r="C15" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+      <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3184,8 +5179,11 @@
       <c r="C16" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+      <c r="D16" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3195,8 +5193,11 @@
       <c r="C17" s="1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+      <c r="D17" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3205,6 +5206,9 @@
       </c>
       <c r="C18" s="1">
         <v>0.4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3720</v>
       </c>
     </row>
   </sheetData>
@@ -3221,10 +5225,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3232,18 +5236,21 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3253,8 +5260,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3264,8 +5274,11 @@
       <c r="C3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+      <c r="D3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3275,8 +5288,11 @@
       <c r="C4" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+      <c r="D4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3286,8 +5302,11 @@
       <c r="C5" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+      <c r="D5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3297,8 +5316,11 @@
       <c r="C6" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+      <c r="D6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3308,8 +5330,11 @@
       <c r="C7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+      <c r="D7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3319,8 +5344,11 @@
       <c r="C8" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+      <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3330,8 +5358,11 @@
       <c r="C9" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+      <c r="D9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3341,8 +5372,11 @@
       <c r="C10" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+      <c r="D10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3352,8 +5386,11 @@
       <c r="C11" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+      <c r="D11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3362,6 +5399,9 @@
       </c>
       <c r="C12" s="1">
         <v>260</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -3378,10 +5418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="F1" sqref="F1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3389,180 +5429,444 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>68</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="C6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="D6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="E6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>1224</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="F7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>2448</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>3672</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="F9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>4896</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+        <v>7344</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+        <v>8568</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+        <v>9792</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="D14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="D15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="E15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="E16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+        <v>16320</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="E17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="D19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="E19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+        <v>28560</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="D20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="E20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+        <v>32640</v>
+      </c>
+      <c r="C21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="D21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="E21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>20</v>
+        <v>61200</v>
+      </c>
+      <c r="C22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="D22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="E22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -3579,10 +5883,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D1" sqref="D1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3590,18 +5894,21 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3611,8 +5918,11 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3620,10 +5930,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3631,10 +5944,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3642,10 +5958,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+        <v>0.06</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3653,10 +5972,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3664,10 +5986,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3675,10 +6000,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3686,10 +6014,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="1">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3697,10 +6028,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="1">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+        <v>0.08</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3708,10 +6042,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3719,7 +6056,10 @@
         <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -3736,10 +6076,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3747,100 +6087,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -3857,10 +6233,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3868,100 +6244,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -3978,10 +6390,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3989,100 +6401,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -4099,10 +6547,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4110,100 +6558,136 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0.2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2760</v>
       </c>
     </row>
   </sheetData>
@@ -4220,10 +6704,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A22"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4231,180 +6715,340 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>252000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>288000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>324000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>17000</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>960000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>18000</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1800000</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4440</v>
       </c>
     </row>
   </sheetData>
@@ -4421,10 +7065,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4432,196 +7076,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3">
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3">
-        <v>300000</v>
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -4640,30 +7334,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -4674,12 +7370,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+        <v>120</v>
+      </c>
+      <c r="E2" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4688,16 +7384,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="C3" s="1">
-        <v>60000</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="E3" s="1">
-        <v>60000</v>
+        <v>120</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -4705,16 +7401,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>120000</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="1">
-        <v>120000</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
-        <v>120000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>120000</v>
+        <v>120</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -4722,16 +7418,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>240000</v>
+        <v>6000</v>
       </c>
       <c r="C5" s="1">
-        <v>240000</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1">
-        <v>240000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>240000</v>
+        <v>120</v>
+      </c>
+      <c r="E5" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -4739,16 +7435,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>640000</v>
+        <v>12000</v>
       </c>
       <c r="C6" s="1">
-        <v>640000</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
-        <v>640000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>640000</v>
+        <v>120</v>
+      </c>
+      <c r="E6" s="3">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -4756,16 +7452,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1040000</v>
+        <v>36000</v>
       </c>
       <c r="C7" s="1">
-        <v>1040000</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1">
-        <v>1040000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1040000</v>
+        <v>120</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -4773,16 +7469,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1440000</v>
+        <v>72000</v>
       </c>
       <c r="C8" s="1">
-        <v>1440000</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
-        <v>1440000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1440000</v>
+        <v>120</v>
+      </c>
+      <c r="E8" s="3">
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -4790,16 +7486,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1840000</v>
+        <v>108000</v>
       </c>
       <c r="C9" s="1">
-        <v>1840000</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
-        <v>1840000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1840000</v>
+        <v>120</v>
+      </c>
+      <c r="E9" s="3">
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -4807,16 +7503,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>2240000</v>
+        <v>144000</v>
       </c>
       <c r="C10" s="1">
-        <v>2240000</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1">
-        <v>2240000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2240000</v>
+        <v>120</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1080</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -4824,16 +7520,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>2640000</v>
+        <v>180000</v>
       </c>
       <c r="C11" s="1">
-        <v>2640000</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1">
-        <v>2640000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2640000</v>
+        <v>120</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1320</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -4841,16 +7537,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>3040000</v>
+        <v>216000</v>
       </c>
       <c r="C12" s="1">
-        <v>3040000</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1">
-        <v>3040000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3040000</v>
+        <v>120</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1560</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -4858,16 +7554,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3440000</v>
+        <v>252000</v>
       </c>
       <c r="C13" s="1">
-        <v>3440000</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1">
-        <v>3440000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3440000</v>
+        <v>120</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -4875,16 +7571,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>3840000</v>
+        <v>288000</v>
       </c>
       <c r="C14" s="1">
-        <v>3840000</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
-        <v>3840000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3840000</v>
+        <v>120</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2040</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -4892,16 +7588,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>4240000</v>
+        <v>324000</v>
       </c>
       <c r="C15" s="1">
-        <v>4240000</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
-        <v>4240000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4240000</v>
+        <v>120</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2280</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -4909,16 +7605,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>4640000</v>
+        <v>360000</v>
       </c>
       <c r="C16" s="1">
-        <v>4640000</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
-        <v>4640000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4640000</v>
+        <v>120</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2520</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -4926,16 +7622,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>5040000</v>
+        <v>480000</v>
       </c>
       <c r="C17" s="1">
-        <v>5040000</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1">
-        <v>5040000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5040000</v>
+        <v>120</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2760</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -4943,16 +7639,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>5440000</v>
+        <v>600000</v>
       </c>
       <c r="C18" s="1">
-        <v>5440000</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
-        <v>5440000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5440000</v>
+        <v>120</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -4960,16 +7656,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>5840000</v>
+        <v>720000</v>
       </c>
       <c r="C19" s="1">
-        <v>5840000</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1">
-        <v>5840000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5840000</v>
+        <v>120</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3240</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -4977,16 +7673,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>6240000</v>
+        <v>840000</v>
       </c>
       <c r="C20" s="1">
-        <v>6240000</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1">
-        <v>6240000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>6240000</v>
+        <v>120</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3480</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -4994,16 +7690,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>6640000</v>
+        <v>960000</v>
       </c>
       <c r="C21" s="1">
-        <v>6640000</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1">
-        <v>6640000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6640000</v>
+        <v>120</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3720</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -5011,16 +7707,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>7040000</v>
+        <v>1800000</v>
       </c>
       <c r="C22" s="1">
-        <v>7040000</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1">
-        <v>7040000</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7040000</v>
+        <v>120</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -5037,10 +7733,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5048,24 +7744,27 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5081,345 +7780,408 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>34</v>
+        <v>60000</v>
       </c>
       <c r="C3" s="1">
-        <v>34</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="1">
-        <v>34</v>
+        <v>60000</v>
       </c>
       <c r="E3" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+        <v>60000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>68</v>
+        <v>120000</v>
       </c>
       <c r="C4" s="1">
-        <v>68</v>
+        <v>120000</v>
       </c>
       <c r="D4" s="1">
-        <v>68</v>
+        <v>120000</v>
       </c>
       <c r="E4" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+        <v>120000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>204.00000000000003</v>
+        <v>240000</v>
       </c>
       <c r="C5" s="1">
-        <v>204.00000000000003</v>
+        <v>240000</v>
       </c>
       <c r="D5" s="1">
-        <v>204.00000000000003</v>
+        <v>240000</v>
       </c>
       <c r="E5" s="1">
-        <v>204.00000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+        <v>240000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>408.00000000000006</v>
+        <v>640000</v>
       </c>
       <c r="C6" s="1">
-        <v>408.00000000000006</v>
+        <v>640000</v>
       </c>
       <c r="D6" s="1">
-        <v>408.00000000000006</v>
+        <v>640000</v>
       </c>
       <c r="E6" s="1">
-        <v>408.00000000000006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+        <v>640000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1224</v>
+        <v>1040000</v>
       </c>
       <c r="C7" s="1">
-        <v>1224</v>
+        <v>1040000</v>
       </c>
       <c r="D7" s="1">
-        <v>1224</v>
+        <v>1040000</v>
       </c>
       <c r="E7" s="1">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+        <v>1040000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2448</v>
+        <v>1440000</v>
       </c>
       <c r="C8" s="1">
-        <v>2448</v>
+        <v>1440000</v>
       </c>
       <c r="D8" s="1">
-        <v>2448</v>
+        <v>1440000</v>
       </c>
       <c r="E8" s="1">
-        <v>2448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+        <v>1440000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3672</v>
+        <v>1840000</v>
       </c>
       <c r="C9" s="1">
-        <v>3672</v>
+        <v>1840000</v>
       </c>
       <c r="D9" s="1">
-        <v>3672</v>
+        <v>1840000</v>
       </c>
       <c r="E9" s="1">
-        <v>3672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+        <v>1840000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4896</v>
+        <v>2240000</v>
       </c>
       <c r="C10" s="1">
-        <v>4896</v>
+        <v>2240000</v>
       </c>
       <c r="D10" s="1">
-        <v>4896</v>
+        <v>2240000</v>
       </c>
       <c r="E10" s="1">
-        <v>4896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+        <v>2240000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>6120.0000000000009</v>
+        <v>2640000</v>
       </c>
       <c r="C11" s="1">
-        <v>6120.0000000000009</v>
+        <v>2640000</v>
       </c>
       <c r="D11" s="1">
-        <v>6120.0000000000009</v>
+        <v>2640000</v>
       </c>
       <c r="E11" s="1">
-        <v>6120.0000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+        <v>2640000</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>7344</v>
+        <v>3040000</v>
       </c>
       <c r="C12" s="1">
-        <v>7344</v>
+        <v>3040000</v>
       </c>
       <c r="D12" s="1">
-        <v>7344</v>
+        <v>3040000</v>
       </c>
       <c r="E12" s="1">
-        <v>7344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+        <v>3040000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>8568</v>
+        <v>3440000</v>
       </c>
       <c r="C13" s="1">
-        <v>8568</v>
+        <v>3440000</v>
       </c>
       <c r="D13" s="1">
-        <v>8568</v>
+        <v>3440000</v>
       </c>
       <c r="E13" s="1">
-        <v>8568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+        <v>3440000</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>9792</v>
+        <v>3840000</v>
       </c>
       <c r="C14" s="1">
-        <v>9792</v>
+        <v>3840000</v>
       </c>
       <c r="D14" s="1">
-        <v>9792</v>
+        <v>3840000</v>
       </c>
       <c r="E14" s="1">
-        <v>9792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+        <v>3840000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>11016.000000000002</v>
+        <v>4240000</v>
       </c>
       <c r="C15" s="1">
-        <v>11016.000000000002</v>
+        <v>4240000</v>
       </c>
       <c r="D15" s="1">
-        <v>11016.000000000002</v>
+        <v>4240000</v>
       </c>
       <c r="E15" s="1">
-        <v>11016.000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+        <v>4240000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>12240.000000000002</v>
+        <v>4640000</v>
       </c>
       <c r="C16" s="1">
-        <v>12240.000000000002</v>
+        <v>4640000</v>
       </c>
       <c r="D16" s="1">
-        <v>12240.000000000002</v>
+        <v>4640000</v>
       </c>
       <c r="E16" s="1">
-        <v>12240.000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+        <v>4640000</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>16320</v>
+        <v>5040000</v>
       </c>
       <c r="C17" s="1">
-        <v>16320</v>
+        <v>5040000</v>
       </c>
       <c r="D17" s="1">
-        <v>16320</v>
+        <v>5040000</v>
       </c>
       <c r="E17" s="1">
-        <v>16320</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+        <v>5040000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>20400.000000000004</v>
+        <v>5440000</v>
       </c>
       <c r="C18" s="1">
-        <v>20400.000000000004</v>
+        <v>5440000</v>
       </c>
       <c r="D18" s="1">
-        <v>20400.000000000004</v>
+        <v>5440000</v>
       </c>
       <c r="E18" s="1">
-        <v>20400.000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+        <v>5440000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>24480.000000000004</v>
+        <v>5840000</v>
       </c>
       <c r="C19" s="1">
-        <v>24480.000000000004</v>
+        <v>5840000</v>
       </c>
       <c r="D19" s="1">
-        <v>24480.000000000004</v>
+        <v>5840000</v>
       </c>
       <c r="E19" s="1">
-        <v>24480.000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+        <v>5840000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>28560</v>
+        <v>6240000</v>
       </c>
       <c r="C20" s="1">
-        <v>28560</v>
+        <v>6240000</v>
       </c>
       <c r="D20" s="1">
-        <v>28560</v>
+        <v>6240000</v>
       </c>
       <c r="E20" s="1">
-        <v>28560</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+        <v>6240000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>32640</v>
+        <v>6640000</v>
       </c>
       <c r="C21" s="1">
-        <v>32640</v>
+        <v>6640000</v>
       </c>
       <c r="D21" s="1">
-        <v>32640</v>
+        <v>6640000</v>
       </c>
       <c r="E21" s="1">
-        <v>32640</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+        <v>6640000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>61200</v>
+        <v>7040000</v>
       </c>
       <c r="C22" s="1">
-        <v>61200</v>
+        <v>7040000</v>
       </c>
       <c r="D22" s="1">
-        <v>61200</v>
+        <v>7040000</v>
       </c>
       <c r="E22" s="1">
-        <v>61200</v>
+        <v>7040000</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -5436,10 +8198,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5447,180 +8209,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>260</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>280</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>340</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>380</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>420</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>460</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>500</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -5637,10 +8465,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5648,180 +8476,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>24000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>28000</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>32000</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>36000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>40000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>44000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>48000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>52000</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>56000</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>60000</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>64000</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>
@@ -5838,10 +8732,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C1" sqref="C1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5849,180 +8743,246 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20" customHeight="1">
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="C7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="C8" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="C9" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="C10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20" customHeight="1">
+      <c r="C11" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20" customHeight="1">
+      <c r="C12" s="3">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="20" customHeight="1">
+      <c r="C13" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="20" customHeight="1">
+      <c r="C14" s="3">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="20" customHeight="1">
+      <c r="C15" s="3">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="C16" s="3">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="3">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="3">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.4</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3960</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="1180" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="5740" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -2002,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7334,7 +7334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5740" yWindow="940" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6800" yWindow="2920" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wall" sheetId="18" r:id="rId1"/>
@@ -144,25 +144,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>INT_scout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkinfs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkarcs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkcavs</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_atkcats</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -351,6 +335,26 @@
     <t>INT_hpRecoveryPerHour</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_infantry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_archer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cavalry</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_siege</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_defencePower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +516,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="510">
+  <cellStyleXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -527,6 +531,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1043,7 +1051,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="510">
+  <cellStyles count="514">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1301,6 +1309,8 @@
     <cellStyle name="超链接" xfId="504" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="506" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="512" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1551,6 +1561,8 @@
     <cellStyle name="访问过的超链接" xfId="505" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="507" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="513" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2002,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2013,16 +2025,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -2375,22 +2387,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -2840,40 +2852,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -3701,16 +3713,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -3894,16 +3906,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4087,16 +4099,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4280,16 +4292,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4473,22 +4485,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -4738,13 +4750,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -4961,16 +4973,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5238,16 +5250,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -5418,10 +5430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5429,31 +5441,34 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="1">
@@ -5465,16 +5480,19 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>34</v>
+      <c r="B3" s="3">
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>34</v>
@@ -5485,16 +5503,19 @@
       <c r="E3" s="1">
         <v>34</v>
       </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+      <c r="F3" s="1">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>68</v>
+      <c r="B4" s="3">
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>68</v>
@@ -5505,16 +5526,19 @@
       <c r="E4" s="1">
         <v>68</v>
       </c>
-      <c r="F4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+      <c r="F4" s="1">
+        <v>68</v>
+      </c>
+      <c r="G4" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>204.00000000000003</v>
+      <c r="B5" s="3">
+        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>204.00000000000003</v>
@@ -5525,16 +5549,19 @@
       <c r="E5" s="1">
         <v>204.00000000000003</v>
       </c>
-      <c r="F5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+      <c r="F5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>204.00000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
-        <v>408.00000000000006</v>
+      <c r="B6" s="3">
+        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>408.00000000000006</v>
@@ -5545,16 +5572,19 @@
       <c r="E6" s="1">
         <v>408.00000000000006</v>
       </c>
-      <c r="F6" s="3">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+      <c r="F6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+      <c r="G6" s="1">
+        <v>408.00000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <v>1224</v>
+      <c r="B7" s="3">
+        <v>360</v>
       </c>
       <c r="C7" s="1">
         <v>1224</v>
@@ -5565,16 +5595,19 @@
       <c r="E7" s="1">
         <v>1224</v>
       </c>
-      <c r="F7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+      <c r="F7" s="1">
+        <v>1224</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
-        <v>2448</v>
+      <c r="B8" s="3">
+        <v>600</v>
       </c>
       <c r="C8" s="1">
         <v>2448</v>
@@ -5585,16 +5618,19 @@
       <c r="E8" s="1">
         <v>2448</v>
       </c>
-      <c r="F8" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+      <c r="F8" s="1">
+        <v>2448</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>3672</v>
+      <c r="B9" s="3">
+        <v>840</v>
       </c>
       <c r="C9" s="1">
         <v>3672</v>
@@ -5605,16 +5641,19 @@
       <c r="E9" s="1">
         <v>3672</v>
       </c>
-      <c r="F9" s="3">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+      <c r="F9" s="1">
+        <v>3672</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>4896</v>
+      <c r="B10" s="3">
+        <v>1080</v>
       </c>
       <c r="C10" s="1">
         <v>4896</v>
@@ -5625,16 +5664,19 @@
       <c r="E10" s="1">
         <v>4896</v>
       </c>
-      <c r="F10" s="3">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+      <c r="F10" s="1">
+        <v>4896</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>6120.0000000000009</v>
+      <c r="B11" s="3">
+        <v>1320</v>
       </c>
       <c r="C11" s="1">
         <v>6120.0000000000009</v>
@@ -5645,16 +5687,19 @@
       <c r="E11" s="1">
         <v>6120.0000000000009</v>
       </c>
-      <c r="F11" s="3">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+      <c r="F11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6120.0000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>7344</v>
+      <c r="B12" s="3">
+        <v>1560</v>
       </c>
       <c r="C12" s="1">
         <v>7344</v>
@@ -5665,16 +5710,19 @@
       <c r="E12" s="1">
         <v>7344</v>
       </c>
-      <c r="F12" s="3">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+      <c r="F12" s="1">
+        <v>7344</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>8568</v>
+      <c r="B13" s="3">
+        <v>1800</v>
       </c>
       <c r="C13" s="1">
         <v>8568</v>
@@ -5685,16 +5733,19 @@
       <c r="E13" s="1">
         <v>8568</v>
       </c>
-      <c r="F13" s="3">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+      <c r="F13" s="1">
+        <v>8568</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>9792</v>
+      <c r="B14" s="3">
+        <v>2040</v>
       </c>
       <c r="C14" s="1">
         <v>9792</v>
@@ -5705,16 +5756,19 @@
       <c r="E14" s="1">
         <v>9792</v>
       </c>
-      <c r="F14" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+      <c r="F14" s="1">
+        <v>9792</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>11016.000000000002</v>
+      <c r="B15" s="3">
+        <v>2280</v>
       </c>
       <c r="C15" s="1">
         <v>11016.000000000002</v>
@@ -5725,16 +5779,19 @@
       <c r="E15" s="1">
         <v>11016.000000000002</v>
       </c>
-      <c r="F15" s="3">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+      <c r="F15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11016.000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>12240.000000000002</v>
+      <c r="B16" s="3">
+        <v>2520</v>
       </c>
       <c r="C16" s="1">
         <v>12240.000000000002</v>
@@ -5745,16 +5802,19 @@
       <c r="E16" s="1">
         <v>12240.000000000002</v>
       </c>
-      <c r="F16" s="3">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+      <c r="F16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>12240.000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>16320</v>
+      <c r="B17" s="3">
+        <v>2760</v>
       </c>
       <c r="C17" s="1">
         <v>16320</v>
@@ -5765,16 +5825,19 @@
       <c r="E17" s="1">
         <v>16320</v>
       </c>
-      <c r="F17" s="3">
-        <v>2760</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+      <c r="F17" s="1">
+        <v>16320</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>20400.000000000004</v>
+      <c r="B18" s="3">
+        <v>3000</v>
       </c>
       <c r="C18" s="1">
         <v>20400.000000000004</v>
@@ -5785,16 +5848,19 @@
       <c r="E18" s="1">
         <v>20400.000000000004</v>
       </c>
-      <c r="F18" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+      <c r="F18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20400.000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
-        <v>24480.000000000004</v>
+      <c r="B19" s="3">
+        <v>3240</v>
       </c>
       <c r="C19" s="1">
         <v>24480.000000000004</v>
@@ -5805,16 +5871,19 @@
       <c r="E19" s="1">
         <v>24480.000000000004</v>
       </c>
-      <c r="F19" s="3">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+      <c r="F19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+      <c r="G19" s="1">
+        <v>24480.000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
-        <v>28560</v>
+      <c r="B20" s="3">
+        <v>3480</v>
       </c>
       <c r="C20" s="1">
         <v>28560</v>
@@ -5825,16 +5894,19 @@
       <c r="E20" s="1">
         <v>28560</v>
       </c>
-      <c r="F20" s="3">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+      <c r="F20" s="1">
+        <v>28560</v>
+      </c>
+      <c r="G20" s="1">
+        <v>28560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
-        <v>32640</v>
+      <c r="B21" s="3">
+        <v>3720</v>
       </c>
       <c r="C21" s="1">
         <v>32640</v>
@@ -5845,16 +5917,19 @@
       <c r="E21" s="1">
         <v>32640</v>
       </c>
-      <c r="F21" s="3">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+      <c r="F21" s="1">
+        <v>32640</v>
+      </c>
+      <c r="G21" s="1">
+        <v>32640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
-        <v>61200</v>
+      <c r="B22" s="3">
+        <v>3960</v>
       </c>
       <c r="C22" s="1">
         <v>61200</v>
@@ -5865,8 +5940,11 @@
       <c r="E22" s="1">
         <v>61200</v>
       </c>
-      <c r="F22" s="3">
-        <v>3960</v>
+      <c r="F22" s="1">
+        <v>61200</v>
+      </c>
+      <c r="G22" s="1">
+        <v>61200</v>
       </c>
     </row>
   </sheetData>
@@ -5896,16 +5974,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6089,13 +6167,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6246,13 +6324,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6403,13 +6481,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6560,13 +6638,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -6717,16 +6795,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7078,13 +7156,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -7347,19 +7425,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7746,22 +7824,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -8211,13 +8289,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8478,13 +8556,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">
@@ -8745,13 +8823,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20" customHeight="1">

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="2780" windowWidth="25600" windowHeight="16060" tabRatio="883" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-24340" yWindow="0" windowWidth="26340" windowHeight="14720" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -539,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="572">
+  <cellStyleXfs count="580">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -554,6 +554,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1141,7 +1149,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="572">
+  <cellStyles count="580">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1430,6 +1438,10 @@
     <cellStyle name="超链接" xfId="566" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="568" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="570" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="572" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1711,6 +1723,10 @@
     <cellStyle name="访问过的超链接" xfId="567" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="569" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="571" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="573" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4681,7 +4697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9858,14 +9874,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -9884,7 +9900,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>40</v>
       </c>
       <c r="C2" s="6">
@@ -9984,7 +10000,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6">
         <v>600</v>
@@ -9995,7 +10011,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C12" s="6">
         <v>900</v>
@@ -10006,7 +10022,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6">
         <v>1200</v>
@@ -10017,7 +10033,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C14" s="6">
         <v>1800</v>
@@ -10028,7 +10044,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C15" s="6">
         <v>2400</v>
@@ -10039,7 +10055,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C16" s="6">
         <v>3600</v>
@@ -10050,7 +10066,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C17" s="6">
         <v>4800</v>
@@ -10061,7 +10077,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C18" s="6">
         <v>6000</v>
@@ -10072,7 +10088,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C19" s="6">
         <v>7200</v>
@@ -10083,7 +10099,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C20" s="6">
         <v>8400</v>
@@ -10094,7 +10110,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C21" s="6">
         <v>9600</v>
@@ -10105,7 +10121,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="C22" s="6">
         <v>10800</v>
@@ -10116,7 +10132,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="C23" s="6">
         <v>16200</v>
@@ -10127,7 +10143,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>596</v>
+        <v>540</v>
       </c>
       <c r="C24" s="6">
         <v>21600</v>
@@ -10138,7 +10154,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="C25" s="6">
         <v>27000</v>
@@ -10149,7 +10165,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>724</v>
+        <v>660</v>
       </c>
       <c r="C26" s="6">
         <v>36000</v>
@@ -10160,7 +10176,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>788</v>
+        <v>710</v>
       </c>
       <c r="C27" s="6">
         <v>54000</v>
@@ -10171,7 +10187,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>852</v>
+        <v>770</v>
       </c>
       <c r="C28" s="6">
         <v>72000</v>
@@ -10182,7 +10198,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>916</v>
+        <v>830</v>
       </c>
       <c r="C29" s="6">
         <v>96000</v>
@@ -10193,7 +10209,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>980</v>
+        <v>890</v>
       </c>
       <c r="C30" s="6">
         <v>120000</v>
@@ -10204,7 +10220,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>1044</v>
+        <v>940</v>
       </c>
       <c r="C31" s="6">
         <v>144000</v>
@@ -10215,7 +10231,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>2068</v>
+        <v>1410</v>
       </c>
       <c r="C32" s="6">
         <v>168000</v>
@@ -10226,7 +10242,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>2324</v>
+        <v>1520</v>
       </c>
       <c r="C33" s="6">
         <v>192000</v>
@@ -10237,7 +10253,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>2580</v>
+        <v>1640</v>
       </c>
       <c r="C34" s="6">
         <v>216000</v>
@@ -10248,7 +10264,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>2836</v>
+        <v>1750</v>
       </c>
       <c r="C35" s="6">
         <v>240000</v>
@@ -10259,7 +10275,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>3092</v>
+        <v>1870</v>
       </c>
       <c r="C36" s="6">
         <v>264000</v>
@@ -10270,7 +10286,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>3348</v>
+        <v>1980</v>
       </c>
       <c r="C37" s="6">
         <v>300000</v>
@@ -10281,7 +10297,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>3604</v>
+        <v>2100</v>
       </c>
       <c r="C38" s="6">
         <v>336000</v>
@@ -10292,7 +10308,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>3860</v>
+        <v>2210</v>
       </c>
       <c r="C39" s="6">
         <v>372000</v>
@@ -10302,8 +10318,8 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="6">
-        <v>4200</v>
+      <c r="B40" s="3">
+        <v>2330</v>
       </c>
       <c r="C40" s="6">
         <v>408000</v>
@@ -10314,7 +10330,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6">
-        <v>5000</v>
+        <v>2440</v>
       </c>
       <c r="C41" s="6">
         <v>540000</v>
@@ -11764,7 +11780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C41"/>
     </sheetView>
   </sheetViews>
@@ -12240,8 +12256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D41"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12268,10 +12284,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>496</v>
-      </c>
-      <c r="C2" s="5">
         <v>124</v>
+      </c>
+      <c r="C2" s="6">
+        <v>31</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
@@ -12282,10 +12298,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>833</v>
+        <v>229</v>
       </c>
       <c r="C3" s="6">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6">
         <v>80</v>
@@ -12296,10 +12312,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>1065</v>
+        <v>306</v>
       </c>
       <c r="C4" s="6">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6">
         <v>120</v>
@@ -12310,10 +12326,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>1224</v>
+        <v>367</v>
       </c>
       <c r="C5" s="6">
-        <v>306</v>
+        <v>92</v>
       </c>
       <c r="D5" s="6">
         <v>160</v>
@@ -12324,10 +12340,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>1333</v>
+        <v>417</v>
       </c>
       <c r="C6" s="6">
-        <v>333</v>
+        <v>104</v>
       </c>
       <c r="D6" s="6">
         <v>200</v>
@@ -12338,10 +12354,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>1406</v>
+        <v>457</v>
       </c>
       <c r="C7" s="6">
-        <v>352</v>
+        <v>114</v>
       </c>
       <c r="D7" s="6">
         <v>240</v>
@@ -12352,10 +12368,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>1453</v>
+        <v>490</v>
       </c>
       <c r="C8" s="6">
-        <v>363</v>
+        <v>123</v>
       </c>
       <c r="D8" s="6">
         <v>280</v>
@@ -12366,10 +12382,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>1481</v>
+        <v>519</v>
       </c>
       <c r="C9" s="6">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="D9" s="6">
         <v>320</v>
@@ -12380,10 +12396,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>1496</v>
+        <v>542</v>
       </c>
       <c r="C10" s="6">
-        <v>374</v>
+        <v>136</v>
       </c>
       <c r="D10" s="6">
         <v>360</v>
@@ -12394,10 +12410,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="C11" s="6">
-        <v>375</v>
+        <v>141</v>
       </c>
       <c r="D11" s="6">
         <v>400</v>
@@ -12408,10 +12424,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>2721</v>
+        <v>1054</v>
       </c>
       <c r="C12" s="6">
-        <v>680</v>
+        <v>264</v>
       </c>
       <c r="D12" s="6">
         <v>600</v>
@@ -12422,10 +12438,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>2975</v>
+        <v>1190</v>
       </c>
       <c r="C13" s="6">
-        <v>744</v>
+        <v>298</v>
       </c>
       <c r="D13" s="6">
         <v>800</v>
@@ -12436,10 +12452,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>3176</v>
+        <v>1310</v>
       </c>
       <c r="C14" s="6">
-        <v>794</v>
+        <v>328</v>
       </c>
       <c r="D14" s="6">
         <v>1200</v>
@@ -12450,10 +12466,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>3333</v>
+        <v>1417</v>
       </c>
       <c r="C15" s="6">
-        <v>833</v>
+        <v>354</v>
       </c>
       <c r="D15" s="6">
         <v>1600</v>
@@ -12464,10 +12480,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>3456</v>
+        <v>1512</v>
       </c>
       <c r="C16" s="6">
-        <v>864</v>
+        <v>378</v>
       </c>
       <c r="D16" s="6">
         <v>2400</v>
@@ -12478,10 +12494,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>3550</v>
+        <v>1598</v>
       </c>
       <c r="C17" s="6">
-        <v>888</v>
+        <v>399</v>
       </c>
       <c r="D17" s="6">
         <v>3200</v>
@@ -12492,10 +12508,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>3621</v>
+        <v>1675</v>
       </c>
       <c r="C18" s="6">
-        <v>905</v>
+        <v>419</v>
       </c>
       <c r="D18" s="6">
         <v>4000</v>
@@ -12506,10 +12522,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>3673</v>
+        <v>1745</v>
       </c>
       <c r="C19" s="6">
-        <v>918</v>
+        <v>436</v>
       </c>
       <c r="D19" s="6">
         <v>4800</v>
@@ -12520,10 +12536,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>3710</v>
+        <v>1809</v>
       </c>
       <c r="C20" s="6">
-        <v>927</v>
+        <v>452</v>
       </c>
       <c r="D20" s="6">
         <v>5600</v>
@@ -12534,10 +12550,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>3733</v>
+        <v>1867</v>
       </c>
       <c r="C21" s="6">
-        <v>933</v>
+        <v>467</v>
       </c>
       <c r="D21" s="6">
         <v>6400</v>
@@ -12548,10 +12564,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>6993</v>
+        <v>3846</v>
       </c>
       <c r="C22" s="6">
-        <v>1748</v>
+        <v>961</v>
       </c>
       <c r="D22" s="6">
         <v>7200</v>
@@ -12562,10 +12578,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="C23" s="6">
-        <v>1875</v>
+        <v>1125</v>
       </c>
       <c r="D23" s="6">
         <v>10800</v>
@@ -12576,10 +12592,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>7934</v>
+        <v>5157</v>
       </c>
       <c r="C24" s="6">
-        <v>1983</v>
+        <v>1289</v>
       </c>
       <c r="D24" s="6">
         <v>14400</v>
@@ -12590,10 +12606,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>8304</v>
+        <v>5813</v>
       </c>
       <c r="C25" s="6">
-        <v>2076</v>
+        <v>1453</v>
       </c>
       <c r="D25" s="6">
         <v>18000</v>
@@ -12604,10 +12620,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>8620</v>
+        <v>6465</v>
       </c>
       <c r="C26" s="6">
-        <v>2155</v>
+        <v>1616</v>
       </c>
       <c r="D26" s="6">
         <v>24000</v>
@@ -12618,10 +12634,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>8889</v>
+        <v>7111</v>
       </c>
       <c r="C27" s="6">
-        <v>2222</v>
+        <v>1778</v>
       </c>
       <c r="D27" s="6">
         <v>36000</v>
@@ -12632,10 +12648,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>9116</v>
+        <v>7749</v>
       </c>
       <c r="C28" s="6">
-        <v>2279</v>
+        <v>1937</v>
       </c>
       <c r="D28" s="6">
         <v>48000</v>
@@ -12646,10 +12662,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>9307</v>
+        <v>8377</v>
       </c>
       <c r="C29" s="6">
-        <v>2327</v>
+        <v>2094</v>
       </c>
       <c r="D29" s="6">
         <v>64000</v>
@@ -12660,10 +12676,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>9467</v>
+        <v>8994</v>
       </c>
       <c r="C30" s="6">
-        <v>2367</v>
+        <v>2249</v>
       </c>
       <c r="D30" s="6">
         <v>80000</v>
@@ -12688,10 +12704,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>18275</v>
+        <v>15077</v>
       </c>
       <c r="C32" s="6">
-        <v>4569</v>
+        <v>3769</v>
       </c>
       <c r="D32" s="6">
         <v>112000</v>
@@ -12702,10 +12718,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>19592</v>
+        <v>16980</v>
       </c>
       <c r="C33" s="6">
-        <v>4898</v>
+        <v>4245</v>
       </c>
       <c r="D33" s="6">
         <v>128000</v>
@@ -12716,10 +12732,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>20768</v>
+        <v>18899</v>
       </c>
       <c r="C34" s="6">
-        <v>5192</v>
+        <v>4725</v>
       </c>
       <c r="D34" s="6">
         <v>144000</v>
@@ -12730,10 +12746,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>21818</v>
+        <v>20826</v>
       </c>
       <c r="C35" s="6">
-        <v>5455</v>
+        <v>5207</v>
       </c>
       <c r="D35" s="6">
         <v>160000</v>
@@ -12758,10 +12774,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>23592</v>
+        <v>24681</v>
       </c>
       <c r="C37" s="6">
-        <v>5898</v>
+        <v>6170</v>
       </c>
       <c r="D37" s="6">
         <v>200000</v>
@@ -12772,10 +12788,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>24337</v>
+        <v>26597</v>
       </c>
       <c r="C38" s="6">
-        <v>6084</v>
+        <v>6649</v>
       </c>
       <c r="D38" s="6">
         <v>224000</v>
@@ -12786,10 +12802,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>25000</v>
+        <v>28500</v>
       </c>
       <c r="C39" s="6">
-        <v>6250</v>
+        <v>7125</v>
       </c>
       <c r="D39" s="6">
         <v>248000</v>
@@ -12800,10 +12816,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>25589</v>
+        <v>30387</v>
       </c>
       <c r="C40" s="6">
-        <v>6397</v>
+        <v>7597</v>
       </c>
       <c r="D40" s="6">
         <v>272000</v>
@@ -12813,11 +12829,11 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>26112</v>
-      </c>
-      <c r="C41" s="6">
-        <v>6528</v>
+      <c r="B41" s="1">
+        <v>32256</v>
+      </c>
+      <c r="C41" s="1">
+        <v>8064</v>
       </c>
       <c r="D41" s="6">
         <v>360000</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24340" yWindow="0" windowWidth="26340" windowHeight="14720" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -539,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="580">
+  <cellStyleXfs count="582">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -554,6 +554,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1149,7 +1151,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="580">
+  <cellStyles count="582">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1442,6 +1444,7 @@
     <cellStyle name="超链接" xfId="574" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1727,6 +1730,7 @@
     <cellStyle name="访问过的超链接" xfId="575" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -7002,8 +7006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7029,7 +7033,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -7043,7 +7047,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -7057,7 +7061,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -7071,7 +7075,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -7085,7 +7089,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -7099,7 +7103,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -7113,7 +7117,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -7127,7 +7131,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="3">
@@ -7141,7 +7145,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -7155,7 +7159,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -7169,7 +7173,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="3">
@@ -7183,7 +7187,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -7197,7 +7201,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -7211,7 +7215,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="3">
@@ -7225,8 +7229,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
+      <c r="B16" s="6">
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -7239,7 +7243,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="3">
@@ -7253,7 +7257,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="3">
@@ -7267,7 +7271,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="3">
@@ -7281,7 +7285,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="3">
@@ -7295,7 +7299,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="3">
@@ -7309,7 +7313,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="3">
@@ -7323,8 +7327,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>0.22</v>
@@ -7337,8 +7341,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
+      <c r="B24" s="6">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>0.23</v>
@@ -7351,7 +7355,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="3">
@@ -7365,7 +7369,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
       <c r="C26" s="3">
@@ -7379,7 +7383,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="3">
@@ -7393,7 +7397,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="3">
@@ -7407,7 +7411,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="3">
@@ -7421,8 +7425,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>4</v>
+      <c r="B30" s="6">
+        <v>5</v>
       </c>
       <c r="C30" s="3">
         <v>0.28999999999999998</v>
@@ -7435,8 +7439,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>4</v>
+      <c r="B31" s="6">
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>0.3</v>
@@ -7449,8 +7453,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
+      <c r="B32" s="6">
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>0.31</v>
@@ -7463,7 +7467,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
       <c r="C33" s="3">
@@ -7477,7 +7481,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="3">
@@ -7491,7 +7495,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>5</v>
       </c>
       <c r="C35" s="3">
@@ -7505,7 +7509,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
       <c r="C36" s="3">
@@ -7519,8 +7523,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>5</v>
+      <c r="B37" s="6">
+        <v>6</v>
       </c>
       <c r="C37" s="3">
         <v>0.36</v>
@@ -7533,8 +7537,8 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>5</v>
+      <c r="B38" s="6">
+        <v>6</v>
       </c>
       <c r="C38" s="3">
         <v>0.37</v>
@@ -7547,8 +7551,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
       <c r="C39" s="3">
         <v>0.38</v>
@@ -7561,8 +7565,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>5</v>
+      <c r="B40" s="6">
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>0.39</v>
@@ -7575,7 +7579,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
       <c r="C41" s="1">
@@ -7601,8 +7605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showRuler="0" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B41" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7825,7 +7829,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6">
         <v>0.15</v>
@@ -7923,7 +7927,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" s="6">
         <v>0.22</v>
@@ -7937,7 +7941,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6">
         <v>0.23</v>
@@ -8021,7 +8025,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="6">
         <v>0.28999999999999998</v>
@@ -8035,7 +8039,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="6">
         <v>0.3</v>
@@ -8049,7 +8053,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="6">
         <v>0.31</v>
@@ -8119,7 +8123,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="6">
         <v>0.36</v>
@@ -8133,7 +8137,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="6">
         <v>0.37</v>
@@ -8147,7 +8151,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="6">
         <v>0.38</v>
@@ -8161,7 +8165,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" s="6">
         <v>0.39</v>
@@ -8200,8 +8204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8227,7 +8231,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -8241,7 +8245,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -8255,7 +8259,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -8269,7 +8273,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -8283,7 +8287,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -8297,7 +8301,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -8311,7 +8315,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -8325,7 +8329,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="3">
@@ -8339,7 +8343,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -8353,7 +8357,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -8367,7 +8371,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="3">
@@ -8381,7 +8385,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -8395,7 +8399,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -8409,7 +8413,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="3">
@@ -8423,8 +8427,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
+      <c r="B16" s="6">
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -8437,7 +8441,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="3">
@@ -8451,7 +8455,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="3">
@@ -8465,7 +8469,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="3">
@@ -8479,7 +8483,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="3">
@@ -8493,7 +8497,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="3">
@@ -8507,7 +8511,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="3">
@@ -8521,8 +8525,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>0.22</v>
@@ -8535,8 +8539,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
+      <c r="B24" s="6">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>0.23</v>
@@ -8549,7 +8553,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="3">
@@ -8563,7 +8567,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
       <c r="C26" s="3">
@@ -8577,7 +8581,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="3">
@@ -8591,7 +8595,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="3">
@@ -8605,7 +8609,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="3">
@@ -8619,8 +8623,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>4</v>
+      <c r="B30" s="6">
+        <v>5</v>
       </c>
       <c r="C30" s="3">
         <v>0.28999999999999998</v>
@@ -8633,8 +8637,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>4</v>
+      <c r="B31" s="6">
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>0.3</v>
@@ -8647,8 +8651,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
+      <c r="B32" s="6">
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>0.31</v>
@@ -8661,7 +8665,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
       <c r="C33" s="3">
@@ -8675,7 +8679,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="3">
@@ -8689,7 +8693,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>5</v>
       </c>
       <c r="C35" s="3">
@@ -8703,7 +8707,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
       <c r="C36" s="3">
@@ -8717,8 +8721,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>5</v>
+      <c r="B37" s="6">
+        <v>6</v>
       </c>
       <c r="C37" s="3">
         <v>0.36</v>
@@ -8731,8 +8735,8 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>5</v>
+      <c r="B38" s="6">
+        <v>6</v>
       </c>
       <c r="C38" s="3">
         <v>0.37</v>
@@ -8745,8 +8749,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
       <c r="C39" s="3">
         <v>0.38</v>
@@ -8759,8 +8763,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>5</v>
+      <c r="B40" s="6">
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>0.39</v>
@@ -8773,7 +8777,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
       <c r="C41" s="1">
@@ -8799,8 +8803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8826,7 +8830,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -8840,7 +8844,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -8854,7 +8858,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -8868,7 +8872,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -8882,7 +8886,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -8896,7 +8900,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="3">
@@ -8910,7 +8914,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="3">
@@ -8924,7 +8928,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="3">
@@ -8938,7 +8942,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -8952,7 +8956,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="3">
@@ -8966,7 +8970,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="3">
@@ -8980,7 +8984,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -8994,7 +8998,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -9008,7 +9012,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="3">
@@ -9022,8 +9026,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
+      <c r="B16" s="6">
+        <v>3</v>
       </c>
       <c r="C16" s="3">
         <v>0.15</v>
@@ -9036,7 +9040,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="3">
@@ -9050,7 +9054,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="3">
@@ -9064,7 +9068,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="3">
@@ -9078,7 +9082,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="3">
@@ -9092,7 +9096,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="3">
@@ -9106,7 +9110,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="3">
@@ -9120,8 +9124,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>0.22</v>
@@ -9134,8 +9138,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>3</v>
+      <c r="B24" s="6">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>0.23</v>
@@ -9148,7 +9152,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="3">
@@ -9162,7 +9166,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
       <c r="C26" s="3">
@@ -9176,7 +9180,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="3">
@@ -9190,7 +9194,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="3">
@@ -9204,7 +9208,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="3">
@@ -9218,8 +9222,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
-        <v>4</v>
+      <c r="B30" s="6">
+        <v>5</v>
       </c>
       <c r="C30" s="3">
         <v>0.28999999999999998</v>
@@ -9232,8 +9236,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
-        <v>4</v>
+      <c r="B31" s="6">
+        <v>5</v>
       </c>
       <c r="C31" s="3">
         <v>0.3</v>
@@ -9246,8 +9250,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
-        <v>4</v>
+      <c r="B32" s="6">
+        <v>5</v>
       </c>
       <c r="C32" s="3">
         <v>0.31</v>
@@ -9260,7 +9264,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
       <c r="C33" s="3">
@@ -9274,7 +9278,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="3">
@@ -9288,7 +9292,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>5</v>
       </c>
       <c r="C35" s="3">
@@ -9302,7 +9306,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
       <c r="C36" s="3">
@@ -9316,8 +9320,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
-        <v>5</v>
+      <c r="B37" s="6">
+        <v>6</v>
       </c>
       <c r="C37" s="3">
         <v>0.36</v>
@@ -9330,8 +9334,8 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
-        <v>5</v>
+      <c r="B38" s="6">
+        <v>6</v>
       </c>
       <c r="C38" s="3">
         <v>0.37</v>
@@ -9344,8 +9348,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
-        <v>5</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
       <c r="C39" s="3">
         <v>0.38</v>
@@ -9358,8 +9362,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
-        <v>5</v>
+      <c r="B40" s="6">
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>0.39</v>
@@ -9372,7 +9376,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
       <c r="C41" s="1">
@@ -9874,7 +9878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="17"/>
+    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -160,38 +160,6 @@
   </si>
   <si>
     <t>INT_power</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productBmtime</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productBmIron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productBmStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productBmWood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productAmWood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productAmStone</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productAmIron</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_productAmtime</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -347,11 +315,51 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_production</t>
+    <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_productionType</t>
+    <t>INT_poduction</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_poductionType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productBmtime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmWood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmStone</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmIron</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productAmtime</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2199,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2795,16 +2803,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -4113,16 +4121,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4701,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4712,1559 +4720,1559 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>50000</v>
-      </c>
-      <c r="E2" s="5">
-        <v>50000</v>
-      </c>
-      <c r="F2" s="5">
-        <v>50000</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="D2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="1">
         <v>300</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>40000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>40000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>600</v>
+      </c>
+      <c r="L2" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>40000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>600</v>
+      </c>
+      <c r="H3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="L3" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>900</v>
+      </c>
+      <c r="H4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>120000</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1800</v>
+      </c>
+      <c r="L4" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>80000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>80000</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H5" s="1">
+        <v>160000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>160000</v>
+      </c>
+      <c r="J5" s="1">
+        <v>160000</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2400</v>
+      </c>
+      <c r="L5" s="3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>100000</v>
       </c>
-      <c r="I2" s="5">
+      <c r="E6" s="1">
         <v>100000</v>
       </c>
-      <c r="J2" s="5">
+      <c r="F6" s="1">
         <v>100000</v>
       </c>
-      <c r="K2" s="5">
-        <v>600</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="G6" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="J6" s="1">
+        <v>200000</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L6" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1800</v>
+      </c>
+      <c r="H7" s="1">
+        <v>240000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>240000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>240000</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3600</v>
+      </c>
+      <c r="L7" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>140000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>140000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>140000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2100</v>
+      </c>
+      <c r="H8" s="1">
+        <v>280000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>280000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>280000</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4200</v>
+      </c>
+      <c r="L8" s="3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>160000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>160000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>160000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2400</v>
+      </c>
+      <c r="H9" s="1">
+        <v>320000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>320000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>320000</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>180000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>180000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>180000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2700</v>
+      </c>
+      <c r="H10" s="1">
+        <v>360000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>360000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>360000</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5400</v>
+      </c>
+      <c r="L10" s="3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>400000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>400000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>400000</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L11" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>220000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>220000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>220000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3300</v>
+      </c>
+      <c r="H12" s="1">
+        <v>440000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>440000</v>
+      </c>
+      <c r="J12" s="1">
+        <v>440000</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6600</v>
+      </c>
+      <c r="L12" s="3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>240000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>240000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>240000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="1">
+        <v>480000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>480000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>480000</v>
+      </c>
+      <c r="K13" s="1">
+        <v>7200</v>
+      </c>
+      <c r="L13" s="3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>260000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>260000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>260000</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3900</v>
+      </c>
+      <c r="H14" s="1">
+        <v>520000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>520000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>520000</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7800</v>
+      </c>
+      <c r="L14" s="3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>280000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>280000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>280000</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4200</v>
+      </c>
+      <c r="H15" s="1">
+        <v>560000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>560000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>560000</v>
+      </c>
+      <c r="K15" s="1">
+        <v>8400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>300000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G16" s="1">
+        <v>4500</v>
+      </c>
+      <c r="H16" s="1">
+        <v>600000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>600000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>600000</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>320000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>320000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>320000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4800</v>
+      </c>
+      <c r="H17" s="1">
+        <v>640000</v>
+      </c>
+      <c r="I17" s="1">
+        <v>640000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>640000</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>340000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>340000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>340000</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5100</v>
+      </c>
+      <c r="H18" s="1">
+        <v>680000</v>
+      </c>
+      <c r="I18" s="1">
+        <v>680000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>680000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>360000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>360000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>360000</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5400</v>
+      </c>
+      <c r="H19" s="1">
+        <v>720000</v>
+      </c>
+      <c r="I19" s="1">
+        <v>720000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>720000</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10800</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>95</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>380000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>380000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>380000</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5700</v>
+      </c>
+      <c r="H20" s="1">
+        <v>760000</v>
+      </c>
+      <c r="I20" s="1">
+        <v>760000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>760000</v>
+      </c>
+      <c r="K20" s="1">
+        <v>11400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>400000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>400000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>400000</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H21" s="1">
+        <v>800000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>800000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>800000</v>
+      </c>
+      <c r="K21" s="1">
+        <v>12000</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>420000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>420000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>420000</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6300</v>
+      </c>
+      <c r="H22" s="1">
+        <v>840000</v>
+      </c>
+      <c r="I22" s="1">
+        <v>840000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>840000</v>
+      </c>
+      <c r="K22" s="1">
+        <v>12600</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>440000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>440000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>440000</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6600</v>
+      </c>
+      <c r="H23" s="1">
+        <v>880000</v>
+      </c>
+      <c r="I23" s="1">
+        <v>880000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>880000</v>
+      </c>
+      <c r="K23" s="1">
+        <v>13200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>115</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>460000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>460000</v>
+      </c>
+      <c r="F24" s="1">
+        <v>460000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6900</v>
+      </c>
+      <c r="H24" s="1">
+        <v>920000</v>
+      </c>
+      <c r="I24" s="1">
+        <v>920000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>920000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>13800</v>
+      </c>
+      <c r="L24" s="3">
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>120</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>480000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>480000</v>
+      </c>
+      <c r="F25" s="1">
+        <v>480000</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7200</v>
+      </c>
+      <c r="H25" s="1">
+        <v>960000</v>
+      </c>
+      <c r="I25" s="1">
+        <v>960000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>960000</v>
+      </c>
+      <c r="K25" s="1">
+        <v>14400</v>
+      </c>
+      <c r="L25" s="3">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>125</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>500000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>500000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>7500</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="K26" s="1">
+        <v>15000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>19800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20" customHeight="1">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>130</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>520000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>520000</v>
+      </c>
+      <c r="F27" s="1">
+        <v>520000</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7800</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1040000</v>
+      </c>
+      <c r="K27" s="1">
+        <v>15600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="20" customHeight="1">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>540000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>540000</v>
+      </c>
+      <c r="F28" s="1">
+        <v>540000</v>
+      </c>
+      <c r="G28" s="1">
+        <v>8100</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1080000</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1080000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1080000</v>
+      </c>
+      <c r="K28" s="1">
+        <v>16200</v>
+      </c>
+      <c r="L28" s="3">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="20" customHeight="1">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>560000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>560000</v>
+      </c>
+      <c r="F29" s="1">
+        <v>560000</v>
+      </c>
+      <c r="G29" s="1">
+        <v>8400</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="K29" s="1">
+        <v>16800</v>
+      </c>
+      <c r="L29" s="3">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="20" customHeight="1">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>145</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>580000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>580000</v>
+      </c>
+      <c r="F30" s="1">
+        <v>580000</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8700</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1160000</v>
+      </c>
+      <c r="K30" s="1">
+        <v>17400</v>
+      </c>
+      <c r="L30" s="3">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20" customHeight="1">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>150</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1">
+        <v>600000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>600000</v>
+      </c>
+      <c r="F31" s="1">
+        <v>600000</v>
+      </c>
+      <c r="G31" s="1">
+        <v>9000</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="K31" s="1">
+        <v>18000</v>
+      </c>
+      <c r="L31" s="3">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20" customHeight="1">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>155</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>620000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>620000</v>
+      </c>
+      <c r="F32" s="1">
+        <v>620000</v>
+      </c>
+      <c r="G32" s="1">
+        <v>9300</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1240000</v>
+      </c>
+      <c r="K32" s="1">
+        <v>18600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20" customHeight="1">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>160</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <v>640000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>640000</v>
+      </c>
+      <c r="F33" s="1">
+        <v>640000</v>
+      </c>
+      <c r="G33" s="1">
+        <v>9600</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1280000</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1280000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1280000</v>
+      </c>
+      <c r="K33" s="1">
+        <v>19200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>105600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="20" customHeight="1">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F3" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="6">
-        <v>600</v>
-      </c>
-      <c r="H3" s="6">
-        <v>200000</v>
-      </c>
-      <c r="I3" s="6">
-        <v>200000</v>
-      </c>
-      <c r="J3" s="6">
-        <v>200000</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1200</v>
-      </c>
-      <c r="L3" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1">
-      <c r="A4" s="3">
+      <c r="B34" s="1">
+        <v>165</v>
+      </c>
+      <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>150000</v>
-      </c>
-      <c r="E4" s="6">
-        <v>150000</v>
-      </c>
-      <c r="F4" s="6">
-        <v>150000</v>
-      </c>
-      <c r="G4" s="6">
-        <v>900</v>
-      </c>
-      <c r="H4" s="6">
-        <v>300000</v>
-      </c>
-      <c r="I4" s="6">
-        <v>300000</v>
-      </c>
-      <c r="J4" s="6">
-        <v>300000</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1800</v>
-      </c>
-      <c r="L4" s="6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="6">
-        <v>200000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>200000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1200</v>
-      </c>
-      <c r="H5" s="6">
-        <v>400000</v>
-      </c>
-      <c r="I5" s="6">
-        <v>400000</v>
-      </c>
-      <c r="J5" s="6">
-        <v>400000</v>
-      </c>
-      <c r="K5" s="6">
-        <v>2400</v>
-      </c>
-      <c r="L5" s="6">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>250000</v>
-      </c>
-      <c r="E6" s="6">
-        <v>250000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>250000</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1500</v>
-      </c>
-      <c r="H6" s="6">
-        <v>500000</v>
-      </c>
-      <c r="I6" s="6">
-        <v>500000</v>
-      </c>
-      <c r="J6" s="6">
-        <v>500000</v>
-      </c>
-      <c r="K6" s="6">
-        <v>3000</v>
-      </c>
-      <c r="L6" s="6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>300000</v>
-      </c>
-      <c r="E7" s="6">
-        <v>300000</v>
-      </c>
-      <c r="F7" s="6">
-        <v>300000</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1800</v>
-      </c>
-      <c r="H7" s="6">
-        <v>600000</v>
-      </c>
-      <c r="I7" s="6">
-        <v>600000</v>
-      </c>
-      <c r="J7" s="6">
-        <v>600000</v>
-      </c>
-      <c r="K7" s="6">
-        <v>3600</v>
-      </c>
-      <c r="L7" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="D34" s="1">
+        <v>660000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>660000</v>
+      </c>
+      <c r="F34" s="1">
+        <v>660000</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9900</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1320000</v>
+      </c>
+      <c r="K34" s="1">
+        <v>19800</v>
+      </c>
+      <c r="L34" s="3">
+        <v>118800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20" customHeight="1">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>170</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>680000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>680000</v>
+      </c>
+      <c r="F35" s="1">
+        <v>680000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>10200</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1360000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1360000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1360000</v>
+      </c>
+      <c r="K35" s="1">
+        <v>20400</v>
+      </c>
+      <c r="L35" s="3">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="20" customHeight="1">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>350000</v>
-      </c>
-      <c r="E8" s="6">
-        <v>350000</v>
-      </c>
-      <c r="F8" s="6">
-        <v>350000</v>
-      </c>
-      <c r="G8" s="6">
-        <v>2100</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="B36" s="1">
+        <v>175</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1">
         <v>700000</v>
       </c>
-      <c r="I8" s="6">
+      <c r="E36" s="1">
         <v>700000</v>
       </c>
-      <c r="J8" s="6">
+      <c r="F36" s="1">
         <v>700000</v>
       </c>
-      <c r="K8" s="6">
-        <v>4200</v>
-      </c>
-      <c r="L8" s="6">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="G36" s="1">
+        <v>10500</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="K36" s="1">
+        <v>21000</v>
+      </c>
+      <c r="L36" s="3">
+        <v>145200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="20" customHeight="1">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>180</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>720000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>720000</v>
+      </c>
+      <c r="F37" s="1">
+        <v>720000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>10800</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1440000</v>
+      </c>
+      <c r="K37" s="1">
+        <v>21600</v>
+      </c>
+      <c r="L37" s="3">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="20" customHeight="1">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>185</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1">
+        <v>740000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>740000</v>
+      </c>
+      <c r="F38" s="1">
+        <v>740000</v>
+      </c>
+      <c r="G38" s="1">
+        <v>11100</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1480000</v>
+      </c>
+      <c r="K38" s="1">
+        <v>22200</v>
+      </c>
+      <c r="L38" s="3">
+        <v>184800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>190</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1">
+        <v>760000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>760000</v>
+      </c>
+      <c r="F39" s="1">
+        <v>760000</v>
+      </c>
+      <c r="G39" s="1">
+        <v>11400</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1520000</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1520000</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1520000</v>
+      </c>
+      <c r="K39" s="1">
+        <v>22800</v>
+      </c>
+      <c r="L39" s="3">
+        <v>204600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>195</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1">
+        <v>780000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>780000</v>
+      </c>
+      <c r="F40" s="1">
+        <v>780000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>11700</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1560000</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1560000</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1560000</v>
+      </c>
+      <c r="K40" s="1">
+        <v>23400</v>
+      </c>
+      <c r="L40" s="3">
+        <v>224400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="20" customHeight="1">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="C9" s="6">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>400000</v>
-      </c>
-      <c r="E9" s="6">
-        <v>400000</v>
-      </c>
-      <c r="F9" s="6">
-        <v>400000</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2400</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="B41" s="1">
+        <v>200</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
         <v>800000</v>
       </c>
-      <c r="I9" s="6">
+      <c r="E41" s="1">
         <v>800000</v>
       </c>
-      <c r="J9" s="6">
+      <c r="F41" s="1">
         <v>800000</v>
       </c>
-      <c r="K9" s="6">
-        <v>4800</v>
-      </c>
-      <c r="L9" s="6">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>45</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6">
-        <v>450000</v>
-      </c>
-      <c r="E10" s="6">
-        <v>450000</v>
-      </c>
-      <c r="F10" s="6">
-        <v>450000</v>
-      </c>
-      <c r="G10" s="6">
-        <v>2700</v>
-      </c>
-      <c r="H10" s="6">
-        <v>900000</v>
-      </c>
-      <c r="I10" s="6">
-        <v>900000</v>
-      </c>
-      <c r="J10" s="6">
-        <v>900000</v>
-      </c>
-      <c r="K10" s="6">
-        <v>5400</v>
-      </c>
-      <c r="L10" s="6">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>50</v>
-      </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>500000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3000</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="K11" s="6">
-        <v>6000</v>
-      </c>
-      <c r="L11" s="6">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>55</v>
-      </c>
-      <c r="C12" s="6">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>550000</v>
-      </c>
-      <c r="E12" s="6">
-        <v>550000</v>
-      </c>
-      <c r="F12" s="6">
-        <v>550000</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3300</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="K12" s="6">
-        <v>6600</v>
-      </c>
-      <c r="L12" s="6">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>60</v>
-      </c>
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6">
-        <v>600000</v>
-      </c>
-      <c r="E13" s="6">
-        <v>600000</v>
-      </c>
-      <c r="F13" s="6">
-        <v>600000</v>
-      </c>
-      <c r="G13" s="6">
-        <v>3600</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="K13" s="6">
-        <v>7200</v>
-      </c>
-      <c r="L13" s="6">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>65</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>650000</v>
-      </c>
-      <c r="E14" s="6">
-        <v>650000</v>
-      </c>
-      <c r="F14" s="6">
-        <v>650000</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3900</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="K14" s="6">
-        <v>7800</v>
-      </c>
-      <c r="L14" s="6">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>70</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>700000</v>
-      </c>
-      <c r="E15" s="6">
-        <v>700000</v>
-      </c>
-      <c r="F15" s="6">
-        <v>700000</v>
-      </c>
-      <c r="G15" s="6">
-        <v>4200</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="K15" s="6">
-        <v>8400</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>75</v>
-      </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>750000</v>
-      </c>
-      <c r="E16" s="6">
-        <v>750000</v>
-      </c>
-      <c r="F16" s="6">
-        <v>750000</v>
-      </c>
-      <c r="G16" s="6">
-        <v>4500</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="K16" s="6">
-        <v>9000</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>80</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6">
-        <v>800000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>800000</v>
-      </c>
-      <c r="F17" s="6">
-        <v>800000</v>
-      </c>
-      <c r="G17" s="6">
-        <v>4800</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="G41" s="1">
+        <v>12000</v>
+      </c>
+      <c r="H41" s="1">
         <v>1600000</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I41" s="1">
         <v>1600000</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J41" s="1">
         <v>1600000</v>
       </c>
-      <c r="K17" s="6">
-        <v>9600</v>
-      </c>
-      <c r="L17" s="6">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>85</v>
-      </c>
-      <c r="C18" s="6">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <v>850000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>850000</v>
-      </c>
-      <c r="F18" s="6">
-        <v>850000</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5100</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="K18" s="6">
-        <v>10200</v>
-      </c>
-      <c r="L18" s="6">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>90</v>
-      </c>
-      <c r="C19" s="6">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6">
-        <v>900000</v>
-      </c>
-      <c r="E19" s="6">
-        <v>900000</v>
-      </c>
-      <c r="F19" s="6">
-        <v>900000</v>
-      </c>
-      <c r="G19" s="6">
-        <v>5400</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="K19" s="6">
-        <v>10800</v>
-      </c>
-      <c r="L19" s="6">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>95</v>
-      </c>
-      <c r="C20" s="6">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>950000</v>
-      </c>
-      <c r="E20" s="6">
-        <v>950000</v>
-      </c>
-      <c r="F20" s="6">
-        <v>950000</v>
-      </c>
-      <c r="G20" s="6">
-        <v>5700</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="K20" s="6">
-        <v>11400</v>
-      </c>
-      <c r="L20" s="6">
-        <v>4620</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>100</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1000000</v>
-      </c>
-      <c r="G21" s="6">
-        <v>6000</v>
-      </c>
-      <c r="H21" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="I21" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="J21" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="K21" s="6">
-        <v>12000</v>
-      </c>
-      <c r="L21" s="6">
-        <v>5280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>105</v>
-      </c>
-      <c r="C22" s="6">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1050000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1050000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1050000</v>
-      </c>
-      <c r="G22" s="6">
-        <v>6300</v>
-      </c>
-      <c r="H22" s="6">
-        <v>2100000</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2100000</v>
-      </c>
-      <c r="J22" s="6">
-        <v>2100000</v>
-      </c>
-      <c r="K22" s="6">
-        <v>12600</v>
-      </c>
-      <c r="L22" s="6">
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>110</v>
-      </c>
-      <c r="C23" s="6">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1100000</v>
-      </c>
-      <c r="G23" s="6">
-        <v>6600</v>
-      </c>
-      <c r="H23" s="6">
-        <v>2200000</v>
-      </c>
-      <c r="I23" s="6">
-        <v>2200000</v>
-      </c>
-      <c r="J23" s="6">
-        <v>2200000</v>
-      </c>
-      <c r="K23" s="6">
-        <v>13200</v>
-      </c>
-      <c r="L23" s="6">
-        <v>8910</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>115</v>
-      </c>
-      <c r="C24" s="6">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1150000</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1150000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1150000</v>
-      </c>
-      <c r="G24" s="6">
-        <v>6900</v>
-      </c>
-      <c r="H24" s="6">
-        <v>2300000</v>
-      </c>
-      <c r="I24" s="6">
-        <v>2300000</v>
-      </c>
-      <c r="J24" s="6">
-        <v>2300000</v>
-      </c>
-      <c r="K24" s="6">
-        <v>13800</v>
-      </c>
-      <c r="L24" s="6">
-        <v>11880</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="20" customHeight="1">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>120</v>
-      </c>
-      <c r="C25" s="6">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1200000</v>
-      </c>
-      <c r="G25" s="6">
-        <v>7200</v>
-      </c>
-      <c r="H25" s="6">
-        <v>2400000</v>
-      </c>
-      <c r="I25" s="6">
-        <v>2400000</v>
-      </c>
-      <c r="J25" s="6">
-        <v>2400000</v>
-      </c>
-      <c r="K25" s="6">
-        <v>14400</v>
-      </c>
-      <c r="L25" s="6">
-        <v>14850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>125</v>
-      </c>
-      <c r="C26" s="6">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1250000</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1250000</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1250000</v>
-      </c>
-      <c r="G26" s="6">
-        <v>7500</v>
-      </c>
-      <c r="H26" s="6">
-        <v>2500000</v>
-      </c>
-      <c r="I26" s="6">
-        <v>2500000</v>
-      </c>
-      <c r="J26" s="6">
-        <v>2500000</v>
-      </c>
-      <c r="K26" s="6">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="6">
-        <v>19800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="20" customHeight="1">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>130</v>
-      </c>
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1300000</v>
-      </c>
-      <c r="G27" s="6">
-        <v>7800</v>
-      </c>
-      <c r="H27" s="6">
-        <v>2600000</v>
-      </c>
-      <c r="I27" s="6">
-        <v>2600000</v>
-      </c>
-      <c r="J27" s="6">
-        <v>2600000</v>
-      </c>
-      <c r="K27" s="6">
-        <v>15600</v>
-      </c>
-      <c r="L27" s="6">
-        <v>29700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="20" customHeight="1">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>135</v>
-      </c>
-      <c r="C28" s="6">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1350000</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1350000</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1350000</v>
-      </c>
-      <c r="G28" s="6">
-        <v>8100</v>
-      </c>
-      <c r="H28" s="6">
-        <v>2700000</v>
-      </c>
-      <c r="I28" s="6">
-        <v>2700000</v>
-      </c>
-      <c r="J28" s="6">
-        <v>2700000</v>
-      </c>
-      <c r="K28" s="6">
-        <v>16200</v>
-      </c>
-      <c r="L28" s="6">
-        <v>39600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="20" customHeight="1">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>140</v>
-      </c>
-      <c r="C29" s="6">
-        <v>3</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="F29" s="6">
-        <v>1400000</v>
-      </c>
-      <c r="G29" s="6">
-        <v>8400</v>
-      </c>
-      <c r="H29" s="6">
-        <v>2800000</v>
-      </c>
-      <c r="I29" s="6">
-        <v>2800000</v>
-      </c>
-      <c r="J29" s="6">
-        <v>2800000</v>
-      </c>
-      <c r="K29" s="6">
-        <v>16800</v>
-      </c>
-      <c r="L29" s="6">
-        <v>52800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="20" customHeight="1">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <v>145</v>
-      </c>
-      <c r="C30" s="6">
-        <v>3</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1450000</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1450000</v>
-      </c>
-      <c r="F30" s="6">
-        <v>1450000</v>
-      </c>
-      <c r="G30" s="6">
-        <v>8700</v>
-      </c>
-      <c r="H30" s="6">
-        <v>2900000</v>
-      </c>
-      <c r="I30" s="6">
-        <v>2900000</v>
-      </c>
-      <c r="J30" s="6">
-        <v>2900000</v>
-      </c>
-      <c r="K30" s="6">
-        <v>17400</v>
-      </c>
-      <c r="L30" s="6">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="20" customHeight="1">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6">
-        <v>150</v>
-      </c>
-      <c r="C31" s="6">
-        <v>3</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1500000</v>
-      </c>
-      <c r="G31" s="6">
-        <v>9000</v>
-      </c>
-      <c r="H31" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="I31" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="J31" s="6">
-        <v>3000000</v>
-      </c>
-      <c r="K31" s="6">
-        <v>18000</v>
-      </c>
-      <c r="L31" s="6">
-        <v>79200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="20" customHeight="1">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6">
-        <v>155</v>
-      </c>
-      <c r="C32" s="6">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1550000</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1550000</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1550000</v>
-      </c>
-      <c r="G32" s="6">
-        <v>9300</v>
-      </c>
-      <c r="H32" s="6">
-        <v>3100000</v>
-      </c>
-      <c r="I32" s="6">
-        <v>3100000</v>
-      </c>
-      <c r="J32" s="6">
-        <v>3100000</v>
-      </c>
-      <c r="K32" s="6">
-        <v>18600</v>
-      </c>
-      <c r="L32" s="6">
-        <v>92400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="20" customHeight="1">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6">
-        <v>160</v>
-      </c>
-      <c r="C33" s="6">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1600000</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1600000</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1600000</v>
-      </c>
-      <c r="G33" s="6">
-        <v>9600</v>
-      </c>
-      <c r="H33" s="6">
-        <v>3200000</v>
-      </c>
-      <c r="I33" s="6">
-        <v>3200000</v>
-      </c>
-      <c r="J33" s="6">
-        <v>3200000</v>
-      </c>
-      <c r="K33" s="6">
-        <v>19200</v>
-      </c>
-      <c r="L33" s="6">
-        <v>105600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="20" customHeight="1">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6">
-        <v>165</v>
-      </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1650000</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1650000</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1650000</v>
-      </c>
-      <c r="G34" s="6">
-        <v>9900</v>
-      </c>
-      <c r="H34" s="6">
-        <v>3300000</v>
-      </c>
-      <c r="I34" s="6">
-        <v>3300000</v>
-      </c>
-      <c r="J34" s="6">
-        <v>3300000</v>
-      </c>
-      <c r="K34" s="6">
-        <v>19800</v>
-      </c>
-      <c r="L34" s="6">
-        <v>118800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="20" customHeight="1">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6">
-        <v>170</v>
-      </c>
-      <c r="C35" s="6">
-        <v>3</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="G35" s="6">
-        <v>10200</v>
-      </c>
-      <c r="H35" s="6">
-        <v>3400000</v>
-      </c>
-      <c r="I35" s="6">
-        <v>3400000</v>
-      </c>
-      <c r="J35" s="6">
-        <v>3400000</v>
-      </c>
-      <c r="K35" s="6">
-        <v>20400</v>
-      </c>
-      <c r="L35" s="6">
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="20" customHeight="1">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6">
-        <v>175</v>
-      </c>
-      <c r="C36" s="6">
-        <v>3</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1750000</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1750000</v>
-      </c>
-      <c r="F36" s="6">
-        <v>1750000</v>
-      </c>
-      <c r="G36" s="6">
-        <v>10500</v>
-      </c>
-      <c r="H36" s="6">
-        <v>3500000</v>
-      </c>
-      <c r="I36" s="6">
-        <v>3500000</v>
-      </c>
-      <c r="J36" s="6">
-        <v>3500000</v>
-      </c>
-      <c r="K36" s="6">
-        <v>21000</v>
-      </c>
-      <c r="L36" s="6">
-        <v>145200</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="20" customHeight="1">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>180</v>
-      </c>
-      <c r="C37" s="6">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="F37" s="6">
-        <v>1800000</v>
-      </c>
-      <c r="G37" s="6">
-        <v>10800</v>
-      </c>
-      <c r="H37" s="6">
-        <v>3600000</v>
-      </c>
-      <c r="I37" s="6">
-        <v>3600000</v>
-      </c>
-      <c r="J37" s="6">
-        <v>3600000</v>
-      </c>
-      <c r="K37" s="6">
-        <v>21600</v>
-      </c>
-      <c r="L37" s="6">
-        <v>165000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="20" customHeight="1">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6">
-        <v>185</v>
-      </c>
-      <c r="C38" s="6">
-        <v>3</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1850000</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1850000</v>
-      </c>
-      <c r="F38" s="6">
-        <v>1850000</v>
-      </c>
-      <c r="G38" s="6">
-        <v>11100</v>
-      </c>
-      <c r="H38" s="6">
-        <v>3700000</v>
-      </c>
-      <c r="I38" s="6">
-        <v>3700000</v>
-      </c>
-      <c r="J38" s="6">
-        <v>3700000</v>
-      </c>
-      <c r="K38" s="6">
-        <v>22200</v>
-      </c>
-      <c r="L38" s="6">
-        <v>184800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="20" customHeight="1">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6">
-        <v>190</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="G39" s="6">
-        <v>11400</v>
-      </c>
-      <c r="H39" s="6">
-        <v>3800000</v>
-      </c>
-      <c r="I39" s="6">
-        <v>3800000</v>
-      </c>
-      <c r="J39" s="6">
-        <v>3800000</v>
-      </c>
-      <c r="K39" s="6">
-        <v>22800</v>
-      </c>
-      <c r="L39" s="6">
-        <v>204600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="20" customHeight="1">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6">
-        <v>195</v>
-      </c>
-      <c r="C40" s="6">
-        <v>3</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1950000</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1950000</v>
-      </c>
-      <c r="F40" s="6">
-        <v>1950000</v>
-      </c>
-      <c r="G40" s="6">
-        <v>11700</v>
-      </c>
-      <c r="H40" s="6">
-        <v>3900000</v>
-      </c>
-      <c r="I40" s="6">
-        <v>3900000</v>
-      </c>
-      <c r="J40" s="6">
-        <v>3900000</v>
-      </c>
-      <c r="K40" s="6">
-        <v>23400</v>
-      </c>
-      <c r="L40" s="6">
-        <v>224400</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="20" customHeight="1">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6">
-        <v>200</v>
-      </c>
-      <c r="C41" s="6">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="E41" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="F41" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="G41" s="6">
-        <v>12000</v>
-      </c>
-      <c r="H41" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="I41" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="J41" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="K41" s="1">
         <v>24000</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="3">
         <v>297000</v>
       </c>
     </row>
@@ -6301,13 +6309,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7017,16 +7025,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7616,16 +7624,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8215,16 +8223,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8803,7 +8811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -8814,16 +8822,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9891,10 +9899,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -12274,7 +12282,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -12873,16 +12881,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -13721,19 +13729,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -14686,10 +14694,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -14703,7 +14711,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3">
         <v>37</v>
@@ -14717,7 +14725,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -14731,7 +14739,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3">
         <v>112</v>
@@ -14745,7 +14753,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3">
         <v>150</v>
@@ -14759,7 +14767,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3">
         <v>187</v>
@@ -14773,7 +14781,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3">
         <v>225</v>
@@ -14787,7 +14795,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3">
         <v>262</v>
@@ -14801,7 +14809,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3">
         <v>300</v>
@@ -14815,7 +14823,7 @@
         <v>160</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3">
         <v>337</v>
@@ -14829,7 +14837,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" s="3">
         <v>375</v>
@@ -14843,7 +14851,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D12" s="3">
         <v>562</v>
@@ -14857,7 +14865,7 @@
         <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3">
         <v>750</v>
@@ -14871,7 +14879,7 @@
         <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D14" s="3">
         <v>1125</v>
@@ -14885,7 +14893,7 @@
         <v>260</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3">
         <v>1500</v>
@@ -14899,7 +14907,7 @@
         <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3">
         <v>2250</v>
@@ -14913,7 +14921,7 @@
         <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D17" s="3">
         <v>3000</v>
@@ -14927,7 +14935,7 @@
         <v>320</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3">
         <v>3750</v>
@@ -14941,7 +14949,7 @@
         <v>340</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3">
         <v>4500</v>
@@ -14955,7 +14963,7 @@
         <v>360</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3">
         <v>5250</v>
@@ -14969,7 +14977,7 @@
         <v>380</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3">
         <v>6000</v>
@@ -14983,7 +14991,7 @@
         <v>400</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3">
         <v>6750</v>
@@ -14997,7 +15005,7 @@
         <v>420</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
         <v>10125</v>
@@ -15011,7 +15019,7 @@
         <v>440</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3">
         <v>13500</v>
@@ -15025,7 +15033,7 @@
         <v>460</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3">
         <v>16875</v>
@@ -15039,7 +15047,7 @@
         <v>480</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3">
         <v>22500</v>
@@ -15053,7 +15061,7 @@
         <v>500</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3">
         <v>33750</v>
@@ -15067,7 +15075,7 @@
         <v>520</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D28" s="3">
         <v>45000</v>
@@ -15081,7 +15089,7 @@
         <v>540</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D29" s="3">
         <v>60000</v>
@@ -15095,7 +15103,7 @@
         <v>560</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3">
         <v>75000</v>
@@ -15109,7 +15117,7 @@
         <v>580</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D31" s="3">
         <v>90000</v>
@@ -15123,7 +15131,7 @@
         <v>600</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D32" s="3">
         <v>105000</v>
@@ -15137,7 +15145,7 @@
         <v>640</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3">
         <v>120000</v>
@@ -15151,7 +15159,7 @@
         <v>680</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D34" s="3">
         <v>135000</v>
@@ -15165,7 +15173,7 @@
         <v>720</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D35" s="3">
         <v>150000</v>
@@ -15179,7 +15187,7 @@
         <v>760</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D36" s="3">
         <v>165000</v>
@@ -15193,7 +15201,7 @@
         <v>800</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D37" s="3">
         <v>187500</v>
@@ -15207,7 +15215,7 @@
         <v>840</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D38" s="3">
         <v>210000</v>
@@ -15221,7 +15229,7 @@
         <v>880</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3">
         <v>232500</v>
@@ -15235,7 +15243,7 @@
         <v>920</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D40" s="3">
         <v>255000</v>
@@ -15249,7 +15257,7 @@
         <v>1000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1">
         <v>337500</v>
@@ -15285,7 +15293,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_poduction</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_poductionType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>INT_power</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_production</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4710,7 +4710,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:L41"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4723,37 +4723,37 @@
         <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -4709,7 +4709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -15755,8 +15755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15780,7 +15780,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="3">
         <v>42</v>
@@ -15791,7 +15791,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C3" s="3">
         <v>85</v>
@@ -15802,7 +15802,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C4" s="3">
         <v>127</v>
@@ -15813,7 +15813,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="3">
         <v>170</v>
@@ -15824,7 +15824,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="3">
         <v>212</v>
@@ -15835,7 +15835,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="C7" s="3">
         <v>255</v>
@@ -15846,7 +15846,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="3">
         <v>297</v>
@@ -15857,7 +15857,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="C9" s="3">
         <v>340</v>
@@ -15868,7 +15868,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="C10" s="3">
         <v>382</v>
@@ -15879,7 +15879,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="3">
         <v>425</v>
@@ -15890,7 +15890,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="C12" s="3">
         <v>637</v>
@@ -15901,7 +15901,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="C13" s="3">
         <v>850</v>
@@ -15912,7 +15912,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="C14" s="3">
         <v>1275</v>
@@ -15923,7 +15923,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C15" s="3">
         <v>1700</v>
@@ -15934,7 +15934,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="C16" s="3">
         <v>2550</v>
@@ -15945,7 +15945,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="C17" s="3">
         <v>3400</v>
@@ -15956,7 +15956,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="C18" s="3">
         <v>4250</v>
@@ -15967,7 +15967,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="C19" s="3">
         <v>5100</v>
@@ -15978,7 +15978,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="C20" s="3">
         <v>5950</v>
@@ -15989,7 +15989,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C21" s="3">
         <v>6800</v>
@@ -16000,7 +16000,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="C22" s="3">
         <v>7650</v>
@@ -16011,7 +16011,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="C23" s="3">
         <v>11475</v>
@@ -16022,7 +16022,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0.23</v>
+        <v>0.46</v>
       </c>
       <c r="C24" s="3">
         <v>15300</v>
@@ -16033,7 +16033,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="C25" s="3">
         <v>19125</v>
@@ -16044,7 +16044,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="3">
         <v>25500</v>
@@ -16055,7 +16055,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="C27" s="3">
         <v>38250</v>
@@ -16066,7 +16066,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="C28" s="3">
         <v>51000</v>
@@ -16077,7 +16077,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C29" s="3">
         <v>68000</v>
@@ -16088,7 +16088,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C30" s="3">
         <v>85000</v>
@@ -16099,7 +16099,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C31" s="3">
         <v>102000</v>
@@ -16110,7 +16110,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="C32" s="3">
         <v>119000</v>
@@ -16121,7 +16121,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="C33" s="3">
         <v>136000</v>
@@ -16132,7 +16132,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="C34" s="3">
         <v>153000</v>
@@ -16143,7 +16143,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="C35" s="3">
         <v>170000</v>
@@ -16154,7 +16154,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="C36" s="3">
         <v>187000</v>
@@ -16165,7 +16165,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>0.36</v>
+        <v>0.72</v>
       </c>
       <c r="C37" s="3">
         <v>212500</v>
@@ -16176,7 +16176,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="C38" s="3">
         <v>238000</v>
@@ -16187,7 +16187,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="C39" s="3">
         <v>263500</v>
@@ -16198,7 +16198,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="C40" s="3">
         <v>289000</v>
@@ -16209,7 +16209,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C41" s="1">
         <v>382500</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="3340" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="8"/>
+    <workbookView xWindow="4140" yWindow="2920" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -319,10 +319,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_poductionType</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_productBmWood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -360,6 +356,10 @@
   </si>
   <si>
     <t>INT_production</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_productionType</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4723,37 +4723,37 @@
         <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -15755,7 +15755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2920" windowWidth="30260" windowHeight="15860" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="2020" windowWidth="33160" windowHeight="16460" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="582">
+  <cellStyleXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1159,7 +1165,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="582">
+  <cellStyles count="588">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1453,6 +1459,9 @@
     <cellStyle name="超链接" xfId="576" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="578" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="580" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1739,6 +1748,9 @@
     <cellStyle name="访问过的超链接" xfId="577" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="579" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="581" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4709,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9886,8 +9898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9912,7 +9924,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <v>40</v>
       </c>
       <c r="C2" s="6">
@@ -9923,7 +9935,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>45</v>
       </c>
       <c r="C3" s="6">
@@ -9934,7 +9946,7 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>50</v>
       </c>
       <c r="C4" s="6">
@@ -9945,7 +9957,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>55</v>
       </c>
       <c r="C5" s="6">
@@ -9956,7 +9968,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>60</v>
       </c>
       <c r="C6" s="6">
@@ -9967,7 +9979,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>65</v>
       </c>
       <c r="C7" s="6">
@@ -9978,7 +9990,7 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>70</v>
       </c>
       <c r="C8" s="6">
@@ -9989,7 +10001,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>75</v>
       </c>
       <c r="C9" s="6">
@@ -10000,7 +10012,7 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>80</v>
       </c>
       <c r="C10" s="6">
@@ -10011,7 +10023,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>85</v>
       </c>
       <c r="C11" s="6">
@@ -10022,7 +10034,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>90</v>
       </c>
       <c r="C12" s="6">
@@ -10033,7 +10045,7 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="1">
         <v>105</v>
       </c>
       <c r="C13" s="6">
@@ -10044,8 +10056,8 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>120</v>
+      <c r="B14" s="1">
+        <v>170</v>
       </c>
       <c r="C14" s="6">
         <v>1800</v>
@@ -10055,8 +10067,8 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>140</v>
+      <c r="B15" s="1">
+        <v>200</v>
       </c>
       <c r="C15" s="6">
         <v>2400</v>
@@ -10066,8 +10078,8 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>150</v>
+      <c r="B16" s="1">
+        <v>220</v>
       </c>
       <c r="C16" s="6">
         <v>3600</v>
@@ -10077,8 +10089,8 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>170</v>
+      <c r="B17" s="1">
+        <v>240</v>
       </c>
       <c r="C17" s="6">
         <v>4800</v>
@@ -10088,8 +10100,8 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
-        <v>180</v>
+      <c r="B18" s="1">
+        <v>260</v>
       </c>
       <c r="C18" s="6">
         <v>6000</v>
@@ -10099,8 +10111,8 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
-        <v>200</v>
+      <c r="B19" s="1">
+        <v>280</v>
       </c>
       <c r="C19" s="6">
         <v>7200</v>
@@ -10110,8 +10122,8 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
-        <v>210</v>
+      <c r="B20" s="1">
+        <v>300</v>
       </c>
       <c r="C20" s="6">
         <v>8400</v>
@@ -10121,8 +10133,8 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="6">
-        <v>220</v>
+      <c r="B21" s="1">
+        <v>330</v>
       </c>
       <c r="C21" s="6">
         <v>9600</v>
@@ -10132,8 +10144,8 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="6">
-        <v>430</v>
+      <c r="B22" s="1">
+        <v>590</v>
       </c>
       <c r="C22" s="6">
         <v>10800</v>
@@ -10143,8 +10155,8 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="6">
-        <v>480</v>
+      <c r="B23" s="1">
+        <v>680</v>
       </c>
       <c r="C23" s="6">
         <v>16200</v>
@@ -10154,8 +10166,8 @@
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="6">
-        <v>540</v>
+      <c r="B24" s="1">
+        <v>760</v>
       </c>
       <c r="C24" s="6">
         <v>21600</v>
@@ -10165,8 +10177,8 @@
       <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="6">
-        <v>600</v>
+      <c r="B25" s="1">
+        <v>850</v>
       </c>
       <c r="C25" s="6">
         <v>27000</v>
@@ -10176,8 +10188,8 @@
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="6">
-        <v>660</v>
+      <c r="B26" s="1">
+        <v>940</v>
       </c>
       <c r="C26" s="6">
         <v>36000</v>
@@ -10187,8 +10199,8 @@
       <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="6">
-        <v>710</v>
+      <c r="B27" s="1">
+        <v>1020</v>
       </c>
       <c r="C27" s="6">
         <v>54000</v>
@@ -10198,8 +10210,8 @@
       <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="6">
-        <v>770</v>
+      <c r="B28" s="1">
+        <v>1110</v>
       </c>
       <c r="C28" s="6">
         <v>72000</v>
@@ -10209,8 +10221,8 @@
       <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="6">
-        <v>830</v>
+      <c r="B29" s="1">
+        <v>1200</v>
       </c>
       <c r="C29" s="6">
         <v>96000</v>
@@ -10220,8 +10232,8 @@
       <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="6">
-        <v>890</v>
+      <c r="B30" s="1">
+        <v>1280</v>
       </c>
       <c r="C30" s="6">
         <v>120000</v>
@@ -10231,8 +10243,8 @@
       <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="6">
-        <v>940</v>
+      <c r="B31" s="1">
+        <v>1370</v>
       </c>
       <c r="C31" s="6">
         <v>144000</v>
@@ -10242,8 +10254,8 @@
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="6">
-        <v>1410</v>
+      <c r="B32" s="1">
+        <v>2240</v>
       </c>
       <c r="C32" s="6">
         <v>168000</v>
@@ -10253,8 +10265,8 @@
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="6">
-        <v>1520</v>
+      <c r="B33" s="1">
+        <v>2410</v>
       </c>
       <c r="C33" s="6">
         <v>192000</v>
@@ -10264,8 +10276,8 @@
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="6">
-        <v>1640</v>
+      <c r="B34" s="1">
+        <v>2580</v>
       </c>
       <c r="C34" s="6">
         <v>216000</v>
@@ -10275,8 +10287,8 @@
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="6">
-        <v>1750</v>
+      <c r="B35" s="1">
+        <v>2750</v>
       </c>
       <c r="C35" s="6">
         <v>240000</v>
@@ -10286,8 +10298,8 @@
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="6">
-        <v>1870</v>
+      <c r="B36" s="1">
+        <v>2930</v>
       </c>
       <c r="C36" s="6">
         <v>264000</v>
@@ -10297,8 +10309,8 @@
       <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="6">
-        <v>1980</v>
+      <c r="B37" s="1">
+        <v>3100</v>
       </c>
       <c r="C37" s="6">
         <v>300000</v>
@@ -10308,8 +10320,8 @@
       <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="6">
-        <v>2100</v>
+      <c r="B38" s="1">
+        <v>3270</v>
       </c>
       <c r="C38" s="6">
         <v>336000</v>
@@ -10319,8 +10331,8 @@
       <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="6">
-        <v>2210</v>
+      <c r="B39" s="1">
+        <v>3450</v>
       </c>
       <c r="C39" s="6">
         <v>372000</v>
@@ -10330,8 +10342,8 @@
       <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>2330</v>
+      <c r="B40" s="1">
+        <v>3620</v>
       </c>
       <c r="C40" s="6">
         <v>408000</v>
@@ -10341,8 +10353,8 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>2440</v>
+      <c r="B41" s="1">
+        <v>3800</v>
       </c>
       <c r="C41" s="6">
         <v>540000</v>
@@ -12867,8 +12879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12901,16 +12913,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="C2" s="1">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="D2" s="1">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="E2" s="1">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="F2" s="3">
         <v>30</v>
@@ -12921,16 +12933,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="C3" s="3">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="D3" s="3">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="E3" s="3">
-        <v>180000</v>
+        <v>108000</v>
       </c>
       <c r="F3" s="3">
         <v>60</v>
@@ -12941,16 +12953,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>380000</v>
+        <v>228000</v>
       </c>
       <c r="C4" s="3">
-        <v>380000</v>
+        <v>228000</v>
       </c>
       <c r="D4" s="3">
-        <v>380000</v>
+        <v>228000</v>
       </c>
       <c r="E4" s="3">
-        <v>380000</v>
+        <v>228000</v>
       </c>
       <c r="F4" s="3">
         <v>90</v>
@@ -12961,16 +12973,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="C5" s="3">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="D5" s="3">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="E5" s="3">
-        <v>700000</v>
+        <v>420000</v>
       </c>
       <c r="F5" s="3">
         <v>120</v>
@@ -12981,16 +12993,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>1140000</v>
+        <v>684000</v>
       </c>
       <c r="C6" s="3">
-        <v>1140000</v>
+        <v>684000</v>
       </c>
       <c r="D6" s="3">
-        <v>1140000</v>
+        <v>684000</v>
       </c>
       <c r="E6" s="3">
-        <v>1140000</v>
+        <v>684000</v>
       </c>
       <c r="F6" s="3">
         <v>150</v>
@@ -13001,16 +13013,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1700000</v>
+        <v>1020000</v>
       </c>
       <c r="C7" s="3">
-        <v>1700000</v>
+        <v>1020000</v>
       </c>
       <c r="D7" s="3">
-        <v>1700000</v>
+        <v>1020000</v>
       </c>
       <c r="E7" s="3">
-        <v>1700000</v>
+        <v>1020000</v>
       </c>
       <c r="F7" s="3">
         <v>180</v>
@@ -13021,16 +13033,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2380000</v>
+        <v>1428000</v>
       </c>
       <c r="C8" s="3">
-        <v>2380000</v>
+        <v>1428000</v>
       </c>
       <c r="D8" s="3">
-        <v>2380000</v>
+        <v>1428000</v>
       </c>
       <c r="E8" s="3">
-        <v>2380000</v>
+        <v>1428000</v>
       </c>
       <c r="F8" s="3">
         <v>210</v>
@@ -13041,16 +13053,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3180000</v>
+        <v>1908000</v>
       </c>
       <c r="C9" s="3">
-        <v>3180000</v>
+        <v>1908000</v>
       </c>
       <c r="D9" s="3">
-        <v>3180000</v>
+        <v>1908000</v>
       </c>
       <c r="E9" s="3">
-        <v>3180000</v>
+        <v>1908000</v>
       </c>
       <c r="F9" s="3">
         <v>240</v>
@@ -13061,16 +13073,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>4100000</v>
+        <v>2460000</v>
       </c>
       <c r="C10" s="3">
-        <v>4100000</v>
+        <v>2460000</v>
       </c>
       <c r="D10" s="3">
-        <v>4100000</v>
+        <v>2460000</v>
       </c>
       <c r="E10" s="3">
-        <v>4100000</v>
+        <v>2460000</v>
       </c>
       <c r="F10" s="3">
         <v>270</v>
@@ -13081,16 +13093,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>5140000</v>
+        <v>3084000</v>
       </c>
       <c r="C11" s="3">
-        <v>5140000</v>
+        <v>3084000</v>
       </c>
       <c r="D11" s="3">
-        <v>5140000</v>
+        <v>3084000</v>
       </c>
       <c r="E11" s="3">
-        <v>5140000</v>
+        <v>3084000</v>
       </c>
       <c r="F11" s="3">
         <v>300</v>
@@ -13101,16 +13113,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>6300000</v>
+        <v>3780000</v>
       </c>
       <c r="C12" s="3">
-        <v>6300000</v>
+        <v>3780000</v>
       </c>
       <c r="D12" s="3">
-        <v>6300000</v>
+        <v>3780000</v>
       </c>
       <c r="E12" s="3">
-        <v>6300000</v>
+        <v>3780000</v>
       </c>
       <c r="F12" s="3">
         <v>450</v>
@@ -13121,16 +13133,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>7580000</v>
+        <v>4548000</v>
       </c>
       <c r="C13" s="3">
-        <v>7580000</v>
+        <v>4548000</v>
       </c>
       <c r="D13" s="3">
-        <v>7580000</v>
+        <v>4548000</v>
       </c>
       <c r="E13" s="3">
-        <v>7580000</v>
+        <v>4548000</v>
       </c>
       <c r="F13" s="3">
         <v>600</v>
@@ -13141,16 +13153,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>8980000</v>
+        <v>5388000</v>
       </c>
       <c r="C14" s="3">
-        <v>8980000</v>
+        <v>5388000</v>
       </c>
       <c r="D14" s="3">
-        <v>8980000</v>
+        <v>5388000</v>
       </c>
       <c r="E14" s="3">
-        <v>8980000</v>
+        <v>5388000</v>
       </c>
       <c r="F14" s="3">
         <v>900</v>
@@ -13161,16 +13173,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10500000</v>
+        <v>6300000</v>
       </c>
       <c r="C15" s="3">
-        <v>10500000</v>
+        <v>6300000</v>
       </c>
       <c r="D15" s="3">
-        <v>10500000</v>
+        <v>6300000</v>
       </c>
       <c r="E15" s="3">
-        <v>10500000</v>
+        <v>6300000</v>
       </c>
       <c r="F15" s="3">
         <v>1200</v>
@@ -13181,16 +13193,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>12140000</v>
+        <v>7284000</v>
       </c>
       <c r="C16" s="3">
-        <v>12140000</v>
+        <v>7284000</v>
       </c>
       <c r="D16" s="3">
-        <v>12140000</v>
+        <v>7284000</v>
       </c>
       <c r="E16" s="3">
-        <v>12140000</v>
+        <v>7284000</v>
       </c>
       <c r="F16" s="3">
         <v>1800</v>
@@ -13201,16 +13213,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>13900000</v>
+        <v>8340000</v>
       </c>
       <c r="C17" s="3">
-        <v>13900000</v>
+        <v>8340000</v>
       </c>
       <c r="D17" s="3">
-        <v>13900000</v>
+        <v>8340000</v>
       </c>
       <c r="E17" s="3">
-        <v>13900000</v>
+        <v>8340000</v>
       </c>
       <c r="F17" s="3">
         <v>2400</v>
@@ -13221,16 +13233,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>15780000</v>
+        <v>9468000</v>
       </c>
       <c r="C18" s="3">
-        <v>15780000</v>
+        <v>9468000</v>
       </c>
       <c r="D18" s="3">
-        <v>15780000</v>
+        <v>9468000</v>
       </c>
       <c r="E18" s="3">
-        <v>15780000</v>
+        <v>9468000</v>
       </c>
       <c r="F18" s="3">
         <v>3000</v>
@@ -13241,16 +13253,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>17780000</v>
+        <v>10668000</v>
       </c>
       <c r="C19" s="3">
-        <v>17780000</v>
+        <v>10668000</v>
       </c>
       <c r="D19" s="3">
-        <v>17780000</v>
+        <v>10668000</v>
       </c>
       <c r="E19" s="3">
-        <v>17780000</v>
+        <v>10668000</v>
       </c>
       <c r="F19" s="3">
         <v>3600</v>
@@ -13261,16 +13273,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>19900000</v>
+        <v>11940000</v>
       </c>
       <c r="C20" s="3">
-        <v>19900000</v>
+        <v>11940000</v>
       </c>
       <c r="D20" s="3">
-        <v>19900000</v>
+        <v>11940000</v>
       </c>
       <c r="E20" s="3">
-        <v>19900000</v>
+        <v>11940000</v>
       </c>
       <c r="F20" s="3">
         <v>4200</v>
@@ -13281,16 +13293,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>22140000</v>
+        <v>13284000</v>
       </c>
       <c r="C21" s="3">
-        <v>22140000</v>
+        <v>13284000</v>
       </c>
       <c r="D21" s="3">
-        <v>22140000</v>
+        <v>13284000</v>
       </c>
       <c r="E21" s="3">
-        <v>22140000</v>
+        <v>13284000</v>
       </c>
       <c r="F21" s="3">
         <v>4800</v>
@@ -13301,16 +13313,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>24500000</v>
+        <v>14700000</v>
       </c>
       <c r="C22" s="3">
-        <v>24500000</v>
+        <v>14700000</v>
       </c>
       <c r="D22" s="3">
-        <v>24500000</v>
+        <v>14700000</v>
       </c>
       <c r="E22" s="3">
-        <v>24500000</v>
+        <v>14700000</v>
       </c>
       <c r="F22" s="3">
         <v>5400</v>
@@ -13321,16 +13333,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>26980000</v>
+        <v>16188000</v>
       </c>
       <c r="C23" s="3">
-        <v>26980000</v>
+        <v>16188000</v>
       </c>
       <c r="D23" s="3">
-        <v>26980000</v>
+        <v>16188000</v>
       </c>
       <c r="E23" s="3">
-        <v>26980000</v>
+        <v>16188000</v>
       </c>
       <c r="F23" s="3">
         <v>8100</v>
@@ -13341,16 +13353,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>29580000</v>
+        <v>17748000</v>
       </c>
       <c r="C24" s="3">
-        <v>29580000</v>
+        <v>17748000</v>
       </c>
       <c r="D24" s="3">
-        <v>29580000</v>
+        <v>17748000</v>
       </c>
       <c r="E24" s="3">
-        <v>29580000</v>
+        <v>17748000</v>
       </c>
       <c r="F24" s="3">
         <v>10800</v>
@@ -13361,16 +13373,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>32300000</v>
+        <v>19380000</v>
       </c>
       <c r="C25" s="3">
-        <v>32300000</v>
+        <v>19380000</v>
       </c>
       <c r="D25" s="3">
-        <v>32300000</v>
+        <v>19380000</v>
       </c>
       <c r="E25" s="3">
-        <v>32300000</v>
+        <v>19380000</v>
       </c>
       <c r="F25" s="3">
         <v>13500</v>
@@ -13381,16 +13393,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>35140000</v>
+        <v>21084000</v>
       </c>
       <c r="C26" s="3">
-        <v>35140000</v>
+        <v>21084000</v>
       </c>
       <c r="D26" s="3">
-        <v>35140000</v>
+        <v>21084000</v>
       </c>
       <c r="E26" s="3">
-        <v>35140000</v>
+        <v>21084000</v>
       </c>
       <c r="F26" s="3">
         <v>18000</v>
@@ -13401,16 +13413,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>38100000</v>
+        <v>22860000</v>
       </c>
       <c r="C27" s="3">
-        <v>38100000</v>
+        <v>22860000</v>
       </c>
       <c r="D27" s="3">
-        <v>38100000</v>
+        <v>22860000</v>
       </c>
       <c r="E27" s="3">
-        <v>38100000</v>
+        <v>22860000</v>
       </c>
       <c r="F27" s="3">
         <v>27000</v>
@@ -13421,16 +13433,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>41180000</v>
+        <v>24708000</v>
       </c>
       <c r="C28" s="3">
-        <v>41180000</v>
+        <v>24708000</v>
       </c>
       <c r="D28" s="3">
-        <v>41180000</v>
+        <v>24708000</v>
       </c>
       <c r="E28" s="3">
-        <v>41180000</v>
+        <v>24708000</v>
       </c>
       <c r="F28" s="3">
         <v>36000</v>
@@ -13441,16 +13453,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>44380000</v>
+        <v>26628000</v>
       </c>
       <c r="C29" s="3">
-        <v>44380000</v>
+        <v>26628000</v>
       </c>
       <c r="D29" s="3">
-        <v>44380000</v>
+        <v>26628000</v>
       </c>
       <c r="E29" s="3">
-        <v>44380000</v>
+        <v>26628000</v>
       </c>
       <c r="F29" s="3">
         <v>48000</v>
@@ -13461,16 +13473,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>47700000</v>
+        <v>28620000</v>
       </c>
       <c r="C30" s="3">
-        <v>47700000</v>
+        <v>28620000</v>
       </c>
       <c r="D30" s="3">
-        <v>47700000</v>
+        <v>28620000</v>
       </c>
       <c r="E30" s="3">
-        <v>47700000</v>
+        <v>28620000</v>
       </c>
       <c r="F30" s="3">
         <v>60000</v>
@@ -13481,16 +13493,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>51140000</v>
+        <v>30684000</v>
       </c>
       <c r="C31" s="3">
-        <v>51140000</v>
+        <v>30684000</v>
       </c>
       <c r="D31" s="3">
-        <v>51140000</v>
+        <v>30684000</v>
       </c>
       <c r="E31" s="3">
-        <v>51140000</v>
+        <v>30684000</v>
       </c>
       <c r="F31" s="3">
         <v>72000</v>
@@ -13501,16 +13513,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>54700000</v>
+        <v>32820000</v>
       </c>
       <c r="C32" s="3">
-        <v>54700000</v>
+        <v>32820000</v>
       </c>
       <c r="D32" s="3">
-        <v>54700000</v>
+        <v>32820000</v>
       </c>
       <c r="E32" s="3">
-        <v>54700000</v>
+        <v>32820000</v>
       </c>
       <c r="F32" s="3">
         <v>84000</v>
@@ -13521,16 +13533,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>58380000</v>
+        <v>35028000</v>
       </c>
       <c r="C33" s="3">
-        <v>58380000</v>
+        <v>35028000</v>
       </c>
       <c r="D33" s="3">
-        <v>58380000</v>
+        <v>35028000</v>
       </c>
       <c r="E33" s="3">
-        <v>58380000</v>
+        <v>35028000</v>
       </c>
       <c r="F33" s="3">
         <v>96000</v>
@@ -13541,16 +13553,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>62180000</v>
+        <v>37308000</v>
       </c>
       <c r="C34" s="3">
-        <v>62180000</v>
+        <v>37308000</v>
       </c>
       <c r="D34" s="3">
-        <v>62180000</v>
+        <v>37308000</v>
       </c>
       <c r="E34" s="3">
-        <v>62180000</v>
+        <v>37308000</v>
       </c>
       <c r="F34" s="3">
         <v>108000</v>
@@ -13561,16 +13573,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>66100000</v>
+        <v>39660000</v>
       </c>
       <c r="C35" s="3">
-        <v>66100000</v>
+        <v>39660000</v>
       </c>
       <c r="D35" s="3">
-        <v>66100000</v>
+        <v>39660000</v>
       </c>
       <c r="E35" s="3">
-        <v>66100000</v>
+        <v>39660000</v>
       </c>
       <c r="F35" s="3">
         <v>120000</v>
@@ -13581,16 +13593,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>70140000</v>
+        <v>42084000</v>
       </c>
       <c r="C36" s="3">
-        <v>70140000</v>
+        <v>42084000</v>
       </c>
       <c r="D36" s="3">
-        <v>70140000</v>
+        <v>42084000</v>
       </c>
       <c r="E36" s="3">
-        <v>70140000</v>
+        <v>42084000</v>
       </c>
       <c r="F36" s="3">
         <v>132000</v>
@@ -13601,16 +13613,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>75000000</v>
+        <v>45000000</v>
       </c>
       <c r="C37" s="3">
-        <v>75000000</v>
+        <v>45000000</v>
       </c>
       <c r="D37" s="3">
-        <v>75000000</v>
+        <v>45000000</v>
       </c>
       <c r="E37" s="3">
-        <v>75000000</v>
+        <v>45000000</v>
       </c>
       <c r="F37" s="3">
         <v>150000</v>
@@ -13621,16 +13633,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>80000000</v>
+        <v>48000000</v>
       </c>
       <c r="C38" s="3">
-        <v>80000000</v>
+        <v>48000000</v>
       </c>
       <c r="D38" s="3">
-        <v>80000000</v>
+        <v>48000000</v>
       </c>
       <c r="E38" s="3">
-        <v>80000000</v>
+        <v>48000000</v>
       </c>
       <c r="F38" s="3">
         <v>168000</v>
@@ -13641,16 +13653,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="C39" s="3">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="D39" s="3">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="E39" s="3">
-        <v>100000000</v>
+        <v>60000000</v>
       </c>
       <c r="F39" s="3">
         <v>186000</v>
@@ -13661,16 +13673,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>120000000</v>
+        <v>72000000</v>
       </c>
       <c r="C40" s="3">
-        <v>120000000</v>
+        <v>72000000</v>
       </c>
       <c r="D40" s="3">
-        <v>120000000</v>
+        <v>72000000</v>
       </c>
       <c r="E40" s="3">
-        <v>120000000</v>
+        <v>72000000</v>
       </c>
       <c r="F40" s="3">
         <v>204000</v>
@@ -13681,16 +13693,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="C41" s="3">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="D41" s="3">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="E41" s="3">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="F41" s="1">
         <v>270000</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="2020" windowWidth="33160" windowHeight="16460" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="3840" yWindow="3780" windowWidth="23440" windowHeight="11860" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="588">
+  <cellStyleXfs count="594">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1165,7 +1171,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="588">
+  <cellStyles count="594">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1462,6 +1468,9 @@
     <cellStyle name="超链接" xfId="582" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="584" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="586" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1751,6 +1760,9 @@
     <cellStyle name="访问过的超链接" xfId="583" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="585" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="587" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2801,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2844,7 +2856,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3">
         <v>32</v>
@@ -2857,14 +2869,14 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3">
         <v>65</v>
@@ -2877,14 +2889,14 @@
       <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>40</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F4" s="3">
         <v>97</v>
@@ -2897,14 +2909,14 @@
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>60</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>60</v>
       </c>
       <c r="E5" s="1">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3">
         <v>130</v>
@@ -2917,14 +2929,14 @@
       <c r="B6" s="1">
         <v>80</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>80</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>80</v>
       </c>
       <c r="E6" s="1">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3">
         <v>162</v>
@@ -2937,14 +2949,14 @@
       <c r="B7" s="1">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>100</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3">
         <v>195</v>
@@ -2957,14 +2969,14 @@
       <c r="B8" s="1">
         <v>120</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>120</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>120</v>
       </c>
       <c r="E8" s="1">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="F8" s="3">
         <v>227</v>
@@ -2977,14 +2989,14 @@
       <c r="B9" s="1">
         <v>140</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>140</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>140</v>
       </c>
       <c r="E9" s="1">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3">
         <v>260</v>
@@ -2997,14 +3009,14 @@
       <c r="B10" s="1">
         <v>160</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>160</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>160</v>
       </c>
       <c r="E10" s="1">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="F10" s="3">
         <v>292</v>
@@ -3017,14 +3029,14 @@
       <c r="B11" s="1">
         <v>180</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>180</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>180</v>
       </c>
       <c r="E11" s="1">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="F11" s="3">
         <v>325</v>
@@ -3037,14 +3049,14 @@
       <c r="B12" s="1">
         <v>200</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>200</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>200</v>
       </c>
       <c r="E12" s="1">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
         <v>487</v>
@@ -3057,14 +3069,14 @@
       <c r="B13" s="1">
         <v>220</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>220</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>220</v>
       </c>
       <c r="E13" s="1">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="F13" s="3">
         <v>650</v>
@@ -3077,14 +3089,14 @@
       <c r="B14" s="1">
         <v>240</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>240</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>240</v>
       </c>
       <c r="E14" s="1">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="F14" s="3">
         <v>975</v>
@@ -3097,14 +3109,14 @@
       <c r="B15" s="1">
         <v>260</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>260</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>260</v>
       </c>
       <c r="E15" s="1">
-        <v>52</v>
+        <v>260</v>
       </c>
       <c r="F15" s="3">
         <v>1300</v>
@@ -3117,14 +3129,14 @@
       <c r="B16" s="1">
         <v>280</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>280</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>280</v>
       </c>
       <c r="E16" s="1">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="F16" s="3">
         <v>1950</v>
@@ -3137,14 +3149,14 @@
       <c r="B17" s="1">
         <v>300</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>300</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>300</v>
       </c>
       <c r="E17" s="1">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>2600</v>
@@ -3157,14 +3169,14 @@
       <c r="B18" s="1">
         <v>320</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>320</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>320</v>
       </c>
       <c r="E18" s="1">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="F18" s="3">
         <v>3250</v>
@@ -3177,14 +3189,14 @@
       <c r="B19" s="1">
         <v>340</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>340</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>340</v>
       </c>
       <c r="E19" s="1">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="F19" s="3">
         <v>3900</v>
@@ -3197,14 +3209,14 @@
       <c r="B20" s="1">
         <v>360</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>360</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>360</v>
       </c>
       <c r="E20" s="1">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="F20" s="3">
         <v>4550</v>
@@ -3217,14 +3229,14 @@
       <c r="B21" s="1">
         <v>380</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>380</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>380</v>
       </c>
       <c r="E21" s="1">
-        <v>76</v>
+        <v>380</v>
       </c>
       <c r="F21" s="3">
         <v>5200</v>
@@ -3237,14 +3249,14 @@
       <c r="B22" s="1">
         <v>400</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>400</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>400</v>
       </c>
       <c r="E22" s="1">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>5850</v>
@@ -3257,14 +3269,14 @@
       <c r="B23" s="1">
         <v>420</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>420</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>420</v>
       </c>
       <c r="E23" s="1">
-        <v>84</v>
+        <v>420</v>
       </c>
       <c r="F23" s="3">
         <v>8775</v>
@@ -3277,14 +3289,14 @@
       <c r="B24" s="1">
         <v>440</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>440</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>440</v>
       </c>
       <c r="E24" s="1">
-        <v>88</v>
+        <v>440</v>
       </c>
       <c r="F24" s="3">
         <v>11700</v>
@@ -3297,14 +3309,14 @@
       <c r="B25" s="1">
         <v>460</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>460</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>460</v>
       </c>
       <c r="E25" s="1">
-        <v>92</v>
+        <v>460</v>
       </c>
       <c r="F25" s="3">
         <v>14625</v>
@@ -3317,14 +3329,14 @@
       <c r="B26" s="1">
         <v>480</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>480</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>480</v>
       </c>
       <c r="E26" s="1">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="F26" s="3">
         <v>19500</v>
@@ -3337,14 +3349,14 @@
       <c r="B27" s="1">
         <v>500</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>500</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>500</v>
       </c>
       <c r="E27" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F27" s="3">
         <v>29250</v>
@@ -3357,14 +3369,14 @@
       <c r="B28" s="1">
         <v>550</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>550</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>550</v>
       </c>
       <c r="E28" s="1">
-        <v>110</v>
+        <v>550</v>
       </c>
       <c r="F28" s="3">
         <v>39000</v>
@@ -3377,14 +3389,14 @@
       <c r="B29" s="1">
         <v>600</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>600</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>600</v>
       </c>
       <c r="E29" s="1">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="F29" s="3">
         <v>52000</v>
@@ -3397,14 +3409,14 @@
       <c r="B30" s="1">
         <v>700</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>700</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>700</v>
       </c>
       <c r="E30" s="1">
-        <v>140</v>
+        <v>700</v>
       </c>
       <c r="F30" s="3">
         <v>65000</v>
@@ -3417,14 +3429,14 @@
       <c r="B31" s="1">
         <v>800</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>800</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>800</v>
       </c>
       <c r="E31" s="1">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="F31" s="3">
         <v>78000</v>
@@ -3437,14 +3449,14 @@
       <c r="B32" s="1">
         <v>900</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>900</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>900</v>
       </c>
       <c r="E32" s="1">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="F32" s="3">
         <v>91000</v>
@@ -3457,14 +3469,14 @@
       <c r="B33" s="1">
         <v>1000</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>1000</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>1000</v>
       </c>
       <c r="E33" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="3">
         <v>104000</v>
@@ -3477,14 +3489,14 @@
       <c r="B34" s="1">
         <v>1200</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>1200</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>1200</v>
       </c>
       <c r="E34" s="1">
-        <v>240</v>
+        <v>1200</v>
       </c>
       <c r="F34" s="3">
         <v>117000</v>
@@ -3495,16 +3507,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1500</v>
+        <v>1400</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1400</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1400</v>
       </c>
       <c r="E35" s="1">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="F35" s="3">
         <v>130000</v>
@@ -3515,16 +3527,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C36" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2000</v>
+        <v>1600</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1600</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1600</v>
       </c>
       <c r="E36" s="1">
-        <v>400</v>
+        <v>1600</v>
       </c>
       <c r="F36" s="3">
         <v>143000</v>
@@ -3535,16 +3547,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2500</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2500</v>
+        <v>1800</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1800</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1800</v>
       </c>
       <c r="E37" s="1">
-        <v>500</v>
+        <v>1800</v>
       </c>
       <c r="F37" s="3">
         <v>162500</v>
@@ -3555,16 +3567,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>3000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3000</v>
+        <v>2000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2000</v>
       </c>
       <c r="E38" s="1">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="3">
         <v>182000</v>
@@ -3575,16 +3587,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>3500</v>
-      </c>
-      <c r="C39" s="3">
-        <v>3500</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3500</v>
+        <v>2200</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2200</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2200</v>
       </c>
       <c r="E39" s="1">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="F39" s="3">
         <v>201500</v>
@@ -3595,16 +3607,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>4000</v>
+        <v>2500</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2500</v>
       </c>
       <c r="E40" s="1">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="F40" s="3">
         <v>221000</v>
@@ -3615,16 +3627,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C41" s="3">
-        <v>5000</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5000</v>
+        <v>3000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3000</v>
       </c>
       <c r="E41" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F41" s="1">
         <v>292500</v>
@@ -3647,7 +3659,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4123,7 +4135,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4722,7 +4734,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6304,7 +6316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E41"/>
     </sheetView>
   </sheetViews>
@@ -7026,7 +7038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -8224,7 +8236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -9898,7 +9910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B41"/>
     </sheetView>
   </sheetViews>
@@ -12879,7 +12891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -14693,7 +14705,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14748,7 +14760,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -14762,7 +14774,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -14776,7 +14788,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -14790,7 +14802,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -14804,7 +14816,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>34</v>
@@ -14818,7 +14830,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>34</v>
@@ -14832,7 +14844,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
@@ -14846,7 +14858,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
@@ -14860,7 +14872,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>41</v>
@@ -14874,7 +14886,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>41</v>
@@ -14888,7 +14900,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
@@ -14902,7 +14914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>260</v>
+        <v>600</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>43</v>
@@ -14916,7 +14928,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>280</v>
+        <v>650</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
@@ -14930,7 +14942,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
@@ -14944,7 +14956,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>320</v>
+        <v>750</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
@@ -14958,7 +14970,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
@@ -14972,7 +14984,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>360</v>
+        <v>850</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>44</v>
@@ -14986,7 +14998,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>380</v>
+        <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>44</v>
@@ -15000,7 +15012,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>400</v>
+        <v>950</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>44</v>
@@ -15014,7 +15026,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
@@ -15028,7 +15040,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>440</v>
+        <v>1100</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>44</v>
@@ -15042,7 +15054,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>460</v>
+        <v>1200</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>44</v>
@@ -15056,7 +15068,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>480</v>
+        <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>44</v>
@@ -15070,7 +15082,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>44</v>
@@ -15084,7 +15096,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>520</v>
+        <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
@@ -15098,7 +15110,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>540</v>
+        <v>1600</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
@@ -15112,7 +15124,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>560</v>
+        <v>1700</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>44</v>
@@ -15126,7 +15138,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>580</v>
+        <v>1800</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>44</v>
@@ -15140,7 +15152,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>600</v>
+        <v>1900</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -15154,7 +15166,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>640</v>
+        <v>2000</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>44</v>
@@ -15168,7 +15180,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>680</v>
+        <v>2100</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>44</v>
@@ -15182,7 +15194,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>720</v>
+        <v>2200</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>44</v>
@@ -15196,7 +15208,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>760</v>
+        <v>2300</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
@@ -15210,7 +15222,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>44</v>
@@ -15224,7 +15236,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>840</v>
+        <v>2500</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>44</v>
@@ -15238,7 +15250,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>880</v>
+        <v>2600</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>44</v>
@@ -15252,7 +15264,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>920</v>
+        <v>2800</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>44</v>
@@ -15266,7 +15278,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>44</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3780" windowWidth="23440" windowHeight="11860" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="3820" yWindow="400" windowWidth="25660" windowHeight="20460" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -200,10 +200,6 @@
   </si>
   <si>
     <t>INT_maxDragonMaterial</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxDragonEquipment</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2231,7 +2227,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2811,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2822,7 +2818,7 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2836,13 +2832,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2855,14 +2848,11 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2875,14 +2865,11 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2895,14 +2882,11 @@
       <c r="D4" s="1">
         <v>40</v>
       </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2915,14 +2899,11 @@
       <c r="D5" s="1">
         <v>60</v>
       </c>
-      <c r="E5" s="1">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2935,14 +2916,11 @@
       <c r="D6" s="1">
         <v>80</v>
       </c>
-      <c r="E6" s="1">
-        <v>80</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="3">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2955,14 +2933,11 @@
       <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2975,14 +2950,11 @@
       <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="E8" s="1">
-        <v>120</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2995,14 +2967,11 @@
       <c r="D9" s="1">
         <v>140</v>
       </c>
-      <c r="E9" s="1">
-        <v>140</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="3">
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3015,14 +2984,11 @@
       <c r="D10" s="1">
         <v>160</v>
       </c>
-      <c r="E10" s="1">
-        <v>160</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3035,14 +3001,11 @@
       <c r="D11" s="1">
         <v>180</v>
       </c>
-      <c r="E11" s="1">
-        <v>180</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="3">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3055,14 +3018,11 @@
       <c r="D12" s="1">
         <v>200</v>
       </c>
-      <c r="E12" s="1">
-        <v>200</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="3">
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3075,14 +3035,11 @@
       <c r="D13" s="1">
         <v>220</v>
       </c>
-      <c r="E13" s="1">
-        <v>220</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="3">
         <v>650</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3095,14 +3052,11 @@
       <c r="D14" s="1">
         <v>240</v>
       </c>
-      <c r="E14" s="1">
-        <v>240</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
         <v>975</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3115,14 +3069,11 @@
       <c r="D15" s="1">
         <v>260</v>
       </c>
-      <c r="E15" s="1">
-        <v>260</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3135,14 +3086,11 @@
       <c r="D16" s="1">
         <v>280</v>
       </c>
-      <c r="E16" s="1">
-        <v>280</v>
-      </c>
-      <c r="F16" s="3">
+      <c r="E16" s="3">
         <v>1950</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3155,14 +3103,11 @@
       <c r="D17" s="1">
         <v>300</v>
       </c>
-      <c r="E17" s="1">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3175,14 +3120,11 @@
       <c r="D18" s="1">
         <v>320</v>
       </c>
-      <c r="E18" s="1">
-        <v>320</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
         <v>3250</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3195,14 +3137,11 @@
       <c r="D19" s="1">
         <v>340</v>
       </c>
-      <c r="E19" s="1">
-        <v>340</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E19" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3215,14 +3154,11 @@
       <c r="D20" s="1">
         <v>360</v>
       </c>
-      <c r="E20" s="1">
-        <v>360</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
         <v>4550</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3235,14 +3171,11 @@
       <c r="D21" s="1">
         <v>380</v>
       </c>
-      <c r="E21" s="1">
-        <v>380</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3255,14 +3188,11 @@
       <c r="D22" s="1">
         <v>400</v>
       </c>
-      <c r="E22" s="1">
-        <v>400</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="3">
         <v>5850</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3275,14 +3205,11 @@
       <c r="D23" s="1">
         <v>420</v>
       </c>
-      <c r="E23" s="1">
-        <v>420</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="3">
         <v>8775</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3295,14 +3222,11 @@
       <c r="D24" s="1">
         <v>440</v>
       </c>
-      <c r="E24" s="1">
-        <v>440</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3315,14 +3239,11 @@
       <c r="D25" s="1">
         <v>460</v>
       </c>
-      <c r="E25" s="1">
-        <v>460</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="E25" s="3">
         <v>14625</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3335,14 +3256,11 @@
       <c r="D26" s="1">
         <v>480</v>
       </c>
-      <c r="E26" s="1">
-        <v>480</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3355,14 +3273,11 @@
       <c r="D27" s="1">
         <v>500</v>
       </c>
-      <c r="E27" s="1">
-        <v>500</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="3">
         <v>29250</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3375,14 +3290,11 @@
       <c r="D28" s="1">
         <v>550</v>
       </c>
-      <c r="E28" s="1">
-        <v>550</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28" s="3">
         <v>39000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3395,14 +3307,11 @@
       <c r="D29" s="1">
         <v>600</v>
       </c>
-      <c r="E29" s="1">
-        <v>600</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="3">
         <v>52000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3415,14 +3324,11 @@
       <c r="D30" s="1">
         <v>700</v>
       </c>
-      <c r="E30" s="1">
-        <v>700</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30" s="3">
         <v>65000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3435,14 +3341,11 @@
       <c r="D31" s="1">
         <v>800</v>
       </c>
-      <c r="E31" s="1">
-        <v>800</v>
-      </c>
-      <c r="F31" s="3">
+      <c r="E31" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3455,14 +3358,11 @@
       <c r="D32" s="1">
         <v>900</v>
       </c>
-      <c r="E32" s="1">
-        <v>900</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
         <v>91000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3475,14 +3375,11 @@
       <c r="D33" s="1">
         <v>1000</v>
       </c>
-      <c r="E33" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3495,14 +3392,11 @@
       <c r="D34" s="1">
         <v>1200</v>
       </c>
-      <c r="E34" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34" s="3">
         <v>117000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3515,14 +3409,11 @@
       <c r="D35" s="1">
         <v>1400</v>
       </c>
-      <c r="E35" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="3">
         <v>130000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3535,14 +3426,11 @@
       <c r="D36" s="1">
         <v>1600</v>
       </c>
-      <c r="E36" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F36" s="3">
+      <c r="E36" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3555,14 +3443,11 @@
       <c r="D37" s="1">
         <v>1800</v>
       </c>
-      <c r="E37" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F37" s="3">
+      <c r="E37" s="3">
         <v>162500</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3575,14 +3460,11 @@
       <c r="D38" s="1">
         <v>2000</v>
       </c>
-      <c r="E38" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F38" s="3">
+      <c r="E38" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3595,14 +3477,11 @@
       <c r="D39" s="1">
         <v>2200</v>
       </c>
-      <c r="E39" s="1">
-        <v>2200</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="E39" s="3">
         <v>201500</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3615,14 +3494,11 @@
       <c r="D40" s="1">
         <v>2500</v>
       </c>
-      <c r="E40" s="1">
-        <v>2500</v>
-      </c>
-      <c r="F40" s="3">
+      <c r="E40" s="3">
         <v>221000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3636,9 +3512,6 @@
         <v>3000</v>
       </c>
       <c r="E41" s="1">
-        <v>3000</v>
-      </c>
-      <c r="F41" s="1">
         <v>292500</v>
       </c>
     </row>
@@ -4145,16 +4018,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4744,40 +4617,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -6336,10 +6209,10 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7049,16 +6922,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7648,16 +7521,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8247,16 +8120,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8846,16 +8719,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9923,10 +9796,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -13753,19 +13626,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -14721,7 +14594,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -14735,7 +14608,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3">
         <v>37</v>
@@ -14749,7 +14622,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3">
         <v>75</v>
@@ -14763,7 +14636,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3">
         <v>112</v>
@@ -14777,7 +14650,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3">
         <v>150</v>
@@ -14791,7 +14664,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3">
         <v>187</v>
@@ -14805,7 +14678,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3">
         <v>225</v>
@@ -14819,7 +14692,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="3">
         <v>262</v>
@@ -14833,7 +14706,7 @@
         <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3">
         <v>300</v>
@@ -14847,7 +14720,7 @@
         <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3">
         <v>337</v>
@@ -14861,7 +14734,7 @@
         <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3">
         <v>375</v>
@@ -14875,7 +14748,7 @@
         <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3">
         <v>562</v>
@@ -14889,7 +14762,7 @@
         <v>500</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3">
         <v>750</v>
@@ -14903,7 +14776,7 @@
         <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3">
         <v>1125</v>
@@ -14917,7 +14790,7 @@
         <v>600</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3">
         <v>1500</v>
@@ -14931,7 +14804,7 @@
         <v>650</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3">
         <v>2250</v>
@@ -14945,7 +14818,7 @@
         <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3">
         <v>3000</v>
@@ -14959,7 +14832,7 @@
         <v>750</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3">
         <v>3750</v>
@@ -14973,7 +14846,7 @@
         <v>800</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="3">
         <v>4500</v>
@@ -14987,7 +14860,7 @@
         <v>850</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="3">
         <v>5250</v>
@@ -15001,7 +14874,7 @@
         <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="3">
         <v>6000</v>
@@ -15015,7 +14888,7 @@
         <v>950</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="3">
         <v>6750</v>
@@ -15029,7 +14902,7 @@
         <v>1000</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3">
         <v>10125</v>
@@ -15043,7 +14916,7 @@
         <v>1100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3">
         <v>13500</v>
@@ -15057,7 +14930,7 @@
         <v>1200</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="3">
         <v>16875</v>
@@ -15071,7 +14944,7 @@
         <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="3">
         <v>22500</v>
@@ -15085,7 +14958,7 @@
         <v>1400</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3">
         <v>33750</v>
@@ -15099,7 +14972,7 @@
         <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="3">
         <v>45000</v>
@@ -15113,7 +14986,7 @@
         <v>1600</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="3">
         <v>60000</v>
@@ -15127,7 +15000,7 @@
         <v>1700</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="3">
         <v>75000</v>
@@ -15141,7 +15014,7 @@
         <v>1800</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="3">
         <v>90000</v>
@@ -15155,7 +15028,7 @@
         <v>1900</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="3">
         <v>105000</v>
@@ -15169,7 +15042,7 @@
         <v>2000</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="3">
         <v>120000</v>
@@ -15183,7 +15056,7 @@
         <v>2100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="3">
         <v>135000</v>
@@ -15197,7 +15070,7 @@
         <v>2200</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="3">
         <v>150000</v>
@@ -15211,7 +15084,7 @@
         <v>2300</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="3">
         <v>165000</v>
@@ -15225,7 +15098,7 @@
         <v>2400</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="3">
         <v>187500</v>
@@ -15239,7 +15112,7 @@
         <v>2500</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3">
         <v>210000</v>
@@ -15253,7 +15126,7 @@
         <v>2600</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="3">
         <v>232500</v>
@@ -15267,7 +15140,7 @@
         <v>2800</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="3">
         <v>255000</v>
@@ -15281,7 +15154,7 @@
         <v>3000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1">
         <v>337500</v>
@@ -15317,7 +15190,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="400" windowWidth="25660" windowHeight="20460" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="2900" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" firstSheet="2" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="594">
+  <cellStyleXfs count="648">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +558,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1167,7 +1221,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="594">
+  <cellStyles count="648">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1467,6 +1521,33 @@
     <cellStyle name="超链接" xfId="588" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="590" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="592" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="594" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="596" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="598" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="600" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="602" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="604" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="606" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="608" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="610" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="612" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="614" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="616" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="618" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="620" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="622" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="624" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="626" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="628" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="630" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="632" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="634" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="636" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="638" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="640" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1759,6 +1840,33 @@
     <cellStyle name="访问过的超链接" xfId="589" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="591" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="593" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="595" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="597" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="599" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="601" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="603" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="605" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="607" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="609" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="611" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="613" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="615" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="617" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="619" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="621" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="623" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="625" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="627" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="629" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="631" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="633" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="635" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="637" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="639" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="641" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2211,7 +2319,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D2" sqref="D2:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2244,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -2258,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -2272,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -2286,7 +2394,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -2300,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>250</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -2314,7 +2422,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="3">
-        <v>300</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -2328,7 +2436,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>350</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -2342,7 +2450,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -2356,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>450</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -2370,7 +2478,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>500</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -2384,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>750</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -2398,7 +2506,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>1000</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -2412,7 +2520,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -2426,7 +2534,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -2440,7 +2548,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>3000</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -2454,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="3">
-        <v>4000</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2468,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3">
-        <v>5000</v>
+        <v>14160</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2482,7 +2590,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3">
-        <v>6000</v>
+        <v>17440</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2496,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3">
-        <v>7000</v>
+        <v>21310</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -2510,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3">
-        <v>8000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -2524,7 +2632,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3">
-        <v>9000</v>
+        <v>33980</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -2538,7 +2646,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="3">
-        <v>13500</v>
+        <v>38950</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -2552,7 +2660,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="3">
-        <v>18000</v>
+        <v>44960</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -2566,7 +2674,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="3">
-        <v>22500</v>
+        <v>50600</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -2580,7 +2688,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="3">
-        <v>30000</v>
+        <v>69130</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2594,7 +2702,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3">
-        <v>45000</v>
+        <v>77180</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -2608,7 +2716,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="3">
-        <v>60000</v>
+        <v>86830</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -2622,7 +2730,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="3">
-        <v>80000</v>
+        <v>95950</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -2636,7 +2744,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="3">
-        <v>100000</v>
+        <v>136570</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -2650,7 +2758,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="3">
-        <v>120000</v>
+        <v>157660</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -2664,7 +2772,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="3">
-        <v>140000</v>
+        <v>182100</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -2678,7 +2786,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="3">
-        <v>160000</v>
+        <v>206620</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -2692,7 +2800,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="3">
-        <v>180000</v>
+        <v>282820</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -2706,7 +2814,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="3">
-        <v>200000</v>
+        <v>317800</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -2720,7 +2828,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="3">
-        <v>220000</v>
+        <v>357980</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -2734,7 +2842,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="3">
-        <v>250000</v>
+        <v>398440</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -2748,7 +2856,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="3">
-        <v>280000</v>
+        <v>535830</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -2761,8 +2869,8 @@
       <c r="C39" s="1">
         <v>38</v>
       </c>
-      <c r="D39" s="3">
-        <v>310000</v>
+      <c r="D39" s="1">
+        <v>592750</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -2775,8 +2883,8 @@
       <c r="C40" s="1">
         <v>39</v>
       </c>
-      <c r="D40" s="3">
-        <v>340000</v>
+      <c r="D40" s="1">
+        <v>657150</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -2790,7 +2898,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="1">
-        <v>450000</v>
+        <v>722840</v>
       </c>
     </row>
   </sheetData>
@@ -2809,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showRuler="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2849,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -2866,7 +2974,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="3">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -2883,7 +2991,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="3">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -2900,7 +3008,7 @@
         <v>60</v>
       </c>
       <c r="E5" s="3">
-        <v>130</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -2917,7 +3025,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="3">
-        <v>162</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -2934,7 +3042,7 @@
         <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>195</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -2951,7 +3059,7 @@
         <v>120</v>
       </c>
       <c r="E8" s="3">
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -2968,7 +3076,7 @@
         <v>140</v>
       </c>
       <c r="E9" s="3">
-        <v>260</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -2985,7 +3093,7 @@
         <v>160</v>
       </c>
       <c r="E10" s="3">
-        <v>292</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -3002,7 +3110,7 @@
         <v>180</v>
       </c>
       <c r="E11" s="3">
-        <v>325</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -3019,7 +3127,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>487</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -3036,7 +3144,7 @@
         <v>220</v>
       </c>
       <c r="E13" s="3">
-        <v>650</v>
+        <v>920</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -3053,7 +3161,7 @@
         <v>240</v>
       </c>
       <c r="E14" s="3">
-        <v>975</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -3070,7 +3178,7 @@
         <v>260</v>
       </c>
       <c r="E15" s="3">
-        <v>1300</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -3087,7 +3195,7 @@
         <v>280</v>
       </c>
       <c r="E16" s="3">
-        <v>1950</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -3104,7 +3212,7 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>2600</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -3121,7 +3229,7 @@
         <v>320</v>
       </c>
       <c r="E18" s="3">
-        <v>3250</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -3138,7 +3246,7 @@
         <v>340</v>
       </c>
       <c r="E19" s="3">
-        <v>3900</v>
+        <v>9610</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -3155,7 +3263,7 @@
         <v>360</v>
       </c>
       <c r="E20" s="3">
-        <v>4550</v>
+        <v>11730</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -3172,7 +3280,7 @@
         <v>380</v>
       </c>
       <c r="E21" s="3">
-        <v>5200</v>
+        <v>13770</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -3189,7 +3297,7 @@
         <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>5850</v>
+        <v>18700</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -3206,7 +3314,7 @@
         <v>420</v>
       </c>
       <c r="E23" s="3">
-        <v>8775</v>
+        <v>21440</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
@@ -3223,7 +3331,7 @@
         <v>440</v>
       </c>
       <c r="E24" s="3">
-        <v>11700</v>
+        <v>24740</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
@@ -3240,7 +3348,7 @@
         <v>460</v>
       </c>
       <c r="E25" s="3">
-        <v>14625</v>
+        <v>27850</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
@@ -3257,7 +3365,7 @@
         <v>480</v>
       </c>
       <c r="E26" s="3">
-        <v>19500</v>
+        <v>38030</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1">
@@ -3274,7 +3382,7 @@
         <v>500</v>
       </c>
       <c r="E27" s="3">
-        <v>29250</v>
+        <v>42460</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1">
@@ -3291,7 +3399,7 @@
         <v>550</v>
       </c>
       <c r="E28" s="3">
-        <v>39000</v>
+        <v>47770</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
@@ -3308,7 +3416,7 @@
         <v>600</v>
       </c>
       <c r="E29" s="3">
-        <v>52000</v>
+        <v>52780</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
@@ -3325,7 +3433,7 @@
         <v>700</v>
       </c>
       <c r="E30" s="3">
-        <v>65000</v>
+        <v>75130</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1">
@@ -3342,7 +3450,7 @@
         <v>800</v>
       </c>
       <c r="E31" s="3">
-        <v>78000</v>
+        <v>86730</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1">
@@ -3359,7 +3467,7 @@
         <v>900</v>
       </c>
       <c r="E32" s="3">
-        <v>91000</v>
+        <v>100170</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1">
@@ -3376,7 +3484,7 @@
         <v>1000</v>
       </c>
       <c r="E33" s="3">
-        <v>104000</v>
+        <v>113650</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1">
@@ -3393,7 +3501,7 @@
         <v>1200</v>
       </c>
       <c r="E34" s="3">
-        <v>117000</v>
+        <v>155560</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
@@ -3410,7 +3518,7 @@
         <v>1400</v>
       </c>
       <c r="E35" s="3">
-        <v>130000</v>
+        <v>174800</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
@@ -3427,7 +3535,7 @@
         <v>1600</v>
       </c>
       <c r="E36" s="3">
-        <v>143000</v>
+        <v>196900</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1">
@@ -3444,7 +3552,7 @@
         <v>1800</v>
       </c>
       <c r="E37" s="3">
-        <v>162500</v>
+        <v>219150</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1">
@@ -3461,7 +3569,7 @@
         <v>2000</v>
       </c>
       <c r="E38" s="3">
-        <v>182000</v>
+        <v>294720</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1">
@@ -3478,7 +3586,7 @@
         <v>2200</v>
       </c>
       <c r="E39" s="3">
-        <v>201500</v>
+        <v>326020</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1">
@@ -3494,8 +3602,8 @@
       <c r="D40" s="1">
         <v>2500</v>
       </c>
-      <c r="E40" s="3">
-        <v>221000</v>
+      <c r="E40" s="1">
+        <v>361440</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
@@ -3512,7 +3620,7 @@
         <v>3000</v>
       </c>
       <c r="E41" s="1">
-        <v>292500</v>
+        <v>397570</v>
       </c>
     </row>
   </sheetData>
@@ -3531,8 +3639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3559,7 +3667,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="3">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -3570,7 +3678,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="3">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -3581,7 +3689,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -3592,7 +3700,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="3">
-        <v>124</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -3603,7 +3711,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="3">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -3614,7 +3722,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="3">
-        <v>186</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -3625,7 +3733,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>217</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -3636,7 +3744,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="3">
-        <v>248</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -3647,7 +3755,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="3">
-        <v>279</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -3658,7 +3766,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="3">
-        <v>310</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -3669,7 +3777,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="3">
-        <v>465</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -3680,7 +3788,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="3">
-        <v>620</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -3691,7 +3799,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="3">
-        <v>930</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -3702,7 +3810,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>1240</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -3713,7 +3821,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="3">
-        <v>1860</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -3724,7 +3832,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="3">
-        <v>2480</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -3735,7 +3843,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="3">
-        <v>3100</v>
+        <v>7390</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -3746,7 +3854,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="3">
-        <v>3720</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -3757,7 +3865,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="3">
-        <v>4340</v>
+        <v>11110</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -3768,7 +3876,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="3">
-        <v>4960</v>
+        <v>13030</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -3779,7 +3887,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="3">
-        <v>5580</v>
+        <v>17700</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -3790,7 +3898,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="3">
-        <v>8370</v>
+        <v>20280</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -3801,7 +3909,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="3">
-        <v>11160</v>
+        <v>23410</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -3812,7 +3920,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="3">
-        <v>13950</v>
+        <v>26340</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -3823,7 +3931,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="3">
-        <v>18600</v>
+        <v>35980</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -3834,7 +3942,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="3">
-        <v>27900</v>
+        <v>40160</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -3845,7 +3953,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="3">
-        <v>37200</v>
+        <v>45180</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -3856,7 +3964,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="3">
-        <v>49600</v>
+        <v>49920</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -3867,7 +3975,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="3">
-        <v>62000</v>
+        <v>71050</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -3878,7 +3986,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="3">
-        <v>74400</v>
+        <v>82010</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -3889,7 +3997,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="3">
-        <v>86800</v>
+        <v>94720</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -3900,7 +4008,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="3">
-        <v>99200</v>
+        <v>107470</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -3911,7 +4019,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="3">
-        <v>111600</v>
+        <v>147090</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -3922,7 +4030,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="3">
-        <v>124000</v>
+        <v>165280</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -3933,7 +4041,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="3">
-        <v>136400</v>
+        <v>186180</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -3944,7 +4052,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="3">
-        <v>155000</v>
+        <v>207210</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -3955,7 +4063,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="3">
-        <v>173600</v>
+        <v>278660</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -3966,7 +4074,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="3">
-        <v>192200</v>
+        <v>308260</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -3976,8 +4084,8 @@
       <c r="B40" s="1">
         <v>0.39</v>
       </c>
-      <c r="C40" s="3">
-        <v>210800</v>
+      <c r="C40" s="1">
+        <v>341740</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -3988,7 +4096,7 @@
         <v>0.4</v>
       </c>
       <c r="C41" s="1">
-        <v>279000</v>
+        <v>375900</v>
       </c>
     </row>
   </sheetData>
@@ -4005,10 +4113,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4041,7 +4149,7 @@
         <v>0.5</v>
       </c>
       <c r="D2" s="3">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -4055,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -4069,7 +4177,7 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="3">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -4083,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -4097,7 +4205,7 @@
         <v>2.5</v>
       </c>
       <c r="D6" s="3">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -4111,7 +4219,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>192</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -4125,7 +4233,7 @@
         <v>3.5</v>
       </c>
       <c r="D8" s="3">
-        <v>224</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -4139,7 +4247,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>256</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -4153,7 +4261,7 @@
         <v>4.5</v>
       </c>
       <c r="D10" s="3">
-        <v>288</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -4167,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>320</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -4181,7 +4289,7 @@
         <v>5.5</v>
       </c>
       <c r="D12" s="3">
-        <v>480</v>
+        <v>760</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -4195,7 +4303,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="3">
-        <v>640</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -4209,7 +4317,7 @@
         <v>6.5</v>
       </c>
       <c r="D14" s="3">
-        <v>960</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -4223,7 +4331,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="3">
-        <v>1280</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -4237,7 +4345,7 @@
         <v>7.5</v>
       </c>
       <c r="D16" s="3">
-        <v>1920</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -4251,7 +4359,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="3">
-        <v>2560</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -4265,7 +4373,7 @@
         <v>8.5</v>
       </c>
       <c r="D18" s="3">
-        <v>3200</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -4279,7 +4387,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="3">
-        <v>3840</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -4293,7 +4401,7 @@
         <v>9.5</v>
       </c>
       <c r="D20" s="3">
-        <v>4480</v>
+        <v>11570</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -4307,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>5120</v>
+        <v>13560</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -4321,7 +4429,7 @@
         <v>10.5</v>
       </c>
       <c r="D22" s="3">
-        <v>5760</v>
+        <v>18410</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -4335,7 +4443,7 @@
         <v>11</v>
       </c>
       <c r="D23" s="3">
-        <v>8640</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -4349,7 +4457,7 @@
         <v>11.5</v>
       </c>
       <c r="D24" s="3">
-        <v>11520</v>
+        <v>24340</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -4363,7 +4471,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>14400</v>
+        <v>27380</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -4377,7 +4485,7 @@
         <v>12.5</v>
       </c>
       <c r="D26" s="3">
-        <v>19200</v>
+        <v>37390</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -4391,7 +4499,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="3">
-        <v>28800</v>
+        <v>41730</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -4405,7 +4513,7 @@
         <v>13.5</v>
       </c>
       <c r="D28" s="3">
-        <v>38400</v>
+        <v>46940</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -4419,7 +4527,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="3">
-        <v>51200</v>
+        <v>51870</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -4433,7 +4541,7 @@
         <v>14.5</v>
       </c>
       <c r="D30" s="3">
-        <v>64000</v>
+        <v>73810</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -4447,7 +4555,7 @@
         <v>15</v>
       </c>
       <c r="D31" s="3">
-        <v>76800</v>
+        <v>85200</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -4461,7 +4569,7 @@
         <v>15.5</v>
       </c>
       <c r="D32" s="3">
-        <v>89600</v>
+        <v>98390</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -4475,7 +4583,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="3">
-        <v>102400</v>
+        <v>111630</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -4489,7 +4597,7 @@
         <v>16.5</v>
       </c>
       <c r="D34" s="3">
-        <v>115200</v>
+        <v>152780</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -4503,7 +4611,7 @@
         <v>17</v>
       </c>
       <c r="D35" s="3">
-        <v>128000</v>
+        <v>171670</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -4517,7 +4625,7 @@
         <v>17.5</v>
       </c>
       <c r="D36" s="3">
-        <v>140800</v>
+        <v>193370</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -4531,7 +4639,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="3">
-        <v>160000</v>
+        <v>215210</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -4545,7 +4653,7 @@
         <v>18.5</v>
       </c>
       <c r="D38" s="3">
-        <v>179200</v>
+        <v>289400</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -4559,7 +4667,7 @@
         <v>19</v>
       </c>
       <c r="D39" s="3">
-        <v>198400</v>
+        <v>320140</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -4573,7 +4681,7 @@
         <v>19.5</v>
       </c>
       <c r="D40" s="3">
-        <v>217600</v>
+        <v>354920</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -4586,9 +4694,12 @@
       <c r="C41" s="1">
         <v>20</v>
       </c>
-      <c r="D41" s="1">
-        <v>288000</v>
-      </c>
+      <c r="D41" s="3">
+        <v>390390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4606,8 +4717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:M14"/>
+    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4673,7 +4784,7 @@
         <v>20000</v>
       </c>
       <c r="G2" s="1">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H2" s="1">
         <v>40000</v>
@@ -4685,10 +4796,10 @@
         <v>40000</v>
       </c>
       <c r="K2" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L2" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1">
@@ -4711,7 +4822,7 @@
         <v>40000</v>
       </c>
       <c r="G3" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H3" s="1">
         <v>80000</v>
@@ -4723,10 +4834,10 @@
         <v>80000</v>
       </c>
       <c r="K3" s="1">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="L3" s="3">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20" customHeight="1">
@@ -4734,37 +4845,37 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E4" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="F4" s="1">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G4" s="1">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H4" s="1">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="I4" s="1">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="J4" s="1">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="K4" s="1">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="L4" s="3">
-        <v>99</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1">
@@ -4772,37 +4883,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="E5" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F5" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G5" s="1">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H5" s="1">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="I5" s="1">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="J5" s="1">
-        <v>160000</v>
+        <v>240000</v>
       </c>
       <c r="K5" s="1">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L5" s="3">
-        <v>132</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1">
@@ -4810,37 +4921,37 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="E6" s="1">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="F6" s="1">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="G6" s="1">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H6" s="1">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="I6" s="1">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="J6" s="1">
-        <v>200000</v>
+        <v>320000</v>
       </c>
       <c r="K6" s="1">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L6" s="3">
-        <v>165</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1">
@@ -4848,37 +4959,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="E7" s="1">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="F7" s="1">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G7" s="1">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H7" s="1">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="I7" s="1">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="J7" s="1">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="K7" s="1">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L7" s="3">
-        <v>198</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20" customHeight="1">
@@ -4886,37 +4997,37 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="E8" s="1">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="F8" s="1">
-        <v>140000</v>
+        <v>240000</v>
       </c>
       <c r="G8" s="1">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="H8" s="1">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="I8" s="1">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="J8" s="1">
-        <v>280000</v>
+        <v>480000</v>
       </c>
       <c r="K8" s="1">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="L8" s="3">
-        <v>231</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
@@ -4924,37 +5035,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="E9" s="1">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="F9" s="1">
-        <v>160000</v>
+        <v>280000</v>
       </c>
       <c r="G9" s="1">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="H9" s="1">
-        <v>320000</v>
+        <v>560000</v>
       </c>
       <c r="I9" s="1">
-        <v>320000</v>
+        <v>560000</v>
       </c>
       <c r="J9" s="1">
-        <v>320000</v>
+        <v>560000</v>
       </c>
       <c r="K9" s="1">
-        <v>4800</v>
+        <v>4200</v>
       </c>
       <c r="L9" s="3">
-        <v>264</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
@@ -4962,37 +5073,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="E10" s="1">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="F10" s="1">
-        <v>180000</v>
+        <v>320000</v>
       </c>
       <c r="G10" s="1">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="H10" s="1">
-        <v>360000</v>
+        <v>640000</v>
       </c>
       <c r="I10" s="1">
-        <v>360000</v>
+        <v>640000</v>
       </c>
       <c r="J10" s="1">
-        <v>360000</v>
+        <v>640000</v>
       </c>
       <c r="K10" s="1">
-        <v>5400</v>
+        <v>4800</v>
       </c>
       <c r="L10" s="3">
-        <v>297</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
@@ -5000,37 +5111,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="E11" s="1">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="F11" s="1">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="G11" s="1">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="H11" s="1">
-        <v>400000</v>
+        <v>720000</v>
       </c>
       <c r="I11" s="1">
-        <v>400000</v>
+        <v>720000</v>
       </c>
       <c r="J11" s="1">
-        <v>400000</v>
+        <v>720000</v>
       </c>
       <c r="K11" s="1">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="L11" s="3">
-        <v>330</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
@@ -5038,37 +5149,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="E12" s="1">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="F12" s="1">
-        <v>220000</v>
+        <v>400000</v>
       </c>
       <c r="G12" s="1">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="H12" s="1">
-        <v>440000</v>
+        <v>800000</v>
       </c>
       <c r="I12" s="1">
-        <v>440000</v>
+        <v>800000</v>
       </c>
       <c r="J12" s="1">
-        <v>440000</v>
+        <v>800000</v>
       </c>
       <c r="K12" s="1">
-        <v>6600</v>
+        <v>6000</v>
       </c>
       <c r="L12" s="3">
-        <v>495</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
@@ -5076,37 +5187,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>240000</v>
+        <v>440000</v>
       </c>
       <c r="E13" s="1">
-        <v>240000</v>
+        <v>440000</v>
       </c>
       <c r="F13" s="1">
-        <v>240000</v>
+        <v>440000</v>
       </c>
       <c r="G13" s="1">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="H13" s="1">
-        <v>480000</v>
+        <v>880000</v>
       </c>
       <c r="I13" s="1">
-        <v>480000</v>
+        <v>880000</v>
       </c>
       <c r="J13" s="1">
-        <v>480000</v>
+        <v>880000</v>
       </c>
       <c r="K13" s="1">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="L13" s="3">
-        <v>660</v>
+        <v>950</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
@@ -5114,37 +5225,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="E14" s="1">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="F14" s="1">
-        <v>260000</v>
+        <v>480000</v>
       </c>
       <c r="G14" s="1">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="1">
-        <v>520000</v>
+        <v>960000</v>
       </c>
       <c r="I14" s="1">
-        <v>520000</v>
+        <v>960000</v>
       </c>
       <c r="J14" s="1">
-        <v>520000</v>
+        <v>960000</v>
       </c>
       <c r="K14" s="1">
-        <v>7800</v>
+        <v>7200</v>
       </c>
       <c r="L14" s="3">
-        <v>990</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1">
@@ -5152,37 +5263,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>280000</v>
+        <v>520000</v>
       </c>
       <c r="E15" s="1">
-        <v>280000</v>
+        <v>520000</v>
       </c>
       <c r="F15" s="1">
-        <v>280000</v>
+        <v>520000</v>
       </c>
       <c r="G15" s="1">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="H15" s="1">
-        <v>560000</v>
+        <v>1040000</v>
       </c>
       <c r="I15" s="1">
-        <v>560000</v>
+        <v>1040000</v>
       </c>
       <c r="J15" s="1">
-        <v>560000</v>
+        <v>1040000</v>
       </c>
       <c r="K15" s="1">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="L15" s="3">
-        <v>1320</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1">
@@ -5190,37 +5301,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>300000</v>
+        <v>560000</v>
       </c>
       <c r="E16" s="1">
-        <v>300000</v>
+        <v>560000</v>
       </c>
       <c r="F16" s="1">
-        <v>300000</v>
+        <v>560000</v>
       </c>
       <c r="G16" s="1">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="H16" s="1">
-        <v>600000</v>
+        <v>1120000</v>
       </c>
       <c r="I16" s="1">
-        <v>600000</v>
+        <v>1120000</v>
       </c>
       <c r="J16" s="1">
-        <v>600000</v>
+        <v>1120000</v>
       </c>
       <c r="K16" s="1">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="L16" s="3">
-        <v>1980</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20" customHeight="1">
@@ -5228,37 +5339,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>320000</v>
+        <v>600000</v>
       </c>
       <c r="E17" s="1">
-        <v>320000</v>
+        <v>600000</v>
       </c>
       <c r="F17" s="1">
-        <v>320000</v>
+        <v>600000</v>
       </c>
       <c r="G17" s="1">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H17" s="1">
-        <v>640000</v>
+        <v>1200000</v>
       </c>
       <c r="I17" s="1">
-        <v>640000</v>
+        <v>1200000</v>
       </c>
       <c r="J17" s="1">
-        <v>640000</v>
+        <v>1200000</v>
       </c>
       <c r="K17" s="1">
-        <v>9600</v>
+        <v>9000</v>
       </c>
       <c r="L17" s="3">
-        <v>2640</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="20" customHeight="1">
@@ -5266,37 +5377,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>340000</v>
+        <v>640000</v>
       </c>
       <c r="E18" s="1">
-        <v>340000</v>
+        <v>640000</v>
       </c>
       <c r="F18" s="1">
-        <v>340000</v>
+        <v>640000</v>
       </c>
       <c r="G18" s="1">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H18" s="1">
-        <v>680000</v>
+        <v>1280000</v>
       </c>
       <c r="I18" s="1">
-        <v>680000</v>
+        <v>1280000</v>
       </c>
       <c r="J18" s="1">
-        <v>680000</v>
+        <v>1280000</v>
       </c>
       <c r="K18" s="1">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="L18" s="3">
-        <v>3300</v>
+        <v>7960</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20" customHeight="1">
@@ -5304,37 +5415,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>360000</v>
+        <v>680000</v>
       </c>
       <c r="E19" s="1">
-        <v>360000</v>
+        <v>680000</v>
       </c>
       <c r="F19" s="1">
-        <v>360000</v>
+        <v>680000</v>
       </c>
       <c r="G19" s="1">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="H19" s="1">
-        <v>720000</v>
+        <v>1360000</v>
       </c>
       <c r="I19" s="1">
-        <v>720000</v>
+        <v>1360000</v>
       </c>
       <c r="J19" s="1">
-        <v>720000</v>
+        <v>1360000</v>
       </c>
       <c r="K19" s="1">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="L19" s="3">
-        <v>3960</v>
+        <v>9790</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20" customHeight="1">
@@ -5342,37 +5453,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>380000</v>
+        <v>720000</v>
       </c>
       <c r="E20" s="1">
-        <v>380000</v>
+        <v>720000</v>
       </c>
       <c r="F20" s="1">
-        <v>380000</v>
+        <v>720000</v>
       </c>
       <c r="G20" s="1">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="1">
-        <v>760000</v>
+        <v>1440000</v>
       </c>
       <c r="I20" s="1">
-        <v>760000</v>
+        <v>1440000</v>
       </c>
       <c r="J20" s="1">
-        <v>760000</v>
+        <v>1440000</v>
       </c>
       <c r="K20" s="1">
-        <v>11400</v>
+        <v>10800</v>
       </c>
       <c r="L20" s="3">
-        <v>4620</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20" customHeight="1">
@@ -5380,37 +5491,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>400000</v>
+        <v>760000</v>
       </c>
       <c r="E21" s="1">
-        <v>400000</v>
+        <v>760000</v>
       </c>
       <c r="F21" s="1">
-        <v>400000</v>
+        <v>760000</v>
       </c>
       <c r="G21" s="1">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="H21" s="1">
-        <v>800000</v>
+        <v>1520000</v>
       </c>
       <c r="I21" s="1">
-        <v>800000</v>
+        <v>1520000</v>
       </c>
       <c r="J21" s="1">
-        <v>800000</v>
+        <v>1520000</v>
       </c>
       <c r="K21" s="1">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="L21" s="3">
-        <v>5280</v>
+        <v>14030</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20" customHeight="1">
@@ -5418,37 +5529,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>420000</v>
+        <v>800000</v>
       </c>
       <c r="E22" s="1">
-        <v>420000</v>
+        <v>800000</v>
       </c>
       <c r="F22" s="1">
-        <v>420000</v>
+        <v>800000</v>
       </c>
       <c r="G22" s="1">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="1">
-        <v>840000</v>
+        <v>1600000</v>
       </c>
       <c r="I22" s="1">
-        <v>840000</v>
+        <v>1600000</v>
       </c>
       <c r="J22" s="1">
-        <v>840000</v>
+        <v>1600000</v>
       </c>
       <c r="K22" s="1">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="L22" s="3">
-        <v>5940</v>
+        <v>19060</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20" customHeight="1">
@@ -5456,37 +5567,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>440000</v>
+        <v>840000</v>
       </c>
       <c r="E23" s="1">
-        <v>440000</v>
+        <v>840000</v>
       </c>
       <c r="F23" s="1">
-        <v>440000</v>
+        <v>840000</v>
       </c>
       <c r="G23" s="1">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="H23" s="1">
-        <v>880000</v>
+        <v>1680000</v>
       </c>
       <c r="I23" s="1">
-        <v>880000</v>
+        <v>1680000</v>
       </c>
       <c r="J23" s="1">
-        <v>880000</v>
+        <v>1680000</v>
       </c>
       <c r="K23" s="1">
-        <v>13200</v>
+        <v>12600</v>
       </c>
       <c r="L23" s="3">
-        <v>8910</v>
+        <v>21840</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="20" customHeight="1">
@@ -5494,37 +5605,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>460000</v>
+        <v>880000</v>
       </c>
       <c r="E24" s="1">
-        <v>460000</v>
+        <v>880000</v>
       </c>
       <c r="F24" s="1">
-        <v>460000</v>
+        <v>880000</v>
       </c>
       <c r="G24" s="1">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="H24" s="1">
-        <v>920000</v>
+        <v>1760000</v>
       </c>
       <c r="I24" s="1">
-        <v>920000</v>
+        <v>1760000</v>
       </c>
       <c r="J24" s="1">
-        <v>920000</v>
+        <v>1760000</v>
       </c>
       <c r="K24" s="1">
-        <v>13800</v>
+        <v>13200</v>
       </c>
       <c r="L24" s="3">
-        <v>11880</v>
+        <v>25210</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="20" customHeight="1">
@@ -5532,37 +5643,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>480000</v>
+        <v>920000</v>
       </c>
       <c r="E25" s="1">
-        <v>480000</v>
+        <v>920000</v>
       </c>
       <c r="F25" s="1">
-        <v>480000</v>
+        <v>920000</v>
       </c>
       <c r="G25" s="1">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="H25" s="1">
-        <v>960000</v>
+        <v>1840000</v>
       </c>
       <c r="I25" s="1">
-        <v>960000</v>
+        <v>1840000</v>
       </c>
       <c r="J25" s="1">
-        <v>960000</v>
+        <v>1840000</v>
       </c>
       <c r="K25" s="1">
-        <v>14400</v>
+        <v>13800</v>
       </c>
       <c r="L25" s="3">
-        <v>14850</v>
+        <v>28370</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="20" customHeight="1">
@@ -5570,37 +5681,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>500000</v>
+        <v>960000</v>
       </c>
       <c r="E26" s="1">
-        <v>500000</v>
+        <v>960000</v>
       </c>
       <c r="F26" s="1">
-        <v>500000</v>
+        <v>960000</v>
       </c>
       <c r="G26" s="1">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="H26" s="1">
-        <v>1000000</v>
+        <v>1920000</v>
       </c>
       <c r="I26" s="1">
-        <v>1000000</v>
+        <v>1920000</v>
       </c>
       <c r="J26" s="1">
-        <v>1000000</v>
+        <v>1920000</v>
       </c>
       <c r="K26" s="1">
-        <v>15000</v>
+        <v>14400</v>
       </c>
       <c r="L26" s="3">
-        <v>19800</v>
+        <v>38740</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="20" customHeight="1">
@@ -5608,37 +5719,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>520000</v>
+        <v>1000000</v>
       </c>
       <c r="E27" s="1">
-        <v>520000</v>
+        <v>1000000</v>
       </c>
       <c r="F27" s="1">
-        <v>520000</v>
+        <v>1000000</v>
       </c>
       <c r="G27" s="1">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="H27" s="1">
-        <v>1040000</v>
+        <v>2000000</v>
       </c>
       <c r="I27" s="1">
-        <v>1040000</v>
+        <v>2000000</v>
       </c>
       <c r="J27" s="1">
-        <v>1040000</v>
+        <v>2000000</v>
       </c>
       <c r="K27" s="1">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="L27" s="3">
-        <v>29700</v>
+        <v>43250</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="20" customHeight="1">
@@ -5646,37 +5757,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>540000</v>
+        <v>1040000</v>
       </c>
       <c r="E28" s="1">
-        <v>540000</v>
+        <v>1040000</v>
       </c>
       <c r="F28" s="1">
-        <v>540000</v>
+        <v>1040000</v>
       </c>
       <c r="G28" s="1">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="H28" s="1">
-        <v>1080000</v>
+        <v>2080000</v>
       </c>
       <c r="I28" s="1">
-        <v>1080000</v>
+        <v>2080000</v>
       </c>
       <c r="J28" s="1">
-        <v>1080000</v>
+        <v>2080000</v>
       </c>
       <c r="K28" s="1">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="L28" s="3">
-        <v>39600</v>
+        <v>48650</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="20" customHeight="1">
@@ -5684,37 +5795,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>560000</v>
+        <v>1080000</v>
       </c>
       <c r="E29" s="1">
-        <v>560000</v>
+        <v>1080000</v>
       </c>
       <c r="F29" s="1">
-        <v>560000</v>
+        <v>1080000</v>
       </c>
       <c r="G29" s="1">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="H29" s="1">
-        <v>1120000</v>
+        <v>2160000</v>
       </c>
       <c r="I29" s="1">
-        <v>1120000</v>
+        <v>2160000</v>
       </c>
       <c r="J29" s="1">
-        <v>1120000</v>
+        <v>2160000</v>
       </c>
       <c r="K29" s="1">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="L29" s="3">
-        <v>52800</v>
+        <v>53760</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="20" customHeight="1">
@@ -5722,37 +5833,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>580000</v>
+        <v>1120000</v>
       </c>
       <c r="E30" s="1">
-        <v>580000</v>
+        <v>1120000</v>
       </c>
       <c r="F30" s="1">
-        <v>580000</v>
+        <v>1120000</v>
       </c>
       <c r="G30" s="1">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="H30" s="1">
-        <v>1160000</v>
+        <v>2240000</v>
       </c>
       <c r="I30" s="1">
-        <v>1160000</v>
+        <v>2240000</v>
       </c>
       <c r="J30" s="1">
-        <v>1160000</v>
+        <v>2240000</v>
       </c>
       <c r="K30" s="1">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="L30" s="3">
-        <v>66000</v>
+        <v>76510</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20" customHeight="1">
@@ -5760,37 +5871,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>600000</v>
+        <v>1160000</v>
       </c>
       <c r="E31" s="1">
-        <v>600000</v>
+        <v>1160000</v>
       </c>
       <c r="F31" s="1">
-        <v>600000</v>
+        <v>1160000</v>
       </c>
       <c r="G31" s="1">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="H31" s="1">
-        <v>1200000</v>
+        <v>2320000</v>
       </c>
       <c r="I31" s="1">
-        <v>1200000</v>
+        <v>2320000</v>
       </c>
       <c r="J31" s="1">
-        <v>1200000</v>
+        <v>2320000</v>
       </c>
       <c r="K31" s="1">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="L31" s="3">
-        <v>79200</v>
+        <v>88320</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20" customHeight="1">
@@ -5798,37 +5909,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>155</v>
+        <v>300</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>620000</v>
+        <v>1200000</v>
       </c>
       <c r="E32" s="1">
-        <v>620000</v>
+        <v>1200000</v>
       </c>
       <c r="F32" s="1">
-        <v>620000</v>
+        <v>1200000</v>
       </c>
       <c r="G32" s="1">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="H32" s="1">
-        <v>1240000</v>
+        <v>2400000</v>
       </c>
       <c r="I32" s="1">
-        <v>1240000</v>
+        <v>2400000</v>
       </c>
       <c r="J32" s="1">
-        <v>1240000</v>
+        <v>2400000</v>
       </c>
       <c r="K32" s="1">
-        <v>18600</v>
+        <v>18000</v>
       </c>
       <c r="L32" s="3">
-        <v>92400</v>
+        <v>102010</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="20" customHeight="1">
@@ -5836,37 +5947,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>640000</v>
+        <v>1280000</v>
       </c>
       <c r="E33" s="1">
-        <v>640000</v>
+        <v>1280000</v>
       </c>
       <c r="F33" s="1">
-        <v>640000</v>
+        <v>1280000</v>
       </c>
       <c r="G33" s="1">
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>1280000</v>
+        <v>2560000</v>
       </c>
       <c r="I33" s="1">
-        <v>1280000</v>
+        <v>2560000</v>
       </c>
       <c r="J33" s="1">
-        <v>1280000</v>
+        <v>2560000</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
       </c>
       <c r="L33" s="3">
-        <v>105600</v>
+        <v>115730</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="20" customHeight="1">
@@ -5874,37 +5985,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>660000</v>
+        <v>1360000</v>
       </c>
       <c r="E34" s="1">
-        <v>660000</v>
+        <v>1360000</v>
       </c>
       <c r="F34" s="1">
-        <v>660000</v>
+        <v>1360000</v>
       </c>
       <c r="G34" s="1">
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="H34" s="1">
-        <v>1320000</v>
+        <v>2720000</v>
       </c>
       <c r="I34" s="1">
-        <v>1320000</v>
+        <v>2720000</v>
       </c>
       <c r="J34" s="1">
-        <v>1320000</v>
+        <v>2720000</v>
       </c>
       <c r="K34" s="1">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="L34" s="3">
-        <v>118800</v>
+        <v>158410</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20" customHeight="1">
@@ -5912,37 +6023,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>680000</v>
+        <v>1440000</v>
       </c>
       <c r="E35" s="1">
-        <v>680000</v>
+        <v>1440000</v>
       </c>
       <c r="F35" s="1">
-        <v>680000</v>
+        <v>1440000</v>
       </c>
       <c r="G35" s="1">
-        <v>10200</v>
+        <v>10800</v>
       </c>
       <c r="H35" s="1">
-        <v>1360000</v>
+        <v>2880000</v>
       </c>
       <c r="I35" s="1">
-        <v>1360000</v>
+        <v>2880000</v>
       </c>
       <c r="J35" s="1">
-        <v>1360000</v>
+        <v>2880000</v>
       </c>
       <c r="K35" s="1">
-        <v>20400</v>
+        <v>21600</v>
       </c>
       <c r="L35" s="3">
-        <v>132000</v>
+        <v>178000</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="20" customHeight="1">
@@ -5950,37 +6061,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>175</v>
+        <v>380</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>700000</v>
+        <v>1520000</v>
       </c>
       <c r="E36" s="1">
-        <v>700000</v>
+        <v>1520000</v>
       </c>
       <c r="F36" s="1">
-        <v>700000</v>
+        <v>1520000</v>
       </c>
       <c r="G36" s="1">
-        <v>10500</v>
+        <v>11400</v>
       </c>
       <c r="H36" s="1">
-        <v>1400000</v>
+        <v>3040000</v>
       </c>
       <c r="I36" s="1">
-        <v>1400000</v>
+        <v>3040000</v>
       </c>
       <c r="J36" s="1">
-        <v>1400000</v>
+        <v>3040000</v>
       </c>
       <c r="K36" s="1">
-        <v>21000</v>
+        <v>22800</v>
       </c>
       <c r="L36" s="3">
-        <v>145200</v>
+        <v>200500</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="20" customHeight="1">
@@ -5988,37 +6099,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>720000</v>
+        <v>1600000</v>
       </c>
       <c r="E37" s="1">
-        <v>720000</v>
+        <v>1600000</v>
       </c>
       <c r="F37" s="1">
-        <v>720000</v>
+        <v>1600000</v>
       </c>
       <c r="G37" s="1">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="H37" s="1">
-        <v>1440000</v>
+        <v>3200000</v>
       </c>
       <c r="I37" s="1">
-        <v>1440000</v>
+        <v>3200000</v>
       </c>
       <c r="J37" s="1">
-        <v>1440000</v>
+        <v>3200000</v>
       </c>
       <c r="K37" s="1">
-        <v>21600</v>
+        <v>24000</v>
       </c>
       <c r="L37" s="3">
-        <v>165000</v>
+        <v>223150</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="20" customHeight="1">
@@ -6026,37 +6137,37 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>185</v>
+        <v>420</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>740000</v>
+        <v>1680000</v>
       </c>
       <c r="E38" s="1">
-        <v>740000</v>
+        <v>1680000</v>
       </c>
       <c r="F38" s="1">
-        <v>740000</v>
+        <v>1680000</v>
       </c>
       <c r="G38" s="1">
-        <v>11100</v>
+        <v>12600</v>
       </c>
       <c r="H38" s="1">
-        <v>1480000</v>
+        <v>3360000</v>
       </c>
       <c r="I38" s="1">
-        <v>1480000</v>
+        <v>3360000</v>
       </c>
       <c r="J38" s="1">
-        <v>1480000</v>
+        <v>3360000</v>
       </c>
       <c r="K38" s="1">
-        <v>22200</v>
+        <v>25200</v>
       </c>
       <c r="L38" s="3">
-        <v>184800</v>
+        <v>300090</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="20" customHeight="1">
@@ -6064,37 +6175,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>190</v>
+        <v>440</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>760000</v>
+        <v>1760000</v>
       </c>
       <c r="E39" s="1">
-        <v>760000</v>
+        <v>1760000</v>
       </c>
       <c r="F39" s="1">
-        <v>760000</v>
+        <v>1760000</v>
       </c>
       <c r="G39" s="1">
-        <v>11400</v>
+        <v>13200</v>
       </c>
       <c r="H39" s="1">
-        <v>1520000</v>
+        <v>3520000</v>
       </c>
       <c r="I39" s="1">
-        <v>1520000</v>
+        <v>3520000</v>
       </c>
       <c r="J39" s="1">
-        <v>1520000</v>
+        <v>3520000</v>
       </c>
       <c r="K39" s="1">
-        <v>22800</v>
+        <v>26400</v>
       </c>
       <c r="L39" s="3">
-        <v>204600</v>
+        <v>331970</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="20" customHeight="1">
@@ -6102,37 +6213,37 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>195</v>
+        <v>460</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>780000</v>
+        <v>1840000</v>
       </c>
       <c r="E40" s="1">
-        <v>780000</v>
+        <v>1840000</v>
       </c>
       <c r="F40" s="1">
-        <v>780000</v>
+        <v>1840000</v>
       </c>
       <c r="G40" s="1">
-        <v>11700</v>
+        <v>13800</v>
       </c>
       <c r="H40" s="1">
-        <v>1560000</v>
+        <v>3680000</v>
       </c>
       <c r="I40" s="1">
-        <v>1560000</v>
+        <v>3680000</v>
       </c>
       <c r="J40" s="1">
-        <v>1560000</v>
+        <v>3680000</v>
       </c>
       <c r="K40" s="1">
-        <v>23400</v>
+        <v>27600</v>
       </c>
       <c r="L40" s="3">
-        <v>224400</v>
+        <v>368030</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="20" customHeight="1">
@@ -6140,37 +6251,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>200</v>
+        <v>480</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>800000</v>
+        <v>1920000</v>
       </c>
       <c r="E41" s="1">
-        <v>800000</v>
+        <v>1920000</v>
       </c>
       <c r="F41" s="1">
-        <v>800000</v>
+        <v>1920000</v>
       </c>
       <c r="G41" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
       <c r="H41" s="1">
-        <v>1600000</v>
+        <v>3840000</v>
       </c>
       <c r="I41" s="1">
-        <v>1600000</v>
+        <v>3840000</v>
       </c>
       <c r="J41" s="1">
-        <v>1600000</v>
+        <v>3840000</v>
       </c>
       <c r="K41" s="1">
-        <v>24000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>297000</v>
+        <v>28800</v>
+      </c>
+      <c r="L41" s="1">
+        <v>404820</v>
       </c>
     </row>
   </sheetData>
@@ -6189,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E41"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6220,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5">
         <v>20</v>
@@ -6237,7 +6348,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6">
         <v>40</v>
@@ -6254,7 +6365,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6">
         <v>60</v>
@@ -6271,7 +6382,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="C5" s="6">
         <v>80</v>
@@ -6288,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6">
         <v>100</v>
@@ -6305,7 +6416,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6">
         <v>120</v>
@@ -6322,7 +6433,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6">
         <v>140</v>
@@ -6339,7 +6450,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6">
         <v>160</v>
@@ -6356,7 +6467,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="C10" s="6">
         <v>180</v>
@@ -6373,7 +6484,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="C11" s="6">
         <v>200</v>
@@ -6390,7 +6501,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>450</v>
+        <v>660</v>
       </c>
       <c r="C12" s="6">
         <v>240</v>
@@ -6407,7 +6518,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>600</v>
+        <v>840</v>
       </c>
       <c r="C13" s="6">
         <v>280</v>
@@ -6424,7 +6535,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>900</v>
+        <v>1110</v>
       </c>
       <c r="C14" s="6">
         <v>320</v>
@@ -6441,7 +6552,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>1200</v>
+        <v>2240</v>
       </c>
       <c r="C15" s="6">
         <v>360</v>
@@ -6458,7 +6569,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>1800</v>
+        <v>3510</v>
       </c>
       <c r="C16" s="6">
         <v>400</v>
@@ -6475,7 +6586,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>2400</v>
+        <v>4850</v>
       </c>
       <c r="C17" s="6">
         <v>600</v>
@@ -6492,7 +6603,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>3000</v>
+        <v>7090</v>
       </c>
       <c r="C18" s="6">
         <v>800</v>
@@ -6509,7 +6620,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>3600</v>
+        <v>8730</v>
       </c>
       <c r="C19" s="6">
         <v>1000</v>
@@ -6526,7 +6637,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>4200</v>
+        <v>10670</v>
       </c>
       <c r="C20" s="6">
         <v>1200</v>
@@ -6543,7 +6654,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>4800</v>
+        <v>12510</v>
       </c>
       <c r="C21" s="6">
         <v>1600</v>
@@ -6560,7 +6671,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>5400</v>
+        <v>17000</v>
       </c>
       <c r="C22" s="6">
         <v>2000</v>
@@ -6577,7 +6688,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>8100</v>
+        <v>19490</v>
       </c>
       <c r="C23" s="6">
         <v>2400</v>
@@ -6594,7 +6705,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>10800</v>
+        <v>22490</v>
       </c>
       <c r="C24" s="6">
         <v>3000</v>
@@ -6611,7 +6722,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>13500</v>
+        <v>25310</v>
       </c>
       <c r="C25" s="6">
         <v>4000</v>
@@ -6628,7 +6739,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>18000</v>
+        <v>34580</v>
       </c>
       <c r="C26" s="6">
         <v>5000</v>
@@ -6645,7 +6756,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>27000</v>
+        <v>38600</v>
       </c>
       <c r="C27" s="6">
         <v>6000</v>
@@ -6662,7 +6773,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>36000</v>
+        <v>43430</v>
       </c>
       <c r="C28" s="6">
         <v>8000</v>
@@ -6679,7 +6790,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>48000</v>
+        <v>47990</v>
       </c>
       <c r="C29" s="6">
         <v>10000</v>
@@ -6696,7 +6807,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>60000</v>
+        <v>68300</v>
       </c>
       <c r="C30" s="6">
         <v>12000</v>
@@ -6713,7 +6824,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>72000</v>
+        <v>78840</v>
       </c>
       <c r="C31" s="6">
         <v>14000</v>
@@ -6730,7 +6841,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>84000</v>
+        <v>91060</v>
       </c>
       <c r="C32" s="6">
         <v>16000</v>
@@ -6747,7 +6858,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>96000</v>
+        <v>103320</v>
       </c>
       <c r="C33" s="6">
         <v>18000</v>
@@ -6764,7 +6875,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>108000</v>
+        <v>141420</v>
       </c>
       <c r="C34" s="6">
         <v>20000</v>
@@ -6781,7 +6892,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>120000</v>
+        <v>158910</v>
       </c>
       <c r="C35" s="6">
         <v>24000</v>
@@ -6798,7 +6909,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>132000</v>
+        <v>179000</v>
       </c>
       <c r="C36" s="6">
         <v>28000</v>
@@ -6815,7 +6926,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>150000</v>
+        <v>199230</v>
       </c>
       <c r="C37" s="6">
         <v>32000</v>
@@ -6832,7 +6943,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>168000</v>
+        <v>267930</v>
       </c>
       <c r="C38" s="6">
         <v>40000</v>
@@ -6849,7 +6960,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>186000</v>
+        <v>296390</v>
       </c>
       <c r="C39" s="6">
         <v>48000</v>
@@ -6866,7 +6977,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>204000</v>
+        <v>328590</v>
       </c>
       <c r="C40" s="6">
         <v>56000</v>
@@ -6882,8 +6993,8 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>270000</v>
+      <c r="B41" s="1">
+        <v>361430</v>
       </c>
       <c r="C41" s="6">
         <v>72000</v>
@@ -6911,8 +7022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6945,7 +7056,7 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -6959,7 +7070,7 @@
         <v>0.02</v>
       </c>
       <c r="D3" s="3">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -6973,7 +7084,7 @@
         <v>0.03</v>
       </c>
       <c r="D4" s="3">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -6987,7 +7098,7 @@
         <v>0.04</v>
       </c>
       <c r="D5" s="3">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -7001,7 +7112,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="3">
-        <v>135</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -7015,7 +7126,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="3">
-        <v>162</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -7029,7 +7140,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>189</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -7043,7 +7154,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="3">
-        <v>216</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -7057,7 +7168,7 @@
         <v>0.09</v>
       </c>
       <c r="D10" s="3">
-        <v>243</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -7071,7 +7182,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="3">
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -7085,7 +7196,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="3">
-        <v>405</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -7099,7 +7210,7 @@
         <v>0.12</v>
       </c>
       <c r="D13" s="3">
-        <v>540</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -7113,7 +7224,7 @@
         <v>0.13</v>
       </c>
       <c r="D14" s="3">
-        <v>810</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -7127,7 +7238,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="3">
-        <v>1080</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -7141,7 +7252,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="3">
-        <v>1620</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -7155,7 +7266,7 @@
         <v>0.16</v>
       </c>
       <c r="D17" s="3">
-        <v>2160</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -7169,7 +7280,7 @@
         <v>0.17</v>
       </c>
       <c r="D18" s="3">
-        <v>2700</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -7183,7 +7294,7 @@
         <v>0.18</v>
       </c>
       <c r="D19" s="3">
-        <v>3240</v>
+        <v>7720</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -7197,7 +7308,7 @@
         <v>0.19</v>
       </c>
       <c r="D20" s="3">
-        <v>3780</v>
+        <v>9420</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -7211,7 +7322,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="3">
-        <v>4320</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -7225,7 +7336,7 @@
         <v>0.21</v>
       </c>
       <c r="D22" s="3">
-        <v>4860</v>
+        <v>14990</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -7239,7 +7350,7 @@
         <v>0.22</v>
       </c>
       <c r="D23" s="3">
-        <v>7290</v>
+        <v>17180</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -7253,7 +7364,7 @@
         <v>0.23</v>
       </c>
       <c r="D24" s="3">
-        <v>9720</v>
+        <v>19830</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -7267,7 +7378,7 @@
         <v>0.24</v>
       </c>
       <c r="D25" s="3">
-        <v>12150</v>
+        <v>22310</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -7281,7 +7392,7 @@
         <v>0.25</v>
       </c>
       <c r="D26" s="3">
-        <v>16200</v>
+        <v>30460</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -7295,7 +7406,7 @@
         <v>0.26</v>
       </c>
       <c r="D27" s="3">
-        <v>24300</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -7309,7 +7420,7 @@
         <v>0.27</v>
       </c>
       <c r="D28" s="3">
-        <v>32400</v>
+        <v>38250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -7323,7 +7434,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="3">
-        <v>43200</v>
+        <v>42260</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -7337,7 +7448,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>54000</v>
+        <v>60130</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -7351,7 +7462,7 @@
         <v>0.3</v>
       </c>
       <c r="D31" s="3">
-        <v>64800</v>
+        <v>69410</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -7365,7 +7476,7 @@
         <v>0.31</v>
       </c>
       <c r="D32" s="3">
-        <v>75600</v>
+        <v>80170</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -7379,7 +7490,7 @@
         <v>0.32</v>
       </c>
       <c r="D33" s="3">
-        <v>86400</v>
+        <v>90950</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -7393,7 +7504,7 @@
         <v>0.33</v>
       </c>
       <c r="D34" s="3">
-        <v>97200</v>
+        <v>124480</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -7407,7 +7518,7 @@
         <v>0.34</v>
       </c>
       <c r="D35" s="3">
-        <v>108000</v>
+        <v>139870</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -7421,7 +7532,7 @@
         <v>0.35</v>
       </c>
       <c r="D36" s="3">
-        <v>118800</v>
+        <v>157550</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -7435,7 +7546,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="3">
-        <v>135000</v>
+        <v>175350</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -7449,7 +7560,7 @@
         <v>0.37</v>
       </c>
       <c r="D38" s="3">
-        <v>151200</v>
+        <v>235810</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -7463,7 +7574,7 @@
         <v>0.38</v>
       </c>
       <c r="D39" s="3">
-        <v>167400</v>
+        <v>260850</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -7476,8 +7587,8 @@
       <c r="C40" s="1">
         <v>0.39</v>
       </c>
-      <c r="D40" s="3">
-        <v>183600</v>
+      <c r="D40" s="1">
+        <v>289190</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -7491,7 +7602,7 @@
         <v>0.4</v>
       </c>
       <c r="D41" s="1">
-        <v>243000</v>
+        <v>318090</v>
       </c>
     </row>
   </sheetData>
@@ -7510,8 +7621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B41" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7544,7 +7655,7 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="6">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -7558,7 +7669,7 @@
         <v>0.02</v>
       </c>
       <c r="D3" s="6">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -7572,7 +7683,7 @@
         <v>0.03</v>
       </c>
       <c r="D4" s="6">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -7586,7 +7697,7 @@
         <v>0.04</v>
       </c>
       <c r="D5" s="6">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -7600,7 +7711,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="6">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -7614,7 +7725,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="6">
-        <v>168</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -7628,7 +7739,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="6">
-        <v>196</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -7642,7 +7753,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="6">
-        <v>224</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -7656,7 +7767,7 @@
         <v>0.09</v>
       </c>
       <c r="D10" s="6">
-        <v>252</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -7670,7 +7781,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="6">
-        <v>280</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -7684,7 +7795,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="6">
-        <v>420</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -7698,7 +7809,7 @@
         <v>0.12</v>
       </c>
       <c r="D13" s="6">
-        <v>560</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -7712,7 +7823,7 @@
         <v>0.13</v>
       </c>
       <c r="D14" s="6">
-        <v>840</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -7726,7 +7837,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="6">
-        <v>1120</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -7740,7 +7851,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="6">
-        <v>1680</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -7754,7 +7865,7 @@
         <v>0.16</v>
       </c>
       <c r="D17" s="6">
-        <v>2240</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -7768,7 +7879,7 @@
         <v>0.17</v>
       </c>
       <c r="D18" s="6">
-        <v>2800</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -7782,7 +7893,7 @@
         <v>0.18</v>
       </c>
       <c r="D19" s="6">
-        <v>3360</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -7796,7 +7907,7 @@
         <v>0.19</v>
       </c>
       <c r="D20" s="6">
-        <v>3920</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -7810,7 +7921,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="6">
-        <v>4480</v>
+        <v>11540</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -7824,7 +7935,7 @@
         <v>0.21</v>
       </c>
       <c r="D22" s="6">
-        <v>5040</v>
+        <v>15670</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -7838,7 +7949,7 @@
         <v>0.22</v>
       </c>
       <c r="D23" s="6">
-        <v>7560</v>
+        <v>17960</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -7852,7 +7963,7 @@
         <v>0.23</v>
       </c>
       <c r="D24" s="6">
-        <v>10080</v>
+        <v>20720</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -7866,7 +7977,7 @@
         <v>0.24</v>
       </c>
       <c r="D25" s="6">
-        <v>12600</v>
+        <v>23320</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -7880,7 +7991,7 @@
         <v>0.25</v>
       </c>
       <c r="D26" s="6">
-        <v>16800</v>
+        <v>31840</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -7894,7 +8005,7 @@
         <v>0.26</v>
       </c>
       <c r="D27" s="6">
-        <v>25200</v>
+        <v>35540</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -7908,7 +8019,7 @@
         <v>0.27</v>
       </c>
       <c r="D28" s="6">
-        <v>33600</v>
+        <v>39980</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -7922,7 +8033,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="6">
-        <v>44800</v>
+        <v>44180</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -7936,7 +8047,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D30" s="6">
-        <v>56000</v>
+        <v>62870</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -7950,7 +8061,7 @@
         <v>0.3</v>
       </c>
       <c r="D31" s="6">
-        <v>67200</v>
+        <v>72570</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -7964,7 +8075,7 @@
         <v>0.31</v>
       </c>
       <c r="D32" s="6">
-        <v>78400</v>
+        <v>83810</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -7978,7 +8089,7 @@
         <v>0.32</v>
       </c>
       <c r="D33" s="6">
-        <v>89600</v>
+        <v>95090</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -7992,7 +8103,7 @@
         <v>0.33</v>
       </c>
       <c r="D34" s="6">
-        <v>100800</v>
+        <v>130140</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -8006,7 +8117,7 @@
         <v>0.34</v>
       </c>
       <c r="D35" s="6">
-        <v>112000</v>
+        <v>146230</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -8020,7 +8131,7 @@
         <v>0.35</v>
       </c>
       <c r="D36" s="6">
-        <v>123200</v>
+        <v>164710</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -8034,7 +8145,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="6">
-        <v>140000</v>
+        <v>183320</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -8048,7 +8159,7 @@
         <v>0.37</v>
       </c>
       <c r="D38" s="6">
-        <v>156800</v>
+        <v>246520</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -8062,7 +8173,7 @@
         <v>0.38</v>
       </c>
       <c r="D39" s="6">
-        <v>173600</v>
+        <v>272710</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -8076,7 +8187,7 @@
         <v>0.39</v>
       </c>
       <c r="D40" s="6">
-        <v>190400</v>
+        <v>302330</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -8089,8 +8200,8 @@
       <c r="C41" s="6">
         <v>0.4</v>
       </c>
-      <c r="D41" s="6">
-        <v>252000</v>
+      <c r="D41" s="1">
+        <v>332550</v>
       </c>
     </row>
   </sheetData>
@@ -8107,10 +8218,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8143,7 +8254,7 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="3">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -8157,7 +8268,7 @@
         <v>0.02</v>
       </c>
       <c r="D3" s="3">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -8171,7 +8282,7 @@
         <v>0.03</v>
       </c>
       <c r="D4" s="3">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -8185,7 +8296,7 @@
         <v>0.04</v>
       </c>
       <c r="D5" s="3">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -8199,7 +8310,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="3">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -8213,7 +8324,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="3">
-        <v>174</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -8227,7 +8338,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>203</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -8241,7 +8352,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="3">
-        <v>231</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -8255,7 +8366,7 @@
         <v>0.09</v>
       </c>
       <c r="D10" s="3">
-        <v>261</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -8269,7 +8380,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="3">
-        <v>290</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -8283,7 +8394,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="3">
-        <v>434</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -8297,7 +8408,7 @@
         <v>0.12</v>
       </c>
       <c r="D13" s="3">
-        <v>580</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -8311,7 +8422,7 @@
         <v>0.13</v>
       </c>
       <c r="D14" s="3">
-        <v>869</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -8325,7 +8436,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="3">
-        <v>1160</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -8339,7 +8450,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="3">
-        <v>1739</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -8353,7 +8464,7 @@
         <v>0.16</v>
       </c>
       <c r="D17" s="3">
-        <v>2320</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -8367,7 +8478,7 @@
         <v>0.17</v>
       </c>
       <c r="D18" s="3">
-        <v>2900</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -8381,7 +8492,7 @@
         <v>0.18</v>
       </c>
       <c r="D19" s="3">
-        <v>3479</v>
+        <v>8410</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -8395,7 +8506,7 @@
         <v>0.19</v>
       </c>
       <c r="D20" s="3">
-        <v>4059</v>
+        <v>10270</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -8409,7 +8520,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="3">
-        <v>4640</v>
+        <v>12040</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -8423,7 +8534,7 @@
         <v>0.21</v>
       </c>
       <c r="D22" s="3">
-        <v>5220</v>
+        <v>16350</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -8437,7 +8548,7 @@
         <v>0.22</v>
       </c>
       <c r="D23" s="3">
-        <v>7829</v>
+        <v>18740</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -8451,7 +8562,7 @@
         <v>0.23</v>
       </c>
       <c r="D24" s="3">
-        <v>10440</v>
+        <v>21620</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -8465,7 +8576,7 @@
         <v>0.24</v>
       </c>
       <c r="D25" s="3">
-        <v>13050</v>
+        <v>24330</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -8479,7 +8590,7 @@
         <v>0.25</v>
       </c>
       <c r="D26" s="3">
-        <v>17400</v>
+        <v>33230</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -8493,7 +8604,7 @@
         <v>0.26</v>
       </c>
       <c r="D27" s="3">
-        <v>26100</v>
+        <v>37090</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -8507,7 +8618,7 @@
         <v>0.27</v>
       </c>
       <c r="D28" s="3">
-        <v>34800</v>
+        <v>41720</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -8521,7 +8632,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="3">
-        <v>46400</v>
+        <v>46100</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -8535,7 +8646,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>57999</v>
+        <v>65600</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -8549,7 +8660,7 @@
         <v>0.3</v>
       </c>
       <c r="D31" s="3">
-        <v>69600</v>
+        <v>75720</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -8563,7 +8674,7 @@
         <v>0.31</v>
       </c>
       <c r="D32" s="3">
-        <v>81200</v>
+        <v>87450</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -8577,7 +8688,7 @@
         <v>0.32</v>
       </c>
       <c r="D33" s="3">
-        <v>92800</v>
+        <v>99220</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -8591,7 +8702,7 @@
         <v>0.33</v>
       </c>
       <c r="D34" s="3">
-        <v>104400</v>
+        <v>135800</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -8605,7 +8716,7 @@
         <v>0.34</v>
       </c>
       <c r="D35" s="3">
-        <v>115999</v>
+        <v>152590</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -8619,7 +8730,7 @@
         <v>0.35</v>
       </c>
       <c r="D36" s="3">
-        <v>127599</v>
+        <v>171870</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -8633,7 +8744,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="3">
-        <v>145000</v>
+        <v>191290</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -8647,7 +8758,7 @@
         <v>0.37</v>
       </c>
       <c r="D38" s="3">
-        <v>162400</v>
+        <v>257240</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -8661,7 +8772,7 @@
         <v>0.38</v>
       </c>
       <c r="D39" s="3">
-        <v>179800</v>
+        <v>284560</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -8675,7 +8786,7 @@
         <v>0.39</v>
       </c>
       <c r="D40" s="3">
-        <v>197200</v>
+        <v>315470</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -8688,9 +8799,12 @@
       <c r="C41" s="1">
         <v>0.4</v>
       </c>
-      <c r="D41" s="1">
-        <v>260999</v>
-      </c>
+      <c r="D41" s="3">
+        <v>347000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="D42" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -8708,8 +8822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8742,7 +8856,7 @@
         <v>0.01</v>
       </c>
       <c r="D2" s="3">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -8756,7 +8870,7 @@
         <v>0.02</v>
       </c>
       <c r="D3" s="3">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -8770,7 +8884,7 @@
         <v>0.03</v>
       </c>
       <c r="D4" s="3">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -8784,7 +8898,7 @@
         <v>0.04</v>
       </c>
       <c r="D5" s="3">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -8798,7 +8912,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="3">
-        <v>130</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -8812,7 +8926,7 @@
         <v>0.06</v>
       </c>
       <c r="D7" s="3">
-        <v>156</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -8826,7 +8940,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>182</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -8840,7 +8954,7 @@
         <v>0.08</v>
       </c>
       <c r="D9" s="3">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -8854,7 +8968,7 @@
         <v>0.09</v>
       </c>
       <c r="D10" s="3">
-        <v>234</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -8868,7 +8982,7 @@
         <v>0.1</v>
       </c>
       <c r="D11" s="3">
-        <v>260</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -8882,7 +8996,7 @@
         <v>0.11</v>
       </c>
       <c r="D12" s="3">
-        <v>390</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -8896,7 +9010,7 @@
         <v>0.12</v>
       </c>
       <c r="D13" s="3">
-        <v>520</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -8910,7 +9024,7 @@
         <v>0.13</v>
       </c>
       <c r="D14" s="3">
-        <v>780</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -8924,7 +9038,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D15" s="3">
-        <v>1040</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -8938,7 +9052,7 @@
         <v>0.15</v>
       </c>
       <c r="D16" s="3">
-        <v>1560</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -8952,7 +9066,7 @@
         <v>0.16</v>
       </c>
       <c r="D17" s="3">
-        <v>2080</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -8966,7 +9080,7 @@
         <v>0.17</v>
       </c>
       <c r="D18" s="3">
-        <v>2600</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -8980,7 +9094,7 @@
         <v>0.18</v>
       </c>
       <c r="D19" s="3">
-        <v>3120</v>
+        <v>7370</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -8994,7 +9108,7 @@
         <v>0.19</v>
       </c>
       <c r="D20" s="3">
-        <v>3640</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -9008,7 +9122,7 @@
         <v>0.2</v>
       </c>
       <c r="D21" s="3">
-        <v>4160</v>
+        <v>10540</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -9022,7 +9136,7 @@
         <v>0.21</v>
       </c>
       <c r="D22" s="3">
-        <v>4680</v>
+        <v>14310</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -9036,7 +9150,7 @@
         <v>0.22</v>
       </c>
       <c r="D23" s="3">
-        <v>7020</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -9050,7 +9164,7 @@
         <v>0.23</v>
       </c>
       <c r="D24" s="3">
-        <v>9360</v>
+        <v>18930</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -9064,7 +9178,7 @@
         <v>0.24</v>
       </c>
       <c r="D25" s="3">
-        <v>11700</v>
+        <v>21300</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -9078,7 +9192,7 @@
         <v>0.25</v>
       </c>
       <c r="D26" s="3">
-        <v>15600</v>
+        <v>29080</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -9092,7 +9206,7 @@
         <v>0.26</v>
       </c>
       <c r="D27" s="3">
-        <v>23400</v>
+        <v>32460</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -9106,7 +9220,7 @@
         <v>0.27</v>
       </c>
       <c r="D28" s="3">
-        <v>31200</v>
+        <v>36510</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -9120,7 +9234,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D29" s="3">
-        <v>41600</v>
+        <v>40340</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -9134,7 +9248,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D30" s="3">
-        <v>52000</v>
+        <v>57400</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -9148,7 +9262,7 @@
         <v>0.3</v>
       </c>
       <c r="D31" s="3">
-        <v>62400</v>
+        <v>66260</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -9162,7 +9276,7 @@
         <v>0.31</v>
       </c>
       <c r="D32" s="3">
-        <v>72800</v>
+        <v>76530</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -9176,7 +9290,7 @@
         <v>0.32</v>
       </c>
       <c r="D33" s="3">
-        <v>83200</v>
+        <v>86820</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -9190,7 +9304,7 @@
         <v>0.33</v>
       </c>
       <c r="D34" s="3">
-        <v>93600</v>
+        <v>118830</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -9204,7 +9318,7 @@
         <v>0.34</v>
       </c>
       <c r="D35" s="3">
-        <v>104000</v>
+        <v>133520</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -9218,7 +9332,7 @@
         <v>0.35</v>
       </c>
       <c r="D36" s="3">
-        <v>114400</v>
+        <v>150390</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -9232,7 +9346,7 @@
         <v>0.36</v>
       </c>
       <c r="D37" s="3">
-        <v>130000</v>
+        <v>167390</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -9246,7 +9360,7 @@
         <v>0.37</v>
       </c>
       <c r="D38" s="3">
-        <v>145600</v>
+        <v>225090</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -9260,7 +9374,7 @@
         <v>0.38</v>
       </c>
       <c r="D39" s="3">
-        <v>161200</v>
+        <v>249000</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -9273,8 +9387,8 @@
       <c r="C40" s="1">
         <v>0.39</v>
       </c>
-      <c r="D40" s="3">
-        <v>176800</v>
+      <c r="D40" s="1">
+        <v>276040</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -9288,7 +9402,7 @@
         <v>0.4</v>
       </c>
       <c r="D41" s="1">
-        <v>234000</v>
+        <v>303630</v>
       </c>
     </row>
   </sheetData>
@@ -9307,8 +9421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView showRuler="0" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I23" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9335,7 +9449,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="6">
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -9346,7 +9460,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="6">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -9357,7 +9471,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -9368,7 +9482,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="6">
-        <v>164</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -9379,7 +9493,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="6">
-        <v>205</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -9390,7 +9504,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="6">
-        <v>245</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -9401,7 +9515,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>287</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -9412,7 +9526,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="6">
-        <v>328</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -9423,7 +9537,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="6">
-        <v>369</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -9434,7 +9548,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6">
-        <v>410</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -9445,7 +9559,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="6">
-        <v>615</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -9456,7 +9570,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="6">
-        <v>820</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -9467,7 +9581,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="6">
-        <v>1230</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -9478,7 +9592,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="6">
-        <v>1640</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -9489,7 +9603,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="6">
-        <v>2460</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -9500,7 +9614,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="6">
-        <v>3280</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -9511,7 +9625,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="6">
-        <v>4100</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -9522,7 +9636,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="6">
-        <v>4920</v>
+        <v>12660</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -9533,7 +9647,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="6">
-        <v>5740</v>
+        <v>15450</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -9544,7 +9658,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="6">
-        <v>6560</v>
+        <v>18110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -9555,7 +9669,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="6">
-        <v>7380</v>
+        <v>24570</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -9566,7 +9680,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="6">
-        <v>11070</v>
+        <v>28150</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -9577,7 +9691,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="6">
-        <v>14760</v>
+        <v>32480</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -9588,7 +9702,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="6">
-        <v>18450</v>
+        <v>36540</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -9599,7 +9713,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="6">
-        <v>24600</v>
+        <v>49880</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -9610,7 +9724,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="6">
-        <v>36900</v>
+        <v>55670</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -9621,7 +9735,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="6">
-        <v>49200</v>
+        <v>62620</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -9632,7 +9746,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="6">
-        <v>65600</v>
+        <v>69190</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -9643,7 +9757,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="6">
-        <v>82000</v>
+        <v>98440</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -9654,7 +9768,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="6">
-        <v>98400</v>
+        <v>113620</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -9665,7 +9779,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="6">
-        <v>114800</v>
+        <v>131220</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -9676,7 +9790,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="6">
-        <v>131200</v>
+        <v>148870</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -9687,7 +9801,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="6">
-        <v>147600</v>
+        <v>203730</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -9698,7 +9812,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="6">
-        <v>164000</v>
+        <v>228920</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -9709,7 +9823,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="6">
-        <v>180400</v>
+        <v>257850</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -9720,7 +9834,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="6">
-        <v>205000</v>
+        <v>286980</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -9731,7 +9845,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="6">
-        <v>229600</v>
+        <v>385900</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -9742,7 +9856,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="6">
-        <v>254199</v>
+        <v>426880</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -9753,7 +9867,7 @@
         <v>0.39</v>
       </c>
       <c r="C40" s="6">
-        <v>278800</v>
+        <v>473250</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -9763,8 +9877,8 @@
       <c r="B41" s="6">
         <v>0.4</v>
       </c>
-      <c r="C41" s="6">
-        <v>369000</v>
+      <c r="C41" s="1">
+        <v>520550</v>
       </c>
     </row>
   </sheetData>
@@ -9783,8 +9897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9813,7 +9927,7 @@
         <v>40</v>
       </c>
       <c r="C2" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -9824,7 +9938,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -9835,7 +9949,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="6">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -9846,7 +9960,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="6">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -9857,7 +9971,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="6">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -9868,7 +9982,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="6">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -9879,7 +9993,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="6">
-        <v>420</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -9890,7 +10004,7 @@
         <v>75</v>
       </c>
       <c r="C9" s="6">
-        <v>480</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -9901,7 +10015,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="6">
-        <v>540</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -9912,7 +10026,7 @@
         <v>85</v>
       </c>
       <c r="C11" s="6">
-        <v>600</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -9923,7 +10037,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="6">
-        <v>900</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -9934,7 +10048,7 @@
         <v>105</v>
       </c>
       <c r="C13" s="6">
-        <v>1200</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -9945,7 +10059,7 @@
         <v>170</v>
       </c>
       <c r="C14" s="6">
-        <v>1800</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -9956,7 +10070,7 @@
         <v>200</v>
       </c>
       <c r="C15" s="6">
-        <v>2400</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -9967,7 +10081,7 @@
         <v>220</v>
       </c>
       <c r="C16" s="6">
-        <v>3600</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -9978,7 +10092,7 @@
         <v>240</v>
       </c>
       <c r="C17" s="6">
-        <v>4800</v>
+        <v>11650</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -9989,7 +10103,7 @@
         <v>260</v>
       </c>
       <c r="C18" s="6">
-        <v>6000</v>
+        <v>17030</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -10000,7 +10114,7 @@
         <v>280</v>
       </c>
       <c r="C19" s="6">
-        <v>7200</v>
+        <v>20960</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -10011,7 +10125,7 @@
         <v>300</v>
       </c>
       <c r="C20" s="6">
-        <v>8400</v>
+        <v>25610</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -10022,7 +10136,7 @@
         <v>330</v>
       </c>
       <c r="C21" s="6">
-        <v>9600</v>
+        <v>30040</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -10033,7 +10147,7 @@
         <v>590</v>
       </c>
       <c r="C22" s="6">
-        <v>10800</v>
+        <v>40800</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -10044,7 +10158,7 @@
         <v>680</v>
       </c>
       <c r="C23" s="6">
-        <v>16200</v>
+        <v>46780</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -10055,7 +10169,7 @@
         <v>760</v>
       </c>
       <c r="C24" s="6">
-        <v>21600</v>
+        <v>53980</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -10066,7 +10180,7 @@
         <v>850</v>
       </c>
       <c r="C25" s="6">
-        <v>27000</v>
+        <v>60760</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -10077,7 +10191,7 @@
         <v>940</v>
       </c>
       <c r="C26" s="6">
-        <v>36000</v>
+        <v>82990</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -10088,7 +10202,7 @@
         <v>1020</v>
       </c>
       <c r="C27" s="6">
-        <v>54000</v>
+        <v>92640</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -10099,7 +10213,7 @@
         <v>1110</v>
       </c>
       <c r="C28" s="6">
-        <v>72000</v>
+        <v>104220</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -10110,7 +10224,7 @@
         <v>1200</v>
       </c>
       <c r="C29" s="6">
-        <v>96000</v>
+        <v>115170</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -10121,7 +10235,7 @@
         <v>1280</v>
       </c>
       <c r="C30" s="6">
-        <v>120000</v>
+        <v>163920</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -10132,7 +10246,7 @@
         <v>1370</v>
       </c>
       <c r="C31" s="6">
-        <v>144000</v>
+        <v>189230</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -10143,7 +10257,7 @@
         <v>2240</v>
       </c>
       <c r="C32" s="6">
-        <v>168000</v>
+        <v>218560</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -10154,7 +10268,7 @@
         <v>2410</v>
       </c>
       <c r="C33" s="6">
-        <v>192000</v>
+        <v>247970</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -10165,7 +10279,7 @@
         <v>2580</v>
       </c>
       <c r="C34" s="6">
-        <v>216000</v>
+        <v>339420</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -10176,7 +10290,7 @@
         <v>2750</v>
       </c>
       <c r="C35" s="6">
-        <v>240000</v>
+        <v>381390</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -10187,7 +10301,7 @@
         <v>2930</v>
       </c>
       <c r="C36" s="6">
-        <v>264000</v>
+        <v>429610</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -10198,7 +10312,7 @@
         <v>3100</v>
       </c>
       <c r="C37" s="6">
-        <v>300000</v>
+        <v>478150</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -10209,7 +10323,7 @@
         <v>3270</v>
       </c>
       <c r="C38" s="6">
-        <v>336000</v>
+        <v>643020</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -10220,7 +10334,7 @@
         <v>3450</v>
       </c>
       <c r="C39" s="6">
-        <v>372000</v>
+        <v>711330</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -10231,7 +10345,7 @@
         <v>3620</v>
       </c>
       <c r="C40" s="6">
-        <v>408000</v>
+        <v>788610</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -10241,8 +10355,8 @@
       <c r="B41" s="1">
         <v>3800</v>
       </c>
-      <c r="C41" s="6">
-        <v>540000</v>
+      <c r="C41" s="1">
+        <v>867440</v>
       </c>
     </row>
   </sheetData>
@@ -10261,8 +10375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10289,7 +10403,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="6">
-        <v>42</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -10300,7 +10414,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="6">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -10311,7 +10425,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -10322,7 +10436,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="6">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -10333,7 +10447,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="6">
-        <v>210</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -10344,7 +10458,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="6">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -10355,7 +10469,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>294</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -10366,7 +10480,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="6">
-        <v>336</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -10377,7 +10491,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="6">
-        <v>378</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -10388,7 +10502,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6">
-        <v>420</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -10399,7 +10513,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="6">
-        <v>630</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -10410,7 +10524,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="6">
-        <v>840</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -10421,7 +10535,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="6">
-        <v>1260</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -10432,7 +10546,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="6">
-        <v>1680</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -10443,7 +10557,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="6">
-        <v>2520</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -10454,7 +10568,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="6">
-        <v>3360</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -10465,7 +10579,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="6">
-        <v>4200</v>
+        <v>10580</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -10476,7 +10590,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="6">
-        <v>5040</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -10487,7 +10601,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="6">
-        <v>5880</v>
+        <v>15870</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -10498,7 +10612,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="6">
-        <v>6720</v>
+        <v>18610</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -10509,7 +10623,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="6">
-        <v>7560</v>
+        <v>25250</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -10520,7 +10634,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="6">
-        <v>11340</v>
+        <v>28930</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -10531,7 +10645,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="6">
-        <v>15120</v>
+        <v>33380</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -10542,7 +10656,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="6">
-        <v>18900</v>
+        <v>37550</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -10553,7 +10667,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="6">
-        <v>25200</v>
+        <v>51260</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -10564,7 +10678,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="6">
-        <v>37800</v>
+        <v>57220</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -10575,7 +10689,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="6">
-        <v>50400</v>
+        <v>64350</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -10586,7 +10700,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="6">
-        <v>67200</v>
+        <v>71100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -10597,7 +10711,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="6">
-        <v>84000</v>
+        <v>101170</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -10608,7 +10722,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="6">
-        <v>100800</v>
+        <v>116770</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -10619,7 +10733,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="6">
-        <v>117600</v>
+        <v>134860</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -10630,7 +10744,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="6">
-        <v>134400</v>
+        <v>153000</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -10641,7 +10755,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="6">
-        <v>151200</v>
+        <v>209390</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -10652,7 +10766,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="6">
-        <v>168000</v>
+        <v>235280</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -10663,7 +10777,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="6">
-        <v>184800</v>
+        <v>265010</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -10674,7 +10788,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="6">
-        <v>210000</v>
+        <v>294950</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -10685,7 +10799,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="6">
-        <v>235200</v>
+        <v>396610</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -10696,7 +10810,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="6">
-        <v>260400</v>
+        <v>438740</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -10707,7 +10821,7 @@
         <v>0.39</v>
       </c>
       <c r="C40" s="6">
-        <v>285600</v>
+        <v>486390</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -10717,8 +10831,8 @@
       <c r="B41" s="6">
         <v>0.4</v>
       </c>
-      <c r="C41" s="6">
-        <v>378000</v>
+      <c r="C41" s="1">
+        <v>535000</v>
       </c>
     </row>
   </sheetData>
@@ -10737,8 +10851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10765,7 +10879,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="6">
-        <v>43</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -10776,7 +10890,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="6">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -10787,7 +10901,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="6">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -10798,7 +10912,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="6">
-        <v>172</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -10809,7 +10923,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="6">
-        <v>215</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -10820,7 +10934,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="6">
-        <v>258</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -10831,7 +10945,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>301</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -10842,7 +10956,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="6">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -10853,7 +10967,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="6">
-        <v>387</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -10864,7 +10978,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="6">
-        <v>430</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -10875,7 +10989,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="6">
-        <v>645</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -10886,7 +11000,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="6">
-        <v>860</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -10897,7 +11011,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="6">
-        <v>1290</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -10908,7 +11022,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="6">
-        <v>1720</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -10919,7 +11033,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="6">
-        <v>2580</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -10930,7 +11044,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="6">
-        <v>3440</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -10941,7 +11055,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="6">
-        <v>4300</v>
+        <v>10870</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -10952,7 +11066,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="6">
-        <v>5160</v>
+        <v>13360</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -10963,7 +11077,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="6">
-        <v>6020</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -10974,7 +11088,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="6">
-        <v>6880</v>
+        <v>19110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -10985,7 +11099,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="6">
-        <v>7740</v>
+        <v>25930</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -10996,7 +11110,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="6">
-        <v>11610</v>
+        <v>29710</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -11007,7 +11121,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="6">
-        <v>15480</v>
+        <v>34270</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -11018,7 +11132,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="6">
-        <v>19350</v>
+        <v>38560</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -11029,7 +11143,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="6">
-        <v>25800</v>
+        <v>52640</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -11040,7 +11154,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="6">
-        <v>38700</v>
+        <v>58760</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -11051,7 +11165,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="6">
-        <v>51600</v>
+        <v>66090</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -11062,7 +11176,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="6">
-        <v>68800</v>
+        <v>73020</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -11073,7 +11187,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="6">
-        <v>86000</v>
+        <v>103900</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -11084,7 +11198,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="6">
-        <v>103200</v>
+        <v>119930</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -11095,7 +11209,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="6">
-        <v>120400</v>
+        <v>138500</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -11106,7 +11220,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="6">
-        <v>137600</v>
+        <v>157130</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -11117,7 +11231,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="6">
-        <v>154800</v>
+        <v>215050</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -11128,7 +11242,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="6">
-        <v>172000</v>
+        <v>241630</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -11139,7 +11253,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="6">
-        <v>189200</v>
+        <v>272170</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -11150,7 +11264,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="6">
-        <v>215000</v>
+        <v>302920</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -11161,7 +11275,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="6">
-        <v>240800</v>
+        <v>407330</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -11172,7 +11286,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="6">
-        <v>266600</v>
+        <v>450590</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -11183,7 +11297,7 @@
         <v>0.39</v>
       </c>
       <c r="C40" s="6">
-        <v>292400</v>
+        <v>499540</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -11193,8 +11307,8 @@
       <c r="B41" s="6">
         <v>0.4</v>
       </c>
-      <c r="C41" s="6">
-        <v>387000</v>
+      <c r="C41" s="1">
+        <v>549460</v>
       </c>
     </row>
   </sheetData>
@@ -11213,8 +11327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11241,7 +11355,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="3">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -11252,7 +11366,7 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="3">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -11263,7 +11377,7 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -11274,7 +11388,7 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="3">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -11285,7 +11399,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="3">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -11296,7 +11410,7 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="3">
-        <v>264</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -11307,7 +11421,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>308</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -11318,7 +11432,7 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="3">
-        <v>352</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -11329,7 +11443,7 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="3">
-        <v>396</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -11340,7 +11454,7 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="3">
-        <v>440</v>
+        <v>830</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -11351,7 +11465,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" s="3">
-        <v>660</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -11362,7 +11476,7 @@
         <v>0.12</v>
       </c>
       <c r="C13" s="3">
-        <v>880</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -11373,7 +11487,7 @@
         <v>0.13</v>
       </c>
       <c r="C14" s="3">
-        <v>1320</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -11384,7 +11498,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C15" s="3">
-        <v>1760</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -11395,7 +11509,7 @@
         <v>0.15</v>
       </c>
       <c r="C16" s="3">
-        <v>2640</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -11406,7 +11520,7 @@
         <v>0.16</v>
       </c>
       <c r="C17" s="3">
-        <v>3520</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -11417,7 +11531,7 @@
         <v>0.17</v>
       </c>
       <c r="C18" s="3">
-        <v>4400</v>
+        <v>11150</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -11428,7 +11542,7 @@
         <v>0.18</v>
       </c>
       <c r="C19" s="3">
-        <v>5280</v>
+        <v>13710</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -11439,7 +11553,7 @@
         <v>0.19</v>
       </c>
       <c r="C20" s="3">
-        <v>6160</v>
+        <v>16730</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -11450,7 +11564,7 @@
         <v>0.2</v>
       </c>
       <c r="C21" s="3">
-        <v>7040</v>
+        <v>19610</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -11461,7 +11575,7 @@
         <v>0.21</v>
       </c>
       <c r="C22" s="3">
-        <v>7920</v>
+        <v>26610</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -11472,7 +11586,7 @@
         <v>0.22</v>
       </c>
       <c r="C23" s="3">
-        <v>11880</v>
+        <v>30490</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -11483,7 +11597,7 @@
         <v>0.23</v>
       </c>
       <c r="C24" s="3">
-        <v>15840</v>
+        <v>35170</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -11494,7 +11608,7 @@
         <v>0.24</v>
       </c>
       <c r="C25" s="3">
-        <v>19800</v>
+        <v>39580</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -11505,7 +11619,7 @@
         <v>0.25</v>
       </c>
       <c r="C26" s="3">
-        <v>26400</v>
+        <v>54030</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -11516,7 +11630,7 @@
         <v>0.26</v>
       </c>
       <c r="C27" s="3">
-        <v>39600</v>
+        <v>60300</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -11527,7 +11641,7 @@
         <v>0.27</v>
       </c>
       <c r="C28" s="3">
-        <v>52800</v>
+        <v>67830</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -11538,7 +11652,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C29" s="3">
-        <v>70400</v>
+        <v>74940</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -11549,7 +11663,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C30" s="3">
-        <v>88000</v>
+        <v>106630</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -11560,7 +11674,7 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="3">
-        <v>105600</v>
+        <v>123080</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -11571,7 +11685,7 @@
         <v>0.31</v>
       </c>
       <c r="C32" s="3">
-        <v>123200</v>
+        <v>142150</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -11582,7 +11696,7 @@
         <v>0.32</v>
       </c>
       <c r="C33" s="3">
-        <v>140800</v>
+        <v>161260</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -11593,7 +11707,7 @@
         <v>0.33</v>
       </c>
       <c r="C34" s="3">
-        <v>158400</v>
+        <v>220700</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -11604,7 +11718,7 @@
         <v>0.34</v>
       </c>
       <c r="C35" s="3">
-        <v>176000</v>
+        <v>247990</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -11615,7 +11729,7 @@
         <v>0.35</v>
       </c>
       <c r="C36" s="3">
-        <v>193600</v>
+        <v>279330</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -11626,7 +11740,7 @@
         <v>0.36</v>
       </c>
       <c r="C37" s="3">
-        <v>220000</v>
+        <v>310880</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -11637,7 +11751,7 @@
         <v>0.37</v>
       </c>
       <c r="C38" s="3">
-        <v>246400</v>
+        <v>418050</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -11648,7 +11762,7 @@
         <v>0.38</v>
       </c>
       <c r="C39" s="3">
-        <v>272800</v>
+        <v>462450</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -11658,8 +11772,8 @@
       <c r="B40" s="3">
         <v>0.39</v>
       </c>
-      <c r="C40" s="3">
-        <v>299200</v>
+      <c r="C40" s="1">
+        <v>512680</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -11670,7 +11784,7 @@
         <v>0.4</v>
       </c>
       <c r="C41" s="1">
-        <v>396000</v>
+        <v>563920</v>
       </c>
     </row>
   </sheetData>
@@ -11689,8 +11803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -11717,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -11728,7 +11842,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -11739,7 +11853,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -11750,7 +11864,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -11761,7 +11875,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>175</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -11772,7 +11886,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -11783,7 +11897,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3">
-        <v>244</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -11794,7 +11908,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>280</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -11805,7 +11919,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>315</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -11816,7 +11930,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="3">
-        <v>350</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -11827,7 +11941,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3">
-        <v>525</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -11838,7 +11952,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -11849,7 +11963,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>1050</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -11860,7 +11974,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>1400</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -11871,7 +11985,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>2100</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -11882,7 +11996,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3">
-        <v>2800</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -11893,7 +12007,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="3">
-        <v>3500</v>
+        <v>8510</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -11904,7 +12018,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="3">
-        <v>4200</v>
+        <v>10480</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -11915,7 +12029,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3">
-        <v>4900</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -11926,7 +12040,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3">
-        <v>5600</v>
+        <v>15020</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -11937,7 +12051,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="3">
-        <v>6300</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -11948,7 +12062,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="3">
-        <v>9450</v>
+        <v>23390</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -11959,7 +12073,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3">
-        <v>12600</v>
+        <v>26990</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -11970,7 +12084,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3">
-        <v>15749</v>
+        <v>30380</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -11981,7 +12095,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="3">
-        <v>21000</v>
+        <v>41490</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -11992,7 +12106,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="3">
-        <v>31499</v>
+        <v>46320</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -12003,7 +12117,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="3">
-        <v>42000</v>
+        <v>52110</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -12014,7 +12128,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="3">
-        <v>56000</v>
+        <v>57580</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -12025,7 +12139,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="3">
-        <v>70000</v>
+        <v>81960</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -12036,7 +12150,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="3">
-        <v>84000</v>
+        <v>94610</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -12047,7 +12161,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="3">
-        <v>98000</v>
+        <v>109280</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -12058,7 +12172,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="3">
-        <v>112000</v>
+        <v>123980</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -12069,7 +12183,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="3">
-        <v>125999</v>
+        <v>169710</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -12080,7 +12194,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="3">
-        <v>140000</v>
+        <v>190690</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -12091,7 +12205,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="3">
-        <v>154000</v>
+        <v>214800</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -12102,7 +12216,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="3">
-        <v>175000</v>
+        <v>239070</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -12113,7 +12227,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="3">
-        <v>196000</v>
+        <v>321510</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -12124,7 +12238,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="3">
-        <v>217000</v>
+        <v>355660</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -12134,8 +12248,8 @@
       <c r="B40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" s="3">
-        <v>237999</v>
+      <c r="C40" s="1">
+        <v>394300</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -12146,7 +12260,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1">
-        <v>315000</v>
+        <v>433720</v>
       </c>
     </row>
   </sheetData>
@@ -12165,8 +12279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12199,7 +12313,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -12213,7 +12327,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -12227,7 +12341,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="6">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -12241,7 +12355,7 @@
         <v>92</v>
       </c>
       <c r="D5" s="6">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -12255,7 +12369,7 @@
         <v>104</v>
       </c>
       <c r="D6" s="6">
-        <v>200</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -12269,7 +12383,7 @@
         <v>114</v>
       </c>
       <c r="D7" s="6">
-        <v>240</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -12283,7 +12397,7 @@
         <v>123</v>
       </c>
       <c r="D8" s="6">
-        <v>280</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -12297,7 +12411,7 @@
         <v>130</v>
       </c>
       <c r="D9" s="6">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -12311,7 +12425,7 @@
         <v>136</v>
       </c>
       <c r="D10" s="6">
-        <v>360</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -12325,7 +12439,7 @@
         <v>141</v>
       </c>
       <c r="D11" s="6">
-        <v>400</v>
+        <v>770</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -12339,7 +12453,7 @@
         <v>264</v>
       </c>
       <c r="D12" s="6">
-        <v>600</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -12353,7 +12467,7 @@
         <v>298</v>
       </c>
       <c r="D13" s="6">
-        <v>800</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -12367,7 +12481,7 @@
         <v>328</v>
       </c>
       <c r="D14" s="6">
-        <v>1200</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -12381,7 +12495,7 @@
         <v>354</v>
       </c>
       <c r="D15" s="6">
-        <v>1600</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -12395,7 +12509,7 @@
         <v>378</v>
       </c>
       <c r="D16" s="6">
-        <v>2400</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -12409,7 +12523,7 @@
         <v>399</v>
       </c>
       <c r="D17" s="6">
-        <v>3200</v>
+        <v>7770</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -12423,7 +12537,7 @@
         <v>419</v>
       </c>
       <c r="D18" s="6">
-        <v>4000</v>
+        <v>11360</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -12437,7 +12551,7 @@
         <v>436</v>
       </c>
       <c r="D19" s="6">
-        <v>4800</v>
+        <v>13980</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -12451,7 +12565,7 @@
         <v>452</v>
       </c>
       <c r="D20" s="6">
-        <v>5600</v>
+        <v>17080</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -12465,7 +12579,7 @@
         <v>467</v>
       </c>
       <c r="D21" s="6">
-        <v>6400</v>
+        <v>20030</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -12479,7 +12593,7 @@
         <v>961</v>
       </c>
       <c r="D22" s="6">
-        <v>7200</v>
+        <v>27210</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -12493,7 +12607,7 @@
         <v>1125</v>
       </c>
       <c r="D23" s="6">
-        <v>10800</v>
+        <v>31190</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -12507,7 +12621,7 @@
         <v>1289</v>
       </c>
       <c r="D24" s="6">
-        <v>14400</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -12521,7 +12635,7 @@
         <v>1453</v>
       </c>
       <c r="D25" s="6">
-        <v>18000</v>
+        <v>40510</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -12535,7 +12649,7 @@
         <v>1616</v>
       </c>
       <c r="D26" s="6">
-        <v>24000</v>
+        <v>55330</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -12549,7 +12663,7 @@
         <v>1778</v>
       </c>
       <c r="D27" s="6">
-        <v>36000</v>
+        <v>61770</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -12563,7 +12677,7 @@
         <v>1937</v>
       </c>
       <c r="D28" s="6">
-        <v>48000</v>
+        <v>69490</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -12577,7 +12691,7 @@
         <v>2094</v>
       </c>
       <c r="D29" s="6">
-        <v>64000</v>
+        <v>76790</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -12591,7 +12705,7 @@
         <v>2249</v>
       </c>
       <c r="D30" s="6">
-        <v>80000</v>
+        <v>109290</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -12605,7 +12719,7 @@
         <v>2400</v>
       </c>
       <c r="D31" s="6">
-        <v>96000</v>
+        <v>126160</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -12619,7 +12733,7 @@
         <v>3769</v>
       </c>
       <c r="D32" s="6">
-        <v>112000</v>
+        <v>145710</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -12633,7 +12747,7 @@
         <v>4245</v>
       </c>
       <c r="D33" s="6">
-        <v>128000</v>
+        <v>165320</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -12647,7 +12761,7 @@
         <v>4725</v>
       </c>
       <c r="D34" s="6">
-        <v>144000</v>
+        <v>226290</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -12661,7 +12775,7 @@
         <v>5207</v>
       </c>
       <c r="D35" s="6">
-        <v>160000</v>
+        <v>254270</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -12675,7 +12789,7 @@
         <v>5689</v>
       </c>
       <c r="D36" s="6">
-        <v>176000</v>
+        <v>286410</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -12689,7 +12803,7 @@
         <v>6170</v>
       </c>
       <c r="D37" s="6">
-        <v>200000</v>
+        <v>318780</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -12703,7 +12817,7 @@
         <v>6649</v>
       </c>
       <c r="D38" s="6">
-        <v>224000</v>
+        <v>428690</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -12717,7 +12831,7 @@
         <v>7125</v>
       </c>
       <c r="D39" s="6">
-        <v>248000</v>
+        <v>474230</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -12731,7 +12845,7 @@
         <v>7597</v>
       </c>
       <c r="D40" s="6">
-        <v>272000</v>
+        <v>525750</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -12744,8 +12858,8 @@
       <c r="C41" s="1">
         <v>8064</v>
       </c>
-      <c r="D41" s="6">
-        <v>360000</v>
+      <c r="D41" s="1">
+        <v>578300</v>
       </c>
     </row>
   </sheetData>
@@ -12764,8 +12878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12810,7 +12924,7 @@
         <v>60000</v>
       </c>
       <c r="F2" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
@@ -12830,7 +12944,7 @@
         <v>108000</v>
       </c>
       <c r="F3" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -12850,7 +12964,7 @@
         <v>228000</v>
       </c>
       <c r="F4" s="3">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1">
@@ -12870,7 +12984,7 @@
         <v>420000</v>
       </c>
       <c r="F5" s="3">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1">
@@ -12890,7 +13004,7 @@
         <v>684000</v>
       </c>
       <c r="F6" s="3">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1">
@@ -12910,7 +13024,7 @@
         <v>1020000</v>
       </c>
       <c r="F7" s="3">
-        <v>180</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1">
@@ -12930,7 +13044,7 @@
         <v>1428000</v>
       </c>
       <c r="F8" s="3">
-        <v>210</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -12950,7 +13064,7 @@
         <v>1908000</v>
       </c>
       <c r="F9" s="3">
-        <v>240</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -12970,7 +13084,7 @@
         <v>2460000</v>
       </c>
       <c r="F10" s="3">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -12990,7 +13104,7 @@
         <v>3084000</v>
       </c>
       <c r="F11" s="3">
-        <v>300</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -13010,7 +13124,7 @@
         <v>3780000</v>
       </c>
       <c r="F12" s="3">
-        <v>450</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
@@ -13030,7 +13144,7 @@
         <v>4548000</v>
       </c>
       <c r="F13" s="3">
-        <v>600</v>
+        <v>840</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -13050,7 +13164,7 @@
         <v>5388000</v>
       </c>
       <c r="F14" s="3">
-        <v>900</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -13070,7 +13184,7 @@
         <v>6300000</v>
       </c>
       <c r="F15" s="3">
-        <v>1200</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -13090,7 +13204,7 @@
         <v>7284000</v>
       </c>
       <c r="F16" s="3">
-        <v>1800</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -13110,7 +13224,7 @@
         <v>8340000</v>
       </c>
       <c r="F17" s="3">
-        <v>2400</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -13130,7 +13244,7 @@
         <v>9468000</v>
       </c>
       <c r="F18" s="3">
-        <v>3000</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
@@ -13150,7 +13264,7 @@
         <v>10668000</v>
       </c>
       <c r="F19" s="3">
-        <v>3600</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
@@ -13170,7 +13284,7 @@
         <v>11940000</v>
       </c>
       <c r="F20" s="3">
-        <v>4200</v>
+        <v>10670</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
@@ -13190,7 +13304,7 @@
         <v>13284000</v>
       </c>
       <c r="F21" s="3">
-        <v>4800</v>
+        <v>12510</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
@@ -13210,7 +13324,7 @@
         <v>14700000</v>
       </c>
       <c r="F22" s="3">
-        <v>5400</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
@@ -13230,7 +13344,7 @@
         <v>16188000</v>
       </c>
       <c r="F23" s="3">
-        <v>8100</v>
+        <v>19490</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
@@ -13250,7 +13364,7 @@
         <v>17748000</v>
       </c>
       <c r="F24" s="3">
-        <v>10800</v>
+        <v>22490</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
@@ -13270,7 +13384,7 @@
         <v>19380000</v>
       </c>
       <c r="F25" s="3">
-        <v>13500</v>
+        <v>25310</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
@@ -13290,7 +13404,7 @@
         <v>21084000</v>
       </c>
       <c r="F26" s="3">
-        <v>18000</v>
+        <v>34580</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
@@ -13310,7 +13424,7 @@
         <v>22860000</v>
       </c>
       <c r="F27" s="3">
-        <v>27000</v>
+        <v>38600</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1">
@@ -13330,7 +13444,7 @@
         <v>24708000</v>
       </c>
       <c r="F28" s="3">
-        <v>36000</v>
+        <v>43430</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1">
@@ -13350,7 +13464,7 @@
         <v>26628000</v>
       </c>
       <c r="F29" s="3">
-        <v>48000</v>
+        <v>47990</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1">
@@ -13370,7 +13484,7 @@
         <v>28620000</v>
       </c>
       <c r="F30" s="3">
-        <v>60000</v>
+        <v>68300</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1">
@@ -13390,7 +13504,7 @@
         <v>30684000</v>
       </c>
       <c r="F31" s="3">
-        <v>72000</v>
+        <v>78840</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1">
@@ -13410,7 +13524,7 @@
         <v>32820000</v>
       </c>
       <c r="F32" s="3">
-        <v>84000</v>
+        <v>91060</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
@@ -13430,7 +13544,7 @@
         <v>35028000</v>
       </c>
       <c r="F33" s="3">
-        <v>96000</v>
+        <v>103320</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
@@ -13450,7 +13564,7 @@
         <v>37308000</v>
       </c>
       <c r="F34" s="3">
-        <v>108000</v>
+        <v>141420</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
@@ -13470,7 +13584,7 @@
         <v>39660000</v>
       </c>
       <c r="F35" s="3">
-        <v>120000</v>
+        <v>158910</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
@@ -13490,7 +13604,7 @@
         <v>42084000</v>
       </c>
       <c r="F36" s="3">
-        <v>132000</v>
+        <v>179000</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20" customHeight="1">
@@ -13510,7 +13624,7 @@
         <v>45000000</v>
       </c>
       <c r="F37" s="3">
-        <v>150000</v>
+        <v>199230</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" customHeight="1">
@@ -13530,7 +13644,7 @@
         <v>48000000</v>
       </c>
       <c r="F38" s="3">
-        <v>168000</v>
+        <v>267930</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1">
@@ -13550,7 +13664,7 @@
         <v>60000000</v>
       </c>
       <c r="F39" s="3">
-        <v>186000</v>
+        <v>296390</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20" customHeight="1">
@@ -13569,8 +13683,8 @@
       <c r="E40" s="3">
         <v>72000000</v>
       </c>
-      <c r="F40" s="3">
-        <v>204000</v>
+      <c r="F40" s="1">
+        <v>328590</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" customHeight="1">
@@ -13590,7 +13704,7 @@
         <v>90000000</v>
       </c>
       <c r="F41" s="1">
-        <v>270000</v>
+        <v>361430</v>
       </c>
     </row>
   </sheetData>
@@ -13609,8 +13723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G41"/>
+    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13669,7 +13783,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6">
         <v>12</v>
@@ -13692,7 +13806,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="C4" s="6">
         <v>13</v>
@@ -13715,7 +13829,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6">
         <v>14</v>
@@ -13738,7 +13852,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6">
         <v>15</v>
@@ -13761,7 +13875,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6">
         <v>16</v>
@@ -13784,7 +13898,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="C8" s="6">
         <v>17</v>
@@ -13807,7 +13921,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C9" s="6">
         <v>18</v>
@@ -13830,7 +13944,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="C10" s="6">
         <v>19</v>
@@ -13853,7 +13967,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C11" s="6">
         <v>20</v>
@@ -13876,7 +13990,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6">
-        <v>375</v>
+        <v>550</v>
       </c>
       <c r="C12" s="6">
         <v>21</v>
@@ -13899,7 +14013,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6">
-        <v>500</v>
+        <v>690</v>
       </c>
       <c r="C13" s="6">
         <v>22</v>
@@ -13922,7 +14036,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6">
-        <v>750</v>
+        <v>900</v>
       </c>
       <c r="C14" s="6">
         <v>23</v>
@@ -13945,7 +14059,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6">
-        <v>1000</v>
+        <v>1810</v>
       </c>
       <c r="C15" s="6">
         <v>24</v>
@@ -13968,7 +14082,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6">
-        <v>1500</v>
+        <v>2820</v>
       </c>
       <c r="C16" s="6">
         <v>25</v>
@@ -13991,7 +14105,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="C17" s="6">
         <v>26</v>
@@ -14014,7 +14128,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6">
-        <v>2500</v>
+        <v>5690</v>
       </c>
       <c r="C18" s="6">
         <v>27</v>
@@ -14037,7 +14151,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="C19" s="6">
         <v>28</v>
@@ -14060,7 +14174,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6">
-        <v>3500</v>
+        <v>8550</v>
       </c>
       <c r="C20" s="6">
         <v>29</v>
@@ -14083,7 +14197,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6">
-        <v>4000</v>
+        <v>10030</v>
       </c>
       <c r="C21" s="6">
         <v>30</v>
@@ -14106,7 +14220,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6">
-        <v>4500</v>
+        <v>13620</v>
       </c>
       <c r="C22" s="6">
         <v>31</v>
@@ -14129,7 +14243,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6">
-        <v>6750</v>
+        <v>15610</v>
       </c>
       <c r="C23" s="6">
         <v>32</v>
@@ -14152,7 +14266,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6">
-        <v>9000</v>
+        <v>18010</v>
       </c>
       <c r="C24" s="6">
         <v>33</v>
@@ -14175,7 +14289,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6">
-        <v>11250</v>
+        <v>20270</v>
       </c>
       <c r="C25" s="6">
         <v>34</v>
@@ -14198,7 +14312,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6">
-        <v>15000</v>
+        <v>27680</v>
       </c>
       <c r="C26" s="6">
         <v>35</v>
@@ -14221,7 +14335,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6">
-        <v>22500</v>
+        <v>30900</v>
       </c>
       <c r="C27" s="6">
         <v>36</v>
@@ -14244,7 +14358,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6">
-        <v>30000</v>
+        <v>34760</v>
       </c>
       <c r="C28" s="6">
         <v>37</v>
@@ -14267,7 +14381,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6">
-        <v>40000</v>
+        <v>38410</v>
       </c>
       <c r="C29" s="6">
         <v>38</v>
@@ -14290,7 +14404,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6">
-        <v>50000</v>
+        <v>54660</v>
       </c>
       <c r="C30" s="6">
         <v>39</v>
@@ -14313,7 +14427,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6">
-        <v>60000</v>
+        <v>63090</v>
       </c>
       <c r="C31" s="6">
         <v>40</v>
@@ -14336,7 +14450,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6">
-        <v>70000</v>
+        <v>72870</v>
       </c>
       <c r="C32" s="6">
         <v>41</v>
@@ -14359,7 +14473,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6">
-        <v>80000</v>
+        <v>82670</v>
       </c>
       <c r="C33" s="6">
         <v>42</v>
@@ -14382,7 +14496,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>90000</v>
+        <v>113160</v>
       </c>
       <c r="C34" s="6">
         <v>43</v>
@@ -14405,7 +14519,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6">
-        <v>100000</v>
+        <v>127150</v>
       </c>
       <c r="C35" s="6">
         <v>44</v>
@@ -14428,7 +14542,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6">
-        <v>110000</v>
+        <v>143220</v>
       </c>
       <c r="C36" s="6">
         <v>45</v>
@@ -14451,7 +14565,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6">
-        <v>125000</v>
+        <v>159400</v>
       </c>
       <c r="C37" s="6">
         <v>46</v>
@@ -14474,7 +14588,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6">
-        <v>140000</v>
+        <v>214360</v>
       </c>
       <c r="C38" s="6">
         <v>47</v>
@@ -14497,7 +14611,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6">
-        <v>155000</v>
+        <v>237130</v>
       </c>
       <c r="C39" s="6">
         <v>48</v>
@@ -14520,7 +14634,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6">
-        <v>170000</v>
+        <v>262890</v>
       </c>
       <c r="C40" s="6">
         <v>49</v>
@@ -14542,8 +14656,8 @@
       <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="6">
-        <v>225000</v>
+      <c r="B41" s="1">
+        <v>289160</v>
       </c>
       <c r="C41" s="6">
         <v>50</v>
@@ -14578,7 +14692,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14611,7 +14725,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -14625,7 +14739,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="3">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -14639,7 +14753,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="3">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -14653,7 +14767,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="3">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -14667,7 +14781,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3">
-        <v>187</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -14681,7 +14795,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="3">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -14695,7 +14809,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="3">
-        <v>262</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -14709,7 +14823,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -14723,7 +14837,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="3">
-        <v>337</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -14737,7 +14851,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="3">
-        <v>375</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -14751,7 +14865,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="3">
-        <v>562</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -14765,7 +14879,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="3">
-        <v>750</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -14779,7 +14893,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="3">
-        <v>1125</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -14793,7 +14907,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="3">
-        <v>1500</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -14807,7 +14921,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="3">
-        <v>2250</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -14821,7 +14935,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="3">
-        <v>3000</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -14835,7 +14949,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="3">
-        <v>3750</v>
+        <v>9250</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -14849,7 +14963,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="3">
-        <v>4500</v>
+        <v>11380</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -14863,7 +14977,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="3">
-        <v>5250</v>
+        <v>13900</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -14877,7 +14991,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="3">
-        <v>6000</v>
+        <v>16300</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -14891,7 +15005,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="3">
-        <v>6750</v>
+        <v>22130</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -14905,7 +15019,7 @@
         <v>43</v>
       </c>
       <c r="D23" s="3">
-        <v>10125</v>
+        <v>25360</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
@@ -14919,7 +15033,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="3">
-        <v>13500</v>
+        <v>29270</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
@@ -14933,7 +15047,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="3">
-        <v>16875</v>
+        <v>32940</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -14947,7 +15061,7 @@
         <v>43</v>
       </c>
       <c r="D26" s="3">
-        <v>22500</v>
+        <v>44980</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -14961,7 +15075,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="3">
-        <v>33750</v>
+        <v>50210</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
@@ -14975,7 +15089,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="3">
-        <v>45000</v>
+        <v>56480</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
@@ -14989,7 +15103,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="3">
-        <v>60000</v>
+        <v>62410</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
@@ -15003,7 +15117,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="3">
-        <v>75000</v>
+        <v>88820</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
@@ -15017,7 +15131,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="3">
-        <v>90000</v>
+        <v>102520</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
@@ -15031,7 +15145,7 @@
         <v>43</v>
       </c>
       <c r="D32" s="3">
-        <v>105000</v>
+        <v>118410</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
@@ -15045,7 +15159,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="3">
-        <v>120000</v>
+        <v>134340</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
@@ -15059,7 +15173,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="3">
-        <v>135000</v>
+        <v>183880</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
@@ -15073,7 +15187,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="3">
-        <v>150000</v>
+        <v>206610</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
@@ -15087,7 +15201,7 @@
         <v>43</v>
       </c>
       <c r="D36" s="3">
-        <v>165000</v>
+        <v>232730</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
@@ -15101,7 +15215,7 @@
         <v>43</v>
       </c>
       <c r="D37" s="3">
-        <v>187500</v>
+        <v>259030</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
@@ -15115,7 +15229,7 @@
         <v>43</v>
       </c>
       <c r="D38" s="3">
-        <v>210000</v>
+        <v>348330</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
@@ -15129,7 +15243,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="3">
-        <v>232500</v>
+        <v>385330</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
@@ -15142,8 +15256,8 @@
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="3">
-        <v>255000</v>
+      <c r="D40" s="1">
+        <v>427190</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
@@ -15157,7 +15271,7 @@
         <v>43</v>
       </c>
       <c r="D41" s="1">
-        <v>337500</v>
+        <v>469890</v>
       </c>
     </row>
   </sheetData>
@@ -15176,8 +15290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15204,7 +15318,7 @@
         <v>400</v>
       </c>
       <c r="C2" s="3">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -15215,7 +15329,7 @@
         <v>800</v>
       </c>
       <c r="C3" s="3">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -15226,7 +15340,7 @@
         <v>1200</v>
       </c>
       <c r="C4" s="3">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -15237,7 +15351,7 @@
         <v>1600</v>
       </c>
       <c r="C5" s="3">
-        <v>144</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -15248,7 +15362,7 @@
         <v>2000</v>
       </c>
       <c r="C6" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -15259,7 +15373,7 @@
         <v>2400</v>
       </c>
       <c r="C7" s="3">
-        <v>216</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -15270,7 +15384,7 @@
         <v>2800</v>
       </c>
       <c r="C8" s="3">
-        <v>252</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -15281,7 +15395,7 @@
         <v>3200</v>
       </c>
       <c r="C9" s="3">
-        <v>288</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -15292,7 +15406,7 @@
         <v>3600</v>
       </c>
       <c r="C10" s="3">
-        <v>324</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -15303,7 +15417,7 @@
         <v>4000</v>
       </c>
       <c r="C11" s="3">
-        <v>360</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -15314,7 +15428,7 @@
         <v>8000</v>
       </c>
       <c r="C12" s="3">
-        <v>540</v>
+        <v>830</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -15325,7 +15439,7 @@
         <v>9600</v>
       </c>
       <c r="C13" s="3">
-        <v>720</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -15336,7 +15450,7 @@
         <v>11200</v>
       </c>
       <c r="C14" s="3">
-        <v>1080</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -15347,7 +15461,7 @@
         <v>12800</v>
       </c>
       <c r="C15" s="3">
-        <v>1440</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -15358,7 +15472,7 @@
         <v>14400</v>
       </c>
       <c r="C16" s="3">
-        <v>2160</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -15369,7 +15483,7 @@
         <v>16000</v>
       </c>
       <c r="C17" s="3">
-        <v>2880</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -15380,7 +15494,7 @@
         <v>17600</v>
       </c>
       <c r="C18" s="3">
-        <v>3600</v>
+        <v>8810</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -15391,7 +15505,7 @@
         <v>19200</v>
       </c>
       <c r="C19" s="3">
-        <v>4320</v>
+        <v>10840</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -15402,7 +15516,7 @@
         <v>20800</v>
       </c>
       <c r="C20" s="3">
-        <v>5040</v>
+        <v>13240</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -15413,7 +15527,7 @@
         <v>22400</v>
       </c>
       <c r="C21" s="3">
-        <v>5760</v>
+        <v>15530</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -15424,7 +15538,7 @@
         <v>44800</v>
       </c>
       <c r="C22" s="3">
-        <v>6480</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -15435,7 +15549,7 @@
         <v>51200</v>
       </c>
       <c r="C23" s="3">
-        <v>9720</v>
+        <v>24180</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -15446,7 +15560,7 @@
         <v>57600</v>
       </c>
       <c r="C24" s="3">
-        <v>12960</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -15457,7 +15571,7 @@
         <v>64000</v>
       </c>
       <c r="C25" s="3">
-        <v>16200</v>
+        <v>31400</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -15468,7 +15582,7 @@
         <v>70400</v>
       </c>
       <c r="C26" s="3">
-        <v>21600</v>
+        <v>42890</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -15479,7 +15593,7 @@
         <v>76800</v>
       </c>
       <c r="C27" s="3">
-        <v>32400</v>
+        <v>47880</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -15490,7 +15604,7 @@
         <v>83200</v>
       </c>
       <c r="C28" s="3">
-        <v>43200</v>
+        <v>53860</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -15501,7 +15615,7 @@
         <v>89600</v>
       </c>
       <c r="C29" s="3">
-        <v>57600</v>
+        <v>59520</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -15512,7 +15626,7 @@
         <v>96000</v>
       </c>
       <c r="C30" s="3">
-        <v>72000</v>
+        <v>84700</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -15523,7 +15637,7 @@
         <v>102400</v>
       </c>
       <c r="C31" s="3">
-        <v>86400</v>
+        <v>97780</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -15534,7 +15648,7 @@
         <v>204800</v>
       </c>
       <c r="C32" s="3">
-        <v>100800</v>
+        <v>112930</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -15545,7 +15659,7 @@
         <v>230400</v>
       </c>
       <c r="C33" s="3">
-        <v>115200</v>
+        <v>128130</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -15556,7 +15670,7 @@
         <v>256000</v>
       </c>
       <c r="C34" s="3">
-        <v>129600</v>
+        <v>175380</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -15567,7 +15681,7 @@
         <v>281600</v>
       </c>
       <c r="C35" s="3">
-        <v>144000</v>
+        <v>197060</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -15578,7 +15692,7 @@
         <v>307200</v>
       </c>
       <c r="C36" s="3">
-        <v>158400</v>
+        <v>221980</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -15589,7 +15703,7 @@
         <v>332800</v>
       </c>
       <c r="C37" s="3">
-        <v>180000</v>
+        <v>247060</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -15600,7 +15714,7 @@
         <v>358400</v>
       </c>
       <c r="C38" s="3">
-        <v>201600</v>
+        <v>332240</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -15611,7 +15725,7 @@
         <v>384000</v>
       </c>
       <c r="C39" s="3">
-        <v>223200</v>
+        <v>367530</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -15621,8 +15735,8 @@
       <c r="B40" s="1">
         <v>409600</v>
       </c>
-      <c r="C40" s="3">
-        <v>244800</v>
+      <c r="C40" s="1">
+        <v>407460</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -15633,7 +15747,7 @@
         <v>450000</v>
       </c>
       <c r="C41" s="1">
-        <v>324000</v>
+        <v>448190</v>
       </c>
     </row>
   </sheetData>
@@ -15652,8 +15766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B41"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15680,7 +15794,7 @@
         <v>0.02</v>
       </c>
       <c r="C2" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20" customHeight="1">
@@ -15691,7 +15805,7 @@
         <v>0.04</v>
       </c>
       <c r="C3" s="3">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
@@ -15702,7 +15816,7 @@
         <v>0.06</v>
       </c>
       <c r="C4" s="3">
-        <v>127</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
@@ -15713,7 +15827,7 @@
         <v>0.08</v>
       </c>
       <c r="C5" s="3">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20" customHeight="1">
@@ -15724,7 +15838,7 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="3">
-        <v>212</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20" customHeight="1">
@@ -15735,7 +15849,7 @@
         <v>0.12</v>
       </c>
       <c r="C7" s="3">
-        <v>255</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="20" customHeight="1">
@@ -15746,7 +15860,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="3">
-        <v>297</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1">
@@ -15757,7 +15871,7 @@
         <v>0.16</v>
       </c>
       <c r="C9" s="3">
-        <v>340</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1">
@@ -15768,7 +15882,7 @@
         <v>0.18</v>
       </c>
       <c r="C10" s="3">
-        <v>382</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1">
@@ -15779,7 +15893,7 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="3">
-        <v>425</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
@@ -15790,7 +15904,7 @@
         <v>0.22</v>
       </c>
       <c r="C12" s="3">
-        <v>637</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
@@ -15801,7 +15915,7 @@
         <v>0.24</v>
       </c>
       <c r="C13" s="3">
-        <v>850</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
@@ -15812,7 +15926,7 @@
         <v>0.26</v>
       </c>
       <c r="C14" s="3">
-        <v>1275</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
@@ -15823,7 +15937,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C15" s="3">
-        <v>1700</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
@@ -15834,7 +15948,7 @@
         <v>0.3</v>
       </c>
       <c r="C16" s="3">
-        <v>2550</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1">
@@ -15845,7 +15959,7 @@
         <v>0.32</v>
       </c>
       <c r="C17" s="3">
-        <v>3400</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1">
@@ -15856,7 +15970,7 @@
         <v>0.34</v>
       </c>
       <c r="C18" s="3">
-        <v>4250</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20" customHeight="1">
@@ -15867,7 +15981,7 @@
         <v>0.36</v>
       </c>
       <c r="C19" s="3">
-        <v>5100</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20" customHeight="1">
@@ -15878,7 +15992,7 @@
         <v>0.38</v>
       </c>
       <c r="C20" s="3">
-        <v>5950</v>
+        <v>15390</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20" customHeight="1">
@@ -15889,7 +16003,7 @@
         <v>0.4</v>
       </c>
       <c r="C21" s="3">
-        <v>6800</v>
+        <v>18050</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
@@ -15900,7 +16014,7 @@
         <v>0.42</v>
       </c>
       <c r="C22" s="3">
-        <v>7650</v>
+        <v>24510</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20" customHeight="1">
@@ -15911,7 +16025,7 @@
         <v>0.44</v>
       </c>
       <c r="C23" s="3">
-        <v>11475</v>
+        <v>28090</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="20" customHeight="1">
@@ -15922,7 +16036,7 @@
         <v>0.46</v>
       </c>
       <c r="C24" s="3">
-        <v>15300</v>
+        <v>32420</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="20" customHeight="1">
@@ -15933,7 +16047,7 @@
         <v>0.48</v>
       </c>
       <c r="C25" s="3">
-        <v>19125</v>
+        <v>36480</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20" customHeight="1">
@@ -15944,7 +16058,7 @@
         <v>0.5</v>
       </c>
       <c r="C26" s="3">
-        <v>25500</v>
+        <v>49820</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20" customHeight="1">
@@ -15955,7 +16069,7 @@
         <v>0.52</v>
       </c>
       <c r="C27" s="3">
-        <v>38250</v>
+        <v>55610</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20" customHeight="1">
@@ -15966,7 +16080,7 @@
         <v>0.54</v>
       </c>
       <c r="C28" s="3">
-        <v>51000</v>
+        <v>62560</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
@@ -15977,7 +16091,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="C29" s="3">
-        <v>68000</v>
+        <v>69130</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20" customHeight="1">
@@ -15988,7 +16102,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C30" s="3">
-        <v>85000</v>
+        <v>98380</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
@@ -15999,7 +16113,7 @@
         <v>0.6</v>
       </c>
       <c r="C31" s="3">
-        <v>102000</v>
+        <v>113560</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20" customHeight="1">
@@ -16010,7 +16124,7 @@
         <v>0.62</v>
       </c>
       <c r="C32" s="3">
-        <v>119000</v>
+        <v>131160</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="20" customHeight="1">
@@ -16021,7 +16135,7 @@
         <v>0.64</v>
       </c>
       <c r="C33" s="3">
-        <v>136000</v>
+        <v>148810</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="20" customHeight="1">
@@ -16032,7 +16146,7 @@
         <v>0.66</v>
       </c>
       <c r="C34" s="3">
-        <v>153000</v>
+        <v>203670</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="20" customHeight="1">
@@ -16043,7 +16157,7 @@
         <v>0.68</v>
       </c>
       <c r="C35" s="3">
-        <v>170000</v>
+        <v>228860</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="20" customHeight="1">
@@ -16054,7 +16168,7 @@
         <v>0.7</v>
       </c>
       <c r="C36" s="3">
-        <v>187000</v>
+        <v>257790</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="20" customHeight="1">
@@ -16065,7 +16179,7 @@
         <v>0.72</v>
       </c>
       <c r="C37" s="3">
-        <v>212500</v>
+        <v>286920</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20" customHeight="1">
@@ -16076,7 +16190,7 @@
         <v>0.74</v>
       </c>
       <c r="C38" s="3">
-        <v>238000</v>
+        <v>385840</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20" customHeight="1">
@@ -16087,7 +16201,7 @@
         <v>0.76</v>
       </c>
       <c r="C39" s="3">
-        <v>263500</v>
+        <v>426820</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20" customHeight="1">
@@ -16097,8 +16211,8 @@
       <c r="B40" s="1">
         <v>0.78</v>
       </c>
-      <c r="C40" s="3">
-        <v>289000</v>
+      <c r="C40" s="1">
+        <v>473190</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20" customHeight="1">
@@ -16109,7 +16223,7 @@
         <v>0.8</v>
       </c>
       <c r="C41" s="1">
-        <v>382500</v>
+        <v>520490</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" firstSheet="2" activeTab="21"/>
+    <workbookView xWindow="-24640" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="648">
+  <cellStyleXfs count="650">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +558,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1221,7 +1223,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="648">
+  <cellStyles count="650">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1548,6 +1550,7 @@
     <cellStyle name="超链接" xfId="642" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1867,6 +1870,7 @@
     <cellStyle name="访问过的超链接" xfId="643" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -9897,8 +9901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -9924,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6">
         <v>40</v>
@@ -9935,7 +9939,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6">
         <v>50</v>
@@ -9946,7 +9950,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6">
         <v>60</v>
@@ -9957,7 +9961,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="6">
         <v>80</v>
@@ -9968,7 +9972,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6">
         <v>100</v>
@@ -9979,7 +9983,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C7" s="6">
         <v>120</v>
@@ -9990,7 +9994,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C8" s="6">
         <v>180</v>
@@ -10001,7 +10005,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C9" s="6">
         <v>350</v>
@@ -10012,7 +10016,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C10" s="6">
         <v>760</v>
@@ -10023,7 +10027,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C11" s="6">
         <v>1150</v>
@@ -10034,7 +10038,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C12" s="6">
         <v>1590</v>
@@ -10045,7 +10049,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="C13" s="6">
         <v>2010</v>
@@ -10056,7 +10060,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C14" s="6">
         <v>2660</v>
@@ -10067,7 +10071,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C15" s="6">
         <v>5390</v>
@@ -10078,7 +10082,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C16" s="6">
         <v>8420</v>
@@ -10089,7 +10093,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C17" s="6">
         <v>11650</v>
@@ -10100,7 +10104,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C18" s="6">
         <v>17030</v>
@@ -10111,7 +10115,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C19" s="6">
         <v>20960</v>
@@ -10122,7 +10126,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="C20" s="6">
         <v>25610</v>
@@ -10133,7 +10137,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="C21" s="6">
         <v>30040</v>
@@ -10144,7 +10148,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>590</v>
+        <v>428</v>
       </c>
       <c r="C22" s="6">
         <v>40800</v>
@@ -10155,7 +10159,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>680</v>
+        <v>492</v>
       </c>
       <c r="C23" s="6">
         <v>46780</v>
@@ -10166,7 +10170,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>760</v>
+        <v>556</v>
       </c>
       <c r="C24" s="6">
         <v>53980</v>
@@ -10177,7 +10181,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>850</v>
+        <v>620</v>
       </c>
       <c r="C25" s="6">
         <v>60760</v>
@@ -10188,7 +10192,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>940</v>
+        <v>684</v>
       </c>
       <c r="C26" s="6">
         <v>82990</v>
@@ -10199,7 +10203,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1020</v>
+        <v>780</v>
       </c>
       <c r="C27" s="6">
         <v>92640</v>
@@ -10210,7 +10214,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1110</v>
+        <v>886</v>
       </c>
       <c r="C28" s="6">
         <v>104220</v>
@@ -10221,7 +10225,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1200</v>
+        <v>1002</v>
       </c>
       <c r="C29" s="6">
         <v>115170</v>
@@ -10232,7 +10236,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1280</v>
+        <v>1128</v>
       </c>
       <c r="C30" s="6">
         <v>163920</v>
@@ -10243,7 +10247,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1370</v>
+        <v>1264</v>
       </c>
       <c r="C31" s="6">
         <v>189230</v>
@@ -10254,7 +10258,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>2240</v>
+        <v>1410</v>
       </c>
       <c r="C32" s="6">
         <v>218560</v>
@@ -10265,7 +10269,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2410</v>
+        <v>1566</v>
       </c>
       <c r="C33" s="6">
         <v>247970</v>
@@ -10276,7 +10280,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2580</v>
+        <v>1732</v>
       </c>
       <c r="C34" s="6">
         <v>339420</v>
@@ -10287,7 +10291,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2750</v>
+        <v>1908</v>
       </c>
       <c r="C35" s="6">
         <v>381390</v>
@@ -10298,7 +10302,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2930</v>
+        <v>2094</v>
       </c>
       <c r="C36" s="6">
         <v>429610</v>
@@ -10309,7 +10313,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>3100</v>
+        <v>2290</v>
       </c>
       <c r="C37" s="6">
         <v>478150</v>
@@ -10320,7 +10324,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>3270</v>
+        <v>2496</v>
       </c>
       <c r="C38" s="6">
         <v>643020</v>
@@ -10331,7 +10335,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>3450</v>
+        <v>2712</v>
       </c>
       <c r="C39" s="6">
         <v>711330</v>
@@ -10342,7 +10346,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>3620</v>
+        <v>2940</v>
       </c>
       <c r="C40" s="6">
         <v>788610</v>
@@ -10353,7 +10357,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>3800</v>
+        <v>3220</v>
       </c>
       <c r="C41" s="1">
         <v>867440</v>
@@ -11327,7 +11331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24640" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="650">
+  <cellStyleXfs count="652">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +558,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1223,7 +1225,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="650">
+  <cellStyles count="652">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1551,6 +1553,7 @@
     <cellStyle name="超链接" xfId="644" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1871,6 +1874,7 @@
     <cellStyle name="访问过的超链接" xfId="645" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -9901,7 +9905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B43"/>
     </sheetView>
   </sheetViews>
@@ -13727,8 +13731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B46"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -13779,7 +13783,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="5">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -13802,7 +13806,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="6">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -13825,7 +13829,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="6">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -13848,7 +13852,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="6">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -13871,7 +13875,7 @@
         <v>15</v>
       </c>
       <c r="G6" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1">
@@ -13894,7 +13898,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="6">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1">
@@ -13917,7 +13921,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="6">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1">
@@ -13940,7 +13944,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="6">
-        <v>36</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1">
@@ -13963,7 +13967,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="6">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1">
@@ -13986,7 +13990,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1">
@@ -14009,7 +14013,7 @@
         <v>21</v>
       </c>
       <c r="G12" s="6">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" customHeight="1">
@@ -14032,7 +14036,7 @@
         <v>22</v>
       </c>
       <c r="G13" s="6">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" customHeight="1">
@@ -14055,7 +14059,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="6">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" customHeight="1">
@@ -14078,7 +14082,7 @@
         <v>24</v>
       </c>
       <c r="G15" s="6">
-        <v>48</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1">
@@ -14101,7 +14105,7 @@
         <v>25</v>
       </c>
       <c r="G16" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1">
@@ -14124,7 +14128,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="6">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1">
@@ -14147,7 +14151,7 @@
         <v>27</v>
       </c>
       <c r="G18" s="6">
-        <v>54</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1">
@@ -14170,7 +14174,7 @@
         <v>28</v>
       </c>
       <c r="G19" s="6">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1">
@@ -14193,7 +14197,7 @@
         <v>29</v>
       </c>
       <c r="G20" s="6">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1">
@@ -14216,7 +14220,7 @@
         <v>30</v>
       </c>
       <c r="G21" s="6">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1">
@@ -14239,7 +14243,7 @@
         <v>31</v>
       </c>
       <c r="G22" s="6">
-        <v>62</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1">
@@ -14262,7 +14266,7 @@
         <v>32</v>
       </c>
       <c r="G23" s="6">
-        <v>64</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1">
@@ -14285,7 +14289,7 @@
         <v>33</v>
       </c>
       <c r="G24" s="6">
-        <v>66</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1">
@@ -14308,7 +14312,7 @@
         <v>34</v>
       </c>
       <c r="G25" s="6">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1">
@@ -14331,7 +14335,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="6">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1">
@@ -14354,7 +14358,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="6">
-        <v>72</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1">
@@ -14377,7 +14381,7 @@
         <v>37</v>
       </c>
       <c r="G28" s="6">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1">
@@ -14400,7 +14404,7 @@
         <v>38</v>
       </c>
       <c r="G29" s="6">
-        <v>76</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1">
@@ -14423,7 +14427,7 @@
         <v>39</v>
       </c>
       <c r="G30" s="6">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1">
@@ -14446,7 +14450,7 @@
         <v>40</v>
       </c>
       <c r="G31" s="6">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1">
@@ -14469,7 +14473,7 @@
         <v>41</v>
       </c>
       <c r="G32" s="6">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1">
@@ -14492,7 +14496,7 @@
         <v>42</v>
       </c>
       <c r="G33" s="6">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1">
@@ -14515,7 +14519,7 @@
         <v>43</v>
       </c>
       <c r="G34" s="6">
-        <v>86</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1">
@@ -14538,7 +14542,7 @@
         <v>44</v>
       </c>
       <c r="G35" s="6">
-        <v>88</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" customHeight="1">
@@ -14561,7 +14565,7 @@
         <v>45</v>
       </c>
       <c r="G36" s="6">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" customHeight="1">
@@ -14584,7 +14588,7 @@
         <v>46</v>
       </c>
       <c r="G37" s="6">
-        <v>92</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1">
@@ -14607,7 +14611,7 @@
         <v>47</v>
       </c>
       <c r="G38" s="6">
-        <v>94</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1">
@@ -14630,7 +14634,7 @@
         <v>48</v>
       </c>
       <c r="G39" s="6">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1">
@@ -14653,7 +14657,7 @@
         <v>49</v>
       </c>
       <c r="G40" s="6">
-        <v>98</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1">
@@ -14676,7 +14680,7 @@
         <v>50</v>
       </c>
       <c r="G41" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="5"/>
+    <workbookView xWindow="-25040" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="652">
+  <cellStyleXfs count="656">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +558,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1225,7 +1229,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="652">
+  <cellStyles count="656">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1554,6 +1558,8 @@
     <cellStyle name="超链接" xfId="646" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="648" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1875,6 +1881,8 @@
     <cellStyle name="访问过的超链接" xfId="647" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="649" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -12886,8 +12894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12920,16 +12928,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="C2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="D2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="E2" s="1">
-        <v>60000</v>
+        <v>30000</v>
       </c>
       <c r="F2" s="3">
         <v>10</v>
@@ -12940,16 +12948,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>108000</v>
-      </c>
-      <c r="C3" s="3">
-        <v>108000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>108000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>108000</v>
+        <v>54000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>54000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>54000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>54000</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -12960,16 +12968,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>228000</v>
-      </c>
-      <c r="C4" s="3">
-        <v>228000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>228000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>228000</v>
+        <v>114000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>114000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>114000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>114000</v>
       </c>
       <c r="F4" s="3">
         <v>30</v>
@@ -12980,16 +12988,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>420000</v>
-      </c>
-      <c r="C5" s="3">
-        <v>420000</v>
-      </c>
-      <c r="D5" s="3">
-        <v>420000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>420000</v>
+        <v>210000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>210000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>210000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>210000</v>
       </c>
       <c r="F5" s="3">
         <v>35</v>
@@ -13000,16 +13008,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>684000</v>
-      </c>
-      <c r="C6" s="3">
-        <v>684000</v>
-      </c>
-      <c r="D6" s="3">
-        <v>684000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>684000</v>
+        <v>342000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>342000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>342000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>342000</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -13020,16 +13028,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1020000</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1020000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1020000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1020000</v>
+        <v>510000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>510000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>510000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>510000</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -13040,16 +13048,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>1428000</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1428000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1428000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1428000</v>
+        <v>714000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>714000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>714000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>714000</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -13060,16 +13068,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1908000</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1908000</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1908000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1908000</v>
+        <v>954000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>954000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>954000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>954000</v>
       </c>
       <c r="F9" s="3">
         <v>150</v>
@@ -13080,16 +13088,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2460000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2460000</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2460000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2460000</v>
+        <v>1230000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1230000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1230000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1230000</v>
       </c>
       <c r="F10" s="3">
         <v>320</v>
@@ -13100,16 +13108,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3084000</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3084000</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3084000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3084000</v>
+        <v>1542000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1542000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1542000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1542000</v>
       </c>
       <c r="F11" s="3">
         <v>480</v>
@@ -13120,16 +13128,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>3780000</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3780000</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3780000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3780000</v>
+        <v>1890000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1890000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1890000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1890000</v>
       </c>
       <c r="F12" s="3">
         <v>660</v>
@@ -13140,16 +13148,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>4548000</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4548000</v>
-      </c>
-      <c r="D13" s="3">
-        <v>4548000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4548000</v>
+        <v>2274000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2274000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2274000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2274000</v>
       </c>
       <c r="F13" s="3">
         <v>840</v>
@@ -13160,16 +13168,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>5388000</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5388000</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5388000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5388000</v>
+        <v>2694000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2694000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2694000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2694000</v>
       </c>
       <c r="F14" s="3">
         <v>1110</v>
@@ -13180,16 +13188,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>6300000</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6300000</v>
-      </c>
-      <c r="D15" s="3">
-        <v>6300000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6300000</v>
+        <v>3150000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3150000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3150000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3150000</v>
       </c>
       <c r="F15" s="3">
         <v>2240</v>
@@ -13200,16 +13208,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>7284000</v>
-      </c>
-      <c r="C16" s="3">
-        <v>7284000</v>
-      </c>
-      <c r="D16" s="3">
-        <v>7284000</v>
-      </c>
-      <c r="E16" s="3">
-        <v>7284000</v>
+        <v>3642000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3642000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3642000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3642000</v>
       </c>
       <c r="F16" s="3">
         <v>3510</v>
@@ -13220,16 +13228,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>8340000</v>
-      </c>
-      <c r="C17" s="3">
-        <v>8340000</v>
-      </c>
-      <c r="D17" s="3">
-        <v>8340000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8340000</v>
+        <v>4170000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4170000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4170000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4170000</v>
       </c>
       <c r="F17" s="3">
         <v>4850</v>
@@ -13240,16 +13248,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>9468000</v>
-      </c>
-      <c r="C18" s="3">
-        <v>9468000</v>
-      </c>
-      <c r="D18" s="3">
-        <v>9468000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>9468000</v>
+        <v>4734000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4734000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4734000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4734000</v>
       </c>
       <c r="F18" s="3">
         <v>7090</v>
@@ -13260,16 +13268,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>10668000</v>
-      </c>
-      <c r="C19" s="3">
-        <v>10668000</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10668000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10668000</v>
+        <v>5334000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5334000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5334000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5334000</v>
       </c>
       <c r="F19" s="3">
         <v>8730</v>
@@ -13280,16 +13288,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>11940000</v>
-      </c>
-      <c r="C20" s="3">
-        <v>11940000</v>
-      </c>
-      <c r="D20" s="3">
-        <v>11940000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>11940000</v>
+        <v>5970000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5970000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5970000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5970000</v>
       </c>
       <c r="F20" s="3">
         <v>10670</v>
@@ -13300,16 +13308,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>13284000</v>
-      </c>
-      <c r="C21" s="3">
-        <v>13284000</v>
-      </c>
-      <c r="D21" s="3">
-        <v>13284000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>13284000</v>
+        <v>6642000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6642000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6642000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6642000</v>
       </c>
       <c r="F21" s="3">
         <v>12510</v>
@@ -13320,16 +13328,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>14700000</v>
-      </c>
-      <c r="C22" s="3">
-        <v>14700000</v>
-      </c>
-      <c r="D22" s="3">
-        <v>14700000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>14700000</v>
+        <v>7350000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7350000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7350000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7350000</v>
       </c>
       <c r="F22" s="3">
         <v>17000</v>
@@ -13340,16 +13348,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>16188000</v>
-      </c>
-      <c r="C23" s="3">
-        <v>16188000</v>
-      </c>
-      <c r="D23" s="3">
-        <v>16188000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>16188000</v>
+        <v>8094000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8094000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8094000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8094000</v>
       </c>
       <c r="F23" s="3">
         <v>19490</v>
@@ -13360,16 +13368,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>17748000</v>
-      </c>
-      <c r="C24" s="3">
-        <v>17748000</v>
-      </c>
-      <c r="D24" s="3">
-        <v>17748000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>17748000</v>
+        <v>8874000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8874000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8874000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8874000</v>
       </c>
       <c r="F24" s="3">
         <v>22490</v>
@@ -13380,16 +13388,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>19380000</v>
-      </c>
-      <c r="C25" s="3">
-        <v>19380000</v>
-      </c>
-      <c r="D25" s="3">
-        <v>19380000</v>
-      </c>
-      <c r="E25" s="3">
-        <v>19380000</v>
+        <v>9690000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9690000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>9690000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>9690000</v>
       </c>
       <c r="F25" s="3">
         <v>25310</v>
@@ -13400,16 +13408,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>21084000</v>
-      </c>
-      <c r="C26" s="3">
-        <v>21084000</v>
-      </c>
-      <c r="D26" s="3">
-        <v>21084000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>21084000</v>
+        <v>10542000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10542000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10542000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>10542000</v>
       </c>
       <c r="F26" s="3">
         <v>34580</v>
@@ -13420,16 +13428,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>22860000</v>
-      </c>
-      <c r="C27" s="3">
-        <v>22860000</v>
-      </c>
-      <c r="D27" s="3">
-        <v>22860000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>22860000</v>
+        <v>11430000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11430000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>11430000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>11430000</v>
       </c>
       <c r="F27" s="3">
         <v>38600</v>
@@ -13440,16 +13448,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>24708000</v>
-      </c>
-      <c r="C28" s="3">
-        <v>24708000</v>
-      </c>
-      <c r="D28" s="3">
-        <v>24708000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>24708000</v>
+        <v>12354000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12354000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>12354000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>12354000</v>
       </c>
       <c r="F28" s="3">
         <v>43430</v>
@@ -13460,16 +13468,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>26628000</v>
-      </c>
-      <c r="C29" s="3">
-        <v>26628000</v>
-      </c>
-      <c r="D29" s="3">
-        <v>26628000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>26628000</v>
+        <v>13314000</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13314000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>13314000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>13314000</v>
       </c>
       <c r="F29" s="3">
         <v>47990</v>
@@ -13480,16 +13488,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>28620000</v>
-      </c>
-      <c r="C30" s="3">
-        <v>28620000</v>
-      </c>
-      <c r="D30" s="3">
-        <v>28620000</v>
-      </c>
-      <c r="E30" s="3">
-        <v>28620000</v>
+        <v>14310000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>14310000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>14310000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>14310000</v>
       </c>
       <c r="F30" s="3">
         <v>68300</v>
@@ -13500,16 +13508,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>30684000</v>
-      </c>
-      <c r="C31" s="3">
-        <v>30684000</v>
-      </c>
-      <c r="D31" s="3">
-        <v>30684000</v>
-      </c>
-      <c r="E31" s="3">
-        <v>30684000</v>
+        <v>15342000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>15342000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>15342000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>15342000</v>
       </c>
       <c r="F31" s="3">
         <v>78840</v>
@@ -13520,16 +13528,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>32820000</v>
-      </c>
-      <c r="C32" s="3">
-        <v>32820000</v>
-      </c>
-      <c r="D32" s="3">
-        <v>32820000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>32820000</v>
+        <v>16410000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16410000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>16410000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>16410000</v>
       </c>
       <c r="F32" s="3">
         <v>91060</v>
@@ -13540,16 +13548,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>35028000</v>
-      </c>
-      <c r="C33" s="3">
-        <v>35028000</v>
-      </c>
-      <c r="D33" s="3">
-        <v>35028000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>35028000</v>
+        <v>17514000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>17514000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>17514000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>17514000</v>
       </c>
       <c r="F33" s="3">
         <v>103320</v>
@@ -13560,16 +13568,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>37308000</v>
-      </c>
-      <c r="C34" s="3">
-        <v>37308000</v>
-      </c>
-      <c r="D34" s="3">
-        <v>37308000</v>
-      </c>
-      <c r="E34" s="3">
-        <v>37308000</v>
+        <v>18654000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>18654000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>18654000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>18654000</v>
       </c>
       <c r="F34" s="3">
         <v>141420</v>
@@ -13580,16 +13588,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>39660000</v>
-      </c>
-      <c r="C35" s="3">
-        <v>39660000</v>
-      </c>
-      <c r="D35" s="3">
-        <v>39660000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>39660000</v>
+        <v>19830000</v>
+      </c>
+      <c r="C35" s="1">
+        <v>19830000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>19830000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>19830000</v>
       </c>
       <c r="F35" s="3">
         <v>158910</v>
@@ -13600,16 +13608,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>42084000</v>
-      </c>
-      <c r="C36" s="3">
-        <v>42084000</v>
-      </c>
-      <c r="D36" s="3">
-        <v>42084000</v>
-      </c>
-      <c r="E36" s="3">
-        <v>42084000</v>
+        <v>21042000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>21042000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>21042000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>21042000</v>
       </c>
       <c r="F36" s="3">
         <v>179000</v>
@@ -13620,16 +13628,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>45000000</v>
-      </c>
-      <c r="C37" s="3">
-        <v>45000000</v>
-      </c>
-      <c r="D37" s="3">
-        <v>45000000</v>
-      </c>
-      <c r="E37" s="3">
-        <v>45000000</v>
+        <v>22500000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>22500000</v>
       </c>
       <c r="F37" s="3">
         <v>199230</v>
@@ -13640,16 +13648,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>48000000</v>
-      </c>
-      <c r="C38" s="3">
-        <v>48000000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>48000000</v>
-      </c>
-      <c r="E38" s="3">
-        <v>48000000</v>
+        <v>24000000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>24000000</v>
       </c>
       <c r="F38" s="3">
         <v>267930</v>
@@ -13660,16 +13668,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>60000000</v>
-      </c>
-      <c r="C39" s="3">
-        <v>60000000</v>
-      </c>
-      <c r="D39" s="3">
-        <v>60000000</v>
-      </c>
-      <c r="E39" s="3">
-        <v>60000000</v>
+        <v>30000000</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>30000000</v>
       </c>
       <c r="F39" s="3">
         <v>296390</v>
@@ -13680,16 +13688,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>72000000</v>
-      </c>
-      <c r="C40" s="3">
-        <v>72000000</v>
-      </c>
-      <c r="D40" s="3">
-        <v>72000000</v>
-      </c>
-      <c r="E40" s="3">
-        <v>72000000</v>
+        <v>36000000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>36000000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>36000000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>36000000</v>
       </c>
       <c r="F40" s="1">
         <v>328590</v>
@@ -13700,16 +13708,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>90000000</v>
-      </c>
-      <c r="C41" s="3">
-        <v>90000000</v>
-      </c>
-      <c r="D41" s="3">
-        <v>90000000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>90000000</v>
+        <v>45000000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45000000</v>
       </c>
       <c r="F41" s="1">
         <v>361430</v>
@@ -13731,7 +13739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -14705,7 +14713,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="2" width="20.6640625" style="1"/>
+    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25040" yWindow="0" windowWidth="32660" windowHeight="20460" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="3540" yWindow="1460" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -187,19 +187,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_maxMaterial</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_maxCart</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxSoldierMaterial</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_maxDragonMaterial</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -356,6 +344,22 @@
   </si>
   <si>
     <t>INT_productionType</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_soldierMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_buildingMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_technologyMaterials</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_dragonMaterials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="656">
+  <cellStyleXfs count="658">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +562,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1229,7 +1235,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="656">
+  <cellStyles count="658">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1560,6 +1566,7 @@
     <cellStyle name="超链接" xfId="650" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1883,6 +1890,7 @@
     <cellStyle name="访问过的超链接" xfId="651" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2351,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -2931,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E42"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2942,24 +2950,27 @@
     <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2972,11 +2983,14 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2989,11 +3003,14 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3006,11 +3023,14 @@
       <c r="D4" s="1">
         <v>40</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1">
+    <row r="5" spans="1:6" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3023,11 +3043,14 @@
       <c r="D5" s="1">
         <v>60</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
+        <v>60</v>
+      </c>
+      <c r="F5" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
+    <row r="6" spans="1:6" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3040,11 +3063,14 @@
       <c r="D6" s="1">
         <v>80</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
+        <v>80</v>
+      </c>
+      <c r="F6" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
+    <row r="7" spans="1:6" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3057,11 +3083,14 @@
       <c r="D7" s="1">
         <v>100</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20" customHeight="1">
+    <row r="8" spans="1:6" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3074,11 +3103,14 @@
       <c r="D8" s="1">
         <v>120</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
+        <v>120</v>
+      </c>
+      <c r="F8" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3091,11 +3123,14 @@
       <c r="D9" s="1">
         <v>140</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
+        <v>140</v>
+      </c>
+      <c r="F9" s="3">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3108,11 +3143,14 @@
       <c r="D10" s="1">
         <v>160</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
+        <v>160</v>
+      </c>
+      <c r="F10" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3125,11 +3163,14 @@
       <c r="D11" s="1">
         <v>180</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
+        <v>180</v>
+      </c>
+      <c r="F11" s="3">
         <v>520</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3142,11 +3183,14 @@
       <c r="D12" s="1">
         <v>200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>730</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3159,11 +3203,14 @@
       <c r="D13" s="1">
         <v>220</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
+        <v>220</v>
+      </c>
+      <c r="F13" s="3">
         <v>920</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3176,11 +3223,14 @@
       <c r="D14" s="1">
         <v>240</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
+        <v>240</v>
+      </c>
+      <c r="F14" s="3">
         <v>1220</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3193,11 +3243,14 @@
       <c r="D15" s="1">
         <v>260</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
+        <v>260</v>
+      </c>
+      <c r="F15" s="3">
         <v>2470</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3210,11 +3263,14 @@
       <c r="D16" s="1">
         <v>280</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
+        <v>280</v>
+      </c>
+      <c r="F16" s="3">
         <v>3860</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3227,11 +3283,14 @@
       <c r="D17" s="1">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>5340</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3244,11 +3303,14 @@
       <c r="D18" s="1">
         <v>320</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
+        <v>320</v>
+      </c>
+      <c r="F18" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3261,11 +3323,14 @@
       <c r="D19" s="1">
         <v>340</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
+        <v>340</v>
+      </c>
+      <c r="F19" s="3">
         <v>9610</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3278,11 +3343,14 @@
       <c r="D20" s="1">
         <v>360</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
+        <v>360</v>
+      </c>
+      <c r="F20" s="3">
         <v>11730</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3295,11 +3363,14 @@
       <c r="D21" s="1">
         <v>380</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
+        <v>380</v>
+      </c>
+      <c r="F21" s="3">
         <v>13770</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3312,11 +3383,14 @@
       <c r="D22" s="1">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
+        <v>400</v>
+      </c>
+      <c r="F22" s="3">
         <v>18700</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20" customHeight="1">
+    <row r="23" spans="1:6" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3329,11 +3403,14 @@
       <c r="D23" s="1">
         <v>420</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
+        <v>420</v>
+      </c>
+      <c r="F23" s="3">
         <v>21440</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20" customHeight="1">
+    <row r="24" spans="1:6" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3346,11 +3423,14 @@
       <c r="D24" s="1">
         <v>440</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
+        <v>440</v>
+      </c>
+      <c r="F24" s="3">
         <v>24740</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1">
+    <row r="25" spans="1:6" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3363,11 +3443,14 @@
       <c r="D25" s="1">
         <v>460</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
+        <v>460</v>
+      </c>
+      <c r="F25" s="3">
         <v>27850</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20" customHeight="1">
+    <row r="26" spans="1:6" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3380,11 +3463,14 @@
       <c r="D26" s="1">
         <v>480</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
+        <v>480</v>
+      </c>
+      <c r="F26" s="3">
         <v>38030</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20" customHeight="1">
+    <row r="27" spans="1:6" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3397,11 +3483,14 @@
       <c r="D27" s="1">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="1">
+        <v>500</v>
+      </c>
+      <c r="F27" s="3">
         <v>42460</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20" customHeight="1">
+    <row r="28" spans="1:6" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3414,11 +3503,14 @@
       <c r="D28" s="1">
         <v>550</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="1">
+        <v>550</v>
+      </c>
+      <c r="F28" s="3">
         <v>47770</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20" customHeight="1">
+    <row r="29" spans="1:6" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3431,11 +3523,14 @@
       <c r="D29" s="1">
         <v>600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
+        <v>600</v>
+      </c>
+      <c r="F29" s="3">
         <v>52780</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20" customHeight="1">
+    <row r="30" spans="1:6" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3448,11 +3543,14 @@
       <c r="D30" s="1">
         <v>700</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
+        <v>700</v>
+      </c>
+      <c r="F30" s="3">
         <v>75130</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20" customHeight="1">
+    <row r="31" spans="1:6" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3465,11 +3563,14 @@
       <c r="D31" s="1">
         <v>800</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
+        <v>800</v>
+      </c>
+      <c r="F31" s="3">
         <v>86730</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20" customHeight="1">
+    <row r="32" spans="1:6" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3482,11 +3583,14 @@
       <c r="D32" s="1">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
+        <v>900</v>
+      </c>
+      <c r="F32" s="3">
         <v>100170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20" customHeight="1">
+    <row r="33" spans="1:6" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3499,11 +3603,14 @@
       <c r="D33" s="1">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>113650</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20" customHeight="1">
+    <row r="34" spans="1:6" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3516,11 +3623,14 @@
       <c r="D34" s="1">
         <v>1200</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F34" s="3">
         <v>155560</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20" customHeight="1">
+    <row r="35" spans="1:6" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3533,11 +3643,14 @@
       <c r="D35" s="1">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>174800</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20" customHeight="1">
+    <row r="36" spans="1:6" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3550,11 +3663,14 @@
       <c r="D36" s="1">
         <v>1600</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="1">
+        <v>1600</v>
+      </c>
+      <c r="F36" s="3">
         <v>196900</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20" customHeight="1">
+    <row r="37" spans="1:6" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3567,11 +3683,14 @@
       <c r="D37" s="1">
         <v>1800</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F37" s="3">
         <v>219150</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20" customHeight="1">
+    <row r="38" spans="1:6" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3584,11 +3703,14 @@
       <c r="D38" s="1">
         <v>2000</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F38" s="3">
         <v>294720</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20" customHeight="1">
+    <row r="39" spans="1:6" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3601,11 +3723,14 @@
       <c r="D39" s="1">
         <v>2200</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="1">
+        <v>2200</v>
+      </c>
+      <c r="F39" s="3">
         <v>326020</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20" customHeight="1">
+    <row r="40" spans="1:6" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3619,10 +3744,13 @@
         <v>2500</v>
       </c>
       <c r="E40" s="1">
+        <v>2500</v>
+      </c>
+      <c r="F40" s="1">
         <v>361440</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20" customHeight="1">
+    <row r="41" spans="1:6" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3636,6 +3764,9 @@
         <v>3000</v>
       </c>
       <c r="E41" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="1">
         <v>397570</v>
       </c>
     </row>
@@ -4142,16 +4273,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4744,40 +4875,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -6333,13 +6464,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -7049,16 +7180,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7648,16 +7779,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8247,16 +8378,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8849,16 +8980,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -9926,10 +10057,10 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -12894,7 +13025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -13756,19 +13887,19 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -14726,7 +14857,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -14740,7 +14871,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
@@ -14754,7 +14885,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -14768,7 +14899,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3">
         <v>60</v>
@@ -14782,7 +14913,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>70</v>
@@ -14796,7 +14927,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
         <v>80</v>
@@ -14810,7 +14941,7 @@
         <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3">
         <v>90</v>
@@ -14824,7 +14955,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
         <v>130</v>
@@ -14838,7 +14969,7 @@
         <v>300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3">
         <v>220</v>
@@ -14852,7 +14983,7 @@
         <v>350</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3">
         <v>440</v>
@@ -14866,7 +14997,7 @@
         <v>400</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
         <v>650</v>
@@ -14880,7 +15011,7 @@
         <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3">
         <v>890</v>
@@ -14894,7 +15025,7 @@
         <v>500</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3">
         <v>1120</v>
@@ -14908,7 +15039,7 @@
         <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3">
         <v>1470</v>
@@ -14922,7 +15053,7 @@
         <v>600</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3">
         <v>2940</v>
@@ -14936,7 +15067,7 @@
         <v>650</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3">
         <v>4580</v>
@@ -14950,7 +15081,7 @@
         <v>700</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3">
         <v>6340</v>
@@ -14964,7 +15095,7 @@
         <v>750</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3">
         <v>9250</v>
@@ -14978,7 +15109,7 @@
         <v>800</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3">
         <v>11380</v>
@@ -14992,7 +15123,7 @@
         <v>850</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="3">
         <v>13900</v>
@@ -15006,7 +15137,7 @@
         <v>900</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3">
         <v>16300</v>
@@ -15020,7 +15151,7 @@
         <v>950</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="3">
         <v>22130</v>
@@ -15034,7 +15165,7 @@
         <v>1000</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D23" s="3">
         <v>25360</v>
@@ -15048,7 +15179,7 @@
         <v>1100</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D24" s="3">
         <v>29270</v>
@@ -15062,7 +15193,7 @@
         <v>1200</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3">
         <v>32940</v>
@@ -15076,7 +15207,7 @@
         <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D26" s="3">
         <v>44980</v>
@@ -15090,7 +15221,7 @@
         <v>1400</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3">
         <v>50210</v>
@@ -15104,7 +15235,7 @@
         <v>1500</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3">
         <v>56480</v>
@@ -15118,7 +15249,7 @@
         <v>1600</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3">
         <v>62410</v>
@@ -15132,7 +15263,7 @@
         <v>1700</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D30" s="3">
         <v>88820</v>
@@ -15146,7 +15277,7 @@
         <v>1800</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D31" s="3">
         <v>102520</v>
@@ -15160,7 +15291,7 @@
         <v>1900</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D32" s="3">
         <v>118410</v>
@@ -15174,7 +15305,7 @@
         <v>2000</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D33" s="3">
         <v>134340</v>
@@ -15188,7 +15319,7 @@
         <v>2100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3">
         <v>183880</v>
@@ -15202,7 +15333,7 @@
         <v>2200</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3">
         <v>206610</v>
@@ -15216,7 +15347,7 @@
         <v>2300</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3">
         <v>232730</v>
@@ -15230,7 +15361,7 @@
         <v>2400</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D37" s="3">
         <v>259030</v>
@@ -15244,7 +15375,7 @@
         <v>2500</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3">
         <v>348330</v>
@@ -15258,7 +15389,7 @@
         <v>2600</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D39" s="3">
         <v>385330</v>
@@ -15272,7 +15403,7 @@
         <v>2800</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" s="1">
         <v>427190</v>
@@ -15286,7 +15417,7 @@
         <v>3000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1">
         <v>469890</v>
@@ -15322,7 +15453,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="1460" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="658">
+  <cellStyleXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1235,7 +1241,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="658">
+  <cellStyles count="664">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1567,6 +1573,9 @@
     <cellStyle name="超链接" xfId="652" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="654" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="656" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1891,6 +1900,9 @@
     <cellStyle name="访问过的超链接" xfId="653" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="655" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="657" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2942,7 +2954,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2975,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -2995,16 +3007,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -3015,16 +3027,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -3035,16 +3047,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -3055,16 +3067,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -3075,16 +3087,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -3095,16 +3107,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C8" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D8" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E8" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -3115,16 +3127,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="D9" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="E9" s="1">
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -3135,16 +3147,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C10" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D10" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E10" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -3155,16 +3167,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="C11" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D11" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="E11" s="1">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -3175,16 +3187,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -3195,16 +3207,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="C13" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="D13" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="E13" s="1">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -3215,16 +3227,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C14" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D14" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E14" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -3235,16 +3247,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="C15" s="1">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="D15" s="1">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="E15" s="1">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -3255,16 +3267,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="C16" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="D16" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="E16" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -3275,16 +3287,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="C17" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="D17" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E17" s="1">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -3295,16 +3307,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C18" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D18" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E18" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -3315,16 +3327,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="C19" s="1">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="D19" s="1">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="E19" s="1">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -3335,16 +3347,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="C20" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="D20" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E20" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -3355,16 +3367,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="C21" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="D21" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="E21" s="1">
-        <v>380</v>
+        <v>760</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -3375,16 +3387,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C22" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D22" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E22" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -3395,16 +3407,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="C23" s="1">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="D23" s="1">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="E23" s="1">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -3415,16 +3427,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C24" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="D24" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="E24" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -3435,16 +3447,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="C25" s="1">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="D25" s="1">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="E25" s="1">
-        <v>460</v>
+        <v>920</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -3455,16 +3467,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C26" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D26" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="E26" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -3475,16 +3487,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -3495,16 +3507,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="C28" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="D28" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="E28" s="1">
-        <v>550</v>
+        <v>1100</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -3515,16 +3527,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="C29" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D29" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E29" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -3535,16 +3547,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="C30" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="D30" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E30" s="1">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -3555,16 +3567,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C31" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D31" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E31" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -3575,16 +3587,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="C32" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="D32" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="1">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -3595,16 +3607,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C33" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D33" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -3615,16 +3627,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="C34" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D34" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E34" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -3635,16 +3647,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C35" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="D35" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E35" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -3655,16 +3667,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="C36" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D36" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E36" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -3675,16 +3687,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="C37" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="D37" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E37" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -3695,16 +3707,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C38" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D38" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E38" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -3715,16 +3727,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="C39" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="D39" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E39" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -3735,16 +3747,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="C40" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="D40" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="E40" s="1">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -3755,16 +3767,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="C41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E41" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1460" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="9"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="664">
+  <cellStyleXfs count="678">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1241,7 +1255,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="664">
+  <cellStyles count="678">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1576,6 +1590,13 @@
     <cellStyle name="超链接" xfId="658" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="660" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="662" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="664" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="666" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="668" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="670" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1903,6 +1924,13 @@
     <cellStyle name="访问过的超链接" xfId="659" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="661" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="663" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="665" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="667" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="669" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="671" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2953,7 +2981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4876,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4928,34 +4956,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="E2" s="1">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="F2" s="1">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="G2" s="1">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H2" s="1">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="I2" s="1">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="J2" s="1">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="K2" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L2" s="3">
         <v>30</v>
@@ -4966,34 +4994,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>40000</v>
+        <v>7960</v>
       </c>
       <c r="E3" s="1">
-        <v>40000</v>
+        <v>7960</v>
       </c>
       <c r="F3" s="1">
-        <v>40000</v>
+        <v>7960</v>
       </c>
       <c r="G3" s="1">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="H3" s="1">
-        <v>80000</v>
+        <v>15920</v>
       </c>
       <c r="I3" s="1">
-        <v>80000</v>
+        <v>15920</v>
       </c>
       <c r="J3" s="1">
-        <v>80000</v>
+        <v>15920</v>
       </c>
       <c r="K3" s="1">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="L3" s="3">
         <v>35</v>
@@ -5004,34 +5032,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>80000</v>
+        <v>11880</v>
       </c>
       <c r="E4" s="1">
-        <v>80000</v>
+        <v>11880</v>
       </c>
       <c r="F4" s="1">
-        <v>80000</v>
+        <v>11880</v>
       </c>
       <c r="G4" s="1">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>160000</v>
+        <v>23760</v>
       </c>
       <c r="I4" s="1">
-        <v>160000</v>
+        <v>23760</v>
       </c>
       <c r="J4" s="1">
-        <v>160000</v>
+        <v>23760</v>
       </c>
       <c r="K4" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="L4" s="3">
         <v>40</v>
@@ -5042,34 +5070,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>120000</v>
+        <v>15760</v>
       </c>
       <c r="E5" s="1">
-        <v>120000</v>
+        <v>15760</v>
       </c>
       <c r="F5" s="1">
-        <v>120000</v>
+        <v>15760</v>
       </c>
       <c r="G5" s="1">
-        <v>900</v>
+        <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>240000</v>
+        <v>31520</v>
       </c>
       <c r="I5" s="1">
-        <v>240000</v>
+        <v>31520</v>
       </c>
       <c r="J5" s="1">
-        <v>240000</v>
+        <v>31520</v>
       </c>
       <c r="K5" s="1">
-        <v>1800</v>
+        <v>1280</v>
       </c>
       <c r="L5" s="3">
         <v>50</v>
@@ -5080,34 +5108,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>160000</v>
+        <v>19600</v>
       </c>
       <c r="E6" s="1">
-        <v>160000</v>
+        <v>19600</v>
       </c>
       <c r="F6" s="1">
-        <v>160000</v>
+        <v>19600</v>
       </c>
       <c r="G6" s="1">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>320000</v>
+        <v>39200</v>
       </c>
       <c r="I6" s="1">
-        <v>320000</v>
+        <v>39200</v>
       </c>
       <c r="J6" s="1">
-        <v>320000</v>
+        <v>39200</v>
       </c>
       <c r="K6" s="1">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="L6" s="3">
         <v>60</v>
@@ -5118,34 +5146,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>200000</v>
+        <v>23400</v>
       </c>
       <c r="E7" s="1">
-        <v>200000</v>
+        <v>23400</v>
       </c>
       <c r="F7" s="1">
-        <v>200000</v>
+        <v>23400</v>
       </c>
       <c r="G7" s="1">
-        <v>1500</v>
+        <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>400000</v>
+        <v>46800</v>
       </c>
       <c r="I7" s="1">
-        <v>400000</v>
+        <v>46800</v>
       </c>
       <c r="J7" s="1">
-        <v>400000</v>
+        <v>46800</v>
       </c>
       <c r="K7" s="1">
-        <v>3000</v>
+        <v>1920</v>
       </c>
       <c r="L7" s="3">
         <v>70</v>
@@ -5156,34 +5184,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>240000</v>
+        <v>27160</v>
       </c>
       <c r="E8" s="1">
-        <v>240000</v>
+        <v>27160</v>
       </c>
       <c r="F8" s="1">
-        <v>240000</v>
+        <v>27160</v>
       </c>
       <c r="G8" s="1">
-        <v>1800</v>
+        <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>480000</v>
+        <v>54320</v>
       </c>
       <c r="I8" s="1">
-        <v>480000</v>
+        <v>54320</v>
       </c>
       <c r="J8" s="1">
-        <v>480000</v>
+        <v>54320</v>
       </c>
       <c r="K8" s="1">
-        <v>3600</v>
+        <v>2240</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -5194,34 +5222,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>280000</v>
+        <v>30880</v>
       </c>
       <c r="E9" s="1">
-        <v>280000</v>
+        <v>30880</v>
       </c>
       <c r="F9" s="1">
-        <v>280000</v>
+        <v>30880</v>
       </c>
       <c r="G9" s="1">
-        <v>2100</v>
+        <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>560000</v>
+        <v>61760</v>
       </c>
       <c r="I9" s="1">
-        <v>560000</v>
+        <v>61760</v>
       </c>
       <c r="J9" s="1">
-        <v>560000</v>
+        <v>61760</v>
       </c>
       <c r="K9" s="1">
-        <v>4200</v>
+        <v>2560</v>
       </c>
       <c r="L9" s="3">
         <v>180</v>
@@ -5232,34 +5260,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>320000</v>
+        <v>34560</v>
       </c>
       <c r="E10" s="1">
-        <v>320000</v>
+        <v>34560</v>
       </c>
       <c r="F10" s="1">
-        <v>320000</v>
+        <v>34560</v>
       </c>
       <c r="G10" s="1">
-        <v>2400</v>
+        <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>640000</v>
+        <v>69120</v>
       </c>
       <c r="I10" s="1">
-        <v>640000</v>
+        <v>69120</v>
       </c>
       <c r="J10" s="1">
-        <v>640000</v>
+        <v>69120</v>
       </c>
       <c r="K10" s="1">
-        <v>4800</v>
+        <v>2880</v>
       </c>
       <c r="L10" s="3">
         <v>370</v>
@@ -5270,34 +5298,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>360000</v>
+        <v>38200</v>
       </c>
       <c r="E11" s="1">
-        <v>360000</v>
+        <v>38200</v>
       </c>
       <c r="F11" s="1">
-        <v>360000</v>
+        <v>38200</v>
       </c>
       <c r="G11" s="1">
-        <v>2700</v>
+        <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>720000</v>
+        <v>76400</v>
       </c>
       <c r="I11" s="1">
-        <v>720000</v>
+        <v>76400</v>
       </c>
       <c r="J11" s="1">
-        <v>720000</v>
+        <v>76400</v>
       </c>
       <c r="K11" s="1">
-        <v>5400</v>
+        <v>3200</v>
       </c>
       <c r="L11" s="3">
         <v>550</v>
@@ -5308,34 +5336,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>400000</v>
+        <v>41800</v>
       </c>
       <c r="E12" s="1">
-        <v>400000</v>
+        <v>41800</v>
       </c>
       <c r="F12" s="1">
-        <v>400000</v>
+        <v>41800</v>
       </c>
       <c r="G12" s="1">
-        <v>3000</v>
+        <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>800000</v>
+        <v>83600</v>
       </c>
       <c r="I12" s="1">
-        <v>800000</v>
+        <v>83600</v>
       </c>
       <c r="J12" s="1">
-        <v>800000</v>
+        <v>83600</v>
       </c>
       <c r="K12" s="1">
-        <v>6000</v>
+        <v>3520</v>
       </c>
       <c r="L12" s="3">
         <v>750</v>
@@ -5346,34 +5374,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>440000</v>
+        <v>45360</v>
       </c>
       <c r="E13" s="1">
-        <v>440000</v>
+        <v>45360</v>
       </c>
       <c r="F13" s="1">
-        <v>440000</v>
+        <v>45360</v>
       </c>
       <c r="G13" s="1">
-        <v>3300</v>
+        <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>880000</v>
+        <v>90720</v>
       </c>
       <c r="I13" s="1">
-        <v>880000</v>
+        <v>90720</v>
       </c>
       <c r="J13" s="1">
-        <v>880000</v>
+        <v>90720</v>
       </c>
       <c r="K13" s="1">
-        <v>6600</v>
+        <v>3840</v>
       </c>
       <c r="L13" s="3">
         <v>950</v>
@@ -5384,34 +5412,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>480000</v>
+        <v>48880</v>
       </c>
       <c r="E14" s="1">
-        <v>480000</v>
+        <v>48880</v>
       </c>
       <c r="F14" s="1">
-        <v>480000</v>
+        <v>48880</v>
       </c>
       <c r="G14" s="1">
-        <v>3600</v>
+        <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>960000</v>
+        <v>97760</v>
       </c>
       <c r="I14" s="1">
-        <v>960000</v>
+        <v>97760</v>
       </c>
       <c r="J14" s="1">
-        <v>960000</v>
+        <v>97760</v>
       </c>
       <c r="K14" s="1">
-        <v>7200</v>
+        <v>4160</v>
       </c>
       <c r="L14" s="3">
         <v>1250</v>
@@ -5422,34 +5450,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>520000</v>
+        <v>52360</v>
       </c>
       <c r="E15" s="1">
-        <v>520000</v>
+        <v>52360</v>
       </c>
       <c r="F15" s="1">
-        <v>520000</v>
+        <v>52360</v>
       </c>
       <c r="G15" s="1">
-        <v>3900</v>
+        <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>1040000</v>
+        <v>104720</v>
       </c>
       <c r="I15" s="1">
-        <v>1040000</v>
+        <v>104720</v>
       </c>
       <c r="J15" s="1">
-        <v>1040000</v>
+        <v>104720</v>
       </c>
       <c r="K15" s="1">
-        <v>7800</v>
+        <v>4480</v>
       </c>
       <c r="L15" s="3">
         <v>2530</v>
@@ -5460,34 +5488,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>560000</v>
+        <v>55800</v>
       </c>
       <c r="E16" s="1">
-        <v>560000</v>
+        <v>55800</v>
       </c>
       <c r="F16" s="1">
-        <v>560000</v>
+        <v>55800</v>
       </c>
       <c r="G16" s="1">
-        <v>4200</v>
+        <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>1120000</v>
+        <v>111600</v>
       </c>
       <c r="I16" s="1">
-        <v>1120000</v>
+        <v>111600</v>
       </c>
       <c r="J16" s="1">
-        <v>1120000</v>
+        <v>111600</v>
       </c>
       <c r="K16" s="1">
-        <v>8400</v>
+        <v>4800</v>
       </c>
       <c r="L16" s="3">
         <v>3940</v>
@@ -5498,34 +5526,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>600000</v>
+        <v>59200</v>
       </c>
       <c r="E17" s="1">
-        <v>600000</v>
+        <v>59200</v>
       </c>
       <c r="F17" s="1">
-        <v>600000</v>
+        <v>59200</v>
       </c>
       <c r="G17" s="1">
-        <v>4500</v>
+        <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>1200000</v>
+        <v>118400</v>
       </c>
       <c r="I17" s="1">
-        <v>1200000</v>
+        <v>118400</v>
       </c>
       <c r="J17" s="1">
-        <v>1200000</v>
+        <v>118400</v>
       </c>
       <c r="K17" s="1">
-        <v>9000</v>
+        <v>5120</v>
       </c>
       <c r="L17" s="3">
         <v>5450</v>
@@ -5536,34 +5564,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>640000</v>
+        <v>66240</v>
       </c>
       <c r="E18" s="1">
-        <v>640000</v>
+        <v>66240</v>
       </c>
       <c r="F18" s="1">
-        <v>640000</v>
+        <v>66240</v>
       </c>
       <c r="G18" s="1">
-        <v>4800</v>
+        <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>1280000</v>
+        <v>132480</v>
       </c>
       <c r="I18" s="1">
-        <v>1280000</v>
+        <v>132480</v>
       </c>
       <c r="J18" s="1">
-        <v>1280000</v>
+        <v>132480</v>
       </c>
       <c r="K18" s="1">
-        <v>9600</v>
+        <v>5760</v>
       </c>
       <c r="L18" s="3">
         <v>7960</v>
@@ -5574,34 +5602,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>680000</v>
+        <v>73200</v>
       </c>
       <c r="E19" s="1">
-        <v>680000</v>
+        <v>73200</v>
       </c>
       <c r="F19" s="1">
-        <v>680000</v>
+        <v>73200</v>
       </c>
       <c r="G19" s="1">
-        <v>5100</v>
+        <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>1360000</v>
+        <v>146400</v>
       </c>
       <c r="I19" s="1">
-        <v>1360000</v>
+        <v>146400</v>
       </c>
       <c r="J19" s="1">
-        <v>1360000</v>
+        <v>146400</v>
       </c>
       <c r="K19" s="1">
-        <v>10200</v>
+        <v>6400</v>
       </c>
       <c r="L19" s="3">
         <v>9790</v>
@@ -5612,34 +5640,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>720000</v>
+        <v>80080</v>
       </c>
       <c r="E20" s="1">
-        <v>720000</v>
+        <v>80080</v>
       </c>
       <c r="F20" s="1">
-        <v>720000</v>
+        <v>80080</v>
       </c>
       <c r="G20" s="1">
-        <v>5400</v>
+        <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>1440000</v>
+        <v>160160</v>
       </c>
       <c r="I20" s="1">
-        <v>1440000</v>
+        <v>160160</v>
       </c>
       <c r="J20" s="1">
-        <v>1440000</v>
+        <v>160160</v>
       </c>
       <c r="K20" s="1">
-        <v>10800</v>
+        <v>7040</v>
       </c>
       <c r="L20" s="3">
         <v>11960</v>
@@ -5650,34 +5678,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>760000</v>
+        <v>86880</v>
       </c>
       <c r="E21" s="1">
-        <v>760000</v>
+        <v>86880</v>
       </c>
       <c r="F21" s="1">
-        <v>760000</v>
+        <v>86880</v>
       </c>
       <c r="G21" s="1">
-        <v>5700</v>
+        <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>1520000</v>
+        <v>173760</v>
       </c>
       <c r="I21" s="1">
-        <v>1520000</v>
+        <v>173760</v>
       </c>
       <c r="J21" s="1">
-        <v>1520000</v>
+        <v>173760</v>
       </c>
       <c r="K21" s="1">
-        <v>11400</v>
+        <v>7680</v>
       </c>
       <c r="L21" s="3">
         <v>14030</v>
@@ -5688,34 +5716,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>800000</v>
+        <v>93600</v>
       </c>
       <c r="E22" s="1">
-        <v>800000</v>
+        <v>93600</v>
       </c>
       <c r="F22" s="1">
-        <v>800000</v>
+        <v>93600</v>
       </c>
       <c r="G22" s="1">
-        <v>6000</v>
+        <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>1600000</v>
+        <v>187200</v>
       </c>
       <c r="I22" s="1">
-        <v>1600000</v>
+        <v>187200</v>
       </c>
       <c r="J22" s="1">
-        <v>1600000</v>
+        <v>187200</v>
       </c>
       <c r="K22" s="1">
-        <v>12000</v>
+        <v>8320</v>
       </c>
       <c r="L22" s="3">
         <v>19060</v>
@@ -5726,34 +5754,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>840000</v>
+        <v>100240</v>
       </c>
       <c r="E23" s="1">
-        <v>840000</v>
+        <v>100240</v>
       </c>
       <c r="F23" s="1">
-        <v>840000</v>
+        <v>100240</v>
       </c>
       <c r="G23" s="1">
-        <v>6300</v>
+        <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>1680000</v>
+        <v>200480</v>
       </c>
       <c r="I23" s="1">
-        <v>1680000</v>
+        <v>200480</v>
       </c>
       <c r="J23" s="1">
-        <v>1680000</v>
+        <v>200480</v>
       </c>
       <c r="K23" s="1">
-        <v>12600</v>
+        <v>8960</v>
       </c>
       <c r="L23" s="3">
         <v>21840</v>
@@ -5764,34 +5792,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>880000</v>
+        <v>106800</v>
       </c>
       <c r="E24" s="1">
-        <v>880000</v>
+        <v>106800</v>
       </c>
       <c r="F24" s="1">
-        <v>880000</v>
+        <v>106800</v>
       </c>
       <c r="G24" s="1">
-        <v>6600</v>
+        <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>1760000</v>
+        <v>213600</v>
       </c>
       <c r="I24" s="1">
-        <v>1760000</v>
+        <v>213600</v>
       </c>
       <c r="J24" s="1">
-        <v>1760000</v>
+        <v>213600</v>
       </c>
       <c r="K24" s="1">
-        <v>13200</v>
+        <v>9600</v>
       </c>
       <c r="L24" s="3">
         <v>25210</v>
@@ -5802,34 +5830,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>920000</v>
+        <v>113280</v>
       </c>
       <c r="E25" s="1">
-        <v>920000</v>
+        <v>113280</v>
       </c>
       <c r="F25" s="1">
-        <v>920000</v>
+        <v>113280</v>
       </c>
       <c r="G25" s="1">
-        <v>6900</v>
+        <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>1840000</v>
+        <v>226560</v>
       </c>
       <c r="I25" s="1">
-        <v>1840000</v>
+        <v>226560</v>
       </c>
       <c r="J25" s="1">
-        <v>1840000</v>
+        <v>226560</v>
       </c>
       <c r="K25" s="1">
-        <v>13800</v>
+        <v>10240</v>
       </c>
       <c r="L25" s="3">
         <v>28370</v>
@@ -5840,34 +5868,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>960000</v>
+        <v>119680</v>
       </c>
       <c r="E26" s="1">
-        <v>960000</v>
+        <v>119680</v>
       </c>
       <c r="F26" s="1">
-        <v>960000</v>
+        <v>119680</v>
       </c>
       <c r="G26" s="1">
-        <v>7200</v>
+        <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>1920000</v>
+        <v>239360</v>
       </c>
       <c r="I26" s="1">
-        <v>1920000</v>
+        <v>239360</v>
       </c>
       <c r="J26" s="1">
-        <v>1920000</v>
+        <v>239360</v>
       </c>
       <c r="K26" s="1">
-        <v>14400</v>
+        <v>10880</v>
       </c>
       <c r="L26" s="3">
         <v>38740</v>
@@ -5878,34 +5906,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>1000000</v>
+        <v>126000</v>
       </c>
       <c r="E27" s="1">
-        <v>1000000</v>
+        <v>126000</v>
       </c>
       <c r="F27" s="1">
-        <v>1000000</v>
+        <v>126000</v>
       </c>
       <c r="G27" s="1">
-        <v>7500</v>
+        <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>2000000</v>
+        <v>252000</v>
       </c>
       <c r="I27" s="1">
-        <v>2000000</v>
+        <v>252000</v>
       </c>
       <c r="J27" s="1">
-        <v>2000000</v>
+        <v>252000</v>
       </c>
       <c r="K27" s="1">
-        <v>15000</v>
+        <v>11520</v>
       </c>
       <c r="L27" s="3">
         <v>43250</v>
@@ -5916,34 +5944,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>1040000</v>
+        <v>132240</v>
       </c>
       <c r="E28" s="1">
-        <v>1040000</v>
+        <v>132240</v>
       </c>
       <c r="F28" s="1">
-        <v>1040000</v>
+        <v>132240</v>
       </c>
       <c r="G28" s="1">
-        <v>7800</v>
+        <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>2080000</v>
+        <v>264480</v>
       </c>
       <c r="I28" s="1">
-        <v>2080000</v>
+        <v>264480</v>
       </c>
       <c r="J28" s="1">
-        <v>2080000</v>
+        <v>264480</v>
       </c>
       <c r="K28" s="1">
-        <v>15600</v>
+        <v>12160</v>
       </c>
       <c r="L28" s="3">
         <v>48650</v>
@@ -5954,34 +5982,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>1080000</v>
+        <v>138400</v>
       </c>
       <c r="E29" s="1">
-        <v>1080000</v>
+        <v>138400</v>
       </c>
       <c r="F29" s="1">
-        <v>1080000</v>
+        <v>138400</v>
       </c>
       <c r="G29" s="1">
-        <v>8100</v>
+        <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>2160000</v>
+        <v>276800</v>
       </c>
       <c r="I29" s="1">
-        <v>2160000</v>
+        <v>276800</v>
       </c>
       <c r="J29" s="1">
-        <v>2160000</v>
+        <v>276800</v>
       </c>
       <c r="K29" s="1">
-        <v>16200</v>
+        <v>12800</v>
       </c>
       <c r="L29" s="3">
         <v>53760</v>
@@ -5992,34 +6020,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>1120000</v>
+        <v>154800</v>
       </c>
       <c r="E30" s="1">
-        <v>1120000</v>
+        <v>154800</v>
       </c>
       <c r="F30" s="1">
-        <v>1120000</v>
+        <v>154800</v>
       </c>
       <c r="G30" s="1">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>2240000</v>
+        <v>309600</v>
       </c>
       <c r="I30" s="1">
-        <v>2240000</v>
+        <v>309600</v>
       </c>
       <c r="J30" s="1">
-        <v>2240000</v>
+        <v>309600</v>
       </c>
       <c r="K30" s="1">
-        <v>16800</v>
+        <v>14400</v>
       </c>
       <c r="L30" s="3">
         <v>76510</v>
@@ -6030,34 +6058,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>1160000</v>
+        <v>171000</v>
       </c>
       <c r="E31" s="1">
-        <v>1160000</v>
+        <v>171000</v>
       </c>
       <c r="F31" s="1">
-        <v>1160000</v>
+        <v>171000</v>
       </c>
       <c r="G31" s="1">
-        <v>8700</v>
+        <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>2320000</v>
+        <v>342000</v>
       </c>
       <c r="I31" s="1">
-        <v>2320000</v>
+        <v>342000</v>
       </c>
       <c r="J31" s="1">
-        <v>2320000</v>
+        <v>342000</v>
       </c>
       <c r="K31" s="1">
-        <v>17400</v>
+        <v>16000</v>
       </c>
       <c r="L31" s="3">
         <v>88320</v>
@@ -6068,34 +6096,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>1200000</v>
+        <v>187000</v>
       </c>
       <c r="E32" s="1">
-        <v>1200000</v>
+        <v>187000</v>
       </c>
       <c r="F32" s="1">
-        <v>1200000</v>
+        <v>187000</v>
       </c>
       <c r="G32" s="1">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>2400000</v>
+        <v>374000</v>
       </c>
       <c r="I32" s="1">
-        <v>2400000</v>
+        <v>374000</v>
       </c>
       <c r="J32" s="1">
-        <v>2400000</v>
+        <v>374000</v>
       </c>
       <c r="K32" s="1">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="L32" s="3">
         <v>102010</v>
@@ -6106,31 +6134,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>1280000</v>
+        <v>202800</v>
       </c>
       <c r="E33" s="1">
-        <v>1280000</v>
+        <v>202800</v>
       </c>
       <c r="F33" s="1">
-        <v>1280000</v>
+        <v>202800</v>
       </c>
       <c r="G33" s="1">
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>2560000</v>
+        <v>405600</v>
       </c>
       <c r="I33" s="1">
-        <v>2560000</v>
+        <v>405600</v>
       </c>
       <c r="J33" s="1">
-        <v>2560000</v>
+        <v>405600</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -6144,34 +6172,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>1360000</v>
+        <v>218400</v>
       </c>
       <c r="E34" s="1">
-        <v>1360000</v>
+        <v>218400</v>
       </c>
       <c r="F34" s="1">
-        <v>1360000</v>
+        <v>218400</v>
       </c>
       <c r="G34" s="1">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>2720000</v>
+        <v>436800</v>
       </c>
       <c r="I34" s="1">
-        <v>2720000</v>
+        <v>436800</v>
       </c>
       <c r="J34" s="1">
-        <v>2720000</v>
+        <v>436800</v>
       </c>
       <c r="K34" s="1">
-        <v>20400</v>
+        <v>20800</v>
       </c>
       <c r="L34" s="3">
         <v>158410</v>
@@ -6182,34 +6210,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>360</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>1440000</v>
+        <v>233800</v>
       </c>
       <c r="E35" s="1">
-        <v>1440000</v>
+        <v>233800</v>
       </c>
       <c r="F35" s="1">
-        <v>1440000</v>
+        <v>233800</v>
       </c>
       <c r="G35" s="1">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>2880000</v>
+        <v>467600</v>
       </c>
       <c r="I35" s="1">
-        <v>2880000</v>
+        <v>467600</v>
       </c>
       <c r="J35" s="1">
-        <v>2880000</v>
+        <v>467600</v>
       </c>
       <c r="K35" s="1">
-        <v>21600</v>
+        <v>22400</v>
       </c>
       <c r="L35" s="3">
         <v>178000</v>
@@ -6220,34 +6248,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>1520000</v>
+        <v>249000</v>
       </c>
       <c r="E36" s="1">
-        <v>1520000</v>
+        <v>249000</v>
       </c>
       <c r="F36" s="1">
-        <v>1520000</v>
+        <v>249000</v>
       </c>
       <c r="G36" s="1">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>3040000</v>
+        <v>498000</v>
       </c>
       <c r="I36" s="1">
-        <v>3040000</v>
+        <v>498000</v>
       </c>
       <c r="J36" s="1">
-        <v>3040000</v>
+        <v>498000</v>
       </c>
       <c r="K36" s="1">
-        <v>22800</v>
+        <v>24000</v>
       </c>
       <c r="L36" s="3">
         <v>200500</v>
@@ -6258,34 +6286,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>1600000</v>
+        <v>264000</v>
       </c>
       <c r="E37" s="1">
-        <v>1600000</v>
+        <v>264000</v>
       </c>
       <c r="F37" s="1">
-        <v>1600000</v>
+        <v>264000</v>
       </c>
       <c r="G37" s="1">
-        <v>12000</v>
+        <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>3200000</v>
+        <v>528000</v>
       </c>
       <c r="I37" s="1">
-        <v>3200000</v>
+        <v>528000</v>
       </c>
       <c r="J37" s="1">
-        <v>3200000</v>
+        <v>528000</v>
       </c>
       <c r="K37" s="1">
-        <v>24000</v>
+        <v>25600</v>
       </c>
       <c r="L37" s="3">
         <v>223150</v>
@@ -6296,34 +6324,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>420</v>
+        <v>85</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>1680000</v>
+        <v>278800</v>
       </c>
       <c r="E38" s="1">
-        <v>1680000</v>
+        <v>278800</v>
       </c>
       <c r="F38" s="1">
-        <v>1680000</v>
+        <v>278800</v>
       </c>
       <c r="G38" s="1">
-        <v>12600</v>
+        <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>3360000</v>
+        <v>557600</v>
       </c>
       <c r="I38" s="1">
-        <v>3360000</v>
+        <v>557600</v>
       </c>
       <c r="J38" s="1">
-        <v>3360000</v>
+        <v>557600</v>
       </c>
       <c r="K38" s="1">
-        <v>25200</v>
+        <v>27200</v>
       </c>
       <c r="L38" s="3">
         <v>300090</v>
@@ -6334,34 +6362,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>440</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>1760000</v>
+        <v>293400</v>
       </c>
       <c r="E39" s="1">
-        <v>1760000</v>
+        <v>293400</v>
       </c>
       <c r="F39" s="1">
-        <v>1760000</v>
+        <v>293400</v>
       </c>
       <c r="G39" s="1">
-        <v>13200</v>
+        <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>3520000</v>
+        <v>586800</v>
       </c>
       <c r="I39" s="1">
-        <v>3520000</v>
+        <v>586800</v>
       </c>
       <c r="J39" s="1">
-        <v>3520000</v>
+        <v>586800</v>
       </c>
       <c r="K39" s="1">
-        <v>26400</v>
+        <v>28800</v>
       </c>
       <c r="L39" s="3">
         <v>331970</v>
@@ -6372,34 +6400,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>1840000</v>
+        <v>307800</v>
       </c>
       <c r="E40" s="1">
-        <v>1840000</v>
+        <v>307800</v>
       </c>
       <c r="F40" s="1">
-        <v>1840000</v>
+        <v>307800</v>
       </c>
       <c r="G40" s="1">
-        <v>13800</v>
+        <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>3680000</v>
+        <v>615600</v>
       </c>
       <c r="I40" s="1">
-        <v>3680000</v>
+        <v>615600</v>
       </c>
       <c r="J40" s="1">
-        <v>3680000</v>
+        <v>615600</v>
       </c>
       <c r="K40" s="1">
-        <v>27600</v>
+        <v>30400</v>
       </c>
       <c r="L40" s="3">
         <v>368030</v>
@@ -6410,34 +6438,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>480</v>
+        <v>100</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>1920000</v>
+        <v>320000</v>
       </c>
       <c r="E41" s="1">
-        <v>1920000</v>
+        <v>320000</v>
       </c>
       <c r="F41" s="1">
-        <v>1920000</v>
+        <v>320000</v>
       </c>
       <c r="G41" s="1">
-        <v>14400</v>
+        <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>3840000</v>
+        <v>640000</v>
       </c>
       <c r="I41" s="1">
-        <v>3840000</v>
+        <v>640000</v>
       </c>
       <c r="J41" s="1">
-        <v>3840000</v>
+        <v>640000</v>
       </c>
       <c r="K41" s="1">
-        <v>28800</v>
+        <v>32000</v>
       </c>
       <c r="L41" s="1">
         <v>404820</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -547,7 +547,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="678">
+  <cellStyleXfs count="686">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +562,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1255,7 +1263,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="678">
+  <cellStyles count="686">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1597,6 +1605,10 @@
     <cellStyle name="超链接" xfId="672" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="674" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="676" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="678" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1931,6 +1943,10 @@
     <cellStyle name="访问过的超链接" xfId="673" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="675" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="677" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="679" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4302,8 +4318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4329,7 +4345,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="1">
@@ -4343,7 +4359,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -4357,7 +4373,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -4371,7 +4387,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
       <c r="C5" s="1">
@@ -4385,7 +4401,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -4399,7 +4415,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="1">
@@ -4413,7 +4429,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="1">
@@ -4427,7 +4443,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="6">
         <v>2</v>
       </c>
       <c r="C9" s="1">
@@ -4441,7 +4457,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="1">
@@ -4455,7 +4471,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
       <c r="C11" s="1">
@@ -4469,7 +4485,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -4483,7 +4499,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
       <c r="C13" s="1">
@@ -4497,7 +4513,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="1">
@@ -4511,7 +4527,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="1">
@@ -4525,8 +4541,8 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>2</v>
+      <c r="B16" s="6">
+        <v>3</v>
       </c>
       <c r="C16" s="1">
         <v>7.5</v>
@@ -4539,7 +4555,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="1">
@@ -4553,7 +4569,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="6">
         <v>3</v>
       </c>
       <c r="C18" s="1">
@@ -4567,7 +4583,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="6">
         <v>3</v>
       </c>
       <c r="C19" s="1">
@@ -4581,7 +4597,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="6">
         <v>3</v>
       </c>
       <c r="C20" s="1">
@@ -4595,7 +4611,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="1">
@@ -4609,7 +4625,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="6">
         <v>3</v>
       </c>
       <c r="C22" s="1">
@@ -4623,8 +4639,8 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
-        <v>3</v>
+      <c r="B23" s="6">
+        <v>4</v>
       </c>
       <c r="C23" s="1">
         <v>11</v>
@@ -4637,8 +4653,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>3</v>
+      <c r="B24" s="6">
+        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>11.5</v>
@@ -4651,7 +4667,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="6">
         <v>4</v>
       </c>
       <c r="C25" s="1">
@@ -4665,7 +4681,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="6">
         <v>4</v>
       </c>
       <c r="C26" s="1">
@@ -4679,7 +4695,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="6">
         <v>4</v>
       </c>
       <c r="C27" s="1">
@@ -4693,7 +4709,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="1">
@@ -4707,7 +4723,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="1">
@@ -4721,8 +4737,8 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>4</v>
+      <c r="B30" s="6">
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>14.5</v>
@@ -4735,8 +4751,8 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>4</v>
+      <c r="B31" s="6">
+        <v>5</v>
       </c>
       <c r="C31" s="1">
         <v>15</v>
@@ -4749,8 +4765,8 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
-        <v>4</v>
+      <c r="B32" s="6">
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>15.5</v>
@@ -4763,7 +4779,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="6">
         <v>5</v>
       </c>
       <c r="C33" s="1">
@@ -4777,7 +4793,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
       <c r="C34" s="1">
@@ -4791,7 +4807,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="6">
         <v>5</v>
       </c>
       <c r="C35" s="1">
@@ -4805,7 +4821,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="6">
         <v>5</v>
       </c>
       <c r="C36" s="1">
@@ -4819,8 +4835,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <v>5</v>
+      <c r="B37" s="6">
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>18</v>
@@ -4833,8 +4849,8 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
-        <v>5</v>
+      <c r="B38" s="6">
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>18.5</v>
@@ -4847,8 +4863,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
-        <v>5</v>
+      <c r="B39" s="6">
+        <v>6</v>
       </c>
       <c r="C39" s="1">
         <v>19</v>
@@ -4861,8 +4877,8 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>5</v>
+      <c r="B40" s="6">
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>19.5</v>
@@ -4875,7 +4891,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="6">
         <v>6</v>
       </c>
       <c r="C41" s="1">
@@ -4904,7 +4920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -7209,8 +7225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D45"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="11"/>
+    <workbookView xWindow="400" yWindow="360" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="59">
   <si>
     <t>INT_scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -362,6 +362,10 @@
     <t>INT_dragonMaterials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_dragonCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -547,7 +551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="686">
+  <cellStyleXfs count="688">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -562,6 +566,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1263,7 +1269,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="686">
+  <cellStyles count="688">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1609,6 +1615,7 @@
     <cellStyle name="超链接" xfId="680" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1947,6 +1954,7 @@
     <cellStyle name="访问过的超链接" xfId="681" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4318,8 +4326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B44"/>
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10098,10 +10106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B43"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -10111,7 +10119,7 @@
     <col min="3" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -10119,10 +10127,13 @@
         <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -10130,10 +10141,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -10141,10 +10155,13 @@
         <v>40</v>
       </c>
       <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -10152,10 +10169,13 @@
         <v>48</v>
       </c>
       <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -10163,10 +10183,13 @@
         <v>56</v>
       </c>
       <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -10174,10 +10197,13 @@
         <v>64</v>
       </c>
       <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -10185,10 +10211,13 @@
         <v>76</v>
       </c>
       <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -10196,10 +10225,13 @@
         <v>88</v>
       </c>
       <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -10207,10 +10239,13 @@
         <v>100</v>
       </c>
       <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -10218,10 +10253,13 @@
         <v>112</v>
       </c>
       <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
         <v>760</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -10229,10 +10267,13 @@
         <v>124</v>
       </c>
       <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -10240,10 +10281,13 @@
         <v>140</v>
       </c>
       <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
         <v>1590</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -10251,10 +10295,13 @@
         <v>156</v>
       </c>
       <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -10262,10 +10309,13 @@
         <v>172</v>
       </c>
       <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
         <v>2660</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -10273,10 +10323,13 @@
         <v>188</v>
       </c>
       <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
         <v>5390</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -10284,10 +10337,13 @@
         <v>204</v>
       </c>
       <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
         <v>8420</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -10295,10 +10351,13 @@
         <v>236</v>
       </c>
       <c r="C17" s="6">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
         <v>11650</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -10306,10 +10365,13 @@
         <v>268</v>
       </c>
       <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
         <v>17030</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -10317,10 +10379,13 @@
         <v>300</v>
       </c>
       <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
         <v>20960</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -10328,10 +10393,13 @@
         <v>332</v>
       </c>
       <c r="C20" s="6">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6">
         <v>25610</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -10339,10 +10407,13 @@
         <v>364</v>
       </c>
       <c r="C21" s="6">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6">
         <v>30040</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -10350,10 +10421,13 @@
         <v>428</v>
       </c>
       <c r="C22" s="6">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
         <v>40800</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -10361,10 +10435,13 @@
         <v>492</v>
       </c>
       <c r="C23" s="6">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
         <v>46780</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -10372,10 +10449,13 @@
         <v>556</v>
       </c>
       <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
         <v>53980</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -10383,10 +10463,13 @@
         <v>620</v>
       </c>
       <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6">
         <v>60760</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -10394,10 +10477,13 @@
         <v>684</v>
       </c>
       <c r="C26" s="6">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6">
         <v>82990</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -10405,10 +10491,13 @@
         <v>780</v>
       </c>
       <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
         <v>92640</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -10416,10 +10505,13 @@
         <v>886</v>
       </c>
       <c r="C28" s="6">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
         <v>104220</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -10427,10 +10519,13 @@
         <v>1002</v>
       </c>
       <c r="C29" s="6">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
         <v>115170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -10438,10 +10533,13 @@
         <v>1128</v>
       </c>
       <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
         <v>163920</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -10449,10 +10547,13 @@
         <v>1264</v>
       </c>
       <c r="C31" s="6">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
         <v>189230</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -10460,10 +10561,13 @@
         <v>1410</v>
       </c>
       <c r="C32" s="6">
+        <v>3</v>
+      </c>
+      <c r="D32" s="6">
         <v>218560</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1">
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -10471,10 +10575,13 @@
         <v>1566</v>
       </c>
       <c r="C33" s="6">
+        <v>3</v>
+      </c>
+      <c r="D33" s="6">
         <v>247970</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1">
+    <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -10482,10 +10589,13 @@
         <v>1732</v>
       </c>
       <c r="C34" s="6">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6">
         <v>339420</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1">
+    <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -10493,10 +10603,13 @@
         <v>1908</v>
       </c>
       <c r="C35" s="6">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6">
         <v>381390</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1">
+    <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -10504,10 +10617,13 @@
         <v>2094</v>
       </c>
       <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
         <v>429610</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1">
+    <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -10515,10 +10631,13 @@
         <v>2290</v>
       </c>
       <c r="C37" s="6">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
         <v>478150</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1">
+    <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -10526,10 +10645,13 @@
         <v>2496</v>
       </c>
       <c r="C38" s="6">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6">
         <v>643020</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20" customHeight="1">
+    <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10537,10 +10659,13 @@
         <v>2712</v>
       </c>
       <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6">
         <v>711330</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20" customHeight="1">
+    <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10548,17 +10673,23 @@
         <v>2940</v>
       </c>
       <c r="C40" s="6">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6">
         <v>788610</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20" customHeight="1">
+    <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>3220</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1">
         <v>867440</v>
       </c>
     </row>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="360" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="360" windowWidth="33980" windowHeight="20720" tabRatio="883" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -551,7 +551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="688">
+  <cellStyleXfs count="696">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -566,6 +566,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1269,7 +1277,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="688">
+  <cellStyles count="696">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1616,6 +1624,10 @@
     <cellStyle name="超链接" xfId="682" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="684" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="686" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="688" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="690" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1955,6 +1967,10 @@
     <cellStyle name="访问过的超链接" xfId="683" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="685" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="687" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="689" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="691" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -10108,7 +10124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -15626,8 +15642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15651,7 +15667,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="C2" s="3">
         <v>30</v>
@@ -15662,7 +15678,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="C3" s="3">
         <v>35</v>
@@ -15673,7 +15689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1200</v>
+        <v>960</v>
       </c>
       <c r="C4" s="3">
         <v>40</v>
@@ -15684,7 +15700,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1600</v>
+        <v>1280</v>
       </c>
       <c r="C5" s="3">
         <v>50</v>
@@ -15695,7 +15711,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C6" s="3">
         <v>60</v>
@@ -15706,7 +15722,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2400</v>
+        <v>1920</v>
       </c>
       <c r="C7" s="3">
         <v>70</v>
@@ -15717,7 +15733,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2800</v>
+        <v>2240</v>
       </c>
       <c r="C8" s="3">
         <v>110</v>
@@ -15728,7 +15744,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>3200</v>
+        <v>2560</v>
       </c>
       <c r="C9" s="3">
         <v>200</v>
@@ -15739,7 +15755,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3600</v>
+        <v>2880</v>
       </c>
       <c r="C10" s="3">
         <v>410</v>
@@ -15750,7 +15766,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="C11" s="3">
         <v>610</v>
@@ -15761,7 +15777,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="C12" s="3">
         <v>830</v>
@@ -15772,7 +15788,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>9600</v>
+        <v>7680</v>
       </c>
       <c r="C13" s="3">
         <v>1050</v>
@@ -15783,7 +15799,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>11200</v>
+        <v>8960</v>
       </c>
       <c r="C14" s="3">
         <v>1390</v>
@@ -15794,7 +15810,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>12800</v>
+        <v>10240</v>
       </c>
       <c r="C15" s="3">
         <v>2800</v>
@@ -15805,7 +15821,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>14400</v>
+        <v>11520</v>
       </c>
       <c r="C16" s="3">
         <v>4360</v>
@@ -15816,7 +15832,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>16000</v>
+        <v>12800</v>
       </c>
       <c r="C17" s="3">
         <v>6030</v>
@@ -15827,7 +15843,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>17600</v>
+        <v>14080</v>
       </c>
       <c r="C18" s="3">
         <v>8810</v>
@@ -15838,7 +15854,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>19200</v>
+        <v>15360</v>
       </c>
       <c r="C19" s="3">
         <v>10840</v>
@@ -15849,7 +15865,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>20800</v>
+        <v>16640</v>
       </c>
       <c r="C20" s="3">
         <v>13240</v>
@@ -15860,7 +15876,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>22400</v>
+        <v>17920</v>
       </c>
       <c r="C21" s="3">
         <v>15530</v>
@@ -15871,7 +15887,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44800</v>
+        <v>35840</v>
       </c>
       <c r="C22" s="3">
         <v>21090</v>
@@ -15882,7 +15898,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>51200</v>
+        <v>40960</v>
       </c>
       <c r="C23" s="3">
         <v>24180</v>
@@ -15893,7 +15909,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>57600</v>
+        <v>46080</v>
       </c>
       <c r="C24" s="3">
         <v>27900</v>
@@ -15904,7 +15920,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>64000</v>
+        <v>51200</v>
       </c>
       <c r="C25" s="3">
         <v>31400</v>
@@ -15915,7 +15931,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>70400</v>
+        <v>56320</v>
       </c>
       <c r="C26" s="3">
         <v>42890</v>
@@ -15926,7 +15942,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>76800</v>
+        <v>61440</v>
       </c>
       <c r="C27" s="3">
         <v>47880</v>
@@ -15937,7 +15953,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>83200</v>
+        <v>66560</v>
       </c>
       <c r="C28" s="3">
         <v>53860</v>
@@ -15948,7 +15964,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>89600</v>
+        <v>71680</v>
       </c>
       <c r="C29" s="3">
         <v>59520</v>
@@ -15959,7 +15975,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>96000</v>
+        <v>76800</v>
       </c>
       <c r="C30" s="3">
         <v>84700</v>
@@ -15970,7 +15986,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>102400</v>
+        <v>81920</v>
       </c>
       <c r="C31" s="3">
         <v>97780</v>
@@ -15981,7 +15997,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>204800</v>
+        <v>163840</v>
       </c>
       <c r="C32" s="3">
         <v>112930</v>
@@ -15992,7 +16008,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>230400</v>
+        <v>184320</v>
       </c>
       <c r="C33" s="3">
         <v>128130</v>
@@ -16003,7 +16019,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>256000</v>
+        <v>204800</v>
       </c>
       <c r="C34" s="3">
         <v>175380</v>
@@ -16014,7 +16030,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>281600</v>
+        <v>225280</v>
       </c>
       <c r="C35" s="3">
         <v>197060</v>
@@ -16025,7 +16041,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>307200</v>
+        <v>245760</v>
       </c>
       <c r="C36" s="3">
         <v>221980</v>
@@ -16036,7 +16052,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>332800</v>
+        <v>266240</v>
       </c>
       <c r="C37" s="3">
         <v>247060</v>
@@ -16047,7 +16063,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>358400</v>
+        <v>286720</v>
       </c>
       <c r="C38" s="3">
         <v>332240</v>
@@ -16058,7 +16074,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>384000</v>
+        <v>307200</v>
       </c>
       <c r="C39" s="3">
         <v>367530</v>
@@ -16069,7 +16085,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>409600</v>
+        <v>327680</v>
       </c>
       <c r="C40" s="1">
         <v>407460</v>
@@ -16080,7 +16096,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>450000</v>
+        <v>360000</v>
       </c>
       <c r="C41" s="1">
         <v>448190</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883"/>
@@ -2417,8 +2417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2462,7 +2462,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
@@ -2476,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -2490,7 +2490,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
@@ -2504,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>60</v>
@@ -2518,7 +2518,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <v>70</v>
@@ -2532,7 +2532,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>130</v>
@@ -2546,7 +2546,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>270</v>
@@ -2560,7 +2560,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>610</v>
@@ -2574,7 +2574,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>930</v>
@@ -2588,7 +2588,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
         <v>1300</v>
@@ -2602,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>1650</v>
@@ -2616,7 +2616,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
         <v>2190</v>
@@ -2630,7 +2630,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3">
         <v>4460</v>
@@ -2644,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3">
         <v>6990</v>
@@ -2658,7 +2658,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>9680</v>
@@ -2672,7 +2672,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>14160</v>
@@ -2686,7 +2686,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
         <v>17440</v>
@@ -2700,7 +2700,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>21310</v>
@@ -2714,7 +2714,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <v>25000</v>
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3">
         <v>33980</v>
@@ -2742,7 +2742,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>38950</v>
@@ -2756,7 +2756,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>44960</v>
@@ -2770,7 +2770,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3">
         <v>50600</v>
@@ -2784,7 +2784,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
         <v>69130</v>
@@ -2798,7 +2798,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3">
         <v>77180</v>
@@ -2812,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3">
         <v>86830</v>
@@ -2826,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3">
         <v>95950</v>
@@ -2840,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3">
         <v>136570</v>
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3">
         <v>157660</v>
@@ -2868,7 +2868,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3">
         <v>182100</v>
@@ -2882,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3">
         <v>206620</v>
@@ -2896,7 +2896,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
         <v>282820</v>
@@ -2910,7 +2910,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3">
         <v>317800</v>
@@ -2924,7 +2924,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3">
         <v>357980</v>
@@ -2938,7 +2938,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3">
         <v>398440</v>
@@ -2952,7 +2952,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3">
         <v>535830</v>
@@ -2966,7 +2966,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1">
         <v>592750</v>
@@ -2980,7 +2980,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
         <v>657150</v>
@@ -2994,7 +2994,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
         <v>722840</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="0" windowWidth="33980" windowHeight="20720" tabRatio="883"/>
+    <workbookView xWindow="1320" yWindow="1280" windowWidth="33980" windowHeight="15220" tabRatio="883" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>FLOAT_efficiency</t>
   </si>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_level</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_productBmWood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -326,10 +322,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_power</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_production</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -350,11 +342,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>INT_dragonCount</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>INT_dragonMaterials</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_dragonCount</t>
+    <t>INT_power</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="698">
+  <cellStyleXfs count="716">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -557,6 +553,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1270,7 +1284,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="698">
+  <cellStyles count="716">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1622,6 +1636,15 @@
     <cellStyle name="超链接" xfId="692" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="694" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="696" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="698" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="700" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="702" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="704" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="706" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="708" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1966,6 +1989,15 @@
     <cellStyle name="访问过的超链接" xfId="693" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="695" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="697" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="699" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="701" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="703" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="705" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="707" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="709" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2417,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2462,7 +2494,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
@@ -2476,7 +2508,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -2490,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
@@ -2504,7 +2536,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <v>60</v>
@@ -2518,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>70</v>
@@ -2532,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <v>130</v>
@@ -2546,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9" s="3">
         <v>270</v>
@@ -2560,7 +2592,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>610</v>
@@ -2574,7 +2606,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
         <v>930</v>
@@ -2588,7 +2620,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3">
         <v>1300</v>
@@ -2602,7 +2634,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
         <v>1650</v>
@@ -2616,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>2190</v>
@@ -2630,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>4460</v>
@@ -2644,7 +2676,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
         <v>6990</v>
@@ -2658,7 +2690,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
         <v>9680</v>
@@ -2672,7 +2704,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3">
         <v>14160</v>
@@ -2686,7 +2718,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3">
         <v>17440</v>
@@ -2700,7 +2732,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3">
         <v>21310</v>
@@ -2714,7 +2746,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3">
         <v>25000</v>
@@ -2728,7 +2760,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D22" s="3">
         <v>33980</v>
@@ -2742,7 +2774,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D23" s="3">
         <v>38950</v>
@@ -2756,7 +2788,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3">
         <v>44960</v>
@@ -2770,7 +2802,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3">
         <v>50600</v>
@@ -2784,7 +2816,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3">
         <v>69130</v>
@@ -2798,7 +2830,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3">
         <v>77180</v>
@@ -2812,7 +2844,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D28" s="3">
         <v>86830</v>
@@ -2826,7 +2858,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3">
         <v>95950</v>
@@ -2840,7 +2872,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3">
         <v>136570</v>
@@ -2854,7 +2886,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D31" s="3">
         <v>157660</v>
@@ -2868,7 +2900,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D32" s="3">
         <v>182100</v>
@@ -2882,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D33" s="3">
         <v>206620</v>
@@ -2896,7 +2928,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D34" s="3">
         <v>282820</v>
@@ -2910,7 +2942,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D35" s="3">
         <v>317800</v>
@@ -2924,7 +2956,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D36" s="3">
         <v>357980</v>
@@ -2938,7 +2970,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3">
         <v>398440</v>
@@ -2952,7 +2984,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D38" s="3">
         <v>535830</v>
@@ -2966,7 +2998,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D39" s="1">
         <v>592750</v>
@@ -2980,7 +3012,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D40" s="1">
         <v>657150</v>
@@ -2994,7 +3026,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1">
         <v>722840</v>
@@ -3016,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3492,7 +3524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -4095,7 +4127,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection sqref="A1:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4105,40 +4137,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20" customHeight="1">
@@ -4222,31 +4254,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="E4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="F4" s="1">
-        <v>11880</v>
+        <v>15840</v>
       </c>
       <c r="G4" s="1">
         <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="I4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="J4" s="1">
-        <v>23760</v>
+        <v>31680</v>
       </c>
       <c r="K4" s="1">
         <v>960</v>
@@ -4260,31 +4292,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="E5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="F5" s="1">
-        <v>15760</v>
+        <v>23640</v>
       </c>
       <c r="G5" s="1">
         <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="I5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="J5" s="1">
-        <v>31520</v>
+        <v>47280</v>
       </c>
       <c r="K5" s="1">
         <v>1280</v>
@@ -4298,31 +4330,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="E6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="F6" s="1">
-        <v>19600</v>
+        <v>31360</v>
       </c>
       <c r="G6" s="1">
         <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="I6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="J6" s="1">
-        <v>39200</v>
+        <v>62720</v>
       </c>
       <c r="K6" s="1">
         <v>1600</v>
@@ -4336,31 +4368,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="E7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="F7" s="1">
-        <v>23400</v>
+        <v>39000</v>
       </c>
       <c r="G7" s="1">
         <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="I7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="J7" s="1">
-        <v>46800</v>
+        <v>78000</v>
       </c>
       <c r="K7" s="1">
         <v>1920</v>
@@ -4374,31 +4406,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="E8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="F8" s="1">
-        <v>27160</v>
+        <v>46560</v>
       </c>
       <c r="G8" s="1">
         <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="I8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="J8" s="1">
-        <v>54320</v>
+        <v>93120</v>
       </c>
       <c r="K8" s="1">
         <v>2240</v>
@@ -4412,31 +4444,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="E9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="F9" s="1">
-        <v>30880</v>
+        <v>57900</v>
       </c>
       <c r="G9" s="1">
         <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="I9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="J9" s="1">
-        <v>61760</v>
+        <v>115800</v>
       </c>
       <c r="K9" s="1">
         <v>2560</v>
@@ -4450,31 +4482,31 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="E10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="F10" s="1">
-        <v>34560</v>
+        <v>76800</v>
       </c>
       <c r="G10" s="1">
         <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="I10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="J10" s="1">
-        <v>69120</v>
+        <v>153600</v>
       </c>
       <c r="K10" s="1">
         <v>2880</v>
@@ -4488,31 +4520,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="E11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="F11" s="1">
-        <v>38200</v>
+        <v>95500</v>
       </c>
       <c r="G11" s="1">
         <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="I11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="J11" s="1">
-        <v>76400</v>
+        <v>191000</v>
       </c>
       <c r="K11" s="1">
         <v>3200</v>
@@ -4526,31 +4558,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="E12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="F12" s="1">
-        <v>41800</v>
+        <v>114000</v>
       </c>
       <c r="G12" s="1">
         <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="I12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="J12" s="1">
-        <v>83600</v>
+        <v>228000</v>
       </c>
       <c r="K12" s="1">
         <v>3520</v>
@@ -4564,31 +4596,31 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="E13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="F13" s="1">
-        <v>45360</v>
+        <v>132300</v>
       </c>
       <c r="G13" s="1">
         <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="I13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="J13" s="1">
-        <v>90720</v>
+        <v>264600</v>
       </c>
       <c r="K13" s="1">
         <v>3840</v>
@@ -4602,31 +4634,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="E14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="F14" s="1">
-        <v>48880</v>
+        <v>150400</v>
       </c>
       <c r="G14" s="1">
         <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="I14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="J14" s="1">
-        <v>97760</v>
+        <v>300800</v>
       </c>
       <c r="K14" s="1">
         <v>4160</v>
@@ -4640,31 +4672,31 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
         <v>3</v>
       </c>
       <c r="D15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="E15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="F15" s="1">
-        <v>52360</v>
+        <v>168300</v>
       </c>
       <c r="G15" s="1">
         <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="I15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="J15" s="1">
-        <v>104720</v>
+        <v>336600</v>
       </c>
       <c r="K15" s="1">
         <v>4480</v>
@@ -4678,31 +4710,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="E16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="F16" s="1">
-        <v>55800</v>
+        <v>186000</v>
       </c>
       <c r="G16" s="1">
         <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="I16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="J16" s="1">
-        <v>111600</v>
+        <v>372000</v>
       </c>
       <c r="K16" s="1">
         <v>4800</v>
@@ -4716,31 +4748,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="E17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="F17" s="1">
-        <v>59200</v>
+        <v>203500</v>
       </c>
       <c r="G17" s="1">
         <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="I17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="J17" s="1">
-        <v>118400</v>
+        <v>407000</v>
       </c>
       <c r="K17" s="1">
         <v>5120</v>
@@ -4754,31 +4786,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="E18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="F18" s="1">
-        <v>66240</v>
+        <v>220800</v>
       </c>
       <c r="G18" s="1">
         <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="I18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="J18" s="1">
-        <v>132480</v>
+        <v>441600</v>
       </c>
       <c r="K18" s="1">
         <v>5760</v>
@@ -4792,31 +4824,31 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="E19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="F19" s="1">
-        <v>73200</v>
+        <v>237900</v>
       </c>
       <c r="G19" s="1">
         <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="I19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="J19" s="1">
-        <v>146400</v>
+        <v>475800</v>
       </c>
       <c r="K19" s="1">
         <v>6400</v>
@@ -4830,31 +4862,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="E20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="F20" s="1">
-        <v>80080</v>
+        <v>254800</v>
       </c>
       <c r="G20" s="1">
         <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="I20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="J20" s="1">
-        <v>160160</v>
+        <v>509600</v>
       </c>
       <c r="K20" s="1">
         <v>7040</v>
@@ -4868,31 +4900,31 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="E21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="F21" s="1">
-        <v>86880</v>
+        <v>271500</v>
       </c>
       <c r="G21" s="1">
         <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="I21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="J21" s="1">
-        <v>173760</v>
+        <v>543000</v>
       </c>
       <c r="K21" s="1">
         <v>7680</v>
@@ -4906,31 +4938,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="E22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="F22" s="1">
-        <v>93600</v>
+        <v>288000</v>
       </c>
       <c r="G22" s="1">
         <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="I22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="J22" s="1">
-        <v>187200</v>
+        <v>576000</v>
       </c>
       <c r="K22" s="1">
         <v>8320</v>
@@ -4944,31 +4976,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1">
         <v>3</v>
       </c>
       <c r="D23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="E23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="F23" s="1">
-        <v>100240</v>
+        <v>304300</v>
       </c>
       <c r="G23" s="1">
         <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="I23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="J23" s="1">
-        <v>200480</v>
+        <v>608600</v>
       </c>
       <c r="K23" s="1">
         <v>8960</v>
@@ -4982,31 +5014,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
       <c r="D24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="E24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="F24" s="1">
-        <v>106800</v>
+        <v>320400</v>
       </c>
       <c r="G24" s="1">
         <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="I24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="J24" s="1">
-        <v>213600</v>
+        <v>640800</v>
       </c>
       <c r="K24" s="1">
         <v>9600</v>
@@ -5020,31 +5052,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
       </c>
       <c r="D25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="E25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="F25" s="1">
-        <v>113280</v>
+        <v>336300</v>
       </c>
       <c r="G25" s="1">
         <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="I25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="J25" s="1">
-        <v>226560</v>
+        <v>672600</v>
       </c>
       <c r="K25" s="1">
         <v>10240</v>
@@ -5058,31 +5090,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C26" s="1">
         <v>3</v>
       </c>
       <c r="D26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="E26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="F26" s="1">
-        <v>119680</v>
+        <v>352000</v>
       </c>
       <c r="G26" s="1">
         <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="I26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="J26" s="1">
-        <v>239360</v>
+        <v>704000</v>
       </c>
       <c r="K26" s="1">
         <v>10880</v>
@@ -5096,31 +5128,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="E27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="F27" s="1">
-        <v>126000</v>
+        <v>385000</v>
       </c>
       <c r="G27" s="1">
         <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="I27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="J27" s="1">
-        <v>252000</v>
+        <v>770000</v>
       </c>
       <c r="K27" s="1">
         <v>11520</v>
@@ -5134,31 +5166,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
       </c>
       <c r="D28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="E28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="F28" s="1">
-        <v>132240</v>
+        <v>417600</v>
       </c>
       <c r="G28" s="1">
         <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="I28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="J28" s="1">
-        <v>264480</v>
+        <v>835200</v>
       </c>
       <c r="K28" s="1">
         <v>12160</v>
@@ -5172,31 +5204,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1">
         <v>3</v>
       </c>
       <c r="D29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="E29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="F29" s="1">
-        <v>138400</v>
+        <v>449800</v>
       </c>
       <c r="G29" s="1">
         <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="I29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="J29" s="1">
-        <v>276800</v>
+        <v>899600</v>
       </c>
       <c r="K29" s="1">
         <v>12800</v>
@@ -5210,31 +5242,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1">
         <v>3</v>
       </c>
       <c r="D30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="E30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="F30" s="1">
-        <v>154800</v>
+        <v>481600</v>
       </c>
       <c r="G30" s="1">
         <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="I30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="J30" s="1">
-        <v>309600</v>
+        <v>963200</v>
       </c>
       <c r="K30" s="1">
         <v>14400</v>
@@ -5248,31 +5280,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="E31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="F31" s="1">
-        <v>171000</v>
+        <v>513000</v>
       </c>
       <c r="G31" s="1">
         <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="I31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="J31" s="1">
-        <v>342000</v>
+        <v>1026000</v>
       </c>
       <c r="K31" s="1">
         <v>16000</v>
@@ -5286,31 +5318,31 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
       </c>
       <c r="D32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="E32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="F32" s="1">
-        <v>187000</v>
+        <v>544000</v>
       </c>
       <c r="G32" s="1">
         <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="I32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="J32" s="1">
-        <v>374000</v>
+        <v>1088000</v>
       </c>
       <c r="K32" s="1">
         <v>17600</v>
@@ -5324,31 +5356,31 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="C33" s="1">
         <v>3</v>
       </c>
       <c r="D33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="E33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="F33" s="1">
-        <v>202800</v>
+        <v>574600</v>
       </c>
       <c r="G33" s="1">
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="I33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="J33" s="1">
-        <v>405600</v>
+        <v>1149200</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -5362,31 +5394,31 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>65</v>
+        <v>180</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="E34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="F34" s="1">
-        <v>218400</v>
+        <v>604800</v>
       </c>
       <c r="G34" s="1">
         <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="I34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="J34" s="1">
-        <v>436800</v>
+        <v>1209600</v>
       </c>
       <c r="K34" s="1">
         <v>20800</v>
@@ -5400,31 +5432,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="E35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="F35" s="1">
-        <v>233800</v>
+        <v>634600</v>
       </c>
       <c r="G35" s="1">
         <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="I35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="J35" s="1">
-        <v>467600</v>
+        <v>1269200</v>
       </c>
       <c r="K35" s="1">
         <v>22400</v>
@@ -5438,31 +5470,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="C36" s="1">
         <v>3</v>
       </c>
       <c r="D36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="E36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="F36" s="1">
-        <v>249000</v>
+        <v>664000</v>
       </c>
       <c r="G36" s="1">
         <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="I36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="J36" s="1">
-        <v>498000</v>
+        <v>1328000</v>
       </c>
       <c r="K36" s="1">
         <v>24000</v>
@@ -5476,31 +5508,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
       </c>
       <c r="D37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="E37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="F37" s="1">
-        <v>264000</v>
+        <v>693000</v>
       </c>
       <c r="G37" s="1">
         <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="I37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="J37" s="1">
-        <v>528000</v>
+        <v>1386000</v>
       </c>
       <c r="K37" s="1">
         <v>25600</v>
@@ -5514,31 +5546,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="C38" s="1">
         <v>3</v>
       </c>
       <c r="D38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="E38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="F38" s="1">
-        <v>278800</v>
+        <v>721600</v>
       </c>
       <c r="G38" s="1">
         <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="I38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="J38" s="1">
-        <v>557600</v>
+        <v>1443200</v>
       </c>
       <c r="K38" s="1">
         <v>27200</v>
@@ -5552,31 +5584,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1">
         <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="E39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="F39" s="1">
-        <v>293400</v>
+        <v>749800</v>
       </c>
       <c r="G39" s="1">
         <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="I39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="J39" s="1">
-        <v>586800</v>
+        <v>1499600</v>
       </c>
       <c r="K39" s="1">
         <v>28800</v>
@@ -5590,31 +5622,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
       </c>
       <c r="D40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="E40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="F40" s="1">
-        <v>307800</v>
+        <v>777600</v>
       </c>
       <c r="G40" s="1">
         <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="I40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="J40" s="1">
-        <v>615600</v>
+        <v>1555200</v>
       </c>
       <c r="K40" s="1">
         <v>30400</v>
@@ -5628,31 +5660,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C41" s="1">
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="E41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="F41" s="1">
-        <v>320000</v>
+        <v>800000</v>
       </c>
       <c r="G41" s="1">
         <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="I41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="J41" s="1">
-        <v>640000</v>
+        <v>1600000</v>
       </c>
       <c r="K41" s="1">
         <v>32000</v>
@@ -5677,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5714,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -5728,10 +5760,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="6">
+        <v>50</v>
+      </c>
+      <c r="D3" s="6">
         <v>40</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -5745,10 +5777,10 @@
         <v>30</v>
       </c>
       <c r="C4" s="6">
+        <v>100</v>
+      </c>
+      <c r="D4" s="6">
         <v>60</v>
-      </c>
-      <c r="D4" s="6">
-        <v>30</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -5762,10 +5794,10 @@
         <v>35</v>
       </c>
       <c r="C5" s="6">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6">
         <v>80</v>
-      </c>
-      <c r="D5" s="6">
-        <v>40</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
@@ -5779,10 +5811,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="6">
+        <v>200</v>
+      </c>
+      <c r="D6" s="6">
         <v>100</v>
-      </c>
-      <c r="D6" s="6">
-        <v>50</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
@@ -5796,10 +5828,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="6">
+        <v>250</v>
+      </c>
+      <c r="D7" s="6">
         <v>120</v>
-      </c>
-      <c r="D7" s="6">
-        <v>60</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
@@ -5813,10 +5845,10 @@
         <v>80</v>
       </c>
       <c r="C8" s="6">
+        <v>300</v>
+      </c>
+      <c r="D8" s="6">
         <v>140</v>
-      </c>
-      <c r="D8" s="6">
-        <v>70</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
@@ -5830,10 +5862,10 @@
         <v>150</v>
       </c>
       <c r="C9" s="6">
+        <v>400</v>
+      </c>
+      <c r="D9" s="6">
         <v>160</v>
-      </c>
-      <c r="D9" s="6">
-        <v>80</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -5847,10 +5879,10 @@
         <v>320</v>
       </c>
       <c r="C10" s="6">
+        <v>600</v>
+      </c>
+      <c r="D10" s="6">
         <v>180</v>
-      </c>
-      <c r="D10" s="6">
-        <v>90</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
@@ -5864,10 +5896,10 @@
         <v>480</v>
       </c>
       <c r="C11" s="6">
+        <v>800</v>
+      </c>
+      <c r="D11" s="6">
         <v>200</v>
-      </c>
-      <c r="D11" s="6">
-        <v>100</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -5881,10 +5913,10 @@
         <v>660</v>
       </c>
       <c r="C12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="6">
         <v>240</v>
-      </c>
-      <c r="D12" s="6">
-        <v>120</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -5898,10 +5930,10 @@
         <v>840</v>
       </c>
       <c r="C13" s="6">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="6">
         <v>280</v>
-      </c>
-      <c r="D13" s="6">
-        <v>140</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -5915,10 +5947,10 @@
         <v>1110</v>
       </c>
       <c r="C14" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="6">
         <v>320</v>
-      </c>
-      <c r="D14" s="6">
-        <v>160</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
@@ -5932,10 +5964,10 @@
         <v>2240</v>
       </c>
       <c r="C15" s="6">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="6">
         <v>360</v>
-      </c>
-      <c r="D15" s="6">
-        <v>180</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
@@ -5949,10 +5981,10 @@
         <v>3510</v>
       </c>
       <c r="C16" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="6">
         <v>400</v>
-      </c>
-      <c r="D16" s="6">
-        <v>200</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
@@ -5966,10 +5998,10 @@
         <v>4850</v>
       </c>
       <c r="C17" s="6">
-        <v>600</v>
+        <v>3500</v>
       </c>
       <c r="D17" s="6">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -5983,10 +6015,10 @@
         <v>7090</v>
       </c>
       <c r="C18" s="6">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="D18" s="6">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
@@ -6000,10 +6032,10 @@
         <v>8730</v>
       </c>
       <c r="C19" s="6">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="D19" s="6">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -6017,10 +6049,10 @@
         <v>10670</v>
       </c>
       <c r="C20" s="6">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="D20" s="6">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
@@ -6034,10 +6066,10 @@
         <v>12510</v>
       </c>
       <c r="C21" s="6">
-        <v>1600</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="6">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
@@ -6051,10 +6083,10 @@
         <v>17000</v>
       </c>
       <c r="C22" s="6">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="D22" s="6">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="6">
         <v>3</v>
@@ -6068,10 +6100,10 @@
         <v>19490</v>
       </c>
       <c r="C23" s="6">
-        <v>2400</v>
+        <v>8000</v>
       </c>
       <c r="D23" s="6">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="6">
         <v>3</v>
@@ -6085,10 +6117,10 @@
         <v>22490</v>
       </c>
       <c r="C24" s="6">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D24" s="6">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="6">
         <v>3</v>
@@ -6102,10 +6134,10 @@
         <v>25310</v>
       </c>
       <c r="C25" s="6">
-        <v>4000</v>
+        <v>12000</v>
       </c>
       <c r="D25" s="6">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E25" s="6">
         <v>3</v>
@@ -6119,10 +6151,10 @@
         <v>34580</v>
       </c>
       <c r="C26" s="6">
-        <v>5000</v>
+        <v>14000</v>
       </c>
       <c r="D26" s="6">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="6">
         <v>3</v>
@@ -6136,10 +6168,10 @@
         <v>38600</v>
       </c>
       <c r="C27" s="6">
-        <v>6000</v>
+        <v>16000</v>
       </c>
       <c r="D27" s="6">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E27" s="6">
         <v>3</v>
@@ -6153,10 +6185,10 @@
         <v>43430</v>
       </c>
       <c r="C28" s="6">
-        <v>8000</v>
+        <v>18000</v>
       </c>
       <c r="D28" s="6">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E28" s="6">
         <v>3</v>
@@ -6170,10 +6202,10 @@
         <v>47990</v>
       </c>
       <c r="C29" s="6">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D29" s="6">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E29" s="6">
         <v>3</v>
@@ -6187,10 +6219,10 @@
         <v>68300</v>
       </c>
       <c r="C30" s="6">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D30" s="6">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -6204,10 +6236,10 @@
         <v>78840</v>
       </c>
       <c r="C31" s="6">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="D31" s="6">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -6221,10 +6253,10 @@
         <v>91060</v>
       </c>
       <c r="C32" s="6">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="D32" s="6">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
@@ -6238,10 +6270,10 @@
         <v>103320</v>
       </c>
       <c r="C33" s="6">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="D33" s="6">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E33" s="6">
         <v>4</v>
@@ -6255,10 +6287,10 @@
         <v>141420</v>
       </c>
       <c r="C34" s="6">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="D34" s="6">
-        <v>2600</v>
+        <v>5200</v>
       </c>
       <c r="E34" s="6">
         <v>4</v>
@@ -6272,10 +6304,10 @@
         <v>158910</v>
       </c>
       <c r="C35" s="6">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="D35" s="6">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="6">
         <v>4</v>
@@ -6289,10 +6321,10 @@
         <v>179000</v>
       </c>
       <c r="C36" s="6">
-        <v>28000</v>
+        <v>56000</v>
       </c>
       <c r="D36" s="6">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="E36" s="6">
         <v>4</v>
@@ -6306,10 +6338,10 @@
         <v>199230</v>
       </c>
       <c r="C37" s="6">
-        <v>32000</v>
+        <v>64000</v>
       </c>
       <c r="D37" s="6">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E37" s="6">
         <v>4</v>
@@ -6323,10 +6355,10 @@
         <v>267930</v>
       </c>
       <c r="C38" s="6">
-        <v>40000</v>
+        <v>72000</v>
       </c>
       <c r="D38" s="6">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="E38" s="6">
         <v>4</v>
@@ -6340,10 +6372,10 @@
         <v>296390</v>
       </c>
       <c r="C39" s="6">
-        <v>48000</v>
+        <v>80000</v>
       </c>
       <c r="D39" s="6">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E39" s="6">
         <v>4</v>
@@ -6357,10 +6389,10 @@
         <v>328590</v>
       </c>
       <c r="C40" s="6">
-        <v>56000</v>
+        <v>88000</v>
       </c>
       <c r="D40" s="6">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E40" s="6">
         <v>4</v>
@@ -6374,10 +6406,10 @@
         <v>361430</v>
       </c>
       <c r="C41" s="6">
-        <v>72000</v>
+        <v>96000</v>
       </c>
       <c r="D41" s="6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E41" s="6">
         <v>4</v>
@@ -9750,7 +9782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -9769,7 +9801,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -15269,7 +15301,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15279,22 +15311,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -15302,16 +15334,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -15322,16 +15354,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -15342,16 +15374,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E4" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -15362,16 +15394,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E5" s="1">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -15382,16 +15414,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E6" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -15402,16 +15434,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -15422,16 +15454,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E8" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -15442,16 +15474,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="C9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="D9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="E9" s="1">
-        <v>280</v>
+        <v>560</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -15462,16 +15494,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E10" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -15482,16 +15514,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="C11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="D11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="E11" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -15502,16 +15534,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E12" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -15522,16 +15554,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="D13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="E13" s="1">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -15542,16 +15574,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="E14" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -15562,16 +15594,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="C15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="D15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="E15" s="1">
-        <v>520</v>
+        <v>1040</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -15582,16 +15614,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="C16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="D16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="E16" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -15602,16 +15634,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="1">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -15622,16 +15654,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="C18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="D18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="E18" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -15642,16 +15674,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="C19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="D19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="E19" s="1">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -15662,16 +15694,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="C20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="D20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="E20" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -15682,16 +15714,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="C21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="D21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="E21" s="1">
-        <v>760</v>
+        <v>1520</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -15702,16 +15734,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E22" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -15722,16 +15754,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="C23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="D23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="E23" s="1">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -15742,16 +15774,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="C24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="D24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="E24" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -15762,16 +15794,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="C25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="D25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="E25" s="1">
-        <v>920</v>
+        <v>1840</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -15782,16 +15814,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="C26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="D26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="E26" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -15802,16 +15834,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="D27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -15822,16 +15854,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="C28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="D28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="E28" s="1">
-        <v>1100</v>
+        <v>2200</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -15842,16 +15874,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="C29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E29" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -15862,16 +15894,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="C30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="D30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="E30" s="1">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -15882,16 +15914,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="C31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E31" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -15902,16 +15934,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="C32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="D32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="E32" s="1">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -15922,16 +15954,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E33" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -15942,16 +15974,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="C34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="D34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E34" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -15962,16 +15994,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="C35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E35" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -15982,16 +16014,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="C36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="D36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E36" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -16002,16 +16034,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="C37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="D37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E37" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -16022,16 +16054,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E38" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -16042,16 +16074,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="C39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="D39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="E39" s="1">
-        <v>4400</v>
+        <v>8800</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -16062,16 +16094,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="C40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E40" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -16082,16 +16114,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="C41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="D41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="E41" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1280" windowWidth="33980" windowHeight="15220" tabRatio="883" activeTab="12"/>
+    <workbookView xWindow="520" yWindow="580" windowWidth="36000" windowHeight="20560" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -538,7 +538,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="716">
+  <cellStyleXfs count="718">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -553,6 +553,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1284,7 +1286,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="716">
+  <cellStyles count="718">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1645,6 +1647,7 @@
     <cellStyle name="超链接" xfId="710" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1998,6 +2001,7 @@
     <cellStyle name="访问过的超链接" xfId="711" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2449,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2494,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>20</v>
@@ -2508,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -2522,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <v>40</v>
@@ -2536,7 +2540,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
         <v>60</v>
@@ -2550,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
         <v>70</v>
@@ -2564,7 +2568,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>130</v>
@@ -2578,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3">
         <v>270</v>
@@ -2592,7 +2596,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <v>610</v>
@@ -2606,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>930</v>
@@ -2620,7 +2624,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
         <v>1300</v>
@@ -2634,7 +2638,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>1650</v>
@@ -2648,7 +2652,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3">
         <v>2190</v>
@@ -2662,7 +2666,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3">
         <v>4460</v>
@@ -2676,7 +2680,7 @@
         <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3">
         <v>6990</v>
@@ -2690,7 +2694,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D17" s="3">
         <v>9680</v>
@@ -2704,7 +2708,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
         <v>14160</v>
@@ -2718,7 +2722,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3">
         <v>17440</v>
@@ -2732,7 +2736,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3">
         <v>21310</v>
@@ -2746,7 +2750,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
         <v>25000</v>
@@ -2760,7 +2764,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22" s="3">
         <v>33980</v>
@@ -2774,7 +2778,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D23" s="3">
         <v>38950</v>
@@ -2788,7 +2792,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="1">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D24" s="3">
         <v>44960</v>
@@ -2802,7 +2806,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3">
         <v>50600</v>
@@ -2816,7 +2820,7 @@
         <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3">
         <v>69130</v>
@@ -2830,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3">
         <v>77180</v>
@@ -2844,7 +2848,7 @@
         <v>19</v>
       </c>
       <c r="C28" s="1">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D28" s="3">
         <v>86830</v>
@@ -2858,7 +2862,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D29" s="3">
         <v>95950</v>
@@ -2872,7 +2876,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3">
         <v>136570</v>
@@ -2886,7 +2890,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3">
         <v>157660</v>
@@ -2900,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3">
         <v>182100</v>
@@ -2914,7 +2918,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D33" s="3">
         <v>206620</v>
@@ -2928,7 +2932,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="1">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3">
         <v>282820</v>
@@ -2942,7 +2946,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3">
         <v>317800</v>
@@ -2956,7 +2960,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D36" s="3">
         <v>357980</v>
@@ -2970,7 +2974,7 @@
         <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D37" s="3">
         <v>398440</v>
@@ -2984,7 +2988,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="1">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D38" s="3">
         <v>535830</v>
@@ -2998,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="1">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D39" s="1">
         <v>592750</v>
@@ -3012,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="C40" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1">
         <v>657150</v>
@@ -3026,7 +3030,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D41" s="1">
         <v>722840</v>
@@ -5709,7 +5713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/BuildingFunction.xlsx
+++ b/datas/shared/BuildingFunction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="580" windowWidth="36000" windowHeight="20560" tabRatio="883"/>
+    <workbookView xWindow="880" yWindow="0" windowWidth="36000" windowHeight="20560" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="keep" sheetId="17" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>FLOAT_efficiency</t>
   </si>
@@ -229,29 +229,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>swordsman</t>
-  </si>
-  <si>
-    <t>STR_unlockedSoldiers</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -268,22 +245,6 @@
   </si>
   <si>
     <t>INT_power</t>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman,sentinel,ranger,crossbowman,lancer,horseArcher,catapult,ballista</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_protection</t>
@@ -538,7 +499,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="718">
+  <cellStyleXfs count="752">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -553,6 +514,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1286,7 +1281,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="718">
+  <cellStyles count="752">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1648,6 +1643,23 @@
     <cellStyle name="超链接" xfId="712" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="714" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="716" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="718" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="732" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="734" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="736" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="738" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="740" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="742" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="744" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="746" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="748" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="750" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2002,6 +2014,23 @@
     <cellStyle name="访问过的超链接" xfId="713" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="715" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="717" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="719" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="733" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="735" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="737" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="739" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="741" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="743" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="745" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="747" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="749" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="751" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2453,7 +2482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -3539,16 +3568,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4128,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:L41"/>
+      <selection activeCell="J2" sqref="J2:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4144,34 +4173,34 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>5</v>
@@ -4200,13 +4229,13 @@
         <v>160</v>
       </c>
       <c r="H2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="I2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="J2" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="K2" s="1">
         <v>320</v>
@@ -4238,13 +4267,13 @@
         <v>320</v>
       </c>
       <c r="H3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="I3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="J3" s="1">
-        <v>15920</v>
+        <v>7960</v>
       </c>
       <c r="K3" s="1">
         <v>640</v>
@@ -4276,13 +4305,13 @@
         <v>480</v>
       </c>
       <c r="H4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="I4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="J4" s="1">
-        <v>31680</v>
+        <v>15840</v>
       </c>
       <c r="K4" s="1">
         <v>960</v>
@@ -4314,13 +4343,13 @@
         <v>640</v>
       </c>
       <c r="H5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="I5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="J5" s="1">
-        <v>47280</v>
+        <v>23640</v>
       </c>
       <c r="K5" s="1">
         <v>1280</v>
@@ -4352,13 +4381,13 @@
         <v>800</v>
       </c>
       <c r="H6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="I6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="J6" s="1">
-        <v>62720</v>
+        <v>31360</v>
       </c>
       <c r="K6" s="1">
         <v>1600</v>
@@ -4390,13 +4419,13 @@
         <v>960</v>
       </c>
       <c r="H7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="I7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="J7" s="1">
-        <v>78000</v>
+        <v>39000</v>
       </c>
       <c r="K7" s="1">
         <v>1920</v>
@@ -4428,13 +4457,13 @@
         <v>1120</v>
       </c>
       <c r="H8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="I8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="J8" s="1">
-        <v>93120</v>
+        <v>46560</v>
       </c>
       <c r="K8" s="1">
         <v>2240</v>
@@ -4466,13 +4495,13 @@
         <v>1280</v>
       </c>
       <c r="H9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="I9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="J9" s="1">
-        <v>115800</v>
+        <v>57900</v>
       </c>
       <c r="K9" s="1">
         <v>2560</v>
@@ -4504,13 +4533,13 @@
         <v>1440</v>
       </c>
       <c r="H10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="I10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="J10" s="1">
-        <v>153600</v>
+        <v>76800</v>
       </c>
       <c r="K10" s="1">
         <v>2880</v>
@@ -4542,13 +4571,13 @@
         <v>1600</v>
       </c>
       <c r="H11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="I11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="J11" s="1">
-        <v>191000</v>
+        <v>95500</v>
       </c>
       <c r="K11" s="1">
         <v>3200</v>
@@ -4580,13 +4609,13 @@
         <v>1760</v>
       </c>
       <c r="H12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="I12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="J12" s="1">
-        <v>228000</v>
+        <v>114000</v>
       </c>
       <c r="K12" s="1">
         <v>3520</v>
@@ -4618,13 +4647,13 @@
         <v>1920</v>
       </c>
       <c r="H13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="I13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="J13" s="1">
-        <v>264600</v>
+        <v>132300</v>
       </c>
       <c r="K13" s="1">
         <v>3840</v>
@@ -4656,13 +4685,13 @@
         <v>2080</v>
       </c>
       <c r="H14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="I14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="J14" s="1">
-        <v>300800</v>
+        <v>150400</v>
       </c>
       <c r="K14" s="1">
         <v>4160</v>
@@ -4694,13 +4723,13 @@
         <v>2240</v>
       </c>
       <c r="H15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="I15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="J15" s="1">
-        <v>336600</v>
+        <v>168300</v>
       </c>
       <c r="K15" s="1">
         <v>4480</v>
@@ -4732,13 +4761,13 @@
         <v>2400</v>
       </c>
       <c r="H16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="I16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="J16" s="1">
-        <v>372000</v>
+        <v>186000</v>
       </c>
       <c r="K16" s="1">
         <v>4800</v>
@@ -4770,13 +4799,13 @@
         <v>2560</v>
       </c>
       <c r="H17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="I17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="J17" s="1">
-        <v>407000</v>
+        <v>203500</v>
       </c>
       <c r="K17" s="1">
         <v>5120</v>
@@ -4808,13 +4837,13 @@
         <v>2880</v>
       </c>
       <c r="H18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="I18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="J18" s="1">
-        <v>441600</v>
+        <v>220800</v>
       </c>
       <c r="K18" s="1">
         <v>5760</v>
@@ -4846,13 +4875,13 @@
         <v>3200</v>
       </c>
       <c r="H19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="I19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="J19" s="1">
-        <v>475800</v>
+        <v>237900</v>
       </c>
       <c r="K19" s="1">
         <v>6400</v>
@@ -4884,13 +4913,13 @@
         <v>3520</v>
       </c>
       <c r="H20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="I20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="J20" s="1">
-        <v>509600</v>
+        <v>254800</v>
       </c>
       <c r="K20" s="1">
         <v>7040</v>
@@ -4922,13 +4951,13 @@
         <v>3840</v>
       </c>
       <c r="H21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="I21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="J21" s="1">
-        <v>543000</v>
+        <v>271500</v>
       </c>
       <c r="K21" s="1">
         <v>7680</v>
@@ -4960,13 +4989,13 @@
         <v>4160</v>
       </c>
       <c r="H22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="I22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="J22" s="1">
-        <v>576000</v>
+        <v>288000</v>
       </c>
       <c r="K22" s="1">
         <v>8320</v>
@@ -4998,13 +5027,13 @@
         <v>4480</v>
       </c>
       <c r="H23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="I23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="J23" s="1">
-        <v>608600</v>
+        <v>304300</v>
       </c>
       <c r="K23" s="1">
         <v>8960</v>
@@ -5036,13 +5065,13 @@
         <v>4800</v>
       </c>
       <c r="H24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="I24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="J24" s="1">
-        <v>640800</v>
+        <v>320400</v>
       </c>
       <c r="K24" s="1">
         <v>9600</v>
@@ -5074,13 +5103,13 @@
         <v>5120</v>
       </c>
       <c r="H25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="I25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="J25" s="1">
-        <v>672600</v>
+        <v>336300</v>
       </c>
       <c r="K25" s="1">
         <v>10240</v>
@@ -5112,13 +5141,13 @@
         <v>5440</v>
       </c>
       <c r="H26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="I26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="J26" s="1">
-        <v>704000</v>
+        <v>352000</v>
       </c>
       <c r="K26" s="1">
         <v>10880</v>
@@ -5150,13 +5179,13 @@
         <v>5760</v>
       </c>
       <c r="H27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="I27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="J27" s="1">
-        <v>770000</v>
+        <v>385000</v>
       </c>
       <c r="K27" s="1">
         <v>11520</v>
@@ -5188,13 +5217,13 @@
         <v>6080</v>
       </c>
       <c r="H28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="I28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="J28" s="1">
-        <v>835200</v>
+        <v>417600</v>
       </c>
       <c r="K28" s="1">
         <v>12160</v>
@@ -5226,13 +5255,13 @@
         <v>6400</v>
       </c>
       <c r="H29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="I29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="J29" s="1">
-        <v>899600</v>
+        <v>449800</v>
       </c>
       <c r="K29" s="1">
         <v>12800</v>
@@ -5264,13 +5293,13 @@
         <v>7200</v>
       </c>
       <c r="H30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="I30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="J30" s="1">
-        <v>963200</v>
+        <v>481600</v>
       </c>
       <c r="K30" s="1">
         <v>14400</v>
@@ -5302,13 +5331,13 @@
         <v>8000</v>
       </c>
       <c r="H31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="I31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="J31" s="1">
-        <v>1026000</v>
+        <v>513000</v>
       </c>
       <c r="K31" s="1">
         <v>16000</v>
@@ -5340,13 +5369,13 @@
         <v>8800</v>
       </c>
       <c r="H32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="I32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="J32" s="1">
-        <v>1088000</v>
+        <v>544000</v>
       </c>
       <c r="K32" s="1">
         <v>17600</v>
@@ -5378,13 +5407,13 @@
         <v>9600</v>
       </c>
       <c r="H33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="I33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="J33" s="1">
-        <v>1149200</v>
+        <v>574600</v>
       </c>
       <c r="K33" s="1">
         <v>19200</v>
@@ -5416,13 +5445,13 @@
         <v>10400</v>
       </c>
       <c r="H34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="I34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="J34" s="1">
-        <v>1209600</v>
+        <v>604800</v>
       </c>
       <c r="K34" s="1">
         <v>20800</v>
@@ -5454,13 +5483,13 @@
         <v>11200</v>
       </c>
       <c r="H35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="I35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="J35" s="1">
-        <v>1269200</v>
+        <v>634600</v>
       </c>
       <c r="K35" s="1">
         <v>22400</v>
@@ -5492,13 +5521,13 @@
         <v>12000</v>
       </c>
       <c r="H36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="I36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="J36" s="1">
-        <v>1328000</v>
+        <v>664000</v>
       </c>
       <c r="K36" s="1">
         <v>24000</v>
@@ -5530,13 +5559,13 @@
         <v>12800</v>
       </c>
       <c r="H37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="I37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="J37" s="1">
-        <v>1386000</v>
+        <v>693000</v>
       </c>
       <c r="K37" s="1">
         <v>25600</v>
@@ -5568,13 +5597,13 @@
         <v>13600</v>
       </c>
       <c r="H38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="I38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="J38" s="1">
-        <v>1443200</v>
+        <v>721600</v>
       </c>
       <c r="K38" s="1">
         <v>27200</v>
@@ -5606,13 +5635,13 @@
         <v>14400</v>
       </c>
       <c r="H39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="I39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="J39" s="1">
-        <v>1499600</v>
+        <v>749800</v>
       </c>
       <c r="K39" s="1">
         <v>28800</v>
@@ -5644,13 +5673,13 @@
         <v>15200</v>
       </c>
       <c r="H40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="I40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="J40" s="1">
-        <v>1555200</v>
+        <v>777600</v>
       </c>
       <c r="K40" s="1">
         <v>30400</v>
@@ -5682,13 +5711,13 @@
         <v>16000</v>
       </c>
       <c r="H41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="I41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="J41" s="1">
-        <v>1600000</v>
+        <v>800000</v>
       </c>
       <c r="K41" s="1">
         <v>32000</v>
@@ -5696,6 +5725,30 @@
       <c r="L41" s="1">
         <v>404820</v>
       </c>
+    </row>
+    <row r="90" spans="6:6" ht="20" customHeight="1">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6" ht="20" customHeight="1">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6" ht="20" customHeight="1">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="6:6" ht="20" customHeight="1">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="6:6" ht="20" customHeight="1">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="6:6" ht="20" customHeight="1">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="6:6" ht="20" customHeight="1">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="6:6" ht="20" customHeight="1">
+      <c r="F97" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -6435,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B44"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6446,16 +6499,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -6465,8 +6518,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
@@ -6479,8 +6532,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>45</v>
@@ -6493,8 +6546,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>50</v>
@@ -6507,8 +6560,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -6521,8 +6574,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -6535,8 +6588,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -6549,8 +6602,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -6563,8 +6616,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>160</v>
@@ -6577,8 +6630,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>310</v>
@@ -6591,8 +6644,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>450</v>
@@ -6605,8 +6658,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>610</v>
@@ -6619,8 +6672,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>770</v>
@@ -6633,8 +6686,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>1010</v>
@@ -6647,8 +6700,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>2010</v>
@@ -6661,8 +6714,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>3120</v>
@@ -6675,8 +6728,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4300</v>
@@ -6689,8 +6742,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>6270</v>
@@ -6703,8 +6756,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>7720</v>
@@ -6717,8 +6770,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>9420</v>
@@ -6731,8 +6784,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>11040</v>
@@ -6745,8 +6798,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>14990</v>
@@ -6759,8 +6812,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>17180</v>
@@ -6773,8 +6826,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>19830</v>
@@ -6787,8 +6840,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>22310</v>
@@ -6801,8 +6854,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>30460</v>
@@ -6815,8 +6868,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>34000</v>
@@ -6829,8 +6882,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>38250</v>
@@ -6843,8 +6896,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>42260</v>
@@ -6857,8 +6910,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>60130</v>
@@ -6871,8 +6924,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>69410</v>
@@ -6885,8 +6938,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>80170</v>
@@ -6899,8 +6952,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>90950</v>
@@ -6913,8 +6966,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>124480</v>
@@ -6927,8 +6980,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>139870</v>
@@ -6941,8 +6994,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>157550</v>
@@ -6955,8 +7008,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>175350</v>
@@ -6969,8 +7022,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>235810</v>
@@ -6983,8 +7036,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>260850</v>
@@ -6997,8 +7050,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="1">
         <v>289190</v>
@@ -7011,8 +7064,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>318090</v>
@@ -7034,8 +7087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7045,16 +7098,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7065,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="6">
         <v>40</v>
@@ -7079,7 +7132,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D3" s="6">
         <v>45</v>
@@ -7093,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="6">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="6">
         <v>50</v>
@@ -7107,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="6">
         <v>60</v>
@@ -7121,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="6">
         <v>70</v>
@@ -7135,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="6">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="6">
         <v>80</v>
@@ -7149,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="6">
         <v>100</v>
@@ -7163,7 +7216,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="D9" s="6">
         <v>170</v>
@@ -7177,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="6">
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="6">
         <v>320</v>
@@ -7191,7 +7244,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D11" s="6">
         <v>470</v>
@@ -7205,7 +7258,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="6">
-        <v>0.11</v>
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="6">
         <v>640</v>
@@ -7219,7 +7272,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="6">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="D13" s="6">
         <v>800</v>
@@ -7233,7 +7286,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="6">
-        <v>0.13</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="6">
         <v>1050</v>
@@ -7247,7 +7300,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6">
-        <v>0.14000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="6">
         <v>2100</v>
@@ -7261,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="6">
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="6">
         <v>3260</v>
@@ -7275,7 +7328,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="6">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="D17" s="6">
         <v>4500</v>
@@ -7289,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="6">
-        <v>0.17</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="6">
         <v>6560</v>
@@ -7303,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="6">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="D19" s="6">
         <v>8070</v>
@@ -7317,7 +7370,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="6">
-        <v>0.19</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="6">
         <v>9850</v>
@@ -7331,7 +7384,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D21" s="6">
         <v>11540</v>
@@ -7345,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="6">
-        <v>0.21</v>
+        <v>0.105</v>
       </c>
       <c r="D22" s="6">
         <v>15670</v>
@@ -7359,7 +7412,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="6">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="D23" s="6">
         <v>17960</v>
@@ -7373,7 +7426,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="6">
-        <v>0.23</v>
+        <v>0.115</v>
       </c>
       <c r="D24" s="6">
         <v>20720</v>
@@ -7387,7 +7440,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="6">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="D25" s="6">
         <v>23320</v>
@@ -7401,7 +7454,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="6">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="D26" s="6">
         <v>31840</v>
@@ -7415,7 +7468,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="6">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="D27" s="6">
         <v>35540</v>
@@ -7429,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="6">
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="6">
         <v>39980</v>
@@ -7443,7 +7496,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="6">
         <v>44180</v>
@@ -7457,7 +7510,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="6">
         <v>62870</v>
@@ -7471,7 +7524,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="6">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="D31" s="6">
         <v>72570</v>
@@ -7485,7 +7538,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="6">
-        <v>0.31</v>
+        <v>0.155</v>
       </c>
       <c r="D32" s="6">
         <v>83810</v>
@@ -7499,7 +7552,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="6">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="D33" s="6">
         <v>95090</v>
@@ -7513,7 +7566,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="6">
-        <v>0.33</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="6">
         <v>130140</v>
@@ -7527,7 +7580,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="6">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="D35" s="6">
         <v>146230</v>
@@ -7541,7 +7594,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="6">
-        <v>0.35</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="6">
         <v>164710</v>
@@ -7555,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="C37" s="6">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="D37" s="6">
         <v>183320</v>
@@ -7569,7 +7622,7 @@
         <v>6</v>
       </c>
       <c r="C38" s="6">
-        <v>0.37</v>
+        <v>0.185</v>
       </c>
       <c r="D38" s="6">
         <v>246520</v>
@@ -7583,7 +7636,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="6">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
       <c r="D39" s="6">
         <v>272710</v>
@@ -7597,7 +7650,7 @@
         <v>6</v>
       </c>
       <c r="C40" s="6">
-        <v>0.39</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="6">
         <v>302330</v>
@@ -7611,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="C41" s="6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>332550</v>
@@ -7633,8 +7686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -7644,16 +7697,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -7663,8 +7716,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>45</v>
@@ -7677,8 +7730,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>50</v>
@@ -7691,8 +7744,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>55</v>
@@ -7705,8 +7758,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -7719,8 +7772,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -7733,8 +7786,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -7747,8 +7800,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -7761,8 +7814,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>170</v>
@@ -7775,8 +7828,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>330</v>
@@ -7789,8 +7842,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>490</v>
@@ -7803,8 +7856,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>660</v>
@@ -7817,8 +7870,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>830</v>
@@ -7831,8 +7884,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>1090</v>
@@ -7845,8 +7898,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>2190</v>
@@ -7859,8 +7912,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>3400</v>
@@ -7873,8 +7926,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4690</v>
@@ -7887,8 +7940,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>6840</v>
@@ -7901,8 +7954,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>8410</v>
@@ -7915,8 +7968,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>10270</v>
@@ -7929,8 +7982,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>12040</v>
@@ -7943,8 +7996,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>16350</v>
@@ -7957,8 +8010,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>18740</v>
@@ -7971,8 +8024,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>21620</v>
@@ -7985,8 +8038,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>24330</v>
@@ -7999,8 +8052,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>33230</v>
@@ -8013,8 +8066,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>37090</v>
@@ -8027,8 +8080,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>41720</v>
@@ -8041,8 +8094,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>46100</v>
@@ -8055,8 +8108,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>65600</v>
@@ -8069,8 +8122,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>75720</v>
@@ -8083,8 +8136,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>87450</v>
@@ -8097,8 +8150,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>99220</v>
@@ -8111,8 +8164,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>135800</v>
@@ -8125,8 +8178,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>152590</v>
@@ -8139,8 +8192,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>171870</v>
@@ -8153,8 +8206,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>191290</v>
@@ -8167,8 +8220,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>257240</v>
@@ -8181,8 +8234,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>284560</v>
@@ -8195,8 +8248,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="3">
         <v>315470</v>
@@ -8209,8 +8262,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="3">
         <v>347000</v>
@@ -8235,8 +8288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -8246,16 +8299,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -8265,8 +8318,8 @@
       <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.01</v>
+      <c r="C2" s="6">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D2" s="3">
         <v>40</v>
@@ -8279,8 +8332,8 @@
       <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.02</v>
+      <c r="C3" s="6">
+        <v>0.01</v>
       </c>
       <c r="D3" s="3">
         <v>45</v>
@@ -8293,8 +8346,8 @@
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.03</v>
+      <c r="C4" s="6">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D4" s="3">
         <v>50</v>
@@ -8307,8 +8360,8 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.04</v>
+      <c r="C5" s="6">
+        <v>0.02</v>
       </c>
       <c r="D5" s="3">
         <v>60</v>
@@ -8321,8 +8374,8 @@
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.05</v>
+      <c r="C6" s="6">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D6" s="3">
         <v>70</v>
@@ -8335,8 +8388,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.06</v>
+      <c r="C7" s="6">
+        <v>0.03</v>
       </c>
       <c r="D7" s="3">
         <v>80</v>
@@ -8349,8 +8402,8 @@
       <c r="B8" s="6">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
-        <v>7.0000000000000007E-2</v>
+      <c r="C8" s="6">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="3">
         <v>100</v>
@@ -8363,8 +8416,8 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.08</v>
+      <c r="C9" s="6">
+        <v>0.04</v>
       </c>
       <c r="D9" s="3">
         <v>160</v>
@@ -8377,8 +8430,8 @@
       <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.09</v>
+      <c r="C10" s="6">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D10" s="3">
         <v>300</v>
@@ -8391,8 +8444,8 @@
       <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
+      <c r="C11" s="6">
+        <v>0.05</v>
       </c>
       <c r="D11" s="3">
         <v>430</v>
@@ -8405,8 +8458,8 @@
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.11</v>
+      <c r="C12" s="6">
+        <v>5.5E-2</v>
       </c>
       <c r="D12" s="3">
         <v>590</v>
@@ -8419,8 +8472,8 @@
       <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
+      <c r="C13" s="6">
+        <v>0.06</v>
       </c>
       <c r="D13" s="3">
         <v>740</v>
@@ -8433,8 +8486,8 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.13</v>
+      <c r="C14" s="6">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D14" s="3">
         <v>960</v>
@@ -8447,8 +8500,8 @@
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.14000000000000001</v>
+      <c r="C15" s="6">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D15" s="3">
         <v>1920</v>
@@ -8461,8 +8514,8 @@
       <c r="B16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.15</v>
+      <c r="C16" s="6">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D16" s="3">
         <v>2980</v>
@@ -8475,8 +8528,8 @@
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.16</v>
+      <c r="C17" s="6">
+        <v>0.08</v>
       </c>
       <c r="D17" s="3">
         <v>4110</v>
@@ -8489,8 +8542,8 @@
       <c r="B18" s="6">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.17</v>
+      <c r="C18" s="6">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D18" s="3">
         <v>5990</v>
@@ -8503,8 +8556,8 @@
       <c r="B19" s="6">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.18</v>
+      <c r="C19" s="6">
+        <v>0.09</v>
       </c>
       <c r="D19" s="3">
         <v>7370</v>
@@ -8517,8 +8570,8 @@
       <c r="B20" s="6">
         <v>3</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.19</v>
+      <c r="C20" s="6">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D20" s="3">
         <v>8990</v>
@@ -8531,8 +8584,8 @@
       <c r="B21" s="6">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.2</v>
+      <c r="C21" s="6">
+        <v>0.1</v>
       </c>
       <c r="D21" s="3">
         <v>10540</v>
@@ -8545,8 +8598,8 @@
       <c r="B22" s="6">
         <v>3</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.21</v>
+      <c r="C22" s="6">
+        <v>0.105</v>
       </c>
       <c r="D22" s="3">
         <v>14310</v>
@@ -8559,8 +8612,8 @@
       <c r="B23" s="6">
         <v>4</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.22</v>
+      <c r="C23" s="6">
+        <v>0.11</v>
       </c>
       <c r="D23" s="3">
         <v>16400</v>
@@ -8573,8 +8626,8 @@
       <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.23</v>
+      <c r="C24" s="6">
+        <v>0.115</v>
       </c>
       <c r="D24" s="3">
         <v>18930</v>
@@ -8587,8 +8640,8 @@
       <c r="B25" s="6">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.24</v>
+      <c r="C25" s="6">
+        <v>0.12</v>
       </c>
       <c r="D25" s="3">
         <v>21300</v>
@@ -8601,8 +8654,8 @@
       <c r="B26" s="6">
         <v>4</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.25</v>
+      <c r="C26" s="6">
+        <v>0.125</v>
       </c>
       <c r="D26" s="3">
         <v>29080</v>
@@ -8615,8 +8668,8 @@
       <c r="B27" s="6">
         <v>4</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.26</v>
+      <c r="C27" s="6">
+        <v>0.13</v>
       </c>
       <c r="D27" s="3">
         <v>32460</v>
@@ -8629,8 +8682,8 @@
       <c r="B28" s="6">
         <v>4</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.27</v>
+      <c r="C28" s="6">
+        <v>0.13500000000000001</v>
       </c>
       <c r="D28" s="3">
         <v>36510</v>
@@ -8643,8 +8696,8 @@
       <c r="B29" s="6">
         <v>4</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.28000000000000003</v>
+      <c r="C29" s="6">
+        <v>0.14000000000000001</v>
       </c>
       <c r="D29" s="3">
         <v>40340</v>
@@ -8657,8 +8710,8 @@
       <c r="B30" s="6">
         <v>5</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.28999999999999998</v>
+      <c r="C30" s="6">
+        <v>0.14499999999999999</v>
       </c>
       <c r="D30" s="3">
         <v>57400</v>
@@ -8671,8 +8724,8 @@
       <c r="B31" s="6">
         <v>5</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.3</v>
+      <c r="C31" s="6">
+        <v>0.15</v>
       </c>
       <c r="D31" s="3">
         <v>66260</v>
@@ -8685,8 +8738,8 @@
       <c r="B32" s="6">
         <v>5</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.31</v>
+      <c r="C32" s="6">
+        <v>0.155</v>
       </c>
       <c r="D32" s="3">
         <v>76530</v>
@@ -8699,8 +8752,8 @@
       <c r="B33" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.32</v>
+      <c r="C33" s="6">
+        <v>0.16</v>
       </c>
       <c r="D33" s="3">
         <v>86820</v>
@@ -8713,8 +8766,8 @@
       <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
-        <v>0.33</v>
+      <c r="C34" s="6">
+        <v>0.16500000000000001</v>
       </c>
       <c r="D34" s="3">
         <v>118830</v>
@@ -8727,8 +8780,8 @@
       <c r="B35" s="6">
         <v>5</v>
       </c>
-      <c r="C35" s="3">
-        <v>0.34</v>
+      <c r="C35" s="6">
+        <v>0.17</v>
       </c>
       <c r="D35" s="3">
         <v>133520</v>
@@ -8741,8 +8794,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="3">
-        <v>0.35</v>
+      <c r="C36" s="6">
+        <v>0.17499999999999999</v>
       </c>
       <c r="D36" s="3">
         <v>150390</v>
@@ -8755,8 +8808,8 @@
       <c r="B37" s="6">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
-        <v>0.36</v>
+      <c r="C37" s="6">
+        <v>0.18</v>
       </c>
       <c r="D37" s="3">
         <v>167390</v>
@@ -8769,8 +8822,8 @@
       <c r="B38" s="6">
         <v>6</v>
       </c>
-      <c r="C38" s="3">
-        <v>0.37</v>
+      <c r="C38" s="6">
+        <v>0.185</v>
       </c>
       <c r="D38" s="3">
         <v>225090</v>
@@ -8783,8 +8836,8 @@
       <c r="B39" s="6">
         <v>6</v>
       </c>
-      <c r="C39" s="3">
-        <v>0.38</v>
+      <c r="C39" s="6">
+        <v>0.19</v>
       </c>
       <c r="D39" s="3">
         <v>249000</v>
@@ -8797,8 +8850,8 @@
       <c r="B40" s="6">
         <v>6</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.39</v>
+      <c r="C40" s="6">
+        <v>0.19500000000000001</v>
       </c>
       <c r="D40" s="1">
         <v>276040</v>
@@ -8811,8 +8864,8 @@
       <c r="B41" s="6">
         <v>6</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.4</v>
+      <c r="C41" s="6">
+        <v>0.2</v>
       </c>
       <c r="D41" s="1">
         <v>303630</v>
@@ -9805,7 +9858,7 @@
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -13749,20 +13802,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" style="1"/>
-    <col min="3" max="3" width="29.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -13770,569 +13821,446 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>150</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>250</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="C8" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>300</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="C9" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>350</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="C10" s="3">
         <v>440</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>400</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3">
+        <v>600</v>
+      </c>
+      <c r="C11" s="3">
         <v>650</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>450</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="C12" s="3">
         <v>890</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>500</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3">
+        <v>800</v>
+      </c>
+      <c r="C13" s="3">
         <v>1120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>550</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="C14" s="3">
         <v>1470</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>600</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="3">
         <v>2940</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>650</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3">
+        <v>1100</v>
+      </c>
+      <c r="C16" s="3">
         <v>4580</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>700</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="C17" s="3">
         <v>6340</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>750</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="C18" s="3">
         <v>9250</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>800</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3">
+        <v>1400</v>
+      </c>
+      <c r="C19" s="3">
         <v>11380</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>850</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="3">
         <v>13900</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>900</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="3">
+        <v>1600</v>
+      </c>
+      <c r="C21" s="3">
         <v>16300</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>950</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="C22" s="3">
         <v>22130</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="C23" s="3">
         <v>25360</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1100</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C24" s="3">
         <v>29270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1200</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="3">
         <v>32940</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1300</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C26" s="3">
         <v>44980</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>1400</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="C27" s="3">
         <v>50210</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>1500</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="3">
+        <v>2600</v>
+      </c>
+      <c r="C28" s="3">
         <v>56480</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3">
+        <v>2800</v>
+      </c>
+      <c r="C29" s="3">
         <v>62410</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>1700</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C30" s="3">
         <v>88820</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>1800</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C31" s="3">
         <v>102520</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>1900</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="C32" s="3">
         <v>118410</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="C33" s="3">
         <v>134340</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>2100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="3">
+        <v>3800</v>
+      </c>
+      <c r="C34" s="3">
         <v>183880</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>2200</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C35" s="3">
         <v>206610</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>2300</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3">
+        <v>4250</v>
+      </c>
+      <c r="C36" s="3">
         <v>232730</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>2400</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="3">
+        <v>4500</v>
+      </c>
+      <c r="C37" s="3">
         <v>259030</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>2500</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="3">
+        <v>4750</v>
+      </c>
+      <c r="C38" s="3">
         <v>348330</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>2600</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C39" s="3">
         <v>385330</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>2800</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="1">
+        <v>5500</v>
+      </c>
+      <c r="C40" s="1">
         <v>427190</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>3000</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="1">
+        <v>6000</v>
+      </c>
+      <c r="C41" s="1">
         <v>469890</v>
       </c>
     </row>
@@ -15305,7 +15233,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:F41"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -15318,19 +15246,19 @@
         <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1">
@@ -15338,16 +15266,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3">
         <v>15</v>
@@ -15358,16 +15286,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="E3" s="1">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="F3" s="3">
         <v>20</v>
@@ -15378,16 +15306,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="E4" s="1">
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="F4" s="3">
         <v>25</v>
@@ -15398,16 +15326,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="D5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E5" s="1">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="F5" s="3">
         <v>30</v>
@@ -15418,16 +15346,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="C6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="D6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="E6" s="1">
-        <v>320</v>
+        <v>640</v>
       </c>
       <c r="F6" s="3">
         <v>40</v>
@@ -15438,16 +15366,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="C7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E7" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
@@ -15458,16 +15386,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="C8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="E8" s="1">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="F8" s="3">
         <v>80</v>
@@ -15478,16 +15406,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="C9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="D9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="E9" s="1">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="F9" s="3">
         <v>160</v>
@@ -15498,16 +15426,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="C10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="D10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="E10" s="1">
-        <v>640</v>
+        <v>1280</v>
       </c>
       <c r="F10" s="3">
         <v>350</v>
@@ -15518,16 +15446,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="C11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="D11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="E11" s="1">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="F11" s="3">
         <v>520</v>
@@ -15538,16 +15466,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="D12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="E12" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="F12" s="3">
         <v>730</v>
@@ -15558,16 +15486,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="C13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="D13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="E13" s="1">
-        <v>880</v>
+        <v>1760</v>
       </c>
       <c r="F13" s="3">
         <v>920</v>
@@ -15578,16 +15506,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="C14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="D14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="E14" s="1">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="F14" s="3">
         <v>1220</v>
@@ -15598,16 +15526,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="C15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="D15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="E15" s="1">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="F15" s="3">
         <v>2470</v>
@@ -15618,16 +15546,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="C16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="D16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="E16" s="1">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="F16" s="3">
         <v>3860</v>
@@ -15638,16 +15566,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="C17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="E17" s="1">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="F17" s="3">
         <v>5340</v>
@@ -15658,16 +15586,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="C18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="D18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="E18" s="1">
-        <v>1280</v>
+        <v>2560</v>
       </c>
       <c r="F18" s="3">
         <v>7800</v>
@@ -15678,16 +15606,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="C19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="D19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="E19" s="1">
-        <v>1360</v>
+        <v>2720</v>
       </c>
       <c r="F19" s="3">
         <v>9610</v>
@@ -15698,16 +15626,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="C20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="D20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="E20" s="1">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="F20" s="3">
         <v>11730</v>
@@ -15718,16 +15646,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="C21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="D21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="E21" s="1">
-        <v>1520</v>
+        <v>3040</v>
       </c>
       <c r="F21" s="3">
         <v>13770</v>
@@ -15738,16 +15666,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="C22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="D22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="E22" s="1">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="F22" s="3">
         <v>18700</v>
@@ -15758,16 +15686,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="C23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="D23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="E23" s="1">
-        <v>1680</v>
+        <v>3360</v>
       </c>
       <c r="F23" s="3">
         <v>21440</v>
@@ -15778,16 +15706,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="C24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="D24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="E24" s="1">
-        <v>1760</v>
+        <v>3520</v>
       </c>
       <c r="F24" s="3">
         <v>24740</v>
@@ -15798,16 +15726,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="C25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="D25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="E25" s="1">
-        <v>1840</v>
+        <v>3680</v>
       </c>
       <c r="F25" s="3">
         <v>27850</v>
@@ -15818,16 +15746,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="C26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="D26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="E26" s="1">
-        <v>1920</v>
+        <v>3840</v>
       </c>
       <c r="F26" s="3">
         <v>38030</v>
@@ -15838,16 +15766,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="C27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="D27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="E27" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F27" s="3">
         <v>42460</v>
@@ -15858,16 +15786,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="C28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="D28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="E28" s="1">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="F28" s="3">
         <v>47770</v>
@@ -15878,16 +15806,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="C29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="D29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="E29" s="1">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="F29" s="3">
         <v>52780</v>
@@ -15898,16 +15826,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="C30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="D30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="E30" s="1">
-        <v>2800</v>
+        <v>5600</v>
       </c>
       <c r="F30" s="3">
         <v>75130</v>
@@ -15918,16 +15846,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="C31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="D31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="E31" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="F31" s="3">
         <v>86730</v>
@@ -15938,16 +15866,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="C32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="D32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="E32" s="1">
-        <v>3600</v>
+        <v>7200</v>
       </c>
       <c r="F32" s="3">
         <v>100170</v>
@@ -15958,16 +15886,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="D33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="E33" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="F33" s="3">
         <v>113650</v>
@@ -15978,16 +15906,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="C34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="D34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="E34" s="1">
-        <v>4800</v>
+        <v>9600</v>
       </c>
       <c r="F34" s="3">
         <v>155560</v>
@@ -15998,16 +15926,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="C35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="D35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="E35" s="1">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="F35" s="3">
         <v>174800</v>
@@ -16018,16 +15946,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="C36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="D36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="E36" s="1">
-        <v>6400</v>
+        <v>12800</v>
       </c>
       <c r="F36" s="3">
         <v>196900</v>
@@ -16038,16 +15966,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="C37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="D37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="E37" s="1">
-        <v>7200</v>
+        <v>14400</v>
       </c>
       <c r="F37" s="3">
         <v>219150</v>
@@ -16058,16 +15986,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="C38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="D38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="E38" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="F38" s="3">
         <v>294720</v>
@@ -16078,16 +16006,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="C39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="D39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="E39" s="1">
-        <v>8800</v>
+        <v>17600</v>
       </c>
       <c r="F39" s="3">
         <v>326020</v>
@@ -16098,16 +16026,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="C40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E40" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="F40" s="1">
         <v>361440</v>
@@ -16118,16 +16046,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="C41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="D41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="E41" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="F41" s="1">
         <v>397570</v>
